--- a/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
+++ b/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{20A0E9DF-2E50-42C1-B8E9-E24313F99CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{31850C50-F8F5-4D16-938E-96749FE7CF37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Month index</t>
   </si>
@@ -34,10 +34,10 @@
     <t xml:space="preserve"> days in month</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</t>
+    <t xml:space="preserve"> Stream temp in Blue R below Tidbits Cr degC</t>
   </si>
   <si>
-    <t xml:space="preserve"> Air temp at Blue R below Tidbits Cr deg C</t>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</t>
   </si>
   <si>
     <t>slope</t>
@@ -64,13 +64,16 @@
     <t>(Tw-Tw_bar)^2</t>
   </si>
   <si>
-    <t>USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</t>
+    <t>Air temp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,7 +551,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -559,6 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -744,8 +748,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.36784448818897636"/>
-                  <c:y val="-4.4550112264458951E-2"/>
+                  <c:x val="6.8849884984744009E-2"/>
+                  <c:y val="-0.135889223158217"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -780,10 +784,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$M$2:$M$13</c:f>
+              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$M$2:$M$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>5.4081640000000002</c:v>
                 </c:pt>
@@ -819,16 +823,304 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.4019499999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3759589999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.52826</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5627389999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2975960000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6846929999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.123099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.661546999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.271287999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.680137999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7974840000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7392210000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6121889999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4384779999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0601600000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8702640000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8227089999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.169774</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.289781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.110579000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.469473000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.860990999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.653655000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.306775</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1495070000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9300820000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8228629999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0453840000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.2754490000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.067036</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.583968</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.436298000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.551936999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.881489999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.6321519999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.9176719999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4944649999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.2784599999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3273239999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6401329999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.2276089999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.799035999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.446667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20.307746999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.433971</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.734763999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.174726</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7253340000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.5620200000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.7335599999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.7133909999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.7081999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.7016439999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.968078</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.020562999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.593124</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.454643000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.483782</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.463450999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.356236</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8369939999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.8557610000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.4834120000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.2483250000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.784613999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.213153</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.936356999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.003278999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.387356</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.909335</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1835649999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.7611720000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.39364500000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-10.344035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.1227</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.5587610000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.0563940000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.013603</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18.620273999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.936851999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20.501259000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.604751</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.2975659999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.246724</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-4.8293850000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5795919999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5498029999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.5082599999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.0376259999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14.467637</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15.423711000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20.496765</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19.262259</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14.452723000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.042744000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.3645849999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.6972330000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$N$2:$N$13</c:f>
+              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$N$2:$N$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>5.995069</c:v>
                 </c:pt>
@@ -864,6 +1156,294 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.272043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6519149999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.530357</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.778022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.180104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3966960000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9151740000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.210819000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.696068</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.140558</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.113104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8270860000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.21502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3466950000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3152239999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1118129999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5996569999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.8391130000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6897059999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.292591</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.783275</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.040979999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.8601080000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1383010000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9432869999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7774809999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4470419999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.2057549999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.2931949999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0125589999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.620977999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.109044999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.403063</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.773477</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.6693629999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3303070000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3336269999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.5585680000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.6808779999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.966812</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9964919999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.3046369999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.878055</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.008330999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.785382999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.869374000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.811021</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.4374570000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9163920000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9007389999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5825889999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.894501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.3208640000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.762707000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.518577000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.680610999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.090021</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.509548000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.196471000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.740685</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9052759999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.9835349999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.8835810000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.9938599999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.9413900000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.368010999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.459146</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.561928</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.301983</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.822082999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.9084380000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2723960000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.093515</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.808535</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.1422619999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3439209999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.1178819999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.1831309999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.747901000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.931585</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.562736999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.422396000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.4957209999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.7252989999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.4009349999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.1181070000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.2502230000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8250279999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.2287509999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.341208999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12.749307</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.671403999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.85783</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.116732000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.4111759999999993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.3036919999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.5905180000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1306,10 +1886,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$P$2:$P$13</c:f>
+              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$P$2:$P$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
                   <c:v>5.995069</c:v>
                 </c:pt>
@@ -1345,6 +1925,294 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.272043</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6519149999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.530357</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.778022</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.180104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3966960000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9151740000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.210819000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.696068</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.140558</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.113104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.8270860000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.21502</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.3466950000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.3152239999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.1118129999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5996569999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.8391130000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6897059999999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.292591</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.783275</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.040979999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.8601080000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1383010000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.9432869999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.7774809999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4470419999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.2057549999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.2931949999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0125589999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.620977999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.109044999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.403063</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.773477</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.6693629999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3303070000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3336269999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.5585680000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.6808779999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.966812</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.9964919999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.3046369999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.878055</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.008330999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.785382999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.869374000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.811021</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.4374570000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9163920000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.9007389999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5825889999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.894501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.3208640000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.762707000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.518577000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.680610999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.090021</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.509548000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.196471000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.740685</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9052759999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.9835349999999998</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.8835810000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.9938599999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.9413900000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>10.368010999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.459146</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.561928</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>16.301983</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.822082999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.9084380000000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.2723960000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.093515</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.808535</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.1422619999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3439209999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.1178819999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.1831309999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>11.747901000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>15.931585</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16.562736999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.422396000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.4957209999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.7252989999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.4009349999999996</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.1181070000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.2502230000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8250279999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.2287509999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10.341208999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12.749307</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>16.671403999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16.85783</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>12.116732000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.4111759999999993</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.3036919999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.5905180000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,45 +2252,333 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$Q$2:$Q$13</c:f>
+              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$Q$2:$Q$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>6.2430188423999997</c:v>
+                  <c:v>6.4630024712000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1162742502</c:v>
+                  <c:v>6.3481757125999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9630468617999997</c:v>
+                  <c:v>6.2093563433999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6725655679999996</c:v>
+                  <c:v>6.8521587840000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1747434550000015</c:v>
+                  <c:v>8.2130864149999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.018102941599999</c:v>
+                  <c:v>10.7890839208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.758006304799999</c:v>
+                  <c:v>14.1773230024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.521926178799999</c:v>
+                  <c:v>13.9634415644</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.0252315832</c:v>
+                  <c:v>11.7015119416</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1016387355999999</c:v>
+                  <c:v>9.0528254427999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.238662175</c:v>
+                  <c:v>5.5530857749999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.29920087</c:v>
+                  <c:v>4.7019623099999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2725367821999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1901547079999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9677525062000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3982317367999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.3823931593999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.5682113942</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.055234232599998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.998220510399999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.6519248404</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0342661272000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4853356618000007</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.8251203161999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7233604123999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.0875417279999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.9763006512000008</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.4632429322</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.838153609199999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.0800537098</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.904077178200001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.700117283400001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.172068527799999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.535811099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9894087950000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.9682812006000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4255420356000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.9485331453999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.8362859472000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1426580241999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.3637696888</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.4239884544</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.6806833684</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.748424694599999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.012476842</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.9374146416000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.1756722576000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1703575969999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9728218680000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2440463992000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.1846899113999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.7004333521999992</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10.792575288799998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.757757528599999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.191178192599999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14.6793202118</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.098124751199999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>10.4268544908</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.6488006572000007</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.967331316000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.8252194480000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.8134044478</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.9819635600000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.3923230552000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.891600092400001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14.4371458054</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.772552039199999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.6914298694</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11.7794994956</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11.1817895958</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.8467830488000008</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.9568110852</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.5536047937999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.0928827496000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.9551687849999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.1983268812</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.0351650274</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.6304179306</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.255420838199999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14.6520131448</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11.442988443000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.674632377</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.8413945576000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.5254972410000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.2949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.2949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.7938221938000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.4285356052000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>10.918268637400001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.202656509199999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.902907901599999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>15.3045375222</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11.8503631358</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.5698141628000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.2949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.5634249936</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7885745974000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.5216387080000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.5891413107999988</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>11.770041754599999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>12.3301099038</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>15.301904937</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.578731322199999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>11.7613051334</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>9.7637394352000015</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>7.0232738929999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.4607390914000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,6 +2587,372 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-26F2-40C4-ABF7-AADF6AF17043}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Air temp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$G$2:$G$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>5.4081640000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2121469999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9751729999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0724799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3956750000000007</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.793075999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.577027999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.211918000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.350652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.8291660000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8548749999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4019499999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3759589999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.52826</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5627389999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2975960000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.6846929999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.123099</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.661546999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.271287999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.680137999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7974840000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7392210000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6121889999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4384779999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0601600000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.8702640000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.8227089999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.169774</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.289781</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.110579000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.469473000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.860990999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.653655000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.306775</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1495070000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.9300820000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8228629999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0453840000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.2754490000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.067036</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.583968</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.436298000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.551936999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.881489999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.6321519999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.9176719999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.4944649999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.2784599999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3273239999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.6401329999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.2276089999999993</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.799035999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.446667</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20.307746999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>19.433971</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.734763999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.174726</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.7253340000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.5620200000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.7335599999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.7133909999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.7081999999999997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.7016439999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.968078</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.020562999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.593124</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19.454643000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.483782</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.463450999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.356236</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.8369939999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.8557610000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.4834120000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.2483250000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.784613999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.213153</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.936356999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.003278999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>19.387356</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.909335</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1835649999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.7611720000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.39364500000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-10.344035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-3.1227</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.5587610000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.0563940000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.013603</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>18.620273999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>24.936851999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20.501259000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14.604751</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7.2975659999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.246724</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-4.8293850000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.5795919999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.5498029999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.5082599999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.0376259999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14.467637</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>15.423711000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>20.496765</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>19.262259</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14.452723000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>11.042744000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.3645849999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.6972330000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-26F2-40C4-ABF7-AADF6AF17043}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2861,16 +4383,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>330517</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>29527</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101917</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2897,16 +4419,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>8572</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>27622</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555306</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>313372</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>54292</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3231,10 +4753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3256,13 +4778,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="H1" s="2"/>
       <c r="J1" s="1" t="s">
@@ -3273,7 +4795,7 @@
       </c>
       <c r="M1" s="1" t="str">
         <f>G1</f>
-        <v xml:space="preserve"> Air temp at Blue R below Tidbits Cr deg C</v>
+        <v>Air temp</v>
       </c>
       <c r="N1" s="1" t="str">
         <f>F1</f>
@@ -3317,15 +4839,15 @@
         <v>6</v>
       </c>
       <c r="I2">
-        <v>0.64659999999999995</v>
+        <v>0.58579999999999999</v>
       </c>
       <c r="J2">
-        <f>I$2*G2 + I$3</f>
-        <v>6.2430188423999997</v>
+        <f>I$2*MAX(G2,0) + I$3</f>
+        <v>6.4630024712000003</v>
       </c>
       <c r="K2">
-        <f>(F2-F$14)^2</f>
-        <v>7.1988614946519949</v>
+        <f>(F2-F$110)^2</f>
+        <v>9.3655217219235194</v>
       </c>
       <c r="M2">
         <f>G2</f>
@@ -3341,11 +4863,11 @@
       </c>
       <c r="Q2">
         <f>J2</f>
-        <v>6.2430188423999997</v>
+        <v>6.4630024712000003</v>
       </c>
       <c r="R2">
         <f>(Q2-F2)^2</f>
-        <v>6.1479124346184702E-2</v>
+        <v>0.21896173346928149</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -3374,35 +4896,35 @@
         <v>7</v>
       </c>
       <c r="I3">
-        <v>2.7461000000000002</v>
+        <v>3.2949000000000002</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J13" si="0">I$2*G3 + I$3</f>
-        <v>6.1162742502</v>
+        <f t="shared" ref="J3:J66" si="0">I$2*MAX(G3,0) + I$3</f>
+        <v>6.3481757125999998</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K13" si="1">(F3-F$14)^2</f>
-        <v>8.8310746873708243</v>
+        <f t="shared" ref="K3:K66" si="1">(F3-F$110)^2</f>
+        <v>11.215512925831275</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M13" si="2">G3</f>
+        <f t="shared" ref="M3:M66" si="2">G3</f>
         <v>5.2121469999999999</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N13" si="3">F3</f>
+        <f t="shared" ref="N3:N66" si="3">F3</f>
         <v>5.7064260000000004</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P13" si="4">F3</f>
+        <f t="shared" ref="P3:P66" si="4">F3</f>
         <v>5.7064260000000004</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q13" si="5">J3</f>
-        <v>6.1162742502</v>
+        <f t="shared" ref="Q3:Q66" si="5">J3</f>
+        <v>6.3481757125999998</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R13" si="6">(Q3-F3)^2</f>
-        <v>0.16797558819200148</v>
+        <f t="shared" ref="R3:R66" si="6">(Q3-F3)^2</f>
+        <v>0.41184269362218179</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -3431,15 +4953,15 @@
         <v>8</v>
       </c>
       <c r="I4">
-        <v>0.95009999999999994</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>5.9630468617999997</v>
+        <v>6.2093563433999996</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>10.333771564772492</v>
+        <v>12.90147974425302</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -3455,11 +4977,11 @@
       </c>
       <c r="Q4">
         <f t="shared" si="5"/>
-        <v>5.9630468617999997</v>
+        <v>6.2093563433999996</v>
       </c>
       <c r="R4">
         <f t="shared" si="6"/>
-        <v>0.24952708565975601</v>
+        <v>0.5562718511362823</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -3484,20 +5006,13 @@
       <c r="G5">
         <v>6.0724799999999997</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <f>(1/12)*SQRT(SUM(K2:K13))</f>
-        <v>1.0228256543807701</v>
-      </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>6.6725655679999996</v>
+        <v>6.8521587840000002</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>8.0154409933209951</v>
+        <v>10.293830500585187</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
@@ -3513,11 +5028,11 @@
       </c>
       <c r="Q5">
         <f t="shared" si="5"/>
-        <v>6.6725655679999996</v>
+        <v>6.8521587840000002</v>
       </c>
       <c r="R5">
         <f t="shared" si="6"/>
-        <v>0.68158657658547417</v>
+        <v>1.0103783567400155</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3545,17 +5060,17 @@
       <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I6">
-        <f>(1/12)*SQRT(SUM(R2:R13))</f>
-        <v>0.22840057082925627</v>
+      <c r="I6" s="4">
+        <f>(1/108)*SQRT(SUM(R2:R109))</f>
+        <v>0.13170006773804693</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>8.1747434550000015</v>
+        <v>8.2130864149999994</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>1.7516507059170017</v>
+        <v>2.8925301220407422</v>
       </c>
       <c r="M6">
         <f t="shared" si="2"/>
@@ -3571,11 +5086,11 @@
       </c>
       <c r="Q6">
         <f t="shared" si="5"/>
-        <v>8.1747434550000015</v>
+        <v>8.2130864149999994</v>
       </c>
       <c r="R6">
         <f t="shared" si="6"/>
-        <v>0.67257131711085005</v>
+        <v>0.7369319643201816</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3602,11 +5117,11 @@
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>11.018102941599999</v>
+        <v>10.7890839208</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>1.0038027750835108</v>
+        <v>0.39019388059268478</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
@@ -3622,11 +5137,11 @@
       </c>
       <c r="Q7">
         <f t="shared" si="5"/>
-        <v>11.018102941599999</v>
+        <v>10.7890839208</v>
       </c>
       <c r="R7">
         <f t="shared" si="6"/>
-        <v>1.7904177879390086</v>
+        <v>1.2299828544431195</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -3653,11 +5168,11 @@
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>14.758006304799999</v>
+        <v>14.1773230024</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>34.881811481153363</v>
+        <v>30.568049732629881</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
@@ -3673,11 +5188,11 @@
       </c>
       <c r="Q8">
         <f t="shared" si="5"/>
-        <v>14.758006304799999</v>
+        <v>14.1773230024</v>
       </c>
       <c r="R8">
         <f t="shared" si="6"/>
-        <v>3.020133216442859E-2</v>
+        <v>0.16556598045088944</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -3704,11 +5219,11 @@
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>14.521926178799999</v>
+        <v>13.9634415644</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>43.342598433841857</v>
+        <v>38.517725365155826</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
@@ -3724,11 +5239,11 @@
       </c>
       <c r="Q9">
         <f t="shared" si="5"/>
-        <v>14.521926178799999</v>
+        <v>13.9634415644</v>
       </c>
       <c r="R9">
         <f t="shared" si="6"/>
-        <v>0.54718837275944454</v>
+        <v>1.6853399494332548</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -3755,11 +5270,11 @@
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>12.0252315832</v>
+        <v>11.7015119416</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>17.040322768055031</v>
+        <v>14.0681106289623</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
@@ -3775,11 +5290,11 @@
       </c>
       <c r="Q10">
         <f t="shared" si="5"/>
-        <v>12.0252315832</v>
+        <v>11.7015119416</v>
       </c>
       <c r="R10">
         <f t="shared" si="6"/>
-        <v>0.60980389915858091</v>
+        <v>1.2201832641805046</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -3806,11 +5321,11 @@
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>9.1016387355999999</v>
+        <v>9.0528254427999997</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>1.2742088178070101</v>
+        <v>0.56484846001385058</v>
       </c>
       <c r="M11">
         <f t="shared" si="2"/>
@@ -3826,11 +5341,11 @@
       </c>
       <c r="Q11">
         <f t="shared" si="5"/>
-        <v>9.1016387355999999</v>
+        <v>9.0528254427999997</v>
       </c>
       <c r="R11">
         <f t="shared" si="6"/>
-        <v>0.49745974783093927</v>
+        <v>0.56869932303375215</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -3857,11 +5372,11 @@
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
-        <v>5.238662175</v>
+        <v>5.5530857749999996</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>5.3737842639491644</v>
+        <v>7.2651110298544275</v>
       </c>
       <c r="M12">
         <f t="shared" si="2"/>
@@ -3877,11 +5392,11 @@
       </c>
       <c r="Q12">
         <f t="shared" si="5"/>
-        <v>5.238662175</v>
+        <v>5.5530857749999996</v>
       </c>
       <c r="R12">
         <f t="shared" si="6"/>
-        <v>1.2573895470891301</v>
+        <v>0.65110411120955092</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -3908,11 +5423,11 @@
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>4.29920087</v>
+        <v>4.7019623099999999</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>11.601485987437657</v>
+        <v>14.313661485538148</v>
       </c>
       <c r="M13">
         <f t="shared" si="2"/>
@@ -3928,25 +5443,4975 @@
       </c>
       <c r="Q13">
         <f t="shared" si="5"/>
-        <v>4.29920087</v>
+        <v>4.7019623099999999</v>
       </c>
       <c r="R13">
         <f t="shared" si="6"/>
-        <v>0.94642180990293701</v>
+        <v>0.32499199311087629</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2011</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
       <c r="E14">
-        <f t="shared" ref="E14:F14" si="7">AVERAGE(E2:E13)</f>
-        <v>6.0541401666666674</v>
+        <v>4.9701269999999997</v>
       </c>
       <c r="F14">
+        <v>4.6519149999999998</v>
+      </c>
+      <c r="G14">
+        <v>3.3759589999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>5.2725367821999995</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>19.3905303454783</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>3.3759589999999999</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>4.6519149999999998</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>4.6519149999999998</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>5.2725367821999995</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>0.38517139654110394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2011</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>5.0592030000000001</v>
+      </c>
+      <c r="F15">
+        <v>3.530357</v>
+      </c>
+      <c r="G15">
+        <v>1.52826</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>4.1901547079999997</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>30.5259121983607</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>1.52826</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>3.530357</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>3.530357</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>4.1901547079999997</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>0.43533301548205289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2011</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>5.1796259999999998</v>
+      </c>
+      <c r="F16">
+        <v>4.778022</v>
+      </c>
+      <c r="G16">
+        <v>4.5627389999999997</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>5.9677525062000001</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>18.295817045110613</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>4.5627389999999997</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>4.778022</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>4.778022</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>5.9677525062000001</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>1.4154586773829085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2011</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>5.4630099999999997</v>
+      </c>
+      <c r="F17">
+        <v>5.180104</v>
+      </c>
+      <c r="G17">
+        <v>5.2975960000000004</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>6.3982317367999997</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>15.017787256076575</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>5.2975960000000004</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>5.180104</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>5.180104</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>6.3982317367999997</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>1.4838351831614891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2011</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>6.0111540000000003</v>
+      </c>
+      <c r="F18">
+        <v>6.3966960000000004</v>
+      </c>
+      <c r="G18">
+        <v>8.6846929999999993</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>8.3823931593999994</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>7.0686165147340541</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>8.6846929999999993</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>6.3966960000000004</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>6.3966960000000004</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>8.3823931593999994</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>3.942993208849225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2011</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>6.9946029999999997</v>
+      </c>
+      <c r="F19">
+        <v>8.9151740000000004</v>
+      </c>
+      <c r="G19">
+        <v>14.123099</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>11.5682113942</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>1.9658561084537042E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>14.123099</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>8.9151740000000004</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>8.9151740000000004</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>11.5682113942</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>7.0386074150235265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>7.5187549999999996</v>
+      </c>
+      <c r="F20">
+        <v>13.210819000000001</v>
+      </c>
+      <c r="G20">
+        <v>16.661546999999999</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>13.055234232599998</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>17.267648427048524</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>16.661546999999999</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>13.210819000000001</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>13.210819000000001</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>13.055234232599998</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>2.4206619846912844E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>8.0709379999999999</v>
+      </c>
+      <c r="F21">
+        <v>15.696068</v>
+      </c>
+      <c r="G21">
+        <v>18.271287999999998</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>13.998220510399999</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>44.098697392200648</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>18.271287999999998</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>15.696068</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>15.696068</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>13.998220510399999</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>2.8826860979410251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2011</v>
+      </c>
+      <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>7.4533339999999999</v>
+      </c>
+      <c r="F22">
+        <v>14.140558</v>
+      </c>
+      <c r="G22">
+        <v>17.680137999999999</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>13.6519248404</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>25.859004874794909</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>17.680137999999999</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>14.140558</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>14.140558</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>13.6519248404</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>0.23876236466067993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2011</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>5.8336880000000004</v>
+      </c>
+      <c r="F23">
+        <v>10.113104</v>
+      </c>
+      <c r="G23">
+        <v>9.7974840000000007</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>9.0342661272000004</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>1.1187737334284256</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>9.7974840000000007</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>10.113104</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>10.113104</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>9.0342661272000004</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>1.1638911557876277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2011</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>5.0490170000000001</v>
+      </c>
+      <c r="F24">
+        <v>5.8270860000000004</v>
+      </c>
+      <c r="G24">
+        <v>3.7392210000000001</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>5.4853356618000007</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>10.421901460425721</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>3.7392210000000001</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>5.8270860000000004</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>5.8270860000000004</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>5.4853356618000007</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>0.11679329365981422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2011</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>4.914485</v>
+      </c>
+      <c r="F25">
+        <v>3.21502</v>
+      </c>
+      <c r="G25">
+        <v>2.6121889999999999</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>4.8251203161999996</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>34.109839863614134</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>2.6121889999999999</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>3.21502</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>3.21502</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>4.8251203161999996</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>2.5924230282273388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2012</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>4.9582459999999999</v>
+      </c>
+      <c r="F26">
+        <v>4.3466950000000004</v>
+      </c>
+      <c r="G26">
+        <v>2.4384779999999999</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>4.7233604123999999</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>22.171742594146071</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>2.4384779999999999</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>4.3466950000000004</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>4.3466950000000004</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>4.7233604123999999</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>0.1418768328984617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2012</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>5.0792630000000001</v>
+      </c>
+      <c r="F27">
+        <v>4.3152239999999997</v>
+      </c>
+      <c r="G27">
+        <v>3.0601600000000002</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>5.0875417279999997</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>22.46910725750028</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>3.0601600000000002</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>4.3152239999999997</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>4.3152239999999997</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>5.0875417279999997</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>0.59647467298308199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2012</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>31</v>
+      </c>
+      <c r="E28">
+        <v>5.2452860000000001</v>
+      </c>
+      <c r="F28">
+        <v>4.1118129999999997</v>
+      </c>
+      <c r="G28">
+        <v>2.8702640000000001</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>4.9763006512000008</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>24.438884253352413</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>2.8702640000000001</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>4.1118129999999997</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>4.1118129999999997</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>4.9763006512000008</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>0.74733889907729467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>2012</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>5.6333859999999998</v>
+      </c>
+      <c r="F29">
+        <v>5.5996569999999997</v>
+      </c>
+      <c r="G29">
+        <v>8.8227089999999997</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>8.4632429322</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>11.942042123081077</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>8.8227089999999997</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>5.5996569999999997</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>5.5996569999999997</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>8.4632429322</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>8.2001243910937447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>2012</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>6.5814649999999997</v>
+      </c>
+      <c r="F30">
+        <v>7.8391130000000002</v>
+      </c>
+      <c r="G30">
+        <v>11.169774</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>9.838153609199999</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>1.4793126903764813</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>11.169774</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>7.8391130000000002</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>7.8391130000000002</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>9.838153609199999</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>3.9961633572307025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2012</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>6.4729409999999996</v>
+      </c>
+      <c r="F31">
+        <v>9.6897059999999993</v>
+      </c>
+      <c r="G31">
+        <v>13.289781</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>11.0800537098</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.40236568007572127</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>13.289781</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>9.6897059999999993</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>9.6897059999999993</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>11.0800537098</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>1.933066754146106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2012</v>
+      </c>
+      <c r="C32">
+        <v>7</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>7.9430899999999998</v>
+      </c>
+      <c r="F32">
+        <v>14.292591</v>
+      </c>
+      <c r="G32">
+        <v>18.110579000000001</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>13.904077178200001</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>27.428347732249332</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>18.110579000000001</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>14.292591</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>14.292591</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>13.904077178200001</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>0.1509429897296409</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>8.1058649999999997</v>
+      </c>
+      <c r="F33">
+        <v>15.783275</v>
+      </c>
+      <c r="G33">
+        <v>19.469473000000001</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>14.700117283400001</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>45.26453088825459</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>19.469473000000001</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>15.783275</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>15.783275</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>14.700117283400001</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>1.1732306390301233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2012</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>7.3547640000000003</v>
+      </c>
+      <c r="F34">
+        <v>13.040979999999999</v>
+      </c>
+      <c r="G34">
+        <v>16.860990999999999</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>13.172068527799999</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>15.884983520216347</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>16.860990999999999</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>13.040979999999999</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="4"/>
+        <v>13.040979999999999</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="5"/>
+        <v>13.172068527799999</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>1.7184202120771205E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2012</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="E35">
+        <v>5.9804820000000003</v>
+      </c>
+      <c r="F35">
+        <v>8.8601080000000003</v>
+      </c>
+      <c r="G35">
+        <v>10.653655000000001</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>9.535811099</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>3.8132322008796293E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>10.653655000000001</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>8.8601080000000003</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="4"/>
+        <v>8.8601080000000003</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="5"/>
+        <v>9.535811099</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>0.45657467799820339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2012</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>5.1121920000000003</v>
+      </c>
+      <c r="F36">
+        <v>7.1383010000000002</v>
+      </c>
+      <c r="G36">
+        <v>6.306775</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>6.9894087950000001</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>3.6752033592224809</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>6.306775</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>7.1383010000000002</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="4"/>
+        <v>7.1383010000000002</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="5"/>
+        <v>6.9894087950000001</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="6"/>
+        <v>2.2168888709762059E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2012</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>31</v>
+      </c>
+      <c r="E37">
+        <v>4.8845169999999998</v>
+      </c>
+      <c r="F37">
+        <v>4.9432869999999998</v>
+      </c>
+      <c r="G37">
+        <v>1.1495070000000001</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>3.9682812006000003</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>16.909333437066078</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>1.1495070000000001</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>4.9432869999999998</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="4"/>
+        <v>4.9432869999999998</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="5"/>
+        <v>3.9682812006000003</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="6"/>
+        <v>0.95063630886363193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2013</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>31</v>
+      </c>
+      <c r="E38">
+        <v>4.9369139999999998</v>
+      </c>
+      <c r="F38">
+        <v>3.7774809999999999</v>
+      </c>
+      <c r="G38">
+        <v>1.9300820000000001</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>4.4255420356000004</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>27.856249423865076</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>1.9300820000000001</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>3.7774809999999999</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="4"/>
+        <v>3.7774809999999999</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="5"/>
+        <v>4.4255420356000004</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="6"/>
+        <v>0.41998310586294513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2013</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>5.117667</v>
+      </c>
+      <c r="F39">
+        <v>4.4470419999999997</v>
+      </c>
+      <c r="G39">
+        <v>2.8228629999999999</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>4.9485331453999999</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>21.236806686941357</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>2.8228629999999999</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>4.4470419999999997</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="4"/>
+        <v>4.4470419999999997</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="5"/>
+        <v>4.9485331453999999</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>0.25149336891460411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2013</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>5.4710190000000001</v>
+      </c>
+      <c r="F40">
+        <v>5.2057549999999999</v>
+      </c>
+      <c r="G40">
+        <v>6.0453840000000003</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>6.8362859472000004</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>14.819635667094595</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>6.0453840000000003</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>5.2057549999999999</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="4"/>
+        <v>5.2057549999999999</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="5"/>
+        <v>6.8362859472000004</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="6"/>
+        <v>2.6586311697769309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2013</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>30</v>
+      </c>
+      <c r="E41">
+        <v>5.9717310000000001</v>
+      </c>
+      <c r="F41">
+        <v>6.2931949999999999</v>
+      </c>
+      <c r="G41">
+        <v>8.2754490000000001</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>8.1426580241999993</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>7.6296824961923715</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>8.2754490000000001</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>6.2931949999999999</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="4"/>
+        <v>6.2931949999999999</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="5"/>
+        <v>8.1426580241999993</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="6"/>
+        <v>3.4205134778830075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2013</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <v>6.8351329999999999</v>
+      </c>
+      <c r="F42">
+        <v>9.0125589999999995</v>
+      </c>
+      <c r="G42">
+        <v>12.067036</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>10.3637696888</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>1.833894182963095E-3</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>12.067036</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>9.0125589999999995</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="4"/>
+        <v>9.0125589999999995</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="5"/>
+        <v>10.3637696888</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="6"/>
+        <v>1.825770325527371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>2013</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
+        <v>7.1701709999999999</v>
+      </c>
+      <c r="F43">
+        <v>11.620977999999999</v>
+      </c>
+      <c r="G43">
+        <v>15.583968</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>12.4239884544</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>6.5822777515360134</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>15.583968</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>11.620977999999999</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="4"/>
+        <v>11.620977999999999</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="5"/>
+        <v>12.4239884544</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="6"/>
+        <v>0.64482578987569572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>2013</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="E44">
+        <v>8.2082940000000004</v>
+      </c>
+      <c r="F44">
+        <v>16.109044999999998</v>
+      </c>
+      <c r="G44">
+        <v>19.436298000000001</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>14.6806833684</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>49.754147740867346</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>19.436298000000001</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>16.109044999999998</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="4"/>
+        <v>16.109044999999998</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="5"/>
+        <v>14.6806833684</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="6"/>
+        <v>2.0402169506270078</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>2013</v>
+      </c>
+      <c r="C45">
+        <v>8</v>
+      </c>
+      <c r="D45">
+        <v>31</v>
+      </c>
+      <c r="E45">
+        <v>7.9506629999999996</v>
+      </c>
+      <c r="F45">
+        <v>16.403063</v>
+      </c>
+      <c r="G45">
+        <v>19.551936999999999</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>14.748424694599999</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>53.988401518468137</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="2"/>
+        <v>19.551936999999999</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>16.403063</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="4"/>
+        <v>16.403063</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="5"/>
+        <v>14.748424694599999</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="6"/>
+        <v>2.7378279216969861</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>2013</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>6.6867380000000001</v>
+      </c>
+      <c r="F46">
+        <v>13.773477</v>
+      </c>
+      <c r="G46">
+        <v>14.881489999999999</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>12.012476842</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>22.260411080208108</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="2"/>
+        <v>14.881489999999999</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>13.773477</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="4"/>
+        <v>13.773477</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="5"/>
+        <v>12.012476842</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="6"/>
+        <v>3.1011215564760244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2013</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <v>5.7875199999999998</v>
+      </c>
+      <c r="F47">
+        <v>7.6693629999999997</v>
+      </c>
+      <c r="G47">
+        <v>9.6321519999999996</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>8.9374146416000002</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>1.921051414732964</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="2"/>
+        <v>9.6321519999999996</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>7.6693629999999997</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="4"/>
+        <v>7.6693629999999997</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="5"/>
+        <v>8.9374146416000002</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>1.6079549657644561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>2013</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <v>5.0707500000000003</v>
+      </c>
+      <c r="F48">
+        <v>6.3303070000000004</v>
+      </c>
+      <c r="G48">
+        <v>4.9176719999999996</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>6.1756722576000005</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>7.4260391553116278</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="2"/>
+        <v>4.9176719999999996</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>6.3303070000000004</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="4"/>
+        <v>6.3303070000000004</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="5"/>
+        <v>6.1756722576000005</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="6"/>
+        <v>2.3911903557114315E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>2013</v>
+      </c>
+      <c r="C49">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>31</v>
+      </c>
+      <c r="E49">
+        <v>4.8515670000000002</v>
+      </c>
+      <c r="F49">
+        <v>3.3336269999999999</v>
+      </c>
+      <c r="G49">
+        <v>1.4944649999999999</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>4.1703575969999997</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>32.738491617577559</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="2"/>
+        <v>1.4944649999999999</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>3.3336269999999999</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="4"/>
+        <v>3.3336269999999999</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="5"/>
+        <v>4.1703575969999997</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="6"/>
+        <v>0.70011809195597619</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>2014</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>31</v>
+      </c>
+      <c r="E50">
+        <v>5.1661419999999998</v>
+      </c>
+      <c r="F50">
+        <v>4.5585680000000002</v>
+      </c>
+      <c r="G50">
+        <v>6.2784599999999999</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>6.9728218680000005</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>20.221345060950647</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="2"/>
+        <v>6.2784599999999999</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>4.5585680000000002</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="4"/>
+        <v>4.5585680000000002</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="5"/>
+        <v>6.9728218680000005</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="6"/>
+        <v>5.8286217391529629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2014</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>28</v>
+      </c>
+      <c r="E51">
+        <v>5.0043139999999999</v>
+      </c>
+      <c r="F51">
+        <v>4.6808779999999999</v>
+      </c>
+      <c r="G51">
+        <v>3.3273239999999999</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>5.2440463992000002</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>19.136293914015649</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="2"/>
+        <v>3.3273239999999999</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>4.6808779999999999</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="4"/>
+        <v>4.6808779999999999</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="5"/>
+        <v>5.2440463992000002</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="6"/>
+        <v>0.31715864585749087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2014</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>5.4101059999999999</v>
+      </c>
+      <c r="F52">
+        <v>5.966812</v>
+      </c>
+      <c r="G52">
+        <v>6.6401329999999996</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>7.1846899113999996</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>9.5392707648452415</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="2"/>
+        <v>6.6401329999999996</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="3"/>
+        <v>5.966812</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="4"/>
+        <v>5.966812</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="5"/>
+        <v>7.1846899113999996</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="6"/>
+        <v>1.4832266070760252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2014</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>5.8482719999999997</v>
+      </c>
+      <c r="F53">
+        <v>6.9964919999999999</v>
+      </c>
+      <c r="G53">
+        <v>9.2276089999999993</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>8.7004333521999992</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>4.2390321117533896</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="2"/>
+        <v>9.2276089999999993</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="3"/>
+        <v>6.9964919999999999</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="4"/>
+        <v>6.9964919999999999</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="5"/>
+        <v>8.7004333521999992</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="6"/>
+        <v>2.9034161317371621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2014</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>6.6093440000000001</v>
+      </c>
+      <c r="F54">
+        <v>9.3046369999999996</v>
+      </c>
+      <c r="G54">
+        <v>12.799035999999999</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>10.792575288799998</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>6.2127561131814661E-2</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="2"/>
+        <v>12.799035999999999</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="3"/>
+        <v>9.3046369999999996</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="4"/>
+        <v>9.3046369999999996</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="5"/>
+        <v>10.792575288799998</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="6"/>
+        <v>2.2139603512770685</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>2014</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>30</v>
+      </c>
+      <c r="E55">
+        <v>7.1869519999999998</v>
+      </c>
+      <c r="F55">
+        <v>11.878055</v>
+      </c>
+      <c r="G55">
+        <v>14.446667</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>11.757757528599999</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>7.9674772718557021</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="2"/>
+        <v>14.446667</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="3"/>
+        <v>11.878055</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="4"/>
+        <v>11.878055</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="5"/>
+        <v>11.757757528599999</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="6"/>
+        <v>1.4471481625233984E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>2014</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>8.0584059999999997</v>
+      </c>
+      <c r="F56">
+        <v>16.008330999999998</v>
+      </c>
+      <c r="G56">
+        <v>20.307746999999999</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>15.191178192599999</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>48.343486019462269</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="2"/>
+        <v>20.307746999999999</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="3"/>
+        <v>16.008330999999998</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="4"/>
+        <v>16.008330999999998</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="5"/>
+        <v>15.191178192599999</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="6"/>
+        <v>0.66773871064170054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>2014</v>
+      </c>
+      <c r="C57">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>8.0348419999999994</v>
+      </c>
+      <c r="F57">
+        <v>16.785382999999999</v>
+      </c>
+      <c r="G57">
+        <v>19.433971</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>14.6793202118</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>59.752900143148139</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>19.433971</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="3"/>
+        <v>16.785382999999999</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="4"/>
+        <v>16.785382999999999</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="5"/>
+        <v>14.6793202118</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="6"/>
+        <v>4.4355004678407548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>2014</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58">
+        <v>7.2648429999999999</v>
+      </c>
+      <c r="F58">
+        <v>13.869374000000001</v>
+      </c>
+      <c r="G58">
+        <v>16.734763999999998</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>13.098124751199999</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>23.174509437228984</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="2"/>
+        <v>16.734763999999998</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="3"/>
+        <v>13.869374000000001</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="4"/>
+        <v>13.869374000000001</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="5"/>
+        <v>13.098124751199999</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="6"/>
+        <v>0.59482540377456739</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2014</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>31</v>
+      </c>
+      <c r="E59">
+        <v>5.9231980000000002</v>
+      </c>
+      <c r="F59">
+        <v>10.811021</v>
+      </c>
+      <c r="G59">
+        <v>12.174726</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>10.4268544908</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>3.0822648195558155</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="2"/>
+        <v>12.174726</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="3"/>
+        <v>10.811021</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="4"/>
+        <v>10.811021</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="5"/>
+        <v>10.4268544908</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="6"/>
+        <v>0.14758390679091365</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>2014</v>
+      </c>
+      <c r="C60">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>5.084778</v>
+      </c>
+      <c r="F60">
+        <v>7.4374570000000002</v>
+      </c>
+      <c r="G60">
+        <v>5.7253340000000001</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>6.6488006572000007</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>2.617684511514407</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="2"/>
+        <v>5.7253340000000001</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="3"/>
+        <v>7.4374570000000002</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="4"/>
+        <v>7.4374570000000002</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="5"/>
+        <v>6.6488006572000007</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="6"/>
+        <v>0.62197882703867036</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2014</v>
+      </c>
+      <c r="C61">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>31</v>
+      </c>
+      <c r="E61">
+        <v>4.949192</v>
+      </c>
+      <c r="F61">
+        <v>6.9163920000000001</v>
+      </c>
+      <c r="G61">
+        <v>4.5620200000000004</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>5.967331316000001</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>4.5752824584700553</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="2"/>
+        <v>4.5620200000000004</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="3"/>
+        <v>6.9163920000000001</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="4"/>
+        <v>6.9163920000000001</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="5"/>
+        <v>5.967331316000001</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="6"/>
+        <v>0.90071618191454617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>2015</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>31</v>
+      </c>
+      <c r="E62">
+        <v>5.1539919999999997</v>
+      </c>
+      <c r="F62">
+        <v>5.9007389999999997</v>
+      </c>
+      <c r="G62">
+        <v>7.7335599999999998</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>7.8252194480000004</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>9.9517787083166684</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="2"/>
+        <v>7.7335599999999998</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="3"/>
+        <v>5.9007389999999997</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="4"/>
+        <v>5.9007389999999997</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="5"/>
+        <v>7.8252194480000004</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="6"/>
+        <v>3.703624994734283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>2015</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>28</v>
+      </c>
+      <c r="E63">
+        <v>5.406536</v>
+      </c>
+      <c r="F63">
+        <v>6.5825889999999996</v>
+      </c>
+      <c r="G63">
+        <v>7.7133909999999997</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>7.8134044478</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>6.1147101206435215</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="2"/>
+        <v>7.7133909999999997</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="3"/>
+        <v>6.5825889999999996</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="4"/>
+        <v>6.5825889999999996</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="5"/>
+        <v>7.8134044478</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="6"/>
+        <v>1.5149066665431155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>2015</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>5.8562700000000003</v>
+      </c>
+      <c r="F64">
+        <v>6.894501</v>
+      </c>
+      <c r="G64">
+        <v>9.7081999999999997</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>8.9819635600000005</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>4.6694109779076669</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="2"/>
+        <v>9.7081999999999997</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="3"/>
+        <v>6.894501</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="4"/>
+        <v>6.894501</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="5"/>
+        <v>8.9819635600000005</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="6"/>
+        <v>4.3574999394017562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>2015</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>6.1007069999999999</v>
+      </c>
+      <c r="F65">
+        <v>7.3208640000000003</v>
+      </c>
+      <c r="G65">
+        <v>8.7016439999999999</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>8.3923230552000003</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>3.0085561292402772</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="2"/>
+        <v>8.7016439999999999</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="3"/>
+        <v>7.3208640000000003</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="4"/>
+        <v>7.3208640000000003</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="5"/>
+        <v>8.3923230552000003</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="6"/>
+        <v>1.1480245069700767</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2015</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>7.0389400000000002</v>
+      </c>
+      <c r="F66">
+        <v>10.762707000000001</v>
+      </c>
+      <c r="G66">
+        <v>12.968078</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>10.891600092400001</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>2.9149552725931134</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="2"/>
+        <v>12.968078</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="3"/>
+        <v>10.762707000000001</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="4"/>
+        <v>10.762707000000001</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="5"/>
+        <v>10.891600092400001</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="6"/>
+        <v>1.6613429268434999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>2015</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>30</v>
+      </c>
+      <c r="E67">
+        <v>7.9949960000000004</v>
+      </c>
+      <c r="F67">
+        <v>15.518577000000001</v>
+      </c>
+      <c r="G67">
+        <v>19.020562999999999</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J109" si="7">I$2*MAX(G67,0) + I$3</f>
+        <v>14.4371458054</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K109" si="8">(F67-F$110)^2</f>
+        <v>41.772876801324784</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M109" si="9">G67</f>
+        <v>19.020562999999999</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N109" si="10">F67</f>
+        <v>15.518577000000001</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P109" si="11">F67</f>
+        <v>15.518577000000001</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" ref="Q67:Q109" si="12">J67</f>
+        <v>14.4371458054</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R109" si="13">(Q67-F67)^2</f>
+        <v>1.1694934286539838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>2015</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>31</v>
+      </c>
+      <c r="E68">
+        <v>8.3325549999999993</v>
+      </c>
+      <c r="F68">
+        <v>17.680610999999999</v>
+      </c>
+      <c r="G68">
+        <v>19.593124</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="7"/>
-        <v>8.6781384166666644</v>
-      </c>
-      <c r="G14">
-        <f>AVERAGE(G2:G13)</f>
-        <v>9.1735253333333322</v>
+        <v>14.772552039199999</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="8"/>
+        <v>74.394558211710432</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="9"/>
+        <v>19.593124</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="10"/>
+        <v>17.680610999999999</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="11"/>
+        <v>17.680610999999999</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="12"/>
+        <v>14.772552039199999</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="13"/>
+        <v>8.4568069194891766</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2015</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+      <c r="D69">
+        <v>31</v>
+      </c>
+      <c r="E69">
+        <v>8.4381970000000006</v>
+      </c>
+      <c r="F69">
+        <v>17.090021</v>
+      </c>
+      <c r="G69">
+        <v>19.454643000000001</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="7"/>
+        <v>14.6914298694</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="8"/>
+        <v>64.5554079398336</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="9"/>
+        <v>19.454643000000001</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="10"/>
+        <v>17.090021</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="11"/>
+        <v>17.090021</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="12"/>
+        <v>14.6914298694</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="13"/>
+        <v>5.7532394117929853</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>2015</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>30</v>
+      </c>
+      <c r="E70">
+        <v>6.9259729999999999</v>
+      </c>
+      <c r="F70">
+        <v>13.509548000000001</v>
+      </c>
+      <c r="G70">
+        <v>14.483782</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>11.7794994956</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>19.839585929709543</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="9"/>
+        <v>14.483782</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="10"/>
+        <v>13.509548000000001</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="11"/>
+        <v>13.509548000000001</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="12"/>
+        <v>11.7794994956</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="13"/>
+        <v>2.99306782757668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>2015</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>31</v>
+      </c>
+      <c r="E71">
+        <v>6.3101979999999998</v>
+      </c>
+      <c r="F71">
+        <v>11.196471000000001</v>
+      </c>
+      <c r="G71">
+        <v>13.463450999999999</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>11.1817895958</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="8"/>
+        <v>4.5842578633937805</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="9"/>
+        <v>13.463450999999999</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="10"/>
+        <v>11.196471000000001</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="11"/>
+        <v>11.196471000000001</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="12"/>
+        <v>11.1817895958</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="13"/>
+        <v>2.1554362928380609E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>2015</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>30</v>
+      </c>
+      <c r="E72">
+        <v>5.0429940000000002</v>
+      </c>
+      <c r="F72">
+        <v>6.740685</v>
+      </c>
+      <c r="G72">
+        <v>4.356236</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>5.8467830488000008</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>5.3578267883392225</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="9"/>
+        <v>4.356236</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="10"/>
+        <v>6.740685</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="11"/>
+        <v>6.740685</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="12"/>
+        <v>5.8467830488000008</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="13"/>
+        <v>0.79906069835916582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>2015</v>
+      </c>
+      <c r="C73">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>31</v>
+      </c>
+      <c r="E73">
+        <v>4.9246639999999999</v>
+      </c>
+      <c r="F73">
+        <v>5.9052759999999997</v>
+      </c>
+      <c r="G73">
+        <v>2.8369939999999998</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>4.9568110852</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>9.9231740531136872</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="9"/>
+        <v>2.8369939999999998</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="10"/>
+        <v>5.9052759999999997</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="11"/>
+        <v>5.9052759999999997</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="12"/>
+        <v>4.9568110852</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="13"/>
+        <v>0.89958569460657078</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>2016</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>31</v>
+      </c>
+      <c r="E74">
+        <v>4.9727360000000003</v>
+      </c>
+      <c r="F74">
+        <v>4.9835349999999998</v>
+      </c>
+      <c r="G74">
+        <v>3.8557610000000002</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>5.5536047937999999</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>16.579946059699409</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="9"/>
+        <v>3.8557610000000002</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="10"/>
+        <v>4.9835349999999998</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="11"/>
+        <v>4.9835349999999998</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="12"/>
+        <v>5.5536047937999999</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="13"/>
+        <v>0.32497956980317466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>2016</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>29</v>
+      </c>
+      <c r="E75">
+        <v>5.1658390000000001</v>
+      </c>
+      <c r="F75">
+        <v>5.8835810000000004</v>
+      </c>
+      <c r="G75">
+        <v>6.4834120000000004</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>7.0928827496000002</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="8"/>
+        <v>10.060327868466924</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="9"/>
+        <v>6.4834120000000004</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="10"/>
+        <v>5.8835810000000004</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="11"/>
+        <v>5.8835810000000004</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="12"/>
+        <v>7.0928827496000002</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="13"/>
+        <v>1.4624107215856206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2016</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>31</v>
+      </c>
+      <c r="E76">
+        <v>5.29237</v>
+      </c>
+      <c r="F76">
+        <v>5.9938599999999997</v>
+      </c>
+      <c r="G76">
+        <v>6.2483250000000004</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>6.9551687849999997</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="8"/>
+        <v>9.3729230228341311</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="9"/>
+        <v>6.2483250000000004</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="10"/>
+        <v>5.9938599999999997</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="11"/>
+        <v>5.9938599999999997</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="12"/>
+        <v>6.9551687849999997</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="13"/>
+        <v>0.92411458011817615</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>2016</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>30</v>
+      </c>
+      <c r="E77">
+        <v>6.2370150000000004</v>
+      </c>
+      <c r="F77">
+        <v>7.9413900000000002</v>
+      </c>
+      <c r="G77">
+        <v>11.784613999999999</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="7"/>
+        <v>10.1983268812</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="8"/>
+        <v>1.2409803834194999</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="9"/>
+        <v>11.784613999999999</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="10"/>
+        <v>7.9413900000000002</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="11"/>
+        <v>7.9413900000000002</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="12"/>
+        <v>10.1983268812</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="13"/>
+        <v>5.0937640857207818</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2016</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>31</v>
+      </c>
+      <c r="E78">
+        <v>6.9809720000000004</v>
+      </c>
+      <c r="F78">
+        <v>10.368010999999999</v>
+      </c>
+      <c r="G78">
+        <v>13.213153</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="7"/>
+        <v>11.0351650274</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>1.7229922906919237</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="9"/>
+        <v>13.213153</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="10"/>
+        <v>10.368010999999999</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="11"/>
+        <v>10.368010999999999</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="12"/>
+        <v>11.0351650274</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="13"/>
+        <v>0.44509449627604064</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>2016</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>30</v>
+      </c>
+      <c r="E79">
+        <v>7.4267440000000002</v>
+      </c>
+      <c r="F79">
+        <v>13.459146</v>
+      </c>
+      <c r="G79">
+        <v>15.936356999999999</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="7"/>
+        <v>12.6304179306</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>19.393128641720171</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="9"/>
+        <v>15.936356999999999</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="10"/>
+        <v>13.459146</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="11"/>
+        <v>13.459146</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="12"/>
+        <v>12.6304179306</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="13"/>
+        <v>0.68679021301145171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>2016</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>31</v>
+      </c>
+      <c r="E80">
+        <v>7.846743</v>
+      </c>
+      <c r="F80">
+        <v>15.561928</v>
+      </c>
+      <c r="G80">
+        <v>17.003278999999999</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="7"/>
+        <v>13.255420838199999</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>42.335127957516576</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="9"/>
+        <v>17.003278999999999</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="10"/>
+        <v>15.561928</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="11"/>
+        <v>15.561928</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="12"/>
+        <v>13.255420838199999</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="13"/>
+        <v>5.3199752874346951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>2016</v>
+      </c>
+      <c r="C81">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>31</v>
+      </c>
+      <c r="E81">
+        <v>8.1649879999999992</v>
+      </c>
+      <c r="F81">
+        <v>16.301983</v>
+      </c>
+      <c r="G81">
+        <v>19.387356</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="7"/>
+        <v>14.6520131448</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="8"/>
+        <v>52.513211694196293</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="9"/>
+        <v>19.387356</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="10"/>
+        <v>16.301983</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="11"/>
+        <v>16.301983</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="12"/>
+        <v>14.6520131448</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="13"/>
+        <v>2.7224005230687096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>2016</v>
+      </c>
+      <c r="C82">
+        <v>9</v>
+      </c>
+      <c r="D82">
+        <v>30</v>
+      </c>
+      <c r="E82">
+        <v>7.0741360000000002</v>
+      </c>
+      <c r="F82">
+        <v>12.822082999999999</v>
+      </c>
+      <c r="G82">
+        <v>13.909335</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="7"/>
+        <v>11.442988443000001</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="8"/>
+        <v>14.188028959753698</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="9"/>
+        <v>13.909335</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="10"/>
+        <v>12.822082999999999</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="11"/>
+        <v>12.822082999999999</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="12"/>
+        <v>11.442988443000001</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="13"/>
+        <v>1.9019017971470218</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>2016</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>31</v>
+      </c>
+      <c r="E83">
+        <v>5.3955099999999998</v>
+      </c>
+      <c r="F83">
+        <v>9.9084380000000003</v>
+      </c>
+      <c r="G83">
+        <v>9.1835649999999998</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="7"/>
+        <v>8.674632377</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>0.72770284882231528</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="9"/>
+        <v>9.1835649999999998</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="10"/>
+        <v>9.9084380000000003</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="11"/>
+        <v>9.9084380000000003</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="12"/>
+        <v>8.674632377</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="13"/>
+        <v>1.5222763153464189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>2016</v>
+      </c>
+      <c r="C84">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>30</v>
+      </c>
+      <c r="E84">
+        <v>5.1544169999999996</v>
+      </c>
+      <c r="F84">
+        <v>8.2723960000000005</v>
+      </c>
+      <c r="G84">
+        <v>7.7611720000000002</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>7.8413945576000001</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>0.61306862766924008</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="9"/>
+        <v>7.7611720000000002</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="10"/>
+        <v>8.2723960000000005</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="11"/>
+        <v>8.2723960000000005</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="12"/>
+        <v>7.8413945576000001</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="13"/>
+        <v>0.18576224335088085</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>2016</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>31</v>
+      </c>
+      <c r="E85">
+        <v>4.8187790000000001</v>
+      </c>
+      <c r="F85">
+        <v>5.093515</v>
+      </c>
+      <c r="G85">
+        <v>0.39364500000000002</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="7"/>
+        <v>3.5254972410000001</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>15.696397976056074</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="9"/>
+        <v>0.39364500000000002</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="10"/>
+        <v>5.093515</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="11"/>
+        <v>5.093515</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="12"/>
+        <v>3.5254972410000001</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="13"/>
+        <v>2.4586796925393819</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>2017</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>31</v>
+      </c>
+      <c r="E86">
+        <v>4.3940149999999996</v>
+      </c>
+      <c r="F86">
+        <v>3.808535</v>
+      </c>
+      <c r="G86">
+        <v>-10.344035</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>3.2949000000000002</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>27.529413837940147</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="9"/>
+        <v>-10.344035</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="10"/>
+        <v>3.808535</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="11"/>
+        <v>3.808535</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="12"/>
+        <v>3.2949000000000002</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="13"/>
+        <v>0.26382091322499984</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>2017</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>28</v>
+      </c>
+      <c r="E87">
+        <v>4.8048799999999998</v>
+      </c>
+      <c r="F87">
+        <v>5.1422619999999997</v>
+      </c>
+      <c r="G87">
+        <v>-3.1227</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>3.2949000000000002</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>15.312515888175799</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="9"/>
+        <v>-3.1227</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="10"/>
+        <v>5.1422619999999997</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="11"/>
+        <v>5.1422619999999997</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="12"/>
+        <v>3.2949000000000002</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="13"/>
+        <v>3.4127463590439984</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>2017</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>31</v>
+      </c>
+      <c r="E88">
+        <v>5.1158020000000004</v>
+      </c>
+      <c r="F88">
+        <v>5.3439209999999999</v>
+      </c>
+      <c r="G88">
+        <v>2.5587610000000001</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="7"/>
+        <v>4.7938221938000005</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>13.774950108713224</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="9"/>
+        <v>2.5587610000000001</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="10"/>
+        <v>5.3439209999999999</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="11"/>
+        <v>5.3439209999999999</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="12"/>
+        <v>4.7938221938000005</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="13"/>
+        <v>0.30260869658266448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>2017</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>30</v>
+      </c>
+      <c r="E89">
+        <v>5.4144880000000004</v>
+      </c>
+      <c r="F89">
+        <v>6.1178819999999998</v>
+      </c>
+      <c r="G89">
+        <v>7.0563940000000001</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="7"/>
+        <v>7.4285356052000004</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>8.6289120706028353</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="9"/>
+        <v>7.0563940000000001</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="10"/>
+        <v>6.1178819999999998</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="11"/>
+        <v>6.1178819999999998</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="12"/>
+        <v>7.4285356052000004</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="13"/>
+        <v>1.7178128728237592</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>2017</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>31</v>
+      </c>
+      <c r="E90">
+        <v>6.2581600000000002</v>
+      </c>
+      <c r="F90">
+        <v>8.1831309999999995</v>
+      </c>
+      <c r="G90">
+        <v>13.013603</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="7"/>
+        <v>10.918268637400001</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>0.7608235353511863</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="9"/>
+        <v>13.013603</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="10"/>
+        <v>8.1831309999999995</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="11"/>
+        <v>8.1831309999999995</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="12"/>
+        <v>10.918268637400001</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="13"/>
+        <v>7.4809778955220603</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>2017</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>30</v>
+      </c>
+      <c r="E91">
+        <v>7.1466219999999998</v>
+      </c>
+      <c r="F91">
+        <v>11.747901000000001</v>
+      </c>
+      <c r="G91">
+        <v>18.620273999999998</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="7"/>
+        <v>14.202656509199999</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>7.2496532301854471</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="9"/>
+        <v>18.620273999999998</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="10"/>
+        <v>11.747901000000001</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="11"/>
+        <v>11.747901000000001</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="12"/>
+        <v>14.202656509199999</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="13"/>
+        <v>6.0258246099477422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>2017</v>
+      </c>
+      <c r="C92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>31</v>
+      </c>
+      <c r="E92">
+        <v>8.2498620000000003</v>
+      </c>
+      <c r="F92">
+        <v>15.931585</v>
+      </c>
+      <c r="G92">
+        <v>24.936851999999998</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="7"/>
+        <v>17.902907901599999</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>47.282154072141076</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="9"/>
+        <v>24.936851999999998</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="10"/>
+        <v>15.931585</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="11"/>
+        <v>15.931585</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="12"/>
+        <v>17.902907901599999</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="13"/>
+        <v>3.8861139823726392</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>2017</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>31</v>
+      </c>
+      <c r="E93">
+        <v>7.6225909999999999</v>
+      </c>
+      <c r="F93">
+        <v>16.562736999999998</v>
+      </c>
+      <c r="G93">
+        <v>20.501259000000001</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="7"/>
+        <v>15.3045375222</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>56.360364220341047</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="9"/>
+        <v>20.501259000000001</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="10"/>
+        <v>16.562736999999998</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="11"/>
+        <v>16.562736999999998</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="12"/>
+        <v>15.3045375222</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="13"/>
+        <v>1.5830659259361879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>2017</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>30</v>
+      </c>
+      <c r="E94">
+        <v>6.5297140000000002</v>
+      </c>
+      <c r="F94">
+        <v>13.422396000000001</v>
+      </c>
+      <c r="G94">
+        <v>14.604751</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="7"/>
+        <v>11.8503631358</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>19.070802623039619</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="9"/>
+        <v>14.604751</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="10"/>
+        <v>13.422396000000001</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="11"/>
+        <v>13.422396000000001</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="12"/>
+        <v>11.8503631358</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="13"/>
+        <v>2.4712873261248576</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>2017</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>31</v>
+      </c>
+      <c r="E95">
+        <v>5.3447750000000003</v>
+      </c>
+      <c r="F95">
+        <v>8.4957209999999996</v>
+      </c>
+      <c r="G95">
+        <v>7.2975659999999998</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="7"/>
+        <v>7.5698141628000002</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>0.31322154387988949</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="9"/>
+        <v>7.2975659999999998</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="10"/>
+        <v>8.4957209999999996</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="11"/>
+        <v>8.4957209999999996</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="12"/>
+        <v>7.5698141628000002</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="13"/>
+        <v>0.85730347117370631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>2017</v>
+      </c>
+      <c r="C96">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>30</v>
+      </c>
+      <c r="E96">
+        <v>4.818009</v>
+      </c>
+      <c r="F96">
+        <v>6.7252989999999997</v>
+      </c>
+      <c r="G96">
+        <v>-0.246724</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="7"/>
+        <v>3.2949000000000002</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>5.4292914039062978</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="9"/>
+        <v>-0.246724</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="10"/>
+        <v>6.7252989999999997</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="11"/>
+        <v>6.7252989999999997</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="12"/>
+        <v>3.2949000000000002</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="13"/>
+        <v>11.767637299200997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>2017</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>31</v>
+      </c>
+      <c r="E97">
+        <v>4.5630990000000002</v>
+      </c>
+      <c r="F97">
+        <v>4.4009349999999996</v>
+      </c>
+      <c r="G97">
+        <v>-4.8293850000000003</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="7"/>
+        <v>3.2949000000000002</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>21.663886098510524</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="9"/>
+        <v>-4.8293850000000003</v>
+      </c>
+      <c r="N97">
+        <f t="shared" si="10"/>
+        <v>4.4009349999999996</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="11"/>
+        <v>4.4009349999999996</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="12"/>
+        <v>3.2949000000000002</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="13"/>
+        <v>1.2233134212249988</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>2018</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>31</v>
+      </c>
+      <c r="E98">
+        <v>5.0076000000000001</v>
+      </c>
+      <c r="F98">
+        <v>6.1181070000000002</v>
+      </c>
+      <c r="G98">
+        <v>5.5795919999999999</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="7"/>
+        <v>6.5634249936</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>8.6275902457819988</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="9"/>
+        <v>5.5795919999999999</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="10"/>
+        <v>6.1181070000000002</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="11"/>
+        <v>6.1181070000000002</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="12"/>
+        <v>6.5634249936</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="13"/>
+        <v>0.19830811542392945</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>2018</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>28</v>
+      </c>
+      <c r="E99">
+        <v>5.1185080000000003</v>
+      </c>
+      <c r="F99">
+        <v>4.2502230000000001</v>
+      </c>
+      <c r="G99">
+        <v>2.5498029999999998</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99">
+        <v>2.7461000000000002</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="7"/>
+        <v>4.7885745974000002</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>23.089562536615556</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="9"/>
+        <v>2.5498029999999998</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="10"/>
+        <v>4.2502230000000001</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="11"/>
+        <v>4.2502230000000001</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="12"/>
+        <v>4.7885745974000002</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="13"/>
+        <v>0.28982244242313188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>2018</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>31</v>
+      </c>
+      <c r="E100">
+        <v>5.3581110000000001</v>
+      </c>
+      <c r="F100">
+        <v>4.8250279999999997</v>
+      </c>
+      <c r="G100">
+        <v>5.5082599999999999</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="7"/>
+        <v>6.5216387080000002</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="8"/>
+        <v>17.895903347685095</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="9"/>
+        <v>5.5082599999999999</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="10"/>
+        <v>4.8250279999999997</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="11"/>
+        <v>4.8250279999999997</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="12"/>
+        <v>6.5216387080000002</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="13"/>
+        <v>2.8784878945002634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>2018</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>30</v>
+      </c>
+      <c r="E101">
+        <v>5.8127190000000004</v>
+      </c>
+      <c r="F101">
+        <v>6.2287509999999999</v>
+      </c>
+      <c r="G101">
+        <v>9.0376259999999995</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101">
+        <f>(1/12)*SQRT(SUM(K2:K109))</f>
+        <v>3.6250930998980344</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="7"/>
+        <v>8.5891413107999988</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="8"/>
+        <v>7.989848411078964</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="9"/>
+        <v>9.0376259999999995</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="10"/>
+        <v>6.2287509999999999</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="11"/>
+        <v>6.2287509999999999</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="12"/>
+        <v>8.5891413107999988</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="13"/>
+        <v>5.5714424193185152</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>2018</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>31</v>
+      </c>
+      <c r="E102">
+        <v>7.3695170000000001</v>
+      </c>
+      <c r="F102">
+        <v>10.341208999999999</v>
+      </c>
+      <c r="G102">
+        <v>14.467637</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102">
+        <f>(1/12)*SQRT(SUM(R2:R109))</f>
+        <v>1.1853006096424226</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="7"/>
+        <v>11.770041754599999</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="8"/>
+        <v>1.6533485260875904</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="9"/>
+        <v>14.467637</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="10"/>
+        <v>10.341208999999999</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="11"/>
+        <v>10.341208999999999</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="12"/>
+        <v>11.770041754599999</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="13"/>
+        <v>2.0415630406178242</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>2018</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>30</v>
+      </c>
+      <c r="E103">
+        <v>7.3800800000000004</v>
+      </c>
+      <c r="F103">
+        <v>12.749307</v>
+      </c>
+      <c r="G103">
+        <v>15.423711000000001</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="7"/>
+        <v>12.3301099038</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="8"/>
+        <v>13.645074586181998</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="9"/>
+        <v>15.423711000000001</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="10"/>
+        <v>12.749307</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="11"/>
+        <v>12.749307</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="12"/>
+        <v>12.3301099038</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="13"/>
+        <v>0.17572620546251169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>2018</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>31</v>
+      </c>
+      <c r="E104">
+        <v>8.407959</v>
+      </c>
+      <c r="F104">
+        <v>16.671403999999999</v>
+      </c>
+      <c r="G104">
+        <v>20.496765</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="7"/>
+        <v>15.301904937</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="8"/>
+        <v>58.003776013478408</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="9"/>
+        <v>20.496765</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="10"/>
+        <v>16.671403999999999</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="11"/>
+        <v>16.671403999999999</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="12"/>
+        <v>15.301904937</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="13"/>
+        <v>1.8755276835578758</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>2018</v>
+      </c>
+      <c r="C105">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>31</v>
+      </c>
+      <c r="E105">
+        <v>8.2837960000000006</v>
+      </c>
+      <c r="F105">
+        <v>16.85783</v>
+      </c>
+      <c r="G105">
+        <v>19.262259</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="7"/>
+        <v>14.578731322199999</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="8"/>
+        <v>60.878179332298757</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="9"/>
+        <v>19.262259</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="10"/>
+        <v>16.85783</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="11"/>
+        <v>16.85783</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="12"/>
+        <v>14.578731322199999</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="13"/>
+        <v>5.19429078314971</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>2018</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <v>30</v>
+      </c>
+      <c r="E106">
+        <v>7.0831480000000004</v>
+      </c>
+      <c r="F106">
+        <v>12.116732000000001</v>
+      </c>
+      <c r="G106">
+        <v>14.452723000000001</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="7"/>
+        <v>11.7613051334</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="8"/>
+        <v>9.371857756492652</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="9"/>
+        <v>14.452723000000001</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="10"/>
+        <v>12.116732000000001</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="11"/>
+        <v>12.116732000000001</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="12"/>
+        <v>11.7613051334</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="13"/>
+        <v>0.12632825750109436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>2018</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>31</v>
+      </c>
+      <c r="E107">
+        <v>5.938123</v>
+      </c>
+      <c r="F107">
+        <v>9.4111759999999993</v>
+      </c>
+      <c r="G107">
+        <v>11.042744000000001</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="7"/>
+        <v>9.7637394352000015</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="8"/>
+        <v>0.12658866543775879</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="9"/>
+        <v>11.042744000000001</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="10"/>
+        <v>9.4111759999999993</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="11"/>
+        <v>9.4111759999999993</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="12"/>
+        <v>9.7637394352000015</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="13"/>
+        <v>0.12430097584002617</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>2018</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>30</v>
+      </c>
+      <c r="E108">
+        <v>5.1767469999999998</v>
+      </c>
+      <c r="F108">
+        <v>6.3036919999999999</v>
+      </c>
+      <c r="G108">
+        <v>6.3645849999999999</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="7"/>
+        <v>7.0232738929999998</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="8"/>
+        <v>7.5718033085237604</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="9"/>
+        <v>6.3645849999999999</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="10"/>
+        <v>6.3036919999999999</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="11"/>
+        <v>6.3036919999999999</v>
+      </c>
+      <c r="Q108">
+        <f t="shared" si="12"/>
+        <v>7.0232738929999998</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="13"/>
+        <v>0.51779810073346344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>2018</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>31</v>
+      </c>
+      <c r="E109">
+        <v>4.937602</v>
+      </c>
+      <c r="F109">
+        <v>5.5905180000000003</v>
+      </c>
+      <c r="G109">
+        <v>3.6972330000000002</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="7"/>
+        <v>5.4607390914000007</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="8"/>
+        <v>12.005289404060832</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="9"/>
+        <v>3.6972330000000002</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="10"/>
+        <v>5.5905180000000003</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="11"/>
+        <v>5.5905180000000003</v>
+      </c>
+      <c r="Q109">
+        <f t="shared" si="12"/>
+        <v>5.4607390914000007</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="13"/>
+        <v>1.684256511740706E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <f t="shared" ref="E110:F110" si="14">AVERAGE(E2:E109)</f>
+        <v>6.1602766018518533</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="14"/>
+        <v>9.0553829907407408</v>
+      </c>
+      <c r="G110">
+        <f>AVERAGE(G2:G109)</f>
+        <v>9.833689296296301</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ref="J110:K110" si="15">AVERAGE(J2:J109)</f>
+        <v>9.1560529491703715</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="15"/>
+        <v>17.521733310571122</v>
+      </c>
+      <c r="M110">
+        <f t="shared" ref="M110:N110" si="16">AVERAGE(M2:M109)</f>
+        <v>9.833689296296301</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="16"/>
+        <v>9.0553829907407408</v>
+      </c>
+      <c r="P110">
+        <f t="shared" ref="P110:R110" si="17">AVERAGE(P2:P109)</f>
+        <v>9.0553829907407408</v>
+      </c>
+      <c r="Q110">
+        <f t="shared" si="17"/>
+        <v>9.1560529491703715</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="17"/>
+        <v>1.8732500469582649</v>
       </c>
     </row>
   </sheetData>

--- a/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
+++ b/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C06BD258-C587-4FAD-A3B1-C5756DA2CB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{98A7E6D9-4B51-4405-9AAB-CC2B45ABB478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
@@ -34,15 +34,6 @@
     <t xml:space="preserve"> days in month</t>
   </si>
   <si>
-    <t xml:space="preserve"> Stream temp in Blue R below Tidbits Cr degC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Air temp at Blue R below Tidbits Cr deg C</t>
-  </si>
-  <si>
     <t>slope</t>
   </si>
   <si>
@@ -62,6 +53,15 @@
   </si>
   <si>
     <t>(Tw-Tw_bar)^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stream temp in S Fork abv CGR degC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Air temp at S Fork abv CGR degC</t>
   </si>
   <si>
     <t>air temp but not lower than 0</t>
@@ -727,7 +727,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -751,328 +751,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5.995069</c:v>
+                  <c:v>5.5611240000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7064260000000004</c:v>
+                  <c:v>5.204129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4635199999999999</c:v>
+                  <c:v>5.0899530000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8469829999999998</c:v>
+                  <c:v>5.3831249999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3546389999999997</c:v>
+                  <c:v>6.4534450000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6800379999999997</c:v>
+                  <c:v>8.8064929999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.584220999999999</c:v>
+                  <c:v>11.253795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.261647999999999</c:v>
+                  <c:v>10.724527999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.806131000000001</c:v>
+                  <c:v>9.3905910000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8069469999999992</c:v>
+                  <c:v>7.7608730000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3599959999999998</c:v>
+                  <c:v>5.7657990000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.272043</c:v>
+                  <c:v>4.8019150000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6519149999999998</c:v>
+                  <c:v>4.3048380000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.530357</c:v>
+                  <c:v>3.5831170000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.778022</c:v>
+                  <c:v>4.5250349999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.180104</c:v>
+                  <c:v>4.8515620000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3966960000000004</c:v>
+                  <c:v>5.832058</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9151740000000004</c:v>
+                  <c:v>7.7188309999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.210819000000001</c:v>
+                  <c:v>10.470634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.696068</c:v>
+                  <c:v>10.573588000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.140558</c:v>
+                  <c:v>9.3907810000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.113104</c:v>
+                  <c:v>7.5293890000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.8270860000000004</c:v>
+                  <c:v>5.3008189999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.21502</c:v>
+                  <c:v>3.5235210000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3466950000000004</c:v>
+                  <c:v>4.1981859999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3152239999999997</c:v>
+                  <c:v>4.2563820000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.1118129999999997</c:v>
+                  <c:v>4.3000590000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5996569999999997</c:v>
+                  <c:v>5.3488879999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8391130000000002</c:v>
+                  <c:v>6.8545740000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.6897059999999993</c:v>
+                  <c:v>8.6545620000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.292591</c:v>
+                  <c:v>10.81798</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.783275</c:v>
+                  <c:v>8.1575600000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.040979999999999</c:v>
+                  <c:v>9.2495150000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.8601080000000003</c:v>
+                  <c:v>7.6215419999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.1383010000000002</c:v>
+                  <c:v>6.709956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9432869999999998</c:v>
+                  <c:v>4.9356859999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7774809999999999</c:v>
+                  <c:v>3.6660560000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4470419999999997</c:v>
+                  <c:v>4.3088790000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.2057549999999999</c:v>
+                  <c:v>4.8697699999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.2931949999999999</c:v>
+                  <c:v>5.6472230000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0125589999999995</c:v>
+                  <c:v>7.939508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.620977999999999</c:v>
+                  <c:v>9.6459100000000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.109044999999998</c:v>
+                  <c:v>11.247596</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.403063</c:v>
+                  <c:v>10.529299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.773477</c:v>
+                  <c:v>9.5790260000000007</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6693629999999997</c:v>
+                  <c:v>6.826441</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3303070000000004</c:v>
+                  <c:v>5.7604949999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3336269999999999</c:v>
+                  <c:v>3.2154120000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5585680000000002</c:v>
+                  <c:v>4.2341430000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6808779999999999</c:v>
+                  <c:v>4.2153099999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.966812</c:v>
+                  <c:v>5.1653010000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.9964919999999999</c:v>
+                  <c:v>6.1528090000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3046369999999996</c:v>
+                  <c:v>8.2855150000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.878055</c:v>
+                  <c:v>9.8023209999999992</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.008330999999998</c:v>
+                  <c:v>11.490181</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.785382999999999</c:v>
+                  <c:v>10.824233</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.869374000000001</c:v>
+                  <c:v>9.5962580000000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.811021</c:v>
+                  <c:v>8.3947640000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.4374570000000002</c:v>
+                  <c:v>6.7528550000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9163920000000001</c:v>
+                  <c:v>6.0831379999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9007389999999997</c:v>
+                  <c:v>5.1523380000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.5825889999999996</c:v>
+                  <c:v>6.0189560000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.894501</c:v>
+                  <c:v>6.4329400000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.3208640000000003</c:v>
+                  <c:v>6.7924300000000004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.762707000000001</c:v>
+                  <c:v>8.9587699999999995</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.518577000000001</c:v>
+                  <c:v>11.389341</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.680610999999999</c:v>
+                  <c:v>11.897917</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.090021</c:v>
+                  <c:v>11.168345</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.509548000000001</c:v>
+                  <c:v>9.3149300000000004</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.196471000000001</c:v>
+                  <c:v>8.3287630000000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.740685</c:v>
+                  <c:v>5.9748169999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.9052759999999997</c:v>
+                  <c:v>5.4039159999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9835349999999998</c:v>
+                  <c:v>4.6272169999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8835810000000004</c:v>
+                  <c:v>5.3779450000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.9938599999999997</c:v>
+                  <c:v>5.659497</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.9413900000000002</c:v>
+                  <c:v>6.7848269999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.368010999999999</c:v>
+                  <c:v>8.7718749999999996</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.459146</c:v>
+                  <c:v>10.353471000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.561928</c:v>
+                  <c:v>11.011625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.301983</c:v>
+                  <c:v>10.872294999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.822082999999999</c:v>
+                  <c:v>9.0363220000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9084380000000003</c:v>
+                  <c:v>8.2622250000000008</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.2723960000000005</c:v>
+                  <c:v>7.2404169999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.093515</c:v>
+                  <c:v>4.67211</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.808535</c:v>
+                  <c:v>3.6666099999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.1422619999999997</c:v>
+                  <c:v>4.7065109999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.3439209999999999</c:v>
+                  <c:v>4.946485</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.1178819999999998</c:v>
+                  <c:v>5.5992629999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.1831309999999995</c:v>
+                  <c:v>7.0140260000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.747901000000001</c:v>
+                  <c:v>9.7849989999999991</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.931585</c:v>
+                  <c:v>11.298373</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>16.562736999999998</c:v>
+                  <c:v>10.501163</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.422396000000001</c:v>
+                  <c:v>9.2247319999999995</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.4957209999999996</c:v>
+                  <c:v>7.2264099999999996</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.7252989999999997</c:v>
+                  <c:v>6.0619870000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.4009349999999996</c:v>
+                  <c:v>4.5872989999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.1181070000000002</c:v>
+                  <c:v>4.9552849999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2502230000000001</c:v>
+                  <c:v>4.2978680000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.8250279999999997</c:v>
+                  <c:v>4.6569880000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.2287509999999999</c:v>
+                  <c:v>5.8367180000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10.341208999999999</c:v>
+                  <c:v>8.8799700000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.749307</c:v>
+                  <c:v>10.157683</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.671403999999999</c:v>
+                  <c:v>11.548427</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.85783</c:v>
+                  <c:v>10.903589</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.116732000000001</c:v>
+                  <c:v>8.9095630000000003</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.4111759999999993</c:v>
+                  <c:v>7.4504200000000003</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.3036919999999999</c:v>
+                  <c:v>5.8304580000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5905180000000003</c:v>
+                  <c:v>4.8333740000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1117,328 +1117,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>6.1356555081139739</c:v>
+                  <c:v>5.5406029236442773</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0111636556337178</c:v>
+                  <c:v>5.3652272550483389</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.860659708273765</c:v>
+                  <c:v>5.2677200728858562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5575675334601087</c:v>
+                  <c:v>5.6051016167234273</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0330459318789575</c:v>
+                  <c:v>6.5289248226160082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.825867965623623</c:v>
+                  <c:v>8.1405669373676943</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.499298837113741</c:v>
+                  <c:v>10.311348311644846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.26741476451256</c:v>
+                  <c:v>10.210642679171549</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.815096051038594</c:v>
+                  <c:v>8.8247006261123282</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9434667122386919</c:v>
+                  <c:v>7.209104118462248</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1491501282377197</c:v>
+                  <c:v>4.9982389637715627</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.2263866701454358</c:v>
+                  <c:v>4.5713331872584169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8449870198214402</c:v>
+                  <c:v>4.9485526795823844</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6714996624191958</c:v>
+                  <c:v>4.0785497247884717</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.5987198118064079</c:v>
+                  <c:v>5.0220458847643972</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0654329501468744</c:v>
+                  <c:v>5.15614625985432</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2166034101596086</c:v>
+                  <c:v>6.5278902956086977</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.670575450746581</c:v>
+                  <c:v>8.5371401410886154</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.282762628107726</c:v>
+                  <c:v>9.7156177415191003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.305121092442038</c:v>
+                  <c:v>10.509950391537375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.9296773370856</c:v>
+                  <c:v>10.273520688565668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9233452387426198</c:v>
+                  <c:v>7.3103778372725259</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0756974138978848</c:v>
+                  <c:v>4.9617745220218881</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3599110204497284</c:v>
+                  <c:v>4.6499546045559992</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.2495858742318102</c:v>
+                  <c:v>4.6752560933141263</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6444207295434934</c:v>
+                  <c:v>4.6544465900913821</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.5238163696227183</c:v>
+                  <c:v>4.6863087419340799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.3042583967776817</c:v>
+                  <c:v>6.633882255679028</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.7948968094743911</c:v>
+                  <c:v>7.5429137582803998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11.141329000055357</c:v>
+                  <c:v>8.2626671003451584</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.203053612987455</c:v>
+                  <c:v>10.310158680879525</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.066097284629732</c:v>
+                  <c:v>11.007563529035263</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.409430993739646</c:v>
+                  <c:v>10.148421978421815</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.4671057994586434</c:v>
+                  <c:v>7.6851213164498109</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.7063700280236498</c:v>
+                  <c:v>6.0099182840102445</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4309508191940967</c:v>
+                  <c:v>4.0304378190361829</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.926699798873285</c:v>
+                  <c:v>4.3674063802947805</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4937116424846817</c:v>
+                  <c:v>4.5672899485180549</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.5403586626233707</c:v>
+                  <c:v>5.7066550493497292</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.9566895063837642</c:v>
+                  <c:v>6.3523105827485811</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>10.364754569465305</c:v>
+                  <c:v>7.8598042886507518</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12.598384202237414</c:v>
+                  <c:v>9.2046468575607321</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>15.04502759574544</c:v>
+                  <c:v>10.961638887443264</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>15.118470783473871</c:v>
+                  <c:v>10.82655857283368</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>12.152235207269502</c:v>
+                  <c:v>9.0392083705095452</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.8183416576539102</c:v>
+                  <c:v>7.114294311120501</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.8241403961249851</c:v>
+                  <c:v>5.4668085461166127</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.6500362069302827</c:v>
+                  <c:v>4.311368371335826</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.6883869612336344</c:v>
+                  <c:v>5.6922744463103339</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8140985701187242</c:v>
+                  <c:v>4.8081431203165081</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.9180881696088843</c:v>
+                  <c:v>5.8941664576136663</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.5614133938914811</c:v>
+                  <c:v>6.7396246191679001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>10.829653205887386</c:v>
+                  <c:v>8.0494423501404171</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.876075890623383</c:v>
+                  <c:v>8.7193083754752756</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>15.598491327728206</c:v>
+                  <c:v>10.998090152902817</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>15.043549700763261</c:v>
+                  <c:v>10.701943620770031</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.32926328857619</c:v>
+                  <c:v>9.8607067661055243</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.433149288258058</c:v>
+                  <c:v>8.1100943194347437</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.337092530674072</c:v>
+                  <c:v>5.7115468411739627</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.5982631695665352</c:v>
+                  <c:v>5.44991993036881</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.6125317779792221</c:v>
+                  <c:v>6.2547284839651187</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.5997222962879691</c:v>
+                  <c:v>6.4289883090204203</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.8666403072476605</c:v>
+                  <c:v>6.9986275659115691</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.2273691161513991</c:v>
+                  <c:v>6.5458604965428187</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.937013035529548</c:v>
+                  <c:v>8.147407314268289</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14.780991209662195</c:v>
+                  <c:v>10.385388897565079</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.144628953061735</c:v>
+                  <c:v>10.706726614084397</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.056678641490198</c:v>
+                  <c:v>10.759940002906578</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11.899647902769292</c:v>
+                  <c:v>9.0013796180340719</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.251628106868775</c:v>
+                  <c:v>8.5929289299315439</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.467568222848664</c:v>
+                  <c:v>5.218831518947221</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.5026863455328785</c:v>
+                  <c:v>4.7372520442009183</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.1497128334178708</c:v>
+                  <c:v>4.9367241357069478</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.8185534985724026</c:v>
+                  <c:v>5.8574757601393221</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.6692479989268323</c:v>
+                  <c:v>5.7326959162164286</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.185386259771867</c:v>
+                  <c:v>7.6245243111085665</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>11.092661988154058</c:v>
+                  <c:v>8.2132466007510168</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>12.822189073262194</c:v>
+                  <c:v>9.2424899157226239</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.499799159285036</c:v>
+                  <c:v>9.7784505750613704</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.013944168062695</c:v>
+                  <c:v>10.755322277916887</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11.534812346762797</c:v>
+                  <c:v>8.8182540320536731</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.5334407223852331</c:v>
+                  <c:v>7.0838013640542172</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.6300683642481921</c:v>
+                  <c:v>6.5432184621405973</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.9508972493535683</c:v>
+                  <c:v>3.7340303963589765</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.7008903863284726</c:v>
+                  <c:v>3.6148839811614817</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.7008903863284726</c:v>
+                  <c:v>3.6148839811614817</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.3259785008503311</c:v>
+                  <c:v>4.5188881643830765</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.1824586221986282</c:v>
+                  <c:v>6.1817348484114536</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>10.965926301134896</c:v>
+                  <c:v>8.4338628732488949</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.5267646928934</c:v>
+                  <c:v>10.522704663910257</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.538470292693557</c:v>
+                  <c:v>12.955433321075246</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.721392236104313</c:v>
+                  <c:v>11.345452171809825</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>11.976476213082602</c:v>
+                  <c:v>9.0916586639009331</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.3356287505363138</c:v>
+                  <c:v>6.3169273497197924</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.7008903863284726</c:v>
+                  <c:v>3.6148839811614817</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.7008903863284726</c:v>
+                  <c:v>3.6148839811614817</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.2445307040764941</c:v>
+                  <c:v>5.6073449742330936</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.3202892085210021</c:v>
+                  <c:v>4.3983932500079304</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.1992272211075594</c:v>
+                  <c:v>5.4999807976628921</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.440753779624572</c:v>
+                  <c:v>6.6507637185836215</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>11.889394093363508</c:v>
+                  <c:v>8.6325477755364801</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.496603791339744</c:v>
+                  <c:v>9.0564836162560756</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>15.718538063328246</c:v>
+                  <c:v>11.013973982412441</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>14.934494134291528</c:v>
+                  <c:v>10.619245082843198</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11.879922101200123</c:v>
+                  <c:v>8.9654083460003982</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.7142191130472106</c:v>
+                  <c:v>7.7505397145794932</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.743085588367312</c:v>
+                  <c:v>5.9520856643366429</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.0490305232611501</c:v>
+                  <c:v>5.022127954228587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,256 +1929,256 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.4081640000000002</c:v>
+                  <c:v>5.1152610000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2121469999999999</c:v>
+                  <c:v>4.649413</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9751729999999998</c:v>
+                  <c:v>4.3904059999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0724799999999997</c:v>
+                  <c:v>5.2865880000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3956750000000007</c:v>
+                  <c:v>7.7405270000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.793075999999999</c:v>
+                  <c:v>12.021509999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18.577027999999999</c:v>
+                  <c:v>17.787727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.211918000000001</c:v>
+                  <c:v>17.520223999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.350652</c:v>
+                  <c:v>13.838765</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8291660000000007</c:v>
+                  <c:v>9.5472780000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8548749999999998</c:v>
+                  <c:v>3.6745869999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4019499999999998</c:v>
+                  <c:v>2.5406029999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3759589999999999</c:v>
+                  <c:v>3.5426060000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.52826</c:v>
+                  <c:v>1.2316290000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5627389999999997</c:v>
+                  <c:v>3.737825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2975960000000004</c:v>
+                  <c:v>4.0940339999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.6846929999999993</c:v>
+                  <c:v>7.7377789999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14.123099</c:v>
+                  <c:v>13.074922000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.661546999999999</c:v>
+                  <c:v>16.205296000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.271287999999998</c:v>
+                  <c:v>18.315270999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.680137999999999</c:v>
+                  <c:v>17.687245999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.7974840000000007</c:v>
+                  <c:v>9.8162900000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7392210000000001</c:v>
+                  <c:v>3.5777269999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6121889999999999</c:v>
+                  <c:v>2.749444</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4384779999999999</c:v>
+                  <c:v>2.8166519999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.0601600000000002</c:v>
+                  <c:v>2.7613759999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8702640000000001</c:v>
+                  <c:v>2.8460109999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.8227089999999997</c:v>
+                  <c:v>8.0193239999999992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11.169774</c:v>
+                  <c:v>10.433972000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>13.289781</c:v>
+                  <c:v>12.345843</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.110579000000001</c:v>
+                  <c:v>17.784566999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.469473000000001</c:v>
+                  <c:v>19.637073999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>16.860990999999999</c:v>
+                  <c:v>17.354948</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.653655000000001</c:v>
+                  <c:v>10.811716000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.306775</c:v>
+                  <c:v>6.3618969999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1495070000000001</c:v>
+                  <c:v>1.1038300000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.9300820000000001</c:v>
+                  <c:v>1.998915</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8228629999999999</c:v>
+                  <c:v>2.5298630000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.0453840000000003</c:v>
+                  <c:v>5.556343</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.2754490000000001</c:v>
+                  <c:v>7.2713890000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.067036</c:v>
+                  <c:v>11.275724</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>15.583968</c:v>
+                  <c:v>14.848011</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19.436298000000001</c:v>
+                  <c:v>19.515084999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.551936999999999</c:v>
+                  <c:v>19.156272999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.881489999999999</c:v>
+                  <c:v>14.408559</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.6321519999999996</c:v>
+                  <c:v>9.2954360000000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9176719999999996</c:v>
+                  <c:v>4.9192419999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4944649999999999</c:v>
+                  <c:v>1.8500620000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.2784599999999999</c:v>
+                  <c:v>5.5181440000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.3273239999999999</c:v>
+                  <c:v>3.169638</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6401329999999996</c:v>
+                  <c:v>6.0544269999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.2276089999999993</c:v>
+                  <c:v>8.3002059999999993</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.799035999999999</c:v>
+                  <c:v>11.779457000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>14.446667</c:v>
+                  <c:v>13.558813000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20.307746999999999</c:v>
+                  <c:v>19.611910000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>19.433971</c:v>
+                  <c:v>18.82526</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>16.734763999999998</c:v>
+                  <c:v>16.590693999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.174726</c:v>
+                  <c:v>11.940566</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7253340000000001</c:v>
+                  <c:v>5.569337</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.5620200000000004</c:v>
+                  <c:v>4.8743809999999996</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.7335599999999998</c:v>
+                  <c:v>7.0121830000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.7133909999999997</c:v>
+                  <c:v>7.4750670000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>9.7081999999999997</c:v>
+                  <c:v>8.9881919999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.7016439999999999</c:v>
+                  <c:v>7.7855129999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.968078</c:v>
+                  <c:v>12.039680000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19.020562999999999</c:v>
+                  <c:v>17.984400000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.593124</c:v>
+                  <c:v>18.837965000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.454643000000001</c:v>
+                  <c:v>18.979315</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.483782</c:v>
+                  <c:v>14.308075000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13.463450999999999</c:v>
+                  <c:v>13.223113</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.356236</c:v>
+                  <c:v>4.2605440000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.8369939999999998</c:v>
+                  <c:v>2.981331</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.8557610000000002</c:v>
+                  <c:v>3.5111859999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.4834120000000004</c:v>
+                  <c:v>5.9569660000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.2483250000000004</c:v>
+                  <c:v>5.625515</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>11.784613999999999</c:v>
+                  <c:v>10.650753</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>13.213153</c:v>
+                  <c:v>12.214568</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>15.936356999999999</c:v>
+                  <c:v>14.948532999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>17.003278999999999</c:v>
+                  <c:v>16.372198000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>19.387356</c:v>
+                  <c:v>18.967048999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.909335</c:v>
+                  <c:v>13.821641</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.1835649999999998</c:v>
+                  <c:v>9.2144379999999995</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.7611720000000002</c:v>
+                  <c:v>7.7784950000000004</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.39364500000000002</c:v>
+                  <c:v>0.31648700000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0</c:v>
@@ -2187,28 +2187,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.5587610000000001</c:v>
+                  <c:v>2.401294</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.0563940000000001</c:v>
+                  <c:v>6.8182910000000003</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>13.013603</c:v>
+                  <c:v>12.800587999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.620273999999998</c:v>
+                  <c:v>18.349150000000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>24.936851999999998</c:v>
+                  <c:v>24.811174000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>20.501259000000001</c:v>
+                  <c:v>20.534603000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.604751</c:v>
+                  <c:v>14.547882</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.2975659999999998</c:v>
+                  <c:v>7.1774009999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0</c:v>
@@ -2217,43 +2217,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.5795919999999999</c:v>
+                  <c:v>5.2925469999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.5498029999999998</c:v>
+                  <c:v>2.0812249999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.5082599999999999</c:v>
+                  <c:v>5.0073569999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.0376259999999995</c:v>
+                  <c:v>8.0641660000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>14.467637</c:v>
+                  <c:v>13.328352000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>15.423711000000001</c:v>
+                  <c:v>14.454447</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>20.496765</c:v>
+                  <c:v>19.654102000000002</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>19.262259</c:v>
+                  <c:v>18.605588999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>14.452723000000001</c:v>
+                  <c:v>14.212524999999999</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11.042744000000001</c:v>
+                  <c:v>10.985486</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.3645849999999999</c:v>
+                  <c:v>6.2082769999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.6972330000000002</c:v>
+                  <c:v>3.7380429999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>10.005382296296302</c:v>
+                  <c:v>9.6194778611111111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,331 +2265,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.995069</c:v>
+                  <c:v>5.5611240000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7064260000000004</c:v>
+                  <c:v>5.204129</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4635199999999999</c:v>
+                  <c:v>5.0899530000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8469829999999998</c:v>
+                  <c:v>5.3831249999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3546389999999997</c:v>
+                  <c:v>6.4534450000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.6800379999999997</c:v>
+                  <c:v>8.8064929999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.584220999999999</c:v>
+                  <c:v>11.253795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.261647999999999</c:v>
+                  <c:v>10.724527999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.806131000000001</c:v>
+                  <c:v>9.3905910000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8069469999999992</c:v>
+                  <c:v>7.7608730000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3599959999999998</c:v>
+                  <c:v>5.7657990000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.272043</c:v>
+                  <c:v>4.8019150000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6519149999999998</c:v>
+                  <c:v>4.3048380000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.530357</c:v>
+                  <c:v>3.5831170000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.778022</c:v>
+                  <c:v>4.5250349999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.180104</c:v>
+                  <c:v>4.8515620000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3966960000000004</c:v>
+                  <c:v>5.832058</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9151740000000004</c:v>
+                  <c:v>7.7188309999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13.210819000000001</c:v>
+                  <c:v>10.470634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.696068</c:v>
+                  <c:v>10.573588000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.140558</c:v>
+                  <c:v>9.3907810000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.113104</c:v>
+                  <c:v>7.5293890000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.8270860000000004</c:v>
+                  <c:v>5.3008189999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.21502</c:v>
+                  <c:v>3.5235210000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3466950000000004</c:v>
+                  <c:v>4.1981859999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.3152239999999997</c:v>
+                  <c:v>4.2563820000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.1118129999999997</c:v>
+                  <c:v>4.3000590000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5996569999999997</c:v>
+                  <c:v>5.3488879999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8391130000000002</c:v>
+                  <c:v>6.8545740000000004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.6897059999999993</c:v>
+                  <c:v>8.6545620000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.292591</c:v>
+                  <c:v>10.81798</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.783275</c:v>
+                  <c:v>8.1575600000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.040979999999999</c:v>
+                  <c:v>9.2495150000000006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.8601080000000003</c:v>
+                  <c:v>7.6215419999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.1383010000000002</c:v>
+                  <c:v>6.709956</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9432869999999998</c:v>
+                  <c:v>4.9356859999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.7774809999999999</c:v>
+                  <c:v>3.6660560000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4470419999999997</c:v>
+                  <c:v>4.3088790000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.2057549999999999</c:v>
+                  <c:v>4.8697699999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.2931949999999999</c:v>
+                  <c:v>5.6472230000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0125589999999995</c:v>
+                  <c:v>7.939508</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.620977999999999</c:v>
+                  <c:v>9.6459100000000007</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>16.109044999999998</c:v>
+                  <c:v>11.247596</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>16.403063</c:v>
+                  <c:v>10.529299</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.773477</c:v>
+                  <c:v>9.5790260000000007</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.6693629999999997</c:v>
+                  <c:v>6.826441</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3303070000000004</c:v>
+                  <c:v>5.7604949999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3336269999999999</c:v>
+                  <c:v>3.2154120000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.5585680000000002</c:v>
+                  <c:v>4.2341430000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.6808779999999999</c:v>
+                  <c:v>4.2153099999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.966812</c:v>
+                  <c:v>5.1653010000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.9964919999999999</c:v>
+                  <c:v>6.1528090000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.3046369999999996</c:v>
+                  <c:v>8.2855150000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.878055</c:v>
+                  <c:v>9.8023209999999992</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.008330999999998</c:v>
+                  <c:v>11.490181</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.785382999999999</c:v>
+                  <c:v>10.824233</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>13.869374000000001</c:v>
+                  <c:v>9.5962580000000006</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.811021</c:v>
+                  <c:v>8.3947640000000003</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.4374570000000002</c:v>
+                  <c:v>6.7528550000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.9163920000000001</c:v>
+                  <c:v>6.0831379999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.9007389999999997</c:v>
+                  <c:v>5.1523380000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.5825889999999996</c:v>
+                  <c:v>6.0189560000000002</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.894501</c:v>
+                  <c:v>6.4329400000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.3208640000000003</c:v>
+                  <c:v>6.7924300000000004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.762707000000001</c:v>
+                  <c:v>8.9587699999999995</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.518577000000001</c:v>
+                  <c:v>11.389341</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>17.680610999999999</c:v>
+                  <c:v>11.897917</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.090021</c:v>
+                  <c:v>11.168345</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.509548000000001</c:v>
+                  <c:v>9.3149300000000004</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>11.196471000000001</c:v>
+                  <c:v>8.3287630000000004</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.740685</c:v>
+                  <c:v>5.9748169999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.9052759999999997</c:v>
+                  <c:v>5.4039159999999997</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9835349999999998</c:v>
+                  <c:v>4.6272169999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8835810000000004</c:v>
+                  <c:v>5.3779450000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.9938599999999997</c:v>
+                  <c:v>5.659497</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.9413900000000002</c:v>
+                  <c:v>6.7848269999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.368010999999999</c:v>
+                  <c:v>8.7718749999999996</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>13.459146</c:v>
+                  <c:v>10.353471000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.561928</c:v>
+                  <c:v>11.011625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>16.301983</c:v>
+                  <c:v>10.872294999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.822082999999999</c:v>
+                  <c:v>9.0363220000000002</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9084380000000003</c:v>
+                  <c:v>8.2622250000000008</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.2723960000000005</c:v>
+                  <c:v>7.2404169999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.093515</c:v>
+                  <c:v>4.67211</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.808535</c:v>
+                  <c:v>3.6666099999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.1422619999999997</c:v>
+                  <c:v>4.7065109999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.3439209999999999</c:v>
+                  <c:v>4.946485</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.1178819999999998</c:v>
+                  <c:v>5.5992629999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.1831309999999995</c:v>
+                  <c:v>7.0140260000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.747901000000001</c:v>
+                  <c:v>9.7849989999999991</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.931585</c:v>
+                  <c:v>11.298373</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>16.562736999999998</c:v>
+                  <c:v>10.501163</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>13.422396000000001</c:v>
+                  <c:v>9.2247319999999995</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.4957209999999996</c:v>
+                  <c:v>7.2264099999999996</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.7252989999999997</c:v>
+                  <c:v>6.0619870000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.4009349999999996</c:v>
+                  <c:v>4.5872989999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.1181070000000002</c:v>
+                  <c:v>4.9552849999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2502230000000001</c:v>
+                  <c:v>4.2978680000000002</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.8250279999999997</c:v>
+                  <c:v>4.6569880000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.2287509999999999</c:v>
+                  <c:v>5.8367180000000003</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10.341208999999999</c:v>
+                  <c:v>8.8799700000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>12.749307</c:v>
+                  <c:v>10.157683</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16.671403999999999</c:v>
+                  <c:v>11.548427</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>16.85783</c:v>
+                  <c:v>10.903589</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.116732000000001</c:v>
+                  <c:v>8.9095630000000003</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.4111759999999993</c:v>
+                  <c:v>7.4504200000000003</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.3036919999999999</c:v>
+                  <c:v>5.8304580000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5905180000000003</c:v>
+                  <c:v>4.8333740000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.0553829907407408</c:v>
+                  <c:v>7.2362848703703699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4386,8 +4386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4409,42 +4409,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="1" t="str">
         <f>F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</v>
       </c>
       <c r="O1" s="1" t="str">
         <f>F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="1" t="str">
         <f>F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14161100_temp_BLUE RIVER BELOW TIDBITS CREEK  NR BLUE RIVER  OR_23773429.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -4461,52 +4461,52 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>5.0337579999999997</v>
+        <v>4.983333</v>
       </c>
       <c r="F2">
-        <v>5.995069</v>
+        <v>5.5611240000000004</v>
       </c>
       <c r="G2">
-        <v>5.4081640000000002</v>
+        <v>5.1152610000000003</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <f>SLOPE(M2:M109,L2:L109)</f>
-        <v>0.63510742680612153</v>
+        <v>0.37646543206354377</v>
       </c>
       <c r="J2">
         <f>(F2-F$110)^2</f>
-        <v>9.3655217219235194</v>
+        <v>2.8061639416200141</v>
       </c>
       <c r="K2">
         <f>SLOPE(M2:M109,L2:L109)</f>
-        <v>0.63510742680612153</v>
+        <v>0.37646543206354377</v>
       </c>
       <c r="L2">
         <f>MAX(G2,0)</f>
-        <v>5.4081640000000002</v>
+        <v>5.1152610000000003</v>
       </c>
       <c r="M2">
         <f>F2</f>
-        <v>5.995069</v>
+        <v>5.5611240000000004</v>
       </c>
       <c r="O2">
         <f>F2</f>
-        <v>5.995069</v>
+        <v>5.5611240000000004</v>
       </c>
       <c r="Q2">
         <f>(S2-M2)^2</f>
-        <v>1.9764566263680446E-2</v>
+        <v>4.2111457479741723E-4</v>
       </c>
       <c r="S2">
         <f>L2*I$2+I$3</f>
-        <v>6.1356555081139739</v>
+        <v>5.5406029236442773</v>
       </c>
       <c r="T2">
         <f>F2</f>
-        <v>5.995069</v>
+        <v>5.5611240000000004</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -4523,48 +4523,48 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>5.2502069999999996</v>
+        <v>5.2462260000000001</v>
       </c>
       <c r="F3">
-        <v>5.7064260000000004</v>
+        <v>5.204129</v>
       </c>
       <c r="G3">
-        <v>5.2121469999999999</v>
+        <v>4.649413</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <f>INTERCEPT(M2:M109,L2:L109)</f>
-        <v>2.7008903863284726</v>
+        <v>3.6148839811614817</v>
       </c>
       <c r="J3">
         <f>(F3-F$110)^2</f>
-        <v>11.215512925831275</v>
+        <v>4.1296574814807556</v>
       </c>
       <c r="L3">
         <f>MAX(G3,0)</f>
-        <v>5.2121469999999999</v>
+        <v>4.649413</v>
       </c>
       <c r="M3">
         <f>F3</f>
-        <v>5.7064260000000004</v>
+        <v>5.204129</v>
       </c>
       <c r="O3">
         <f>F3</f>
-        <v>5.7064260000000004</v>
+        <v>5.204129</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="0">(S3-M3)^2</f>
-        <v>9.2865038761134111E-2</v>
+        <v>2.5952647779619635E-2</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="1">L3*I$2+I$3</f>
-        <v>6.0111636556337178</v>
+        <v>5.3652272550483389</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T66" si="2">F3</f>
-        <v>5.7064260000000004</v>
+        <v>5.204129</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -4581,48 +4581,48 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>5.5751559999999998</v>
+        <v>5.7393200000000002</v>
       </c>
       <c r="F4">
-        <v>5.4635199999999999</v>
+        <v>5.0899530000000004</v>
       </c>
       <c r="G4">
-        <v>4.9751729999999998</v>
+        <v>4.3904059999999996</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <f>RSQ(M2:M109,L2:L109)</f>
-        <v>0.89908746807327211</v>
+        <v>0.90060253789893352</v>
       </c>
       <c r="J4">
         <f>(F4-F$110)^2</f>
-        <v>12.90147974425302</v>
+        <v>4.6067404977675688</v>
       </c>
       <c r="L4">
         <f>MAX(G4,0)</f>
-        <v>4.9751729999999998</v>
+        <v>4.3904059999999996</v>
       </c>
       <c r="M4">
         <f>F4</f>
-        <v>5.4635199999999999</v>
+        <v>5.0899530000000004</v>
       </c>
       <c r="O4">
         <f>F4</f>
-        <v>5.4635199999999999</v>
+        <v>5.0899530000000004</v>
       </c>
       <c r="Q4">
         <f t="shared" si="0"/>
-        <v>0.15771994788777124</v>
+        <v>3.1601132202405173E-2</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>5.860659708273765</v>
+        <v>5.2677200728858562</v>
       </c>
       <c r="T4">
         <f t="shared" si="2"/>
-        <v>5.4635199999999999</v>
+        <v>5.0899530000000004</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -4639,13 +4639,13 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>5.6404370000000004</v>
+        <v>5.9586629999999996</v>
       </c>
       <c r="F5">
-        <v>5.8469829999999998</v>
+        <v>5.3831249999999997</v>
       </c>
       <c r="G5">
-        <v>6.0724799999999997</v>
+        <v>5.2865880000000001</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>18</v>
@@ -4656,31 +4656,31 @@
       </c>
       <c r="J5">
         <f>(F5-F$110)^2</f>
-        <v>10.293830500585187</v>
+        <v>3.4342015051511274</v>
       </c>
       <c r="L5">
         <f>MAX(G5,0)</f>
-        <v>6.0724799999999997</v>
+        <v>5.2865880000000001</v>
       </c>
       <c r="M5">
         <f>F5</f>
-        <v>5.8469829999999998</v>
+        <v>5.3831249999999997</v>
       </c>
       <c r="O5">
         <f>F5</f>
-        <v>5.8469829999999998</v>
+        <v>5.3831249999999997</v>
       </c>
       <c r="Q5">
         <f t="shared" si="0"/>
-        <v>0.50493037919272055</v>
+        <v>4.927361837197948E-2</v>
       </c>
       <c r="S5">
         <f t="shared" si="1"/>
-        <v>6.5575675334601087</v>
+        <v>5.6051016167234273</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
-        <v>5.8469829999999998</v>
+        <v>5.3831249999999997</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -4697,48 +4697,48 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>6.0187249999999999</v>
+        <v>6.2439270000000002</v>
       </c>
       <c r="F6">
-        <v>7.3546389999999997</v>
+        <v>6.4534450000000003</v>
       </c>
       <c r="G6">
-        <v>8.3956750000000007</v>
+        <v>7.7405270000000002</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I6" s="4">
         <f>(1/108)*SQRT(SUM(Q2:Q109))</f>
-        <v>0.12795262694373238</v>
+        <v>7.3912054557271512E-2</v>
       </c>
       <c r="J6">
         <f>(F6-F$110)^2</f>
-        <v>2.8925301220407422</v>
+        <v>0.6128382626414971</v>
       </c>
       <c r="L6">
         <f>MAX(G6,0)</f>
-        <v>8.3956750000000007</v>
+        <v>7.7405270000000002</v>
       </c>
       <c r="M6">
         <f>F6</f>
-        <v>7.3546389999999997</v>
+        <v>6.4534450000000003</v>
       </c>
       <c r="O6">
         <f>F6</f>
-        <v>7.3546389999999997</v>
+        <v>6.4534450000000003</v>
       </c>
       <c r="Q6">
         <f t="shared" si="0"/>
-        <v>0.46023596522142096</v>
+        <v>5.697203622144007E-3</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>8.0330459318789575</v>
+        <v>6.5289248226160082</v>
       </c>
       <c r="T6">
         <f t="shared" si="2"/>
-        <v>7.3546389999999997</v>
+        <v>6.4534450000000003</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -4755,41 +4755,41 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>6.6253310000000001</v>
+        <v>6.7417850000000001</v>
       </c>
       <c r="F7">
-        <v>9.6800379999999997</v>
+        <v>8.8064929999999997</v>
       </c>
       <c r="G7">
-        <v>12.793075999999999</v>
+        <v>12.021509999999999</v>
       </c>
       <c r="J7">
         <f>(F7-F$110)^2</f>
-        <v>0.39019388059268478</v>
+        <v>2.46555357035498</v>
       </c>
       <c r="L7">
         <f>MAX(G7,0)</f>
-        <v>12.793075999999999</v>
+        <v>12.021509999999999</v>
       </c>
       <c r="M7">
         <f>F7</f>
-        <v>9.6800379999999997</v>
+        <v>8.8064929999999997</v>
       </c>
       <c r="O7">
         <f>F7</f>
-        <v>9.6800379999999997</v>
+        <v>8.8064929999999997</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>1.3129263101210327</v>
+        <v>0.44345752089296508</v>
       </c>
       <c r="S7">
         <f t="shared" si="1"/>
-        <v>10.825867965623623</v>
+        <v>8.1405669373676943</v>
       </c>
       <c r="T7">
         <f t="shared" si="2"/>
-        <v>9.6800379999999997</v>
+        <v>8.8064929999999997</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -4806,41 +4806,41 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>8.0312180000000009</v>
+        <v>8.0498410000000007</v>
       </c>
       <c r="F8">
-        <v>14.584220999999999</v>
+        <v>11.253795</v>
       </c>
       <c r="G8">
-        <v>18.577027999999999</v>
+        <v>17.787727</v>
       </c>
       <c r="J8">
         <f>(F8-F$110)^2</f>
-        <v>30.568049732629881</v>
+        <v>16.140387641676689</v>
       </c>
       <c r="L8">
         <f>MAX(G8,0)</f>
-        <v>18.577027999999999</v>
+        <v>17.787727</v>
       </c>
       <c r="M8">
         <f>F8</f>
-        <v>14.584220999999999</v>
+        <v>11.253795</v>
       </c>
       <c r="O8">
         <f>F8</f>
-        <v>14.584220999999999</v>
+        <v>11.253795</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>7.2117737492801322E-3</v>
+        <v>0.88820576039159782</v>
       </c>
       <c r="S8">
         <f t="shared" si="1"/>
-        <v>14.499298837113741</v>
+        <v>10.311348311644846</v>
       </c>
       <c r="T8">
         <f t="shared" si="2"/>
-        <v>14.584220999999999</v>
+        <v>11.253795</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -4857,41 +4857,41 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <v>7.9637000000000002</v>
+        <v>7.8786880000000004</v>
       </c>
       <c r="F9">
-        <v>15.261647999999999</v>
+        <v>10.724527999999999</v>
       </c>
       <c r="G9">
-        <v>18.211918000000001</v>
+        <v>17.520223999999999</v>
       </c>
       <c r="J9">
         <f>(F9-F$110)^2</f>
-        <v>38.517725365155826</v>
+        <v>12.167840131408312</v>
       </c>
       <c r="L9">
         <f>MAX(G9,0)</f>
-        <v>18.211918000000001</v>
+        <v>17.520223999999999</v>
       </c>
       <c r="M9">
         <f>F9</f>
-        <v>15.261647999999999</v>
+        <v>10.724527999999999</v>
       </c>
       <c r="O9">
         <f>F9</f>
-        <v>15.261647999999999</v>
+        <v>10.724527999999999</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>0.98849972654782092</v>
+        <v>0.26407812296295918</v>
       </c>
       <c r="S9">
         <f t="shared" si="1"/>
-        <v>14.26741476451256</v>
+        <v>10.210642679171549</v>
       </c>
       <c r="T9">
         <f t="shared" si="2"/>
-        <v>15.261647999999999</v>
+        <v>10.724527999999999</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -4908,41 +4908,41 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>6.6844609999999998</v>
+        <v>6.896039</v>
       </c>
       <c r="F10">
-        <v>12.806131000000001</v>
+        <v>9.3905910000000006</v>
       </c>
       <c r="G10">
-        <v>14.350652</v>
+        <v>13.838765</v>
       </c>
       <c r="J10">
         <f>(F10-F$110)^2</f>
-        <v>14.0681106289623</v>
+        <v>4.6410349001597986</v>
       </c>
       <c r="L10">
         <f>MAX(G10,0)</f>
-        <v>14.350652</v>
+        <v>13.838765</v>
       </c>
       <c r="M10">
         <f>F10</f>
-        <v>12.806131000000001</v>
+        <v>9.3905910000000006</v>
       </c>
       <c r="O10">
         <f>F10</f>
-        <v>12.806131000000001</v>
+        <v>9.3905910000000006</v>
       </c>
       <c r="Q10">
         <f t="shared" si="0"/>
-        <v>0.9821502700629372</v>
+        <v>0.32023191525872963</v>
       </c>
       <c r="S10">
         <f t="shared" si="1"/>
-        <v>11.815096051038594</v>
+        <v>8.8247006261123282</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
-        <v>12.806131000000001</v>
+        <v>9.3905910000000006</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -4959,41 +4959,41 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>5.9015829999999996</v>
+        <v>5.9561190000000002</v>
       </c>
       <c r="F11">
-        <v>9.8069469999999992</v>
+        <v>7.7608730000000001</v>
       </c>
       <c r="G11">
-        <v>9.8291660000000007</v>
+        <v>9.5472780000000004</v>
       </c>
       <c r="J11">
         <f>(F11-F$110)^2</f>
-        <v>0.56484846001385058</v>
+        <v>0.27519270574831367</v>
       </c>
       <c r="L11">
         <f>MAX(G11,0)</f>
-        <v>9.8291660000000007</v>
+        <v>9.5472780000000004</v>
       </c>
       <c r="M11">
         <f>F11</f>
-        <v>9.8069469999999992</v>
+        <v>7.7608730000000001</v>
       </c>
       <c r="O11">
         <f>F11</f>
-        <v>9.8069469999999992</v>
+        <v>7.7608730000000001</v>
       </c>
       <c r="Q11">
         <f t="shared" si="0"/>
-        <v>0.74559820735234994</v>
+        <v>0.304448898633422</v>
       </c>
       <c r="S11">
         <f t="shared" si="1"/>
-        <v>8.9434667122386919</v>
+        <v>7.209104118462248</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
-        <v>9.8069469999999992</v>
+        <v>7.7608730000000001</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -5010,41 +5010,41 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>5.0198689999999999</v>
+        <v>5.0397850000000002</v>
       </c>
       <c r="F12">
-        <v>6.3599959999999998</v>
+        <v>5.7657990000000003</v>
       </c>
       <c r="G12">
-        <v>3.8548749999999998</v>
+        <v>3.6745869999999998</v>
       </c>
       <c r="J12">
         <f>(F12-F$110)^2</f>
-        <v>7.2651110298544275</v>
+        <v>2.1623286949589033</v>
       </c>
       <c r="L12">
         <f>MAX(G12,0)</f>
-        <v>3.8548749999999998</v>
+        <v>3.6745869999999998</v>
       </c>
       <c r="M12">
         <f>F12</f>
-        <v>6.3599959999999998</v>
+        <v>5.7657990000000003</v>
       </c>
       <c r="O12">
         <f>F12</f>
-        <v>6.3599959999999998</v>
+        <v>5.7657990000000003</v>
       </c>
       <c r="Q12">
         <f t="shared" si="0"/>
-        <v>1.466147725163756</v>
+        <v>0.58914840921500045</v>
       </c>
       <c r="S12">
         <f t="shared" si="1"/>
-        <v>5.1491501282377197</v>
+        <v>4.9982389637715627</v>
       </c>
       <c r="T12">
         <f t="shared" si="2"/>
-        <v>6.3599959999999998</v>
+        <v>5.7657990000000003</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -5061,41 +5061,41 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>4.9052369999999996</v>
+        <v>4.816497</v>
       </c>
       <c r="F13">
-        <v>5.272043</v>
+        <v>4.8019150000000002</v>
       </c>
       <c r="G13">
-        <v>2.4019499999999998</v>
+        <v>2.5406029999999999</v>
       </c>
       <c r="J13">
         <f>(F13-F$110)^2</f>
-        <v>14.313661485538148</v>
+        <v>5.926156665767051</v>
       </c>
       <c r="L13">
         <f>MAX(G13,0)</f>
-        <v>2.4019499999999998</v>
+        <v>2.5406029999999999</v>
       </c>
       <c r="M13">
         <f>F13</f>
-        <v>5.272043</v>
+        <v>4.8019150000000002</v>
       </c>
       <c r="O13">
         <f>F13</f>
-        <v>5.272043</v>
+        <v>4.8019150000000002</v>
       </c>
       <c r="Q13">
         <f t="shared" si="0"/>
-        <v>1.0933971601649173</v>
+        <v>5.3167972367194581E-2</v>
       </c>
       <c r="S13">
         <f t="shared" si="1"/>
-        <v>4.2263866701454358</v>
+        <v>4.5713331872584169</v>
       </c>
       <c r="T13">
         <f t="shared" si="2"/>
-        <v>5.272043</v>
+        <v>4.8019150000000002</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -5112,41 +5112,41 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>4.9701269999999997</v>
+        <v>4.934253</v>
       </c>
       <c r="F14">
-        <v>4.6519149999999998</v>
+        <v>4.3048380000000002</v>
       </c>
       <c r="G14">
-        <v>3.3759589999999999</v>
+        <v>3.5426060000000001</v>
       </c>
       <c r="J14">
         <f>(F14-F$110)^2</f>
-        <v>19.3905303454783</v>
+        <v>8.5933807538042348</v>
       </c>
       <c r="L14">
         <f>MAX(G14,0)</f>
-        <v>3.3759589999999999</v>
+        <v>3.5426060000000001</v>
       </c>
       <c r="M14">
         <f>F14</f>
-        <v>4.6519149999999998</v>
+        <v>4.3048380000000002</v>
       </c>
       <c r="O14">
         <f>F14</f>
-        <v>4.6519149999999998</v>
+        <v>4.3048380000000002</v>
       </c>
       <c r="Q14">
         <f t="shared" si="0"/>
-        <v>3.7276804837930673E-2</v>
+        <v>0.41436858870985166</v>
       </c>
       <c r="S14">
         <f t="shared" si="1"/>
-        <v>4.8449870198214402</v>
+        <v>4.9485526795823844</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
-        <v>4.6519149999999998</v>
+        <v>4.3048380000000002</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -5163,41 +5163,41 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>5.0592030000000001</v>
+        <v>5.0063829999999996</v>
       </c>
       <c r="F15">
-        <v>3.530357</v>
+        <v>3.5831170000000001</v>
       </c>
       <c r="G15">
-        <v>1.52826</v>
+        <v>1.2316290000000001</v>
       </c>
       <c r="J15">
         <f>(F15-F$110)^2</f>
-        <v>30.5259121983607</v>
+        <v>13.345635489106384</v>
       </c>
       <c r="L15">
         <f>MAX(G15,0)</f>
-        <v>1.52826</v>
+        <v>1.2316290000000001</v>
       </c>
       <c r="M15">
         <f>F15</f>
-        <v>3.530357</v>
+        <v>3.5831170000000001</v>
       </c>
       <c r="O15">
         <f>F15</f>
-        <v>3.530357</v>
+        <v>3.5831170000000001</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>1.9921251154779072E-2</v>
+        <v>0.24545358479132939</v>
       </c>
       <c r="S15">
         <f t="shared" si="1"/>
-        <v>3.6714996624191958</v>
+        <v>4.0785497247884717</v>
       </c>
       <c r="T15">
         <f t="shared" si="2"/>
-        <v>3.530357</v>
+        <v>3.5831170000000001</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -5214,41 +5214,41 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.1796259999999998</v>
+        <v>5.2800989999999999</v>
       </c>
       <c r="F16">
-        <v>4.778022</v>
+        <v>4.5250349999999999</v>
       </c>
       <c r="G16">
-        <v>4.5627389999999997</v>
+        <v>3.737825</v>
       </c>
       <c r="J16">
         <f>(F16-F$110)^2</f>
-        <v>18.295817045110613</v>
+        <v>7.3508758595833479</v>
       </c>
       <c r="L16">
         <f>MAX(G16,0)</f>
-        <v>4.5627389999999997</v>
+        <v>3.737825</v>
       </c>
       <c r="M16">
         <f>F16</f>
-        <v>4.778022</v>
+        <v>4.5250349999999999</v>
       </c>
       <c r="O16">
         <f>F16</f>
-        <v>4.778022</v>
+        <v>4.5250349999999999</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>0.67354489830382613</v>
+        <v>0.24701981957428898</v>
       </c>
       <c r="S16">
         <f t="shared" si="1"/>
-        <v>5.5987198118064079</v>
+        <v>5.0220458847643972</v>
       </c>
       <c r="T16">
         <f t="shared" si="2"/>
-        <v>4.778022</v>
+        <v>4.5250349999999999</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -5265,41 +5265,41 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>5.4630099999999997</v>
+        <v>5.630503</v>
       </c>
       <c r="F17">
-        <v>5.180104</v>
+        <v>4.8515620000000004</v>
       </c>
       <c r="G17">
-        <v>5.2975960000000004</v>
+        <v>4.0940339999999997</v>
       </c>
       <c r="J17">
         <f>(F17-F$110)^2</f>
-        <v>15.017787256076575</v>
+        <v>5.6869031684674942</v>
       </c>
       <c r="L17">
         <f>MAX(G17,0)</f>
-        <v>5.2975960000000004</v>
+        <v>4.0940339999999997</v>
       </c>
       <c r="M17">
         <f>F17</f>
-        <v>5.180104</v>
+        <v>4.8515620000000004</v>
       </c>
       <c r="O17">
         <f>F17</f>
-        <v>5.180104</v>
+        <v>4.8515620000000004</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>0.78380734996816681</v>
+        <v>9.2771571351003682E-2</v>
       </c>
       <c r="S17">
         <f t="shared" si="1"/>
-        <v>6.0654329501468744</v>
+        <v>5.15614625985432</v>
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
-        <v>5.180104</v>
+        <v>4.8515620000000004</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -5316,41 +5316,41 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>6.0111540000000003</v>
+        <v>6.0524209999999998</v>
       </c>
       <c r="F18">
-        <v>6.3966960000000004</v>
+        <v>5.832058</v>
       </c>
       <c r="G18">
-        <v>8.6846929999999993</v>
+        <v>7.7377789999999997</v>
       </c>
       <c r="J18">
         <f>(F18-F$110)^2</f>
-        <v>7.0686165147340541</v>
+        <v>1.9718531034701638</v>
       </c>
       <c r="L18">
         <f>MAX(G18,0)</f>
-        <v>8.6846929999999993</v>
+        <v>7.7377789999999997</v>
       </c>
       <c r="M18">
         <f>F18</f>
-        <v>6.3966960000000004</v>
+        <v>5.832058</v>
       </c>
       <c r="O18">
         <f>F18</f>
-        <v>6.3966960000000004</v>
+        <v>5.832058</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>3.3120629815538525</v>
+        <v>0.48418258361207012</v>
       </c>
       <c r="S18">
         <f t="shared" si="1"/>
-        <v>8.2166034101596086</v>
+        <v>6.5278902956086977</v>
       </c>
       <c r="T18">
         <f t="shared" si="2"/>
-        <v>6.3966960000000004</v>
+        <v>5.832058</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -5367,41 +5367,41 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>6.9946029999999997</v>
+        <v>6.608867</v>
       </c>
       <c r="F19">
-        <v>8.9151740000000004</v>
+        <v>7.7188309999999998</v>
       </c>
       <c r="G19">
-        <v>14.123099</v>
+        <v>13.074922000000001</v>
       </c>
       <c r="J19">
         <f>(F19-F$110)^2</f>
-        <v>1.9658561084537042E-2</v>
+        <v>0.23285076722053552</v>
       </c>
       <c r="L19">
         <f>MAX(G19,0)</f>
-        <v>14.123099</v>
+        <v>13.074922000000001</v>
       </c>
       <c r="M19">
         <f>F19</f>
-        <v>8.9151740000000004</v>
+        <v>7.7188309999999998</v>
       </c>
       <c r="O19">
         <f>F19</f>
-        <v>8.9151740000000004</v>
+        <v>7.7188309999999998</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
-        <v>7.5922371547763605</v>
+        <v>0.66962985038918788</v>
       </c>
       <c r="S19">
         <f t="shared" si="1"/>
-        <v>11.670575450746581</v>
+        <v>8.5371401410886154</v>
       </c>
       <c r="T19">
         <f t="shared" si="2"/>
-        <v>8.9151740000000004</v>
+        <v>7.7188309999999998</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -5418,41 +5418,41 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>7.5187549999999996</v>
+        <v>7.539841</v>
       </c>
       <c r="F20">
-        <v>13.210819000000001</v>
+        <v>10.470634</v>
       </c>
       <c r="G20">
-        <v>16.661546999999999</v>
+        <v>16.205296000000001</v>
       </c>
       <c r="J20">
         <f>(F20-F$110)^2</f>
-        <v>17.267648427048524</v>
+        <v>10.461014292335948</v>
       </c>
       <c r="L20">
         <f>MAX(G20,0)</f>
-        <v>16.661546999999999</v>
+        <v>16.205296000000001</v>
       </c>
       <c r="M20">
         <f>F20</f>
-        <v>13.210819000000001</v>
+        <v>10.470634</v>
       </c>
       <c r="O20">
         <f>F20</f>
-        <v>13.210819000000001</v>
+        <v>10.470634</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
-        <v>5.1758856253026437E-3</v>
+        <v>0.57004955057049744</v>
       </c>
       <c r="S20">
         <f t="shared" si="1"/>
-        <v>13.282762628107726</v>
+        <v>9.7156177415191003</v>
       </c>
       <c r="T20">
         <f t="shared" si="2"/>
-        <v>13.210819000000001</v>
+        <v>10.470634</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -5469,41 +5469,41 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>8.0709379999999999</v>
+        <v>7.9891500000000004</v>
       </c>
       <c r="F21">
-        <v>15.696068</v>
+        <v>10.573588000000001</v>
       </c>
       <c r="G21">
-        <v>18.271287999999998</v>
+        <v>18.315270999999999</v>
       </c>
       <c r="J21">
         <f>(F21-F$110)^2</f>
-        <v>44.098697392200648</v>
+        <v>11.13759217903573</v>
       </c>
       <c r="L21">
         <f>MAX(G21,0)</f>
-        <v>18.271287999999998</v>
+        <v>18.315270999999999</v>
       </c>
       <c r="M21">
         <f>F21</f>
-        <v>15.696068</v>
+        <v>10.573588000000001</v>
       </c>
       <c r="O21">
         <f>F21</f>
-        <v>15.696068</v>
+        <v>10.573588000000001</v>
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
-        <v>1.9347332996450592</v>
+        <v>4.0497452108424889E-3</v>
       </c>
       <c r="S21">
         <f t="shared" si="1"/>
-        <v>14.305121092442038</v>
+        <v>10.509950391537375</v>
       </c>
       <c r="T21">
         <f t="shared" si="2"/>
-        <v>15.696068</v>
+        <v>10.573588000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -5520,41 +5520,41 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>7.4533339999999999</v>
+        <v>7.337771</v>
       </c>
       <c r="F22">
-        <v>14.140558</v>
+        <v>9.3907810000000005</v>
       </c>
       <c r="G22">
-        <v>17.680137999999999</v>
+        <v>17.687245999999998</v>
       </c>
       <c r="J22">
         <f>(F22-F$110)^2</f>
-        <v>25.859004874794909</v>
+        <v>4.6418535725890582</v>
       </c>
       <c r="L22">
         <f>MAX(G22,0)</f>
-        <v>17.680137999999999</v>
+        <v>17.687245999999998</v>
       </c>
       <c r="M22">
         <f>F22</f>
-        <v>14.140558</v>
+        <v>9.3907810000000005</v>
       </c>
       <c r="O22">
         <f>F22</f>
-        <v>14.140558</v>
+        <v>9.3907810000000005</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>4.4470653991216892E-2</v>
+        <v>0.7792293577690117</v>
       </c>
       <c r="S22">
         <f t="shared" si="1"/>
-        <v>13.9296773370856</v>
+        <v>10.273520688565668</v>
       </c>
       <c r="T22">
         <f t="shared" si="2"/>
-        <v>14.140558</v>
+        <v>9.3907810000000005</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -5571,41 +5571,41 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>5.8336880000000004</v>
+        <v>6.0370949999999999</v>
       </c>
       <c r="F23">
-        <v>10.113104</v>
+        <v>7.5293890000000001</v>
       </c>
       <c r="G23">
-        <v>9.7974840000000007</v>
+        <v>9.8162900000000004</v>
       </c>
       <c r="J23">
         <f>(F23-F$110)^2</f>
-        <v>1.1187737334284256</v>
+        <v>8.5910030805943047E-2</v>
       </c>
       <c r="L23">
         <f>MAX(G23,0)</f>
-        <v>9.7974840000000007</v>
+        <v>9.8162900000000004</v>
       </c>
       <c r="M23">
         <f>F23</f>
-        <v>10.113104</v>
+        <v>7.5293890000000001</v>
       </c>
       <c r="O23">
         <f>F23</f>
-        <v>10.113104</v>
+        <v>7.5293890000000001</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
-        <v>1.4155259099886957</v>
+        <v>4.7965889399240194E-2</v>
       </c>
       <c r="S23">
         <f t="shared" si="1"/>
-        <v>8.9233452387426198</v>
+        <v>7.3103778372725259</v>
       </c>
       <c r="T23">
         <f t="shared" si="2"/>
-        <v>10.113104</v>
+        <v>7.5293890000000001</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -5622,41 +5622,41 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <v>5.0490170000000001</v>
+        <v>5.0719779999999997</v>
       </c>
       <c r="F24">
-        <v>5.8270860000000004</v>
+        <v>5.3008189999999997</v>
       </c>
       <c r="G24">
-        <v>3.7392210000000001</v>
+        <v>3.5777269999999999</v>
       </c>
       <c r="J24">
         <f>(F24-F$110)^2</f>
-        <v>10.421901460425721</v>
+        <v>3.7460281353685345</v>
       </c>
       <c r="L24">
         <f>MAX(G24,0)</f>
-        <v>3.7392210000000001</v>
+        <v>3.5777269999999999</v>
       </c>
       <c r="M24">
         <f>F24</f>
-        <v>5.8270860000000004</v>
+        <v>5.3008189999999997</v>
       </c>
       <c r="O24">
         <f>F24</f>
-        <v>5.8270860000000004</v>
+        <v>5.3008189999999997</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
-        <v>0.56458480732453653</v>
+        <v>0.11495115804745024</v>
       </c>
       <c r="S24">
         <f t="shared" si="1"/>
-        <v>5.0756974138978848</v>
+        <v>4.9617745220218881</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
-        <v>5.8270860000000004</v>
+        <v>5.3008189999999997</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -5673,41 +5673,41 @@
         <v>31</v>
       </c>
       <c r="E25">
-        <v>4.914485</v>
+        <v>4.8349580000000003</v>
       </c>
       <c r="F25">
-        <v>3.21502</v>
+        <v>3.5235210000000001</v>
       </c>
       <c r="G25">
-        <v>2.6121889999999999</v>
+        <v>2.749444</v>
       </c>
       <c r="J25">
         <f>(F25-F$110)^2</f>
-        <v>34.109839863614134</v>
+        <v>13.784615557127568</v>
       </c>
       <c r="L25">
         <f>MAX(G25,0)</f>
-        <v>2.6121889999999999</v>
+        <v>2.749444</v>
       </c>
       <c r="M25">
         <f>F25</f>
-        <v>3.21502</v>
+        <v>3.5235210000000001</v>
       </c>
       <c r="O25">
         <f>F25</f>
-        <v>3.21502</v>
+        <v>3.5235210000000001</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>1.3107754487064205</v>
+        <v>1.2688526654730208</v>
       </c>
       <c r="S25">
         <f t="shared" si="1"/>
-        <v>4.3599110204497284</v>
+        <v>4.6499546045559992</v>
       </c>
       <c r="T25">
         <f t="shared" si="2"/>
-        <v>3.21502</v>
+        <v>3.5235210000000001</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -5724,41 +5724,41 @@
         <v>31</v>
       </c>
       <c r="E26">
-        <v>4.9582459999999999</v>
+        <v>4.9048470000000002</v>
       </c>
       <c r="F26">
-        <v>4.3466950000000004</v>
+        <v>4.1981859999999998</v>
       </c>
       <c r="G26">
-        <v>2.4384779999999999</v>
+        <v>2.8166519999999999</v>
       </c>
       <c r="J26">
         <f>(F26-F$110)^2</f>
-        <v>22.171742594146071</v>
+        <v>9.2300447461457189</v>
       </c>
       <c r="L26">
         <f>MAX(G26,0)</f>
-        <v>2.4384779999999999</v>
+        <v>2.8166519999999999</v>
       </c>
       <c r="M26">
         <f>F26</f>
-        <v>4.3466950000000004</v>
+        <v>4.1981859999999998</v>
       </c>
       <c r="O26">
         <f>F26</f>
-        <v>4.3466950000000004</v>
+        <v>4.1981859999999998</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>9.4301823074621812E-3</v>
+        <v>0.22759587393474939</v>
       </c>
       <c r="S26">
         <f t="shared" si="1"/>
-        <v>4.2495858742318102</v>
+        <v>4.6752560933141263</v>
       </c>
       <c r="T26">
         <f t="shared" si="2"/>
-        <v>4.3466950000000004</v>
+        <v>4.1981859999999998</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -5775,41 +5775,41 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>5.0792630000000001</v>
+        <v>5.0810380000000004</v>
       </c>
       <c r="F27">
-        <v>4.3152239999999997</v>
+        <v>4.2563820000000003</v>
       </c>
       <c r="G27">
-        <v>3.0601600000000002</v>
+        <v>2.7613759999999998</v>
       </c>
       <c r="J27">
         <f>(F27-F$110)^2</f>
-        <v>22.46910725750028</v>
+        <v>8.8798211168415673</v>
       </c>
       <c r="L27">
         <f>MAX(G27,0)</f>
-        <v>3.0601600000000002</v>
+        <v>2.7613759999999998</v>
       </c>
       <c r="M27">
         <f>F27</f>
-        <v>4.3152239999999997</v>
+        <v>4.2563820000000003</v>
       </c>
       <c r="O27">
         <f>F27</f>
-        <v>4.3152239999999997</v>
+        <v>4.2563820000000003</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>0.10837048674213211</v>
+        <v>0.15845541788461975</v>
       </c>
       <c r="S27">
         <f t="shared" si="1"/>
-        <v>4.6444207295434934</v>
+        <v>4.6544465900913821</v>
       </c>
       <c r="T27">
         <f t="shared" si="2"/>
-        <v>4.3152239999999997</v>
+        <v>4.2563820000000003</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -5826,41 +5826,41 @@
         <v>31</v>
       </c>
       <c r="E28">
-        <v>5.2452860000000001</v>
+        <v>5.336551</v>
       </c>
       <c r="F28">
-        <v>4.1118129999999997</v>
+        <v>4.3000590000000001</v>
       </c>
       <c r="G28">
-        <v>2.8702640000000001</v>
+        <v>2.8460109999999998</v>
       </c>
       <c r="J28">
         <f>(F28-F$110)^2</f>
-        <v>24.438884253352413</v>
+        <v>8.6214223618322361</v>
       </c>
       <c r="L28">
         <f>MAX(G28,0)</f>
-        <v>2.8702640000000001</v>
+        <v>2.8460109999999998</v>
       </c>
       <c r="M28">
         <f>F28</f>
-        <v>4.1118129999999997</v>
+        <v>4.3000590000000001</v>
       </c>
       <c r="O28">
         <f>F28</f>
-        <v>4.1118129999999997</v>
+        <v>4.3000590000000001</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>0.16974677658047443</v>
+        <v>0.14918886314414323</v>
       </c>
       <c r="S28">
         <f t="shared" si="1"/>
-        <v>4.5238163696227183</v>
+        <v>4.6863087419340799</v>
       </c>
       <c r="T28">
         <f t="shared" si="2"/>
-        <v>4.1118129999999997</v>
+        <v>4.3000590000000001</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -5877,41 +5877,41 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <v>5.6333859999999998</v>
+        <v>5.8612830000000002</v>
       </c>
       <c r="F29">
-        <v>5.5996569999999997</v>
+        <v>5.3488879999999996</v>
       </c>
       <c r="G29">
-        <v>8.8227089999999997</v>
+        <v>8.0193239999999992</v>
       </c>
       <c r="J29">
         <f>(F29-F$110)^2</f>
-        <v>11.942042123081077</v>
+        <v>3.5622669462838683</v>
       </c>
       <c r="L29">
         <f>MAX(G29,0)</f>
-        <v>8.8227089999999997</v>
+        <v>8.0193239999999992</v>
       </c>
       <c r="M29">
         <f>F29</f>
-        <v>5.5996569999999997</v>
+        <v>5.3488879999999996</v>
       </c>
       <c r="O29">
         <f>F29</f>
-        <v>5.5996569999999997</v>
+        <v>5.3488879999999996</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
-        <v>7.3148687154517891</v>
+        <v>1.6512102371281001</v>
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
-        <v>8.3042583967776817</v>
+        <v>6.633882255679028</v>
       </c>
       <c r="T29">
         <f t="shared" si="2"/>
-        <v>5.5996569999999997</v>
+        <v>5.3488879999999996</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -5928,41 +5928,41 @@
         <v>31</v>
       </c>
       <c r="E30">
-        <v>6.5814649999999997</v>
+        <v>6.4225440000000003</v>
       </c>
       <c r="F30">
-        <v>7.8391130000000002</v>
+        <v>6.8545740000000004</v>
       </c>
       <c r="G30">
-        <v>11.169774</v>
+        <v>10.433972000000001</v>
       </c>
       <c r="J30">
         <f>(F30-F$110)^2</f>
-        <v>1.4793126903764813</v>
+        <v>0.14570318855890507</v>
       </c>
       <c r="L30">
         <f>MAX(G30,0)</f>
-        <v>11.169774</v>
+        <v>10.433972000000001</v>
       </c>
       <c r="M30">
         <f>F30</f>
-        <v>7.8391130000000002</v>
+        <v>6.8545740000000004</v>
       </c>
       <c r="O30">
         <f>F30</f>
-        <v>7.8391130000000002</v>
+        <v>6.8545740000000004</v>
       </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>3.8250903094021607</v>
+        <v>0.47381162282951866</v>
       </c>
       <c r="S30">
         <f t="shared" si="1"/>
-        <v>9.7948968094743911</v>
+        <v>7.5429137582803998</v>
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
-        <v>7.8391130000000002</v>
+        <v>6.8545740000000004</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -5979,41 +5979,41 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>6.4729409999999996</v>
+        <v>6.6376160000000004</v>
       </c>
       <c r="F31">
-        <v>9.6897059999999993</v>
+        <v>8.6545620000000003</v>
       </c>
       <c r="G31">
-        <v>13.289781</v>
+        <v>12.345843</v>
       </c>
       <c r="J31">
         <f>(F31-F$110)^2</f>
-        <v>0.40236568007572127</v>
+        <v>2.0115100164304636</v>
       </c>
       <c r="L31">
         <f>MAX(G31,0)</f>
-        <v>13.289781</v>
+        <v>12.345843</v>
       </c>
       <c r="M31">
         <f>F31</f>
-        <v>9.6897059999999993</v>
+        <v>8.6545620000000003</v>
       </c>
       <c r="O31">
         <f>F31</f>
-        <v>9.6897059999999993</v>
+        <v>8.6545620000000003</v>
       </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>2.1072093342897182</v>
+        <v>0.15358161237547863</v>
       </c>
       <c r="S31">
         <f t="shared" si="1"/>
-        <v>11.141329000055357</v>
+        <v>8.2626671003451584</v>
       </c>
       <c r="T31">
         <f t="shared" si="2"/>
-        <v>9.6897059999999993</v>
+        <v>8.6545620000000003</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -6030,41 +6030,41 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>7.9430899999999998</v>
+        <v>7.8634810000000002</v>
       </c>
       <c r="F32">
-        <v>14.292591</v>
+        <v>10.81798</v>
       </c>
       <c r="G32">
-        <v>18.110579000000001</v>
+        <v>17.784566999999999</v>
       </c>
       <c r="J32">
         <f>(F32-F$110)^2</f>
-        <v>27.428347732249332</v>
+        <v>12.828540001612614</v>
       </c>
       <c r="L32">
         <f>MAX(G32,0)</f>
-        <v>18.110579000000001</v>
+        <v>17.784566999999999</v>
       </c>
       <c r="M32">
         <f>F32</f>
-        <v>14.292591</v>
+        <v>10.81798</v>
       </c>
       <c r="O32">
         <f>F32</f>
-        <v>14.292591</v>
+        <v>10.81798</v>
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
-        <v>8.0169436730341999E-3</v>
+        <v>0.25788249215325998</v>
       </c>
       <c r="S32">
         <f t="shared" si="1"/>
-        <v>14.203053612987455</v>
+        <v>10.310158680879525</v>
       </c>
       <c r="T32">
         <f t="shared" si="2"/>
-        <v>14.292591</v>
+        <v>10.81798</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -6081,41 +6081,41 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>8.1058649999999997</v>
+        <v>8.0501430000000003</v>
       </c>
       <c r="F33">
-        <v>15.783275</v>
+        <v>8.1575600000000001</v>
       </c>
       <c r="G33">
-        <v>19.469473000000001</v>
+        <v>19.637073999999998</v>
       </c>
       <c r="J33">
         <f>(F33-F$110)^2</f>
-        <v>45.26453088825459</v>
+        <v>0.8487478644740919</v>
       </c>
       <c r="L33">
         <f>MAX(G33,0)</f>
-        <v>19.469473000000001</v>
+        <v>19.637073999999998</v>
       </c>
       <c r="M33">
         <f>F33</f>
-        <v>15.783275</v>
+        <v>8.1575600000000001</v>
       </c>
       <c r="O33">
         <f>F33</f>
-        <v>15.783275</v>
+        <v>8.1575600000000001</v>
       </c>
       <c r="Q33">
         <f t="shared" si="0"/>
-        <v>0.51434387542371629</v>
+        <v>8.1225201155134528</v>
       </c>
       <c r="S33">
         <f t="shared" si="1"/>
-        <v>15.066097284629732</v>
+        <v>11.007563529035263</v>
       </c>
       <c r="T33">
         <f t="shared" si="2"/>
-        <v>15.783275</v>
+        <v>8.1575600000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -6132,41 +6132,41 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>7.3547640000000003</v>
+        <v>7.2795350000000001</v>
       </c>
       <c r="F34">
-        <v>13.040979999999999</v>
+        <v>9.2495150000000006</v>
       </c>
       <c r="G34">
-        <v>16.860990999999999</v>
+        <v>17.354948</v>
       </c>
       <c r="J34">
         <f>(F34-F$110)^2</f>
-        <v>15.884983520216347</v>
+        <v>4.0530955548485395</v>
       </c>
       <c r="L34">
         <f>MAX(G34,0)</f>
-        <v>16.860990999999999</v>
+        <v>17.354948</v>
       </c>
       <c r="M34">
         <f>F34</f>
-        <v>13.040979999999999</v>
+        <v>9.2495150000000006</v>
       </c>
       <c r="O34">
         <f>F34</f>
-        <v>13.040979999999999</v>
+        <v>9.2495150000000006</v>
       </c>
       <c r="Q34">
         <f t="shared" si="0"/>
-        <v>0.13575613478773288</v>
+        <v>0.80803375585543713</v>
       </c>
       <c r="S34">
         <f t="shared" si="1"/>
-        <v>13.409430993739646</v>
+        <v>10.148421978421815</v>
       </c>
       <c r="T34">
         <f t="shared" si="2"/>
-        <v>13.040979999999999</v>
+        <v>9.2495150000000006</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -6183,41 +6183,41 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <v>5.9804820000000003</v>
+        <v>6.0749079999999998</v>
       </c>
       <c r="F35">
-        <v>8.8601080000000003</v>
+        <v>7.6215419999999998</v>
       </c>
       <c r="G35">
-        <v>10.653655000000001</v>
+        <v>10.811716000000001</v>
       </c>
       <c r="J35">
         <f>(F35-F$110)^2</f>
-        <v>3.8132322008796293E-2</v>
+        <v>0.14842305593046143</v>
       </c>
       <c r="L35">
         <f>MAX(G35,0)</f>
-        <v>10.653655000000001</v>
+        <v>10.811716000000001</v>
       </c>
       <c r="M35">
         <f>F35</f>
-        <v>8.8601080000000003</v>
+        <v>7.6215419999999998</v>
       </c>
       <c r="O35">
         <f>F35</f>
-        <v>8.8601080000000003</v>
+        <v>7.6215419999999998</v>
       </c>
       <c r="Q35">
         <f t="shared" si="0"/>
-        <v>0.36844632854763509</v>
+        <v>4.0423294802252171E-3</v>
       </c>
       <c r="S35">
         <f t="shared" si="1"/>
-        <v>9.4671057994586434</v>
+        <v>7.6851213164498109</v>
       </c>
       <c r="T35">
         <f t="shared" si="2"/>
-        <v>8.8601080000000003</v>
+        <v>7.6215419999999998</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -6234,41 +6234,41 @@
         <v>30</v>
       </c>
       <c r="E36">
-        <v>5.1121920000000003</v>
+        <v>5.1222820000000002</v>
       </c>
       <c r="F36">
-        <v>7.1383010000000002</v>
+        <v>6.709956</v>
       </c>
       <c r="G36">
-        <v>6.306775</v>
+        <v>6.3618969999999999</v>
       </c>
       <c r="J36">
         <f>(F36-F$110)^2</f>
-        <v>3.6752033592224809</v>
+        <v>0.27702207978534965</v>
       </c>
       <c r="L36">
         <f>MAX(G36,0)</f>
-        <v>6.306775</v>
+        <v>6.3618969999999999</v>
       </c>
       <c r="M36">
         <f>F36</f>
-        <v>7.1383010000000002</v>
+        <v>6.709956</v>
       </c>
       <c r="O36">
         <f>F36</f>
-        <v>7.1383010000000002</v>
+        <v>6.709956</v>
       </c>
       <c r="Q36">
         <f t="shared" si="0"/>
-        <v>0.18656436455243483</v>
+        <v>0.49005280380815358</v>
       </c>
       <c r="S36">
         <f t="shared" si="1"/>
-        <v>6.7063700280236498</v>
+        <v>6.0099182840102445</v>
       </c>
       <c r="T36">
         <f t="shared" si="2"/>
-        <v>7.1383010000000002</v>
+        <v>6.709956</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -6285,41 +6285,41 @@
         <v>31</v>
       </c>
       <c r="E37">
-        <v>4.8845169999999998</v>
+        <v>4.7990560000000002</v>
       </c>
       <c r="F37">
-        <v>4.9432869999999998</v>
+        <v>4.9356859999999996</v>
       </c>
       <c r="G37">
-        <v>1.1495070000000001</v>
+        <v>1.1038300000000001</v>
       </c>
       <c r="J37">
         <f>(F37-F$110)^2</f>
-        <v>16.909333437066078</v>
+        <v>5.2927551623494242</v>
       </c>
       <c r="L37">
         <f>MAX(G37,0)</f>
-        <v>1.1495070000000001</v>
+        <v>1.1038300000000001</v>
       </c>
       <c r="M37">
         <f>F37</f>
-        <v>4.9432869999999998</v>
+        <v>4.9356859999999996</v>
       </c>
       <c r="O37">
         <f>F37</f>
-        <v>4.9432869999999998</v>
+        <v>4.9356859999999996</v>
       </c>
       <c r="Q37">
         <f t="shared" si="0"/>
-        <v>2.2871607237745852</v>
+        <v>0.81947426913829891</v>
       </c>
       <c r="S37">
         <f t="shared" si="1"/>
-        <v>3.4309508191940967</v>
+        <v>4.0304378190361829</v>
       </c>
       <c r="T37">
         <f t="shared" si="2"/>
-        <v>4.9432869999999998</v>
+        <v>4.9356859999999996</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -6336,41 +6336,41 @@
         <v>31</v>
       </c>
       <c r="E38">
-        <v>4.9369139999999998</v>
+        <v>4.8608219999999998</v>
       </c>
       <c r="F38">
-        <v>3.7774809999999999</v>
+        <v>3.6660560000000002</v>
       </c>
       <c r="G38">
-        <v>1.9300820000000001</v>
+        <v>1.998915</v>
       </c>
       <c r="J38">
         <f>(F38-F$110)^2</f>
-        <v>27.856249423865076</v>
+        <v>12.746534186826086</v>
       </c>
       <c r="L38">
         <f>MAX(G38,0)</f>
-        <v>1.9300820000000001</v>
+        <v>1.998915</v>
       </c>
       <c r="M38">
         <f>F38</f>
-        <v>3.7774809999999999</v>
+        <v>3.6660560000000002</v>
       </c>
       <c r="O38">
         <f>F38</f>
-        <v>3.7774809999999999</v>
+        <v>3.6660560000000002</v>
       </c>
       <c r="Q38">
         <f t="shared" si="0"/>
-        <v>2.2266249937185928E-2</v>
+        <v>0.49189235593963287</v>
       </c>
       <c r="S38">
         <f t="shared" si="1"/>
-        <v>3.926699798873285</v>
+        <v>4.3674063802947805</v>
       </c>
       <c r="T38">
         <f t="shared" si="2"/>
-        <v>3.7774809999999999</v>
+        <v>3.6660560000000002</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -6387,41 +6387,41 @@
         <v>28</v>
       </c>
       <c r="E39">
-        <v>5.117667</v>
+        <v>5.1435199999999996</v>
       </c>
       <c r="F39">
-        <v>4.4470419999999997</v>
+        <v>4.3088790000000001</v>
       </c>
       <c r="G39">
-        <v>2.8228629999999999</v>
+        <v>2.5298630000000002</v>
       </c>
       <c r="J39">
         <f>(F39-F$110)^2</f>
-        <v>21.236806686941357</v>
+        <v>8.5697051298789031</v>
       </c>
       <c r="L39">
         <f>MAX(G39,0)</f>
-        <v>2.8228629999999999</v>
+        <v>2.5298630000000002</v>
       </c>
       <c r="M39">
         <f>F39</f>
-        <v>4.4470419999999997</v>
+        <v>4.3088790000000001</v>
       </c>
       <c r="O39">
         <f>F39</f>
-        <v>4.4470419999999997</v>
+        <v>4.3088790000000001</v>
       </c>
       <c r="Q39">
         <f t="shared" si="0"/>
-        <v>2.1780555296480324E-3</v>
+        <v>6.6776218314000768E-2</v>
       </c>
       <c r="S39">
         <f t="shared" si="1"/>
-        <v>4.4937116424846817</v>
+        <v>4.5672899485180549</v>
       </c>
       <c r="T39">
         <f t="shared" si="2"/>
-        <v>4.4470419999999997</v>
+        <v>4.3088790000000001</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -6438,41 +6438,41 @@
         <v>31</v>
       </c>
       <c r="E40">
-        <v>5.4710190000000001</v>
+        <v>5.5917969999999997</v>
       </c>
       <c r="F40">
-        <v>5.2057549999999999</v>
+        <v>4.8697699999999999</v>
       </c>
       <c r="G40">
-        <v>6.0453840000000003</v>
+        <v>5.556343</v>
       </c>
       <c r="J40">
         <f>(F40-F$110)^2</f>
-        <v>14.819635667094595</v>
+        <v>5.6003926316840893</v>
       </c>
       <c r="L40">
         <f>MAX(G40,0)</f>
-        <v>6.0453840000000003</v>
+        <v>5.556343</v>
       </c>
       <c r="M40">
         <f>F40</f>
-        <v>5.2057549999999999</v>
+        <v>4.8697699999999999</v>
       </c>
       <c r="O40">
         <f>F40</f>
-        <v>5.2057549999999999</v>
+        <v>4.8697699999999999</v>
       </c>
       <c r="Q40">
         <f t="shared" si="0"/>
-        <v>1.7811669362877163</v>
+        <v>0.70037658582509887</v>
       </c>
       <c r="S40">
         <f t="shared" si="1"/>
-        <v>6.5403586626233707</v>
+        <v>5.7066550493497292</v>
       </c>
       <c r="T40">
         <f t="shared" si="2"/>
-        <v>5.2057549999999999</v>
+        <v>4.8697699999999999</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -6489,41 +6489,41 @@
         <v>30</v>
       </c>
       <c r="E41">
-        <v>5.9717310000000001</v>
+        <v>6.0384869999999999</v>
       </c>
       <c r="F41">
-        <v>6.2931949999999999</v>
+        <v>5.6472230000000003</v>
       </c>
       <c r="G41">
-        <v>8.2754490000000001</v>
+        <v>7.2713890000000001</v>
       </c>
       <c r="J41">
         <f>(F41-F$110)^2</f>
-        <v>7.6296824961923715</v>
+        <v>2.5251176278649772</v>
       </c>
       <c r="L41">
         <f>MAX(G41,0)</f>
-        <v>8.2754490000000001</v>
+        <v>7.2713890000000001</v>
       </c>
       <c r="M41">
         <f>F41</f>
-        <v>6.2931949999999999</v>
+        <v>5.6472230000000003</v>
       </c>
       <c r="O41">
         <f>F41</f>
-        <v>6.2931949999999999</v>
+        <v>5.6472230000000003</v>
       </c>
       <c r="Q41">
         <f t="shared" si="0"/>
-        <v>2.7672139727689635</v>
+        <v>0.49714849934623667</v>
       </c>
       <c r="S41">
         <f t="shared" si="1"/>
-        <v>7.9566895063837642</v>
+        <v>6.3523105827485811</v>
       </c>
       <c r="T41">
         <f t="shared" si="2"/>
-        <v>6.2931949999999999</v>
+        <v>5.6472230000000003</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -6540,41 +6540,41 @@
         <v>31</v>
       </c>
       <c r="E42">
-        <v>6.8351329999999999</v>
+        <v>6.9739409999999999</v>
       </c>
       <c r="F42">
-        <v>9.0125589999999995</v>
+        <v>7.939508</v>
       </c>
       <c r="G42">
-        <v>12.067036</v>
+        <v>11.275724</v>
       </c>
       <c r="J42">
         <f>(F42-F$110)^2</f>
-        <v>1.833894182963095E-3</v>
+        <v>0.49452277004609152</v>
       </c>
       <c r="L42">
         <f>MAX(G42,0)</f>
-        <v>12.067036</v>
+        <v>11.275724</v>
       </c>
       <c r="M42">
         <f>F42</f>
-        <v>9.0125589999999995</v>
+        <v>7.939508</v>
       </c>
       <c r="O42">
         <f>F42</f>
-        <v>9.0125589999999995</v>
+        <v>7.939508</v>
       </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>1.8284328580816009</v>
+        <v>6.3526816028442847E-3</v>
       </c>
       <c r="S42">
         <f t="shared" si="1"/>
-        <v>10.364754569465305</v>
+        <v>7.8598042886507518</v>
       </c>
       <c r="T42">
         <f t="shared" si="2"/>
-        <v>9.0125589999999995</v>
+        <v>7.939508</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -6591,41 +6591,41 @@
         <v>30</v>
       </c>
       <c r="E43">
-        <v>7.1701709999999999</v>
+        <v>7.3833710000000004</v>
       </c>
       <c r="F43">
-        <v>11.620977999999999</v>
+        <v>9.6459100000000007</v>
       </c>
       <c r="G43">
-        <v>15.583968</v>
+        <v>14.848011</v>
       </c>
       <c r="J43">
         <f>(F43-F$110)^2</f>
-        <v>6.5822777515360134</v>
+        <v>5.8062932653426147</v>
       </c>
       <c r="L43">
         <f>MAX(G43,0)</f>
-        <v>15.583968</v>
+        <v>14.848011</v>
       </c>
       <c r="M43">
         <f>F43</f>
-        <v>11.620977999999999</v>
+        <v>9.6459100000000007</v>
       </c>
       <c r="O43">
         <f>F43</f>
-        <v>11.620977999999999</v>
+        <v>9.6459100000000007</v>
       </c>
       <c r="Q43">
         <f t="shared" si="0"/>
-        <v>0.95532288417216582</v>
+        <v>0.19471316087537821</v>
       </c>
       <c r="S43">
         <f t="shared" si="1"/>
-        <v>12.598384202237414</v>
+        <v>9.2046468575607321</v>
       </c>
       <c r="T43">
         <f t="shared" si="2"/>
-        <v>11.620977999999999</v>
+        <v>9.6459100000000007</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -6642,41 +6642,41 @@
         <v>31</v>
       </c>
       <c r="E44">
-        <v>8.2082940000000004</v>
+        <v>8.1253510000000002</v>
       </c>
       <c r="F44">
-        <v>16.109044999999998</v>
+        <v>11.247596</v>
       </c>
       <c r="G44">
-        <v>19.436298000000001</v>
+        <v>19.515084999999999</v>
       </c>
       <c r="J44">
         <f>(F44-F$110)^2</f>
-        <v>49.754147740867346</v>
+        <v>16.090616978690537</v>
       </c>
       <c r="L44">
         <f>MAX(G44,0)</f>
-        <v>19.436298000000001</v>
+        <v>19.515084999999999</v>
       </c>
       <c r="M44">
         <f>F44</f>
-        <v>16.109044999999998</v>
+        <v>11.247596</v>
       </c>
       <c r="O44">
         <f>F44</f>
-        <v>16.109044999999998</v>
+        <v>11.247596</v>
       </c>
       <c r="Q44">
         <f t="shared" si="0"/>
-        <v>1.1321330365566085</v>
+        <v>8.1771470221785367E-2</v>
       </c>
       <c r="S44">
         <f t="shared" si="1"/>
-        <v>15.04502759574544</v>
+        <v>10.961638887443264</v>
       </c>
       <c r="T44">
         <f t="shared" si="2"/>
-        <v>16.109044999999998</v>
+        <v>11.247596</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -6693,41 +6693,41 @@
         <v>31</v>
       </c>
       <c r="E45">
-        <v>7.9506629999999996</v>
+        <v>7.9256909999999996</v>
       </c>
       <c r="F45">
-        <v>16.403063</v>
+        <v>10.529299</v>
       </c>
       <c r="G45">
-        <v>19.551936999999999</v>
+        <v>19.156272999999999</v>
       </c>
       <c r="J45">
         <f>(F45-F$110)^2</f>
-        <v>53.988401518468137</v>
+        <v>10.84394205794039</v>
       </c>
       <c r="L45">
         <f>MAX(G45,0)</f>
-        <v>19.551936999999999</v>
+        <v>19.156272999999999</v>
       </c>
       <c r="M45">
         <f>F45</f>
-        <v>16.403063</v>
+        <v>10.529299</v>
       </c>
       <c r="O45">
         <f>F45</f>
-        <v>16.403063</v>
+        <v>10.529299</v>
       </c>
       <c r="Q45">
         <f t="shared" si="0"/>
-        <v>1.6501771627595119</v>
+        <v>8.836325364126163E-2</v>
       </c>
       <c r="S45">
         <f t="shared" si="1"/>
-        <v>15.118470783473871</v>
+        <v>10.82655857283368</v>
       </c>
       <c r="T45">
         <f t="shared" si="2"/>
-        <v>16.403063</v>
+        <v>10.529299</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -6744,41 +6744,41 @@
         <v>30</v>
       </c>
       <c r="E46">
-        <v>6.6867380000000001</v>
+        <v>6.9186310000000004</v>
       </c>
       <c r="F46">
-        <v>13.773477</v>
+        <v>9.5790260000000007</v>
       </c>
       <c r="G46">
-        <v>14.881489999999999</v>
+        <v>14.408559</v>
       </c>
       <c r="J46">
         <f>(F46-F$110)^2</f>
-        <v>22.260411080208108</v>
+        <v>5.4884360004583188</v>
       </c>
       <c r="L46">
         <f>MAX(G46,0)</f>
-        <v>14.881489999999999</v>
+        <v>14.408559</v>
       </c>
       <c r="M46">
         <f>F46</f>
-        <v>13.773477</v>
+        <v>9.5790260000000007</v>
       </c>
       <c r="O46">
         <f>F46</f>
-        <v>13.773477</v>
+        <v>9.5790260000000007</v>
       </c>
       <c r="Q46">
         <f t="shared" si="0"/>
-        <v>2.6284249504959978</v>
+        <v>0.29140307310869473</v>
       </c>
       <c r="S46">
         <f t="shared" si="1"/>
-        <v>12.152235207269502</v>
+        <v>9.0392083705095452</v>
       </c>
       <c r="T46">
         <f t="shared" si="2"/>
-        <v>13.773477</v>
+        <v>9.5790260000000007</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -6795,41 +6795,41 @@
         <v>31</v>
       </c>
       <c r="E47">
-        <v>5.7875199999999998</v>
+        <v>5.8479640000000002</v>
       </c>
       <c r="F47">
-        <v>7.6693629999999997</v>
+        <v>6.826441</v>
       </c>
       <c r="G47">
-        <v>9.6321519999999996</v>
+        <v>9.2954360000000005</v>
       </c>
       <c r="J47">
         <f>(F47-F$110)^2</f>
-        <v>1.921051414732964</v>
+        <v>0.16797199808016461</v>
       </c>
       <c r="L47">
         <f>MAX(G47,0)</f>
-        <v>9.6321519999999996</v>
+        <v>9.2954360000000005</v>
       </c>
       <c r="M47">
         <f>F47</f>
-        <v>7.6693629999999997</v>
+        <v>6.826441</v>
       </c>
       <c r="O47">
         <f>F47</f>
-        <v>7.6693629999999997</v>
+        <v>6.826441</v>
       </c>
       <c r="Q47">
         <f t="shared" si="0"/>
-        <v>1.3201519557441821</v>
+        <v>8.285952872303598E-2</v>
       </c>
       <c r="S47">
         <f t="shared" si="1"/>
-        <v>8.8183416576539102</v>
+        <v>7.114294311120501</v>
       </c>
       <c r="T47">
         <f t="shared" si="2"/>
-        <v>7.6693629999999997</v>
+        <v>6.826441</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -6846,41 +6846,41 @@
         <v>30</v>
       </c>
       <c r="E48">
-        <v>5.0707500000000003</v>
+        <v>5.0869629999999999</v>
       </c>
       <c r="F48">
-        <v>6.3303070000000004</v>
+        <v>5.7604949999999997</v>
       </c>
       <c r="G48">
-        <v>4.9176719999999996</v>
+        <v>4.9192419999999997</v>
       </c>
       <c r="J48">
         <f>(F48-F$110)^2</f>
-        <v>7.4260391553116278</v>
+        <v>2.1779557414877941</v>
       </c>
       <c r="L48">
         <f>MAX(G48,0)</f>
-        <v>4.9176719999999996</v>
+        <v>4.9192419999999997</v>
       </c>
       <c r="M48">
         <f>F48</f>
-        <v>6.3303070000000004</v>
+        <v>5.7604949999999997</v>
       </c>
       <c r="O48">
         <f>F48</f>
-        <v>6.3303070000000004</v>
+        <v>5.7604949999999997</v>
       </c>
       <c r="Q48">
         <f t="shared" si="0"/>
-        <v>0.25620463087836659</v>
+        <v>8.6251733194598793E-2</v>
       </c>
       <c r="S48">
         <f t="shared" si="1"/>
-        <v>5.8241403961249851</v>
+        <v>5.4668085461166127</v>
       </c>
       <c r="T48">
         <f t="shared" si="2"/>
-        <v>6.3303070000000004</v>
+        <v>5.7604949999999997</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -6897,41 +6897,41 @@
         <v>31</v>
       </c>
       <c r="E49">
-        <v>4.8515670000000002</v>
+        <v>4.8063250000000002</v>
       </c>
       <c r="F49">
-        <v>3.3336269999999999</v>
+        <v>3.2154120000000002</v>
       </c>
       <c r="G49">
-        <v>1.4944649999999999</v>
+        <v>1.8500620000000001</v>
       </c>
       <c r="J49">
         <f>(F49-F$110)^2</f>
-        <v>32.738491617577559</v>
+        <v>16.167418639680459</v>
       </c>
       <c r="L49">
         <f>MAX(G49,0)</f>
-        <v>1.4944649999999999</v>
+        <v>1.8500620000000001</v>
       </c>
       <c r="M49">
         <f>F49</f>
-        <v>3.3336269999999999</v>
+        <v>3.2154120000000002</v>
       </c>
       <c r="O49">
         <f>F49</f>
-        <v>3.3336269999999999</v>
+        <v>3.2154120000000002</v>
       </c>
       <c r="Q49">
         <f t="shared" si="0"/>
-        <v>0.10011478623025055</v>
+        <v>1.2011203678715905</v>
       </c>
       <c r="S49">
         <f t="shared" si="1"/>
-        <v>3.6500362069302827</v>
+        <v>4.311368371335826</v>
       </c>
       <c r="T49">
         <f t="shared" si="2"/>
-        <v>3.3336269999999999</v>
+        <v>3.2154120000000002</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -6948,41 +6948,41 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>5.1661419999999998</v>
+        <v>5.0500759999999998</v>
       </c>
       <c r="F50">
-        <v>4.5585680000000002</v>
+        <v>4.2341430000000004</v>
       </c>
       <c r="G50">
-        <v>6.2784599999999999</v>
+        <v>5.5181440000000004</v>
       </c>
       <c r="J50">
         <f>(F50-F$110)^2</f>
-        <v>20.221345060950647</v>
+        <v>9.0128558098309011</v>
       </c>
       <c r="L50">
         <f>MAX(G50,0)</f>
-        <v>6.2784599999999999</v>
+        <v>5.5181440000000004</v>
       </c>
       <c r="M50">
         <f>F50</f>
-        <v>4.5585680000000002</v>
+        <v>4.2341430000000004</v>
       </c>
       <c r="O50">
         <f>F50</f>
-        <v>4.5585680000000002</v>
+        <v>4.2341430000000004</v>
       </c>
       <c r="Q50">
         <f t="shared" si="0"/>
-        <v>4.536128807630317</v>
+        <v>2.1261473147190646</v>
       </c>
       <c r="S50">
         <f t="shared" si="1"/>
-        <v>6.6883869612336344</v>
+        <v>5.6922744463103339</v>
       </c>
       <c r="T50">
         <f t="shared" si="2"/>
-        <v>4.5585680000000002</v>
+        <v>4.2341430000000004</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -6999,41 +6999,41 @@
         <v>28</v>
       </c>
       <c r="E51">
-        <v>5.0043139999999999</v>
+        <v>5.0447449999999998</v>
       </c>
       <c r="F51">
-        <v>4.6808779999999999</v>
+        <v>4.2153099999999997</v>
       </c>
       <c r="G51">
-        <v>3.3273239999999999</v>
+        <v>3.169638</v>
       </c>
       <c r="J51">
         <f>(F51-F$110)^2</f>
-        <v>19.136293914015649</v>
+        <v>9.1262891674092756</v>
       </c>
       <c r="L51">
         <f>MAX(G51,0)</f>
-        <v>3.3273239999999999</v>
+        <v>3.169638</v>
       </c>
       <c r="M51">
         <f>F51</f>
-        <v>4.6808779999999999</v>
+        <v>4.2153099999999997</v>
       </c>
       <c r="O51">
         <f>F51</f>
-        <v>4.6808779999999999</v>
+        <v>4.2153099999999997</v>
       </c>
       <c r="Q51">
         <f t="shared" si="0"/>
-        <v>1.7747720302757949E-2</v>
+        <v>0.3514511085442078</v>
       </c>
       <c r="S51">
         <f t="shared" si="1"/>
-        <v>4.8140985701187242</v>
+        <v>4.8081431203165081</v>
       </c>
       <c r="T51">
         <f t="shared" si="2"/>
-        <v>4.6808779999999999</v>
+        <v>4.2153099999999997</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -7050,41 +7050,41 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>5.4101059999999999</v>
+        <v>5.5180369999999996</v>
       </c>
       <c r="F52">
-        <v>5.966812</v>
+        <v>5.1653010000000004</v>
       </c>
       <c r="G52">
-        <v>6.6401329999999996</v>
+        <v>6.0544269999999996</v>
       </c>
       <c r="J52">
         <f>(F52-F$110)^2</f>
-        <v>9.5392707648452415</v>
+        <v>4.2889741913342361</v>
       </c>
       <c r="L52">
         <f>MAX(G52,0)</f>
-        <v>6.6401329999999996</v>
+        <v>6.0544269999999996</v>
       </c>
       <c r="M52">
         <f>F52</f>
-        <v>5.966812</v>
+        <v>5.1653010000000004</v>
       </c>
       <c r="O52">
         <f>F52</f>
-        <v>5.966812</v>
+        <v>5.1653010000000004</v>
       </c>
       <c r="Q52">
         <f t="shared" si="0"/>
-        <v>0.90492635086575079</v>
+        <v>0.53124485530237864</v>
       </c>
       <c r="S52">
         <f t="shared" si="1"/>
-        <v>6.9180881696088843</v>
+        <v>5.8941664576136663</v>
       </c>
       <c r="T52">
         <f t="shared" si="2"/>
-        <v>5.966812</v>
+        <v>5.1653010000000004</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -7101,41 +7101,41 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>5.8482719999999997</v>
+        <v>5.9384800000000002</v>
       </c>
       <c r="F53">
-        <v>6.9964919999999999</v>
+        <v>6.1528090000000004</v>
       </c>
       <c r="G53">
-        <v>9.2276089999999993</v>
+        <v>8.3002059999999993</v>
       </c>
       <c r="J53">
         <f>(F53-F$110)^2</f>
-        <v>4.2390321117533896</v>
+        <v>1.1739199616748297</v>
       </c>
       <c r="L53">
         <f>MAX(G53,0)</f>
-        <v>9.2276089999999993</v>
+        <v>8.3002059999999993</v>
       </c>
       <c r="M53">
         <f>F53</f>
-        <v>6.9964919999999999</v>
+        <v>6.1528090000000004</v>
       </c>
       <c r="O53">
         <f>F53</f>
-        <v>6.9964919999999999</v>
+        <v>6.1528090000000004</v>
       </c>
       <c r="Q53">
         <f t="shared" si="0"/>
-        <v>2.4489789690592567</v>
+        <v>0.34435257089940552</v>
       </c>
       <c r="S53">
         <f t="shared" si="1"/>
-        <v>8.5614133938914811</v>
+        <v>6.7396246191679001</v>
       </c>
       <c r="T53">
         <f t="shared" si="2"/>
-        <v>6.9964919999999999</v>
+        <v>6.1528090000000004</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -7152,41 +7152,41 @@
         <v>31</v>
       </c>
       <c r="E54">
-        <v>6.6093440000000001</v>
+        <v>6.5765729999999998</v>
       </c>
       <c r="F54">
-        <v>9.3046369999999996</v>
+        <v>8.2855150000000002</v>
       </c>
       <c r="G54">
-        <v>12.799035999999999</v>
+        <v>11.779457000000001</v>
       </c>
       <c r="J54">
         <f>(F54-F$110)^2</f>
-        <v>6.2127561131814661E-2</v>
+        <v>1.1008838649226107</v>
       </c>
       <c r="L54">
         <f>MAX(G54,0)</f>
-        <v>12.799035999999999</v>
+        <v>11.779457000000001</v>
       </c>
       <c r="M54">
         <f>F54</f>
-        <v>9.3046369999999996</v>
+        <v>8.2855150000000002</v>
       </c>
       <c r="O54">
         <f>F54</f>
-        <v>9.3046369999999996</v>
+        <v>8.2855150000000002</v>
       </c>
       <c r="Q54">
         <f t="shared" si="0"/>
-        <v>2.3256744282191586</v>
+        <v>5.5730296011725321E-2</v>
       </c>
       <c r="S54">
         <f t="shared" si="1"/>
-        <v>10.829653205887386</v>
+        <v>8.0494423501404171</v>
       </c>
       <c r="T54">
         <f t="shared" si="2"/>
-        <v>9.3046369999999996</v>
+        <v>8.2855150000000002</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -7203,41 +7203,41 @@
         <v>30</v>
       </c>
       <c r="E55">
-        <v>7.1869519999999998</v>
+        <v>7.4129649999999998</v>
       </c>
       <c r="F55">
-        <v>11.878055</v>
+        <v>9.8023209999999992</v>
       </c>
       <c r="G55">
-        <v>14.446667</v>
+        <v>13.558813000000001</v>
       </c>
       <c r="J55">
         <f>(F55-F$110)^2</f>
-        <v>7.9674772718557021</v>
+        <v>6.5845414185646076</v>
       </c>
       <c r="L55">
         <f>MAX(G55,0)</f>
-        <v>14.446667</v>
+        <v>13.558813000000001</v>
       </c>
       <c r="M55">
         <f>F55</f>
-        <v>11.878055</v>
+        <v>9.8023209999999992</v>
       </c>
       <c r="O55">
         <f>F55</f>
-        <v>11.878055</v>
+        <v>9.8023209999999992</v>
       </c>
       <c r="Q55">
         <f t="shared" si="0"/>
-        <v>3.91687392461177E-6</v>
+        <v>1.1729163448799298</v>
       </c>
       <c r="S55">
         <f t="shared" si="1"/>
-        <v>11.876075890623383</v>
+        <v>8.7193083754752756</v>
       </c>
       <c r="T55">
         <f t="shared" si="2"/>
-        <v>11.878055</v>
+        <v>9.8023209999999992</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -7254,41 +7254,41 @@
         <v>31</v>
       </c>
       <c r="E56">
-        <v>8.0584059999999997</v>
+        <v>8.0479970000000005</v>
       </c>
       <c r="F56">
-        <v>16.008330999999998</v>
+        <v>11.490181</v>
       </c>
       <c r="G56">
-        <v>20.307746999999999</v>
+        <v>19.611910000000002</v>
       </c>
       <c r="J56">
         <f>(F56-F$110)^2</f>
-        <v>48.343486019462269</v>
+        <v>18.095632281677943</v>
       </c>
       <c r="L56">
         <f>MAX(G56,0)</f>
-        <v>20.307746999999999</v>
+        <v>19.611910000000002</v>
       </c>
       <c r="M56">
         <f>F56</f>
-        <v>16.008330999999998</v>
+        <v>11.490181</v>
       </c>
       <c r="O56">
         <f>F56</f>
-        <v>16.008330999999998</v>
+        <v>11.490181</v>
       </c>
       <c r="Q56">
         <f t="shared" si="0"/>
-        <v>0.16796855696784976</v>
+        <v>0.2421534017968229</v>
       </c>
       <c r="S56">
         <f t="shared" si="1"/>
-        <v>15.598491327728206</v>
+        <v>10.998090152902817</v>
       </c>
       <c r="T56">
         <f t="shared" si="2"/>
-        <v>16.008330999999998</v>
+        <v>11.490181</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -7305,41 +7305,41 @@
         <v>31</v>
       </c>
       <c r="E57">
-        <v>8.0348419999999994</v>
+        <v>7.8845679999999998</v>
       </c>
       <c r="F57">
-        <v>16.785382999999999</v>
+        <v>10.824233</v>
       </c>
       <c r="G57">
-        <v>19.433971</v>
+        <v>18.82526</v>
       </c>
       <c r="J57">
         <f>(F57-F$110)^2</f>
-        <v>59.752900143148139</v>
+        <v>12.873371780912757</v>
       </c>
       <c r="L57">
         <f>MAX(G57,0)</f>
-        <v>19.433971</v>
+        <v>18.82526</v>
       </c>
       <c r="M57">
         <f>F57</f>
-        <v>16.785382999999999</v>
+        <v>10.824233</v>
       </c>
       <c r="O57">
         <f>F57</f>
-        <v>16.785382999999999</v>
+        <v>10.824233</v>
       </c>
       <c r="Q57">
         <f t="shared" si="0"/>
-        <v>3.0339832423299407</v>
+        <v>1.4954692272451083E-2</v>
       </c>
       <c r="S57">
         <f t="shared" si="1"/>
-        <v>15.043549700763261</v>
+        <v>10.701943620770031</v>
       </c>
       <c r="T57">
         <f t="shared" si="2"/>
-        <v>16.785382999999999</v>
+        <v>10.824233</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -7356,41 +7356,41 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>7.2648429999999999</v>
+        <v>7.261952</v>
       </c>
       <c r="F58">
-        <v>13.869374000000001</v>
+        <v>9.5962580000000006</v>
       </c>
       <c r="G58">
-        <v>16.734763999999998</v>
+        <v>16.590693999999999</v>
       </c>
       <c r="J58">
         <f>(F58-F$110)^2</f>
-        <v>23.174509437228984</v>
+        <v>5.5694731725738738</v>
       </c>
       <c r="L58">
         <f>MAX(G58,0)</f>
-        <v>16.734763999999998</v>
+        <v>16.590693999999999</v>
       </c>
       <c r="M58">
         <f>F58</f>
-        <v>13.869374000000001</v>
+        <v>9.5962580000000006</v>
       </c>
       <c r="O58">
         <f>F58</f>
-        <v>13.869374000000001</v>
+        <v>9.5962580000000006</v>
       </c>
       <c r="Q58">
         <f t="shared" si="0"/>
-        <v>0.29171958059473507</v>
+        <v>6.9933149894733981E-2</v>
       </c>
       <c r="S58">
         <f t="shared" si="1"/>
-        <v>13.32926328857619</v>
+        <v>9.8607067661055243</v>
       </c>
       <c r="T58">
         <f t="shared" si="2"/>
-        <v>13.869374000000001</v>
+        <v>9.5962580000000006</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -7407,41 +7407,41 @@
         <v>31</v>
       </c>
       <c r="E59">
-        <v>5.9231980000000002</v>
+        <v>6.053572</v>
       </c>
       <c r="F59">
-        <v>10.811021</v>
+        <v>8.3947640000000003</v>
       </c>
       <c r="G59">
-        <v>12.174726</v>
+        <v>11.940566</v>
       </c>
       <c r="J59">
         <f>(F59-F$110)^2</f>
-        <v>3.0822648195558155</v>
+        <v>1.3420738937874259</v>
       </c>
       <c r="L59">
         <f>MAX(G59,0)</f>
-        <v>12.174726</v>
+        <v>11.940566</v>
       </c>
       <c r="M59">
         <f>F59</f>
-        <v>10.811021</v>
+        <v>8.3947640000000003</v>
       </c>
       <c r="O59">
         <f>F59</f>
-        <v>10.811021</v>
+        <v>8.3947640000000003</v>
       </c>
       <c r="Q59">
         <f t="shared" si="0"/>
-        <v>0.14278703053478572</v>
+        <v>8.1036827033125258E-2</v>
       </c>
       <c r="S59">
         <f t="shared" si="1"/>
-        <v>10.433149288258058</v>
+        <v>8.1100943194347437</v>
       </c>
       <c r="T59">
         <f t="shared" si="2"/>
-        <v>10.811021</v>
+        <v>8.3947640000000003</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -7458,41 +7458,41 @@
         <v>30</v>
       </c>
       <c r="E60">
-        <v>5.084778</v>
+        <v>5.1288280000000004</v>
       </c>
       <c r="F60">
-        <v>7.4374570000000002</v>
+        <v>6.7528550000000003</v>
       </c>
       <c r="G60">
-        <v>5.7253340000000001</v>
+        <v>5.569337</v>
       </c>
       <c r="J60">
         <f>(F60-F$110)^2</f>
-        <v>2.617684511514407</v>
+        <v>0.23370443956631243</v>
       </c>
       <c r="L60">
         <f>MAX(G60,0)</f>
-        <v>5.7253340000000001</v>
+        <v>5.569337</v>
       </c>
       <c r="M60">
         <f>F60</f>
-        <v>7.4374570000000002</v>
+        <v>6.7528550000000003</v>
       </c>
       <c r="O60">
         <f>F60</f>
-        <v>7.4374570000000002</v>
+        <v>6.7528550000000003</v>
       </c>
       <c r="Q60">
         <f t="shared" si="0"/>
-        <v>1.2108019653549316</v>
+        <v>1.0843226816376723</v>
       </c>
       <c r="S60">
         <f t="shared" si="1"/>
-        <v>6.337092530674072</v>
+        <v>5.7115468411739627</v>
       </c>
       <c r="T60">
         <f t="shared" si="2"/>
-        <v>7.4374570000000002</v>
+        <v>6.7528550000000003</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -7509,41 +7509,41 @@
         <v>31</v>
       </c>
       <c r="E61">
-        <v>4.949192</v>
+        <v>4.9102730000000001</v>
       </c>
       <c r="F61">
-        <v>6.9163920000000001</v>
+        <v>6.0831379999999999</v>
       </c>
       <c r="G61">
-        <v>4.5620200000000004</v>
+        <v>4.8743809999999996</v>
       </c>
       <c r="J61">
         <f>(F61-F$110)^2</f>
-        <v>4.5752824584700553</v>
+        <v>1.3297477046449788</v>
       </c>
       <c r="L61">
         <f>MAX(G61,0)</f>
-        <v>4.5620200000000004</v>
+        <v>4.8743809999999996</v>
       </c>
       <c r="M61">
         <f>F61</f>
-        <v>6.9163920000000001</v>
+        <v>6.0831379999999999</v>
       </c>
       <c r="O61">
         <f>F61</f>
-        <v>6.9163920000000001</v>
+        <v>6.0831379999999999</v>
       </c>
       <c r="Q61">
         <f t="shared" si="0"/>
-        <v>1.737463613619894</v>
+        <v>0.40096512370745058</v>
       </c>
       <c r="S61">
         <f t="shared" si="1"/>
-        <v>5.5982631695665352</v>
+        <v>5.44991993036881</v>
       </c>
       <c r="T61">
         <f t="shared" si="2"/>
-        <v>6.9163920000000001</v>
+        <v>6.0831379999999999</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -7560,41 +7560,41 @@
         <v>31</v>
       </c>
       <c r="E62">
-        <v>5.1539919999999997</v>
+        <v>5.0788440000000001</v>
       </c>
       <c r="F62">
-        <v>5.9007389999999997</v>
+        <v>5.1523380000000003</v>
       </c>
       <c r="G62">
-        <v>7.7335599999999998</v>
+        <v>7.0121830000000003</v>
       </c>
       <c r="J62">
         <f>(F62-F$110)^2</f>
-        <v>9.9517787083166684</v>
+        <v>4.3428345585264578</v>
       </c>
       <c r="L62">
         <f>MAX(G62,0)</f>
-        <v>7.7335599999999998</v>
+        <v>7.0121830000000003</v>
       </c>
       <c r="M62">
         <f>F62</f>
-        <v>5.9007389999999997</v>
+        <v>5.1523380000000003</v>
       </c>
       <c r="O62">
         <f>F62</f>
-        <v>5.9007389999999997</v>
+        <v>5.1523380000000003</v>
       </c>
       <c r="Q62">
         <f t="shared" si="0"/>
-        <v>2.9302345147418234</v>
+        <v>1.2152647791368481</v>
       </c>
       <c r="S62">
         <f t="shared" si="1"/>
-        <v>7.6125317779792221</v>
+        <v>6.2547284839651187</v>
       </c>
       <c r="T62">
         <f t="shared" si="2"/>
-        <v>5.9007389999999997</v>
+        <v>5.1523380000000003</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -7611,41 +7611,41 @@
         <v>28</v>
       </c>
       <c r="E63">
-        <v>5.406536</v>
+        <v>5.3502900000000002</v>
       </c>
       <c r="F63">
-        <v>6.5825889999999996</v>
+        <v>6.0189560000000002</v>
       </c>
       <c r="G63">
-        <v>7.7133909999999997</v>
+        <v>7.4750670000000001</v>
       </c>
       <c r="J63">
         <f>(F63-F$110)^2</f>
-        <v>6.1147101206435215</v>
+        <v>1.4818895786372004</v>
       </c>
       <c r="L63">
         <f>MAX(G63,0)</f>
-        <v>7.7133909999999997</v>
+        <v>7.4750670000000001</v>
       </c>
       <c r="M63">
         <f>F63</f>
-        <v>6.5825889999999996</v>
+        <v>6.0189560000000002</v>
       </c>
       <c r="O63">
         <f>F63</f>
-        <v>6.5825889999999996</v>
+        <v>6.0189560000000002</v>
       </c>
       <c r="Q63">
         <f t="shared" si="0"/>
-        <v>1.0345601424176305</v>
+        <v>0.16812649444061728</v>
       </c>
       <c r="S63">
         <f t="shared" si="1"/>
-        <v>7.5997222962879691</v>
+        <v>6.4289883090204203</v>
       </c>
       <c r="T63">
         <f t="shared" si="2"/>
-        <v>6.5825889999999996</v>
+        <v>6.0189560000000002</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -7662,41 +7662,41 @@
         <v>31</v>
       </c>
       <c r="E64">
-        <v>5.8562700000000003</v>
+        <v>5.9963150000000001</v>
       </c>
       <c r="F64">
-        <v>6.894501</v>
+        <v>6.4329400000000003</v>
       </c>
       <c r="G64">
-        <v>9.7081999999999997</v>
+        <v>8.9881919999999997</v>
       </c>
       <c r="J64">
         <f>(F64-F$110)^2</f>
-        <v>4.6694109779076669</v>
+        <v>0.64536298075038601</v>
       </c>
       <c r="L64">
         <f>MAX(G64,0)</f>
-        <v>9.7081999999999997</v>
+        <v>8.9881919999999997</v>
       </c>
       <c r="M64">
         <f>F64</f>
-        <v>6.894501</v>
+        <v>6.4329400000000003</v>
       </c>
       <c r="O64">
         <f>F64</f>
-        <v>6.894501</v>
+        <v>6.4329400000000003</v>
       </c>
       <c r="Q64">
         <f t="shared" si="0"/>
-        <v>3.8893334471912824</v>
+        <v>0.32000242222695546</v>
       </c>
       <c r="S64">
         <f t="shared" si="1"/>
-        <v>8.8666403072476605</v>
+        <v>6.9986275659115691</v>
       </c>
       <c r="T64">
         <f t="shared" si="2"/>
-        <v>6.894501</v>
+        <v>6.4329400000000003</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -7713,41 +7713,41 @@
         <v>30</v>
       </c>
       <c r="E65">
-        <v>6.1007069999999999</v>
+        <v>6.2385539999999997</v>
       </c>
       <c r="F65">
-        <v>7.3208640000000003</v>
+        <v>6.7924300000000004</v>
       </c>
       <c r="G65">
-        <v>8.7016439999999999</v>
+        <v>7.7855129999999999</v>
       </c>
       <c r="J65">
         <f>(F65-F$110)^2</f>
-        <v>3.0085561292402772</v>
+        <v>0.19700714595149754</v>
       </c>
       <c r="L65">
         <f>MAX(G65,0)</f>
-        <v>8.7016439999999999</v>
+        <v>7.7855129999999999</v>
       </c>
       <c r="M65">
         <f>F65</f>
-        <v>7.3208640000000003</v>
+        <v>6.7924300000000004</v>
       </c>
       <c r="O65">
         <f>F65</f>
-        <v>7.3208640000000003</v>
+        <v>6.7924300000000004</v>
       </c>
       <c r="Q65">
         <f t="shared" si="0"/>
-        <v>0.82175152560866105</v>
+        <v>6.079652003512117E-2</v>
       </c>
       <c r="S65">
         <f t="shared" si="1"/>
-        <v>8.2273691161513991</v>
+        <v>6.5458604965428187</v>
       </c>
       <c r="T65">
         <f t="shared" si="2"/>
-        <v>7.3208640000000003</v>
+        <v>6.7924300000000004</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -7764,41 +7764,41 @@
         <v>31</v>
       </c>
       <c r="E66">
-        <v>7.0389400000000002</v>
+        <v>7.3567799999999997</v>
       </c>
       <c r="F66">
-        <v>10.762707000000001</v>
+        <v>8.9587699999999995</v>
       </c>
       <c r="G66">
-        <v>12.968078</v>
+        <v>12.039680000000001</v>
       </c>
       <c r="J66">
         <f>(F66-F$110)^2</f>
-        <v>2.9149552725931134</v>
+        <v>2.9669550217952017</v>
       </c>
       <c r="L66">
         <f>MAX(G66,0)</f>
-        <v>12.968078</v>
+        <v>12.039680000000001</v>
       </c>
       <c r="M66">
         <f>F66</f>
-        <v>10.762707000000001</v>
+        <v>8.9587699999999995</v>
       </c>
       <c r="O66">
         <f>F66</f>
-        <v>10.762707000000001</v>
+        <v>8.9587699999999995</v>
       </c>
       <c r="Q66">
         <f t="shared" si="0"/>
-        <v>3.0382594022027677E-2</v>
+        <v>0.65830940779777436</v>
       </c>
       <c r="S66">
         <f t="shared" si="1"/>
-        <v>10.937013035529548</v>
+        <v>8.147407314268289</v>
       </c>
       <c r="T66">
         <f t="shared" si="2"/>
-        <v>10.762707000000001</v>
+        <v>8.9587699999999995</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -7815,41 +7815,41 @@
         <v>30</v>
       </c>
       <c r="E67">
-        <v>7.9949960000000004</v>
+        <v>7.9984029999999997</v>
       </c>
       <c r="F67">
-        <v>15.518577000000001</v>
+        <v>11.389341</v>
       </c>
       <c r="G67">
-        <v>19.020562999999999</v>
+        <v>17.984400000000001</v>
       </c>
       <c r="J67">
         <f>(F67-F$110)^2</f>
-        <v>41.772876801324784</v>
+        <v>17.247875215854243</v>
       </c>
       <c r="L67">
         <f>MAX(G67,0)</f>
-        <v>19.020562999999999</v>
+        <v>17.984400000000001</v>
       </c>
       <c r="M67">
         <f>F67</f>
-        <v>15.518577000000001</v>
+        <v>11.389341</v>
       </c>
       <c r="O67">
         <f>F67</f>
-        <v>15.518577000000001</v>
+        <v>11.389341</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q110" si="3">(S67-M67)^2</f>
-        <v>0.54403279810824468</v>
+        <v>1.0079198239834981</v>
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S109" si="4">L67*I$2+I$3</f>
-        <v>14.780991209662195</v>
+        <v>10.385388897565079</v>
       </c>
       <c r="T67">
         <f t="shared" ref="T67:T110" si="5">F67</f>
-        <v>15.518577000000001</v>
+        <v>11.389341</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -7866,41 +7866,41 @@
         <v>31</v>
       </c>
       <c r="E68">
-        <v>8.3325549999999993</v>
+        <v>8.1881129999999995</v>
       </c>
       <c r="F68">
-        <v>17.680610999999999</v>
+        <v>11.897917</v>
       </c>
       <c r="G68">
-        <v>19.593124</v>
+        <v>18.837965000000001</v>
       </c>
       <c r="J68">
         <f>(F68-F$110)^2</f>
-        <v>74.394558211710432</v>
+        <v>21.730814111995276</v>
       </c>
       <c r="L68">
         <f>MAX(G68,0)</f>
-        <v>19.593124</v>
+        <v>18.837965000000001</v>
       </c>
       <c r="M68">
         <f>F68</f>
-        <v>17.680610999999999</v>
+        <v>11.897917</v>
       </c>
       <c r="O68">
         <f>F68</f>
-        <v>17.680610999999999</v>
+        <v>11.897917</v>
       </c>
       <c r="Q68">
         <f t="shared" si="3"/>
-        <v>6.4312049423931859</v>
+        <v>1.4189345354977616</v>
       </c>
       <c r="S68">
         <f t="shared" si="4"/>
-        <v>15.144628953061735</v>
+        <v>10.706726614084397</v>
       </c>
       <c r="T68">
         <f t="shared" si="5"/>
-        <v>17.680610999999999</v>
+        <v>11.897917</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -7917,41 +7917,41 @@
         <v>31</v>
       </c>
       <c r="E69">
-        <v>8.4381970000000006</v>
+        <v>8.110989</v>
       </c>
       <c r="F69">
-        <v>17.090021</v>
+        <v>11.168345</v>
       </c>
       <c r="G69">
-        <v>19.454643000000001</v>
+        <v>18.979315</v>
       </c>
       <c r="J69">
         <f>(F69-F$110)^2</f>
-        <v>64.5554079398336</v>
+        <v>15.461096863022986</v>
       </c>
       <c r="L69">
         <f>MAX(G69,0)</f>
-        <v>19.454643000000001</v>
+        <v>18.979315</v>
       </c>
       <c r="M69">
         <f>F69</f>
-        <v>17.090021</v>
+        <v>11.168345</v>
       </c>
       <c r="O69">
         <f>F69</f>
-        <v>17.090021</v>
+        <v>11.168345</v>
       </c>
       <c r="Q69">
         <f t="shared" si="3"/>
-        <v>4.1344811469102059</v>
+        <v>0.16679464165087807</v>
       </c>
       <c r="S69">
         <f t="shared" si="4"/>
-        <v>15.056678641490198</v>
+        <v>10.759940002906578</v>
       </c>
       <c r="T69">
         <f t="shared" si="5"/>
-        <v>17.090021</v>
+        <v>11.168345</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -7968,41 +7968,41 @@
         <v>30</v>
       </c>
       <c r="E70">
-        <v>6.9259729999999999</v>
+        <v>7.1402999999999999</v>
       </c>
       <c r="F70">
-        <v>13.509548000000001</v>
+        <v>9.3149300000000004</v>
       </c>
       <c r="G70">
-        <v>14.483782</v>
+        <v>14.308075000000001</v>
       </c>
       <c r="J70">
         <f>(F70-F$110)^2</f>
-        <v>19.839585929709543</v>
+        <v>4.3207655749329827</v>
       </c>
       <c r="L70">
         <f>MAX(G70,0)</f>
-        <v>14.483782</v>
+        <v>14.308075000000001</v>
       </c>
       <c r="M70">
         <f>F70</f>
-        <v>13.509548000000001</v>
+        <v>9.3149300000000004</v>
       </c>
       <c r="O70">
         <f>F70</f>
-        <v>13.509548000000001</v>
+        <v>9.3149300000000004</v>
       </c>
       <c r="Q70">
         <f t="shared" si="3"/>
-        <v>2.5917783230634446</v>
+        <v>9.831384203097962E-2</v>
       </c>
       <c r="S70">
         <f t="shared" si="4"/>
-        <v>11.899647902769292</v>
+        <v>9.0013796180340719</v>
       </c>
       <c r="T70">
         <f t="shared" si="5"/>
-        <v>13.509548000000001</v>
+        <v>9.3149300000000004</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -8019,41 +8019,41 @@
         <v>31</v>
       </c>
       <c r="E71">
-        <v>6.3101979999999998</v>
+        <v>6.3493510000000004</v>
       </c>
       <c r="F71">
-        <v>11.196471000000001</v>
+        <v>8.3287630000000004</v>
       </c>
       <c r="G71">
-        <v>13.463450999999999</v>
+        <v>13.223113</v>
       </c>
       <c r="J71">
         <f>(F71-F$110)^2</f>
-        <v>4.5842578633937805</v>
+        <v>1.1935084637190556</v>
       </c>
       <c r="L71">
         <f>MAX(G71,0)</f>
-        <v>13.463450999999999</v>
+        <v>13.223113</v>
       </c>
       <c r="M71">
         <f>F71</f>
-        <v>11.196471000000001</v>
+        <v>8.3287630000000004</v>
       </c>
       <c r="O71">
         <f>F71</f>
-        <v>11.196471000000001</v>
+        <v>8.3287630000000004</v>
       </c>
       <c r="Q71">
         <f t="shared" si="3"/>
-        <v>3.0423064381334243E-3</v>
+        <v>6.9783638536597165E-2</v>
       </c>
       <c r="S71">
         <f t="shared" si="4"/>
-        <v>11.251628106868775</v>
+        <v>8.5929289299315439</v>
       </c>
       <c r="T71">
         <f t="shared" si="5"/>
-        <v>11.196471000000001</v>
+        <v>8.3287630000000004</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -8070,41 +8070,41 @@
         <v>30</v>
       </c>
       <c r="E72">
-        <v>5.0429940000000002</v>
+        <v>5.0575190000000001</v>
       </c>
       <c r="F72">
-        <v>6.740685</v>
+        <v>5.9748169999999998</v>
       </c>
       <c r="G72">
-        <v>4.356236</v>
+        <v>4.2605440000000003</v>
       </c>
       <c r="J72">
         <f>(F72-F$110)^2</f>
-        <v>5.3578267883392225</v>
+        <v>1.5913011879767569</v>
       </c>
       <c r="L72">
         <f>MAX(G72,0)</f>
-        <v>4.356236</v>
+        <v>4.2605440000000003</v>
       </c>
       <c r="M72">
         <f>F72</f>
-        <v>6.740685</v>
+        <v>5.9748169999999998</v>
       </c>
       <c r="O72">
         <f>F72</f>
-        <v>6.740685</v>
+        <v>5.9748169999999998</v>
       </c>
       <c r="Q72">
         <f t="shared" si="3"/>
-        <v>1.6208263282642048</v>
+        <v>0.57151404756260149</v>
       </c>
       <c r="S72">
         <f t="shared" si="4"/>
-        <v>5.467568222848664</v>
+        <v>5.218831518947221</v>
       </c>
       <c r="T72">
         <f t="shared" si="5"/>
-        <v>6.740685</v>
+        <v>5.9748169999999998</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -8121,41 +8121,41 @@
         <v>31</v>
       </c>
       <c r="E73">
-        <v>4.9246639999999999</v>
+        <v>4.8352789999999999</v>
       </c>
       <c r="F73">
-        <v>5.9052759999999997</v>
+        <v>5.4039159999999997</v>
       </c>
       <c r="G73">
-        <v>2.8369939999999998</v>
+        <v>2.981331</v>
       </c>
       <c r="J73">
         <f>(F73-F$110)^2</f>
-        <v>9.9231740531136872</v>
+        <v>3.3575756771023868</v>
       </c>
       <c r="L73">
         <f>MAX(G73,0)</f>
-        <v>2.8369939999999998</v>
+        <v>2.981331</v>
       </c>
       <c r="M73">
         <f>F73</f>
-        <v>5.9052759999999997</v>
+        <v>5.4039159999999997</v>
       </c>
       <c r="O73">
         <f>F73</f>
-        <v>5.9052759999999997</v>
+        <v>5.4039159999999997</v>
       </c>
       <c r="Q73">
         <f t="shared" si="3"/>
-        <v>1.9672577388181987</v>
+        <v>0.44444082996167961</v>
       </c>
       <c r="S73">
         <f t="shared" si="4"/>
-        <v>4.5026863455328785</v>
+        <v>4.7372520442009183</v>
       </c>
       <c r="T73">
         <f t="shared" si="5"/>
-        <v>5.9052759999999997</v>
+        <v>5.4039159999999997</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -8172,41 +8172,41 @@
         <v>31</v>
       </c>
       <c r="E74">
-        <v>4.9727360000000003</v>
+        <v>4.9184869999999998</v>
       </c>
       <c r="F74">
-        <v>4.9835349999999998</v>
+        <v>4.6272169999999999</v>
       </c>
       <c r="G74">
-        <v>3.8557610000000002</v>
+        <v>3.5111859999999999</v>
       </c>
       <c r="J74">
         <f>(F74-F$110)^2</f>
-        <v>16.579946059699409</v>
+        <v>6.8072351521989782</v>
       </c>
       <c r="L74">
         <f>MAX(G74,0)</f>
-        <v>3.8557610000000002</v>
+        <v>3.5111859999999999</v>
       </c>
       <c r="M74">
         <f>F74</f>
-        <v>4.9835349999999998</v>
+        <v>4.6272169999999999</v>
       </c>
       <c r="O74">
         <f>F74</f>
-        <v>4.9835349999999998</v>
+        <v>4.6272169999999999</v>
       </c>
       <c r="Q74">
         <f t="shared" si="3"/>
-        <v>2.761507231945767E-2</v>
+        <v>9.579466705351905E-2</v>
       </c>
       <c r="S74">
         <f t="shared" si="4"/>
-        <v>5.1497128334178708</v>
+        <v>4.9367241357069478</v>
       </c>
       <c r="T74">
         <f t="shared" si="5"/>
-        <v>4.9835349999999998</v>
+        <v>4.6272169999999999</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -8223,41 +8223,41 @@
         <v>29</v>
       </c>
       <c r="E75">
-        <v>5.1658390000000001</v>
+        <v>5.168787</v>
       </c>
       <c r="F75">
-        <v>5.8835810000000004</v>
+        <v>5.3779450000000004</v>
       </c>
       <c r="G75">
-        <v>6.4834120000000004</v>
+        <v>5.9569660000000004</v>
       </c>
       <c r="J75">
         <f>(F75-F$110)^2</f>
-        <v>10.060327868466924</v>
+        <v>3.4534270738081618</v>
       </c>
       <c r="L75">
         <f>MAX(G75,0)</f>
-        <v>6.4834120000000004</v>
+        <v>5.9569660000000004</v>
       </c>
       <c r="M75">
         <f>F75</f>
-        <v>5.8835810000000004</v>
+        <v>5.3779450000000004</v>
       </c>
       <c r="O75">
         <f>F75</f>
-        <v>5.8835810000000004</v>
+        <v>5.3779450000000004</v>
       </c>
       <c r="Q75">
         <f t="shared" si="3"/>
-        <v>0.87417357308672061</v>
+        <v>0.22994974991979569</v>
       </c>
       <c r="S75">
         <f t="shared" si="4"/>
-        <v>6.8185534985724026</v>
+        <v>5.8574757601393221</v>
       </c>
       <c r="T75">
         <f t="shared" si="5"/>
-        <v>5.8835810000000004</v>
+        <v>5.3779450000000004</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -8274,41 +8274,41 @@
         <v>31</v>
       </c>
       <c r="E76">
-        <v>5.29237</v>
+        <v>5.3635900000000003</v>
       </c>
       <c r="F76">
-        <v>5.9938599999999997</v>
+        <v>5.659497</v>
       </c>
       <c r="G76">
-        <v>6.2483250000000004</v>
+        <v>5.625515</v>
       </c>
       <c r="J76">
         <f>(F76-F$110)^2</f>
-        <v>9.3729230228341311</v>
+        <v>2.4862599881471263</v>
       </c>
       <c r="L76">
         <f>MAX(G76,0)</f>
-        <v>6.2483250000000004</v>
+        <v>5.625515</v>
       </c>
       <c r="M76">
         <f>F76</f>
-        <v>5.9938599999999997</v>
+        <v>5.659497</v>
       </c>
       <c r="O76">
         <f>F76</f>
-        <v>5.9938599999999997</v>
+        <v>5.659497</v>
       </c>
       <c r="Q76">
         <f t="shared" si="3"/>
-        <v>0.45614894909439113</v>
+        <v>5.3580813352597338E-3</v>
       </c>
       <c r="S76">
         <f t="shared" si="4"/>
-        <v>6.6692479989268323</v>
+        <v>5.7326959162164286</v>
       </c>
       <c r="T76">
         <f t="shared" si="5"/>
-        <v>5.9938599999999997</v>
+        <v>5.659497</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -8325,41 +8325,41 @@
         <v>30</v>
       </c>
       <c r="E77">
-        <v>6.2370150000000004</v>
+        <v>6.1376330000000001</v>
       </c>
       <c r="F77">
-        <v>7.9413900000000002</v>
+        <v>6.7848269999999999</v>
       </c>
       <c r="G77">
-        <v>11.784613999999999</v>
+        <v>10.650753</v>
       </c>
       <c r="J77">
         <f>(F77-F$110)^2</f>
-        <v>1.2409803834194999</v>
+        <v>0.2038142087193498</v>
       </c>
       <c r="L77">
         <f>MAX(G77,0)</f>
-        <v>11.784613999999999</v>
+        <v>10.650753</v>
       </c>
       <c r="M77">
         <f>F77</f>
-        <v>7.9413900000000002</v>
+        <v>6.7848269999999999</v>
       </c>
       <c r="O77">
         <f>F77</f>
-        <v>7.9413900000000002</v>
+        <v>6.7848269999999999</v>
       </c>
       <c r="Q77">
         <f t="shared" si="3"/>
-        <v>5.0355192138701295</v>
+        <v>0.70509157428295688</v>
       </c>
       <c r="S77">
         <f t="shared" si="4"/>
-        <v>10.185386259771867</v>
+        <v>7.6245243111085665</v>
       </c>
       <c r="T77">
         <f t="shared" si="5"/>
-        <v>7.9413900000000002</v>
+        <v>6.7848269999999999</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -8376,41 +8376,41 @@
         <v>31</v>
       </c>
       <c r="E78">
-        <v>6.9809720000000004</v>
+        <v>7.0882719999999999</v>
       </c>
       <c r="F78">
-        <v>10.368010999999999</v>
+        <v>8.7718749999999996</v>
       </c>
       <c r="G78">
-        <v>13.213153</v>
+        <v>12.214568</v>
       </c>
       <c r="J78">
         <f>(F78-F$110)^2</f>
-        <v>1.7229922906919237</v>
+        <v>2.358037046215943</v>
       </c>
       <c r="L78">
         <f>MAX(G78,0)</f>
-        <v>13.213153</v>
+        <v>12.214568</v>
       </c>
       <c r="M78">
         <f>F78</f>
-        <v>10.368010999999999</v>
+        <v>8.7718749999999996</v>
       </c>
       <c r="O78">
         <f>F78</f>
-        <v>10.368010999999999</v>
+        <v>8.7718749999999996</v>
       </c>
       <c r="Q78">
         <f t="shared" si="3"/>
-        <v>0.52511905463265363</v>
+        <v>0.312065688447481</v>
       </c>
       <c r="S78">
         <f t="shared" si="4"/>
-        <v>11.092661988154058</v>
+        <v>8.2132466007510168</v>
       </c>
       <c r="T78">
         <f t="shared" si="5"/>
-        <v>10.368010999999999</v>
+        <v>8.7718749999999996</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -8427,41 +8427,41 @@
         <v>30</v>
       </c>
       <c r="E79">
-        <v>7.4267440000000002</v>
+        <v>7.7204509999999997</v>
       </c>
       <c r="F79">
-        <v>13.459146</v>
+        <v>10.353471000000001</v>
       </c>
       <c r="G79">
-        <v>15.936356999999999</v>
+        <v>14.948532999999999</v>
       </c>
       <c r="J79">
         <f>(F79-F$110)^2</f>
-        <v>19.393128641720171</v>
+        <v>9.7168493667553584</v>
       </c>
       <c r="L79">
         <f>MAX(G79,0)</f>
-        <v>15.936356999999999</v>
+        <v>14.948532999999999</v>
       </c>
       <c r="M79">
         <f>F79</f>
-        <v>13.459146</v>
+        <v>10.353471000000001</v>
       </c>
       <c r="O79">
         <f>F79</f>
-        <v>13.459146</v>
+        <v>10.353471000000001</v>
       </c>
       <c r="Q79">
         <f t="shared" si="3"/>
-        <v>0.40571412651927091</v>
+        <v>1.2342789696221359</v>
       </c>
       <c r="S79">
         <f t="shared" si="4"/>
-        <v>12.822189073262194</v>
+        <v>9.2424899157226239</v>
       </c>
       <c r="T79">
         <f t="shared" si="5"/>
-        <v>13.459146</v>
+        <v>10.353471000000001</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -8478,41 +8478,41 @@
         <v>31</v>
       </c>
       <c r="E80">
-        <v>7.846743</v>
+        <v>7.9087399999999999</v>
       </c>
       <c r="F80">
-        <v>15.561928</v>
+        <v>11.011625</v>
       </c>
       <c r="G80">
-        <v>17.003278999999999</v>
+        <v>16.372198000000001</v>
       </c>
       <c r="J80">
         <f>(F80-F$110)^2</f>
-        <v>42.335127957516576</v>
+        <v>14.253193094391875</v>
       </c>
       <c r="L80">
         <f>MAX(G80,0)</f>
-        <v>17.003278999999999</v>
+        <v>16.372198000000001</v>
       </c>
       <c r="M80">
         <f>F80</f>
-        <v>15.561928</v>
+        <v>11.011625</v>
       </c>
       <c r="O80">
         <f>F80</f>
-        <v>15.561928</v>
+        <v>11.011625</v>
       </c>
       <c r="Q80">
         <f t="shared" si="3"/>
-        <v>4.2523753557084403</v>
+        <v>1.520719162322721</v>
       </c>
       <c r="S80">
         <f t="shared" si="4"/>
-        <v>13.499799159285036</v>
+        <v>9.7784505750613704</v>
       </c>
       <c r="T80">
         <f t="shared" si="5"/>
-        <v>15.561928</v>
+        <v>11.011625</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -8529,41 +8529,41 @@
         <v>31</v>
       </c>
       <c r="E81">
-        <v>8.1649879999999992</v>
+        <v>8.0124739999999992</v>
       </c>
       <c r="F81">
-        <v>16.301983</v>
+        <v>10.872294999999999</v>
       </c>
       <c r="G81">
-        <v>19.387356</v>
+        <v>18.967048999999999</v>
       </c>
       <c r="J81">
         <f>(F81-F$110)^2</f>
-        <v>52.513211694196293</v>
+        <v>13.220569662769275</v>
       </c>
       <c r="L81">
         <f>MAX(G81,0)</f>
-        <v>19.387356</v>
+        <v>18.967048999999999</v>
       </c>
       <c r="M81">
         <f>F81</f>
-        <v>16.301983</v>
+        <v>10.872294999999999</v>
       </c>
       <c r="O81">
         <f>F81</f>
-        <v>16.301983</v>
+        <v>10.872294999999999</v>
       </c>
       <c r="Q81">
         <f t="shared" si="3"/>
-        <v>1.6590440325784173</v>
+        <v>1.3682617711532969E-2</v>
       </c>
       <c r="S81">
         <f t="shared" si="4"/>
-        <v>15.013944168062695</v>
+        <v>10.755322277916887</v>
       </c>
       <c r="T81">
         <f t="shared" si="5"/>
-        <v>16.301983</v>
+        <v>10.872294999999999</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -8580,41 +8580,41 @@
         <v>30</v>
       </c>
       <c r="E82">
-        <v>7.0741360000000002</v>
+        <v>7.1239970000000001</v>
       </c>
       <c r="F82">
-        <v>12.822082999999999</v>
+        <v>9.0363220000000002</v>
       </c>
       <c r="G82">
-        <v>13.909335</v>
+        <v>13.821641</v>
       </c>
       <c r="J82">
         <f>(F82-F$110)^2</f>
-        <v>14.188028959753698</v>
+        <v>3.2401336680452784</v>
       </c>
       <c r="L82">
         <f>MAX(G82,0)</f>
-        <v>13.909335</v>
+        <v>13.821641</v>
       </c>
       <c r="M82">
         <f>F82</f>
-        <v>12.822082999999999</v>
+        <v>9.0363220000000002</v>
       </c>
       <c r="O82">
         <f>F82</f>
-        <v>12.822082999999999</v>
+        <v>9.0363220000000002</v>
       </c>
       <c r="Q82">
         <f t="shared" si="3"/>
-        <v>1.657065734685734</v>
+        <v>4.7553638644240344E-2</v>
       </c>
       <c r="S82">
         <f t="shared" si="4"/>
-        <v>11.534812346762797</v>
+        <v>8.8182540320536731</v>
       </c>
       <c r="T82">
         <f t="shared" si="5"/>
-        <v>12.822082999999999</v>
+        <v>9.0363220000000002</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -8631,41 +8631,41 @@
         <v>31</v>
       </c>
       <c r="E83">
-        <v>5.3955099999999998</v>
+        <v>5.6444619999999999</v>
       </c>
       <c r="F83">
-        <v>9.9084380000000003</v>
+        <v>8.2622250000000008</v>
       </c>
       <c r="G83">
-        <v>9.1835649999999998</v>
+        <v>9.2144379999999995</v>
       </c>
       <c r="J83">
         <f>(F83-F$110)^2</f>
-        <v>0.72770284882231528</v>
+        <v>1.0525531495844638</v>
       </c>
       <c r="L83">
         <f>MAX(G83,0)</f>
-        <v>9.1835649999999998</v>
+        <v>9.2144379999999995</v>
       </c>
       <c r="M83">
         <f>F83</f>
-        <v>9.9084380000000003</v>
+        <v>8.2622250000000008</v>
       </c>
       <c r="O83">
         <f>F83</f>
-        <v>9.9084380000000003</v>
+        <v>8.2622250000000008</v>
       </c>
       <c r="Q83">
         <f t="shared" si="3"/>
-        <v>1.8906175134480212</v>
+        <v>1.3886822657556808</v>
       </c>
       <c r="S83">
         <f t="shared" si="4"/>
-        <v>8.5334407223852331</v>
+        <v>7.0838013640542172</v>
       </c>
       <c r="T83">
         <f t="shared" si="5"/>
-        <v>9.9084380000000003</v>
+        <v>8.2622250000000008</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -8682,41 +8682,41 @@
         <v>30</v>
       </c>
       <c r="E84">
-        <v>5.1544169999999996</v>
+        <v>5.1466320000000003</v>
       </c>
       <c r="F84">
-        <v>8.2723960000000005</v>
+        <v>7.2404169999999999</v>
       </c>
       <c r="G84">
-        <v>7.7611720000000002</v>
+        <v>7.7784950000000004</v>
       </c>
       <c r="J84">
         <f>(F84-F$110)^2</f>
-        <v>0.61306862766924008</v>
+        <v>1.7074495276065697E-5</v>
       </c>
       <c r="L84">
         <f>MAX(G84,0)</f>
-        <v>7.7611720000000002</v>
+        <v>7.7784950000000004</v>
       </c>
       <c r="M84">
         <f>F84</f>
-        <v>8.2723960000000005</v>
+        <v>7.2404169999999999</v>
       </c>
       <c r="O84">
         <f>F84</f>
-        <v>8.2723960000000005</v>
+        <v>7.2404169999999999</v>
       </c>
       <c r="Q84">
         <f t="shared" si="3"/>
-        <v>0.41258479165050788</v>
+        <v>0.48608580119328876</v>
       </c>
       <c r="S84">
         <f t="shared" si="4"/>
-        <v>7.6300683642481921</v>
+        <v>6.5432184621405973</v>
       </c>
       <c r="T84">
         <f t="shared" si="5"/>
-        <v>8.2723960000000005</v>
+        <v>7.2404169999999999</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -8733,41 +8733,41 @@
         <v>31</v>
       </c>
       <c r="E85">
-        <v>4.8187790000000001</v>
+        <v>4.72811</v>
       </c>
       <c r="F85">
-        <v>5.093515</v>
+        <v>4.67211</v>
       </c>
       <c r="G85">
-        <v>0.39364500000000002</v>
+        <v>0.31648700000000002</v>
       </c>
       <c r="J85">
         <f>(F85-F$110)^2</f>
-        <v>15.696397976056074</v>
+        <v>6.5749927658389034</v>
       </c>
       <c r="L85">
         <f>MAX(G85,0)</f>
-        <v>0.39364500000000002</v>
+        <v>0.31648700000000002</v>
       </c>
       <c r="M85">
         <f>F85</f>
-        <v>5.093515</v>
+        <v>4.67211</v>
       </c>
       <c r="O85">
         <f>F85</f>
-        <v>5.093515</v>
+        <v>4.67211</v>
       </c>
       <c r="Q85">
         <f t="shared" si="3"/>
-        <v>4.5908108253851747</v>
+        <v>0.87999334276729979</v>
       </c>
       <c r="S85">
         <f t="shared" si="4"/>
-        <v>2.9508972493535683</v>
+        <v>3.7340303963589765</v>
       </c>
       <c r="T85">
         <f t="shared" si="5"/>
-        <v>5.093515</v>
+        <v>4.67211</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -8784,17 +8784,17 @@
         <v>31</v>
       </c>
       <c r="E86">
-        <v>4.3940149999999996</v>
+        <v>4.394838</v>
       </c>
       <c r="F86">
-        <v>3.808535</v>
+        <v>3.6666099999999999</v>
       </c>
       <c r="G86">
-        <v>-10.344035</v>
+        <v>-9.9130509999999994</v>
       </c>
       <c r="J86">
         <f>(F86-F$110)^2</f>
-        <v>27.529413837940147</v>
+        <v>12.742578680153718</v>
       </c>
       <c r="L86">
         <f>MAX(G86,0)</f>
@@ -8802,23 +8802,23 @@
       </c>
       <c r="M86">
         <f>F86</f>
-        <v>3.808535</v>
+        <v>3.6666099999999999</v>
       </c>
       <c r="O86">
         <f>F86</f>
-        <v>3.808535</v>
+        <v>3.6666099999999999</v>
       </c>
       <c r="Q86">
         <f t="shared" si="3"/>
-        <v>1.2268765901955472</v>
+        <v>2.6755810248827437E-3</v>
       </c>
       <c r="S86">
         <f t="shared" si="4"/>
-        <v>2.7008903863284726</v>
+        <v>3.6148839811614817</v>
       </c>
       <c r="T86">
         <f t="shared" si="5"/>
-        <v>3.808535</v>
+        <v>3.6666099999999999</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -8835,17 +8835,17 @@
         <v>28</v>
       </c>
       <c r="E87">
-        <v>4.8048799999999998</v>
+        <v>4.8363040000000002</v>
       </c>
       <c r="F87">
-        <v>5.1422619999999997</v>
+        <v>4.7065109999999999</v>
       </c>
       <c r="G87">
-        <v>-3.1227</v>
+        <v>-2.8912089999999999</v>
       </c>
       <c r="J87">
         <f>(F87-F$110)^2</f>
-        <v>15.312515888175799</v>
+        <v>6.3997558352086816</v>
       </c>
       <c r="L87">
         <f>MAX(G87,0)</f>
@@ -8853,23 +8853,23 @@
       </c>
       <c r="M87">
         <f>F87</f>
-        <v>5.1422619999999997</v>
+        <v>4.7065109999999999</v>
       </c>
       <c r="O87">
         <f>F87</f>
-        <v>5.1422619999999997</v>
+        <v>4.7065109999999999</v>
       </c>
       <c r="Q87">
         <f t="shared" si="3"/>
-        <v>5.960295356041116</v>
+        <v>1.1916495482582705</v>
       </c>
       <c r="S87">
         <f t="shared" si="4"/>
-        <v>2.7008903863284726</v>
+        <v>3.6148839811614817</v>
       </c>
       <c r="T87">
         <f t="shared" si="5"/>
-        <v>5.1422619999999997</v>
+        <v>4.7065109999999999</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -8886,41 +8886,41 @@
         <v>31</v>
       </c>
       <c r="E88">
-        <v>5.1158020000000004</v>
+        <v>5.2467290000000002</v>
       </c>
       <c r="F88">
-        <v>5.3439209999999999</v>
+        <v>4.946485</v>
       </c>
       <c r="G88">
-        <v>2.5587610000000001</v>
+        <v>2.401294</v>
       </c>
       <c r="J88">
         <f>(F88-F$110)^2</f>
-        <v>13.774950108713224</v>
+        <v>5.243183446348163</v>
       </c>
       <c r="L88">
         <f>MAX(G88,0)</f>
-        <v>2.5587610000000001</v>
+        <v>2.401294</v>
       </c>
       <c r="M88">
         <f>F88</f>
-        <v>5.3439209999999999</v>
+        <v>4.946485</v>
       </c>
       <c r="O88">
         <f>F88</f>
-        <v>5.3439209999999999</v>
+        <v>4.946485</v>
       </c>
       <c r="Q88">
         <f t="shared" si="3"/>
-        <v>1.0362069315750735</v>
+        <v>0.1828390538296063</v>
       </c>
       <c r="S88">
         <f t="shared" si="4"/>
-        <v>4.3259785008503311</v>
+        <v>4.5188881643830765</v>
       </c>
       <c r="T88">
         <f t="shared" si="5"/>
-        <v>5.3439209999999999</v>
+        <v>4.946485</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -8937,41 +8937,41 @@
         <v>30</v>
       </c>
       <c r="E89">
-        <v>5.4144880000000004</v>
+        <v>5.7135670000000003</v>
       </c>
       <c r="F89">
-        <v>6.1178819999999998</v>
+        <v>5.5992629999999997</v>
       </c>
       <c r="G89">
-        <v>7.0563940000000001</v>
+        <v>6.8182910000000003</v>
       </c>
       <c r="J89">
         <f>(F89-F$110)^2</f>
-        <v>8.6289120706028353</v>
+        <v>2.6798406040709053</v>
       </c>
       <c r="L89">
         <f>MAX(G89,0)</f>
-        <v>7.0563940000000001</v>
+        <v>6.8182910000000003</v>
       </c>
       <c r="M89">
         <f>F89</f>
-        <v>6.1178819999999998</v>
+        <v>5.5992629999999997</v>
       </c>
       <c r="O89">
         <f>F89</f>
-        <v>6.1178819999999998</v>
+        <v>5.5992629999999997</v>
       </c>
       <c r="Q89">
         <f t="shared" si="3"/>
-        <v>1.1333233845318411</v>
+        <v>0.33927345419185578</v>
       </c>
       <c r="S89">
         <f t="shared" si="4"/>
-        <v>7.1824586221986282</v>
+        <v>6.1817348484114536</v>
       </c>
       <c r="T89">
         <f t="shared" si="5"/>
-        <v>6.1178819999999998</v>
+        <v>5.5992629999999997</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -8988,41 +8988,41 @@
         <v>31</v>
       </c>
       <c r="E90">
-        <v>6.2581600000000002</v>
+        <v>6.3849330000000002</v>
       </c>
       <c r="F90">
-        <v>8.1831309999999995</v>
+        <v>7.0140260000000003</v>
       </c>
       <c r="G90">
-        <v>13.013603</v>
+        <v>12.800587999999999</v>
       </c>
       <c r="J90">
         <f>(F90-F$110)^2</f>
-        <v>0.7608235353511863</v>
+        <v>4.9399005458312766E-2</v>
       </c>
       <c r="L90">
         <f>MAX(G90,0)</f>
-        <v>13.013603</v>
+        <v>12.800587999999999</v>
       </c>
       <c r="M90">
         <f>F90</f>
-        <v>8.1831309999999995</v>
+        <v>7.0140260000000003</v>
       </c>
       <c r="O90">
         <f>F90</f>
-        <v>8.1831309999999995</v>
+        <v>7.0140260000000003</v>
       </c>
       <c r="Q90">
         <f t="shared" si="3"/>
-        <v>7.7439496880184606</v>
+        <v>2.0159367466371978</v>
       </c>
       <c r="S90">
         <f t="shared" si="4"/>
-        <v>10.965926301134896</v>
+        <v>8.4338628732488949</v>
       </c>
       <c r="T90">
         <f t="shared" si="5"/>
-        <v>8.1831309999999995</v>
+        <v>7.0140260000000003</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9039,41 +9039,41 @@
         <v>30</v>
       </c>
       <c r="E91">
-        <v>7.1466219999999998</v>
+        <v>7.2680939999999996</v>
       </c>
       <c r="F91">
-        <v>11.747901000000001</v>
+        <v>9.7849989999999991</v>
       </c>
       <c r="G91">
-        <v>18.620273999999998</v>
+        <v>18.349150000000002</v>
       </c>
       <c r="J91">
         <f>(F91-F$110)^2</f>
-        <v>7.2496532301854471</v>
+        <v>6.495943714573718</v>
       </c>
       <c r="L91">
         <f>MAX(G91,0)</f>
-        <v>18.620273999999998</v>
+        <v>18.349150000000002</v>
       </c>
       <c r="M91">
         <f>F91</f>
-        <v>11.747901000000001</v>
+        <v>9.7849989999999991</v>
       </c>
       <c r="O91">
         <f>F91</f>
-        <v>11.747901000000001</v>
+        <v>9.7849989999999991</v>
       </c>
       <c r="Q91">
         <f t="shared" si="3"/>
-        <v>7.7220834236811386</v>
+        <v>0.54420964656527504</v>
       </c>
       <c r="S91">
         <f t="shared" si="4"/>
-        <v>14.5267646928934</v>
+        <v>10.522704663910257</v>
       </c>
       <c r="T91">
         <f t="shared" si="5"/>
-        <v>11.747901000000001</v>
+        <v>9.7849989999999991</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -9090,41 +9090,41 @@
         <v>31</v>
       </c>
       <c r="E92">
-        <v>8.2498620000000003</v>
+        <v>8.2842459999999996</v>
       </c>
       <c r="F92">
-        <v>15.931585</v>
+        <v>11.298373</v>
       </c>
       <c r="G92">
-        <v>24.936851999999998</v>
+        <v>24.811174000000001</v>
       </c>
       <c r="J92">
         <f>(F92-F$110)^2</f>
-        <v>47.282154072141076</v>
+        <v>16.500559972877944</v>
       </c>
       <c r="L92">
         <f>MAX(G92,0)</f>
-        <v>24.936851999999998</v>
+        <v>24.811174000000001</v>
       </c>
       <c r="M92">
         <f>F92</f>
-        <v>15.931585</v>
+        <v>11.298373</v>
       </c>
       <c r="O92">
         <f>F92</f>
-        <v>15.931585</v>
+        <v>11.298373</v>
       </c>
       <c r="Q92">
         <f t="shared" si="3"/>
-        <v>6.7958509292619702</v>
+        <v>2.7458489076819972</v>
       </c>
       <c r="S92">
         <f t="shared" si="4"/>
-        <v>18.538470292693557</v>
+        <v>12.955433321075246</v>
       </c>
       <c r="T92">
         <f t="shared" si="5"/>
-        <v>15.931585</v>
+        <v>11.298373</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -9141,41 +9141,41 @@
         <v>31</v>
       </c>
       <c r="E93">
-        <v>7.6225909999999999</v>
+        <v>7.5959539999999999</v>
       </c>
       <c r="F93">
-        <v>16.562736999999998</v>
+        <v>10.501163</v>
       </c>
       <c r="G93">
-        <v>20.501259000000001</v>
+        <v>20.534603000000001</v>
       </c>
       <c r="J93">
         <f>(F93-F$110)^2</f>
-        <v>56.360364220341047</v>
+        <v>10.659429201333872</v>
       </c>
       <c r="L93">
         <f>MAX(G93,0)</f>
-        <v>20.501259000000001</v>
+        <v>20.534603000000001</v>
       </c>
       <c r="M93">
         <f>F93</f>
-        <v>16.562736999999998</v>
+        <v>10.501163</v>
       </c>
       <c r="O93">
         <f>F93</f>
-        <v>16.562736999999998</v>
+        <v>10.501163</v>
       </c>
       <c r="Q93">
         <f t="shared" si="3"/>
-        <v>0.70786101173468707</v>
+        <v>0.71282420563532001</v>
       </c>
       <c r="S93">
         <f t="shared" si="4"/>
-        <v>15.721392236104313</v>
+        <v>11.345452171809825</v>
       </c>
       <c r="T93">
         <f t="shared" si="5"/>
-        <v>16.562736999999998</v>
+        <v>10.501163</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -9192,41 +9192,41 @@
         <v>30</v>
       </c>
       <c r="E94">
-        <v>6.5297140000000002</v>
+        <v>6.5677149999999997</v>
       </c>
       <c r="F94">
-        <v>13.422396000000001</v>
+        <v>9.2247319999999995</v>
       </c>
       <c r="G94">
-        <v>14.604751</v>
+        <v>14.547882</v>
       </c>
       <c r="J94">
         <f>(F94-F$110)^2</f>
-        <v>19.070802623039619</v>
+        <v>3.9539219873323126</v>
       </c>
       <c r="L94">
         <f>MAX(G94,0)</f>
-        <v>14.604751</v>
+        <v>14.547882</v>
       </c>
       <c r="M94">
         <f>F94</f>
-        <v>13.422396000000001</v>
+        <v>9.2247319999999995</v>
       </c>
       <c r="O94">
         <f>F94</f>
-        <v>13.422396000000001</v>
+        <v>9.2247319999999995</v>
       </c>
       <c r="Q94">
         <f t="shared" si="3"/>
-        <v>2.090684030199256</v>
+        <v>1.7708512780535077E-2</v>
       </c>
       <c r="S94">
         <f t="shared" si="4"/>
-        <v>11.976476213082602</v>
+        <v>9.0916586639009331</v>
       </c>
       <c r="T94">
         <f t="shared" si="5"/>
-        <v>13.422396000000001</v>
+        <v>9.2247319999999995</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -9243,41 +9243,41 @@
         <v>31</v>
       </c>
       <c r="E95">
-        <v>5.3447750000000003</v>
+        <v>5.4521119999999996</v>
       </c>
       <c r="F95">
-        <v>8.4957209999999996</v>
+        <v>7.2264099999999996</v>
       </c>
       <c r="G95">
-        <v>7.2975659999999998</v>
+        <v>7.1774009999999997</v>
       </c>
       <c r="J95">
         <f>(F95-F$110)^2</f>
-        <v>0.31322154387988949</v>
+        <v>9.7513064831618873E-5</v>
       </c>
       <c r="L95">
         <f>MAX(G95,0)</f>
-        <v>7.2975659999999998</v>
+        <v>7.1774009999999997</v>
       </c>
       <c r="M95">
         <f>F95</f>
-        <v>8.4957209999999996</v>
+        <v>7.2264099999999996</v>
       </c>
       <c r="O95">
         <f>F95</f>
-        <v>8.4957209999999996</v>
+        <v>7.2264099999999996</v>
       </c>
       <c r="Q95">
         <f t="shared" si="3"/>
-        <v>1.3458140272657146</v>
+        <v>0.82715869116070961</v>
       </c>
       <c r="S95">
         <f t="shared" si="4"/>
-        <v>7.3356287505363138</v>
+        <v>6.3169273497197924</v>
       </c>
       <c r="T95">
         <f t="shared" si="5"/>
-        <v>8.4957209999999996</v>
+        <v>7.2264099999999996</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -9294,17 +9294,17 @@
         <v>30</v>
       </c>
       <c r="E96">
-        <v>4.818009</v>
+        <v>4.7862309999999999</v>
       </c>
       <c r="F96">
-        <v>6.7252989999999997</v>
+        <v>6.0619870000000002</v>
       </c>
       <c r="G96">
-        <v>-0.246724</v>
+        <v>-0.226655</v>
       </c>
       <c r="J96">
         <f>(F96-F$110)^2</f>
-        <v>5.4292914039062978</v>
+        <v>1.3789754883563856</v>
       </c>
       <c r="L96">
         <f>MAX(G96,0)</f>
@@ -9312,23 +9312,23 @@
       </c>
       <c r="M96">
         <f>F96</f>
-        <v>6.7252989999999997</v>
+        <v>6.0619870000000002</v>
       </c>
       <c r="O96">
         <f>F96</f>
-        <v>6.7252989999999997</v>
+        <v>6.0619870000000002</v>
       </c>
       <c r="Q96">
         <f t="shared" si="3"/>
-        <v>16.195864689793584</v>
+        <v>5.9883131848085913</v>
       </c>
       <c r="S96">
         <f t="shared" si="4"/>
-        <v>2.7008903863284726</v>
+        <v>3.6148839811614817</v>
       </c>
       <c r="T96">
         <f t="shared" si="5"/>
-        <v>6.7252989999999997</v>
+        <v>6.0619870000000002</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -9345,17 +9345,17 @@
         <v>31</v>
       </c>
       <c r="E97">
-        <v>4.5630990000000002</v>
+        <v>4.5298080000000001</v>
       </c>
       <c r="F97">
-        <v>4.4009349999999996</v>
+        <v>4.5872989999999998</v>
       </c>
       <c r="G97">
-        <v>-4.8293850000000003</v>
+        <v>-4.5501569999999996</v>
       </c>
       <c r="J97">
         <f>(F97-F$110)^2</f>
-        <v>21.663886098510524</v>
+        <v>7.0171261414218673</v>
       </c>
       <c r="L97">
         <f>MAX(G97,0)</f>
@@ -9363,23 +9363,23 @@
       </c>
       <c r="M97">
         <f>F97</f>
-        <v>4.4009349999999996</v>
+        <v>4.5872989999999998</v>
       </c>
       <c r="O97">
         <f>F97</f>
-        <v>4.4009349999999996</v>
+        <v>4.5872989999999998</v>
       </c>
       <c r="Q97">
         <f t="shared" si="3"/>
-        <v>2.8901516884735714</v>
+        <v>0.94559096886271554</v>
       </c>
       <c r="S97">
         <f t="shared" si="4"/>
-        <v>2.7008903863284726</v>
+        <v>3.6148839811614817</v>
       </c>
       <c r="T97">
         <f t="shared" si="5"/>
-        <v>4.4009349999999996</v>
+        <v>4.5872989999999998</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -9396,41 +9396,41 @@
         <v>31</v>
       </c>
       <c r="E98">
-        <v>5.0076000000000001</v>
+        <v>4.9579940000000002</v>
       </c>
       <c r="F98">
-        <v>6.1181070000000002</v>
+        <v>4.9552849999999999</v>
       </c>
       <c r="G98">
-        <v>5.5795919999999999</v>
+        <v>5.2925469999999999</v>
       </c>
       <c r="J98">
         <f>(F98-F$110)^2</f>
-        <v>8.6275902457819988</v>
+        <v>5.2029604086296448</v>
       </c>
       <c r="L98">
         <f>MAX(G98,0)</f>
-        <v>5.5795919999999999</v>
+        <v>5.2925469999999999</v>
       </c>
       <c r="M98">
         <f>F98</f>
-        <v>6.1181070000000002</v>
+        <v>4.9552849999999999</v>
       </c>
       <c r="O98">
         <f>F98</f>
-        <v>6.1181070000000002</v>
+        <v>4.9552849999999999</v>
       </c>
       <c r="Q98">
         <f t="shared" si="3"/>
-        <v>1.5982952952420911E-2</v>
+        <v>0.42518220999686279</v>
       </c>
       <c r="S98">
         <f t="shared" si="4"/>
-        <v>6.2445307040764941</v>
+        <v>5.6073449742330936</v>
       </c>
       <c r="T98">
         <f t="shared" si="5"/>
-        <v>6.1181070000000002</v>
+        <v>4.9552849999999999</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -9447,47 +9447,47 @@
         <v>28</v>
       </c>
       <c r="E99">
-        <v>5.1185080000000003</v>
+        <v>5.0746250000000002</v>
       </c>
       <c r="F99">
-        <v>4.2502230000000001</v>
+        <v>4.2978680000000002</v>
       </c>
       <c r="G99">
-        <v>2.5498029999999998</v>
+        <v>2.0812249999999999</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I99">
         <v>2.7461000000000002</v>
       </c>
       <c r="J99">
         <f>(F99-F$110)^2</f>
-        <v>23.089562536615556</v>
+        <v>8.6342937040771979</v>
       </c>
       <c r="L99">
         <f>MAX(G99,0)</f>
-        <v>2.5498029999999998</v>
+        <v>2.0812249999999999</v>
       </c>
       <c r="M99">
         <f>F99</f>
-        <v>4.2502230000000001</v>
+        <v>4.2978680000000002</v>
       </c>
       <c r="O99">
         <f>F99</f>
-        <v>4.2502230000000001</v>
+        <v>4.2978680000000002</v>
       </c>
       <c r="Q99">
         <f t="shared" si="3"/>
-        <v>4.9092735765085306E-3</v>
+        <v>1.0105325889156852E-2</v>
       </c>
       <c r="S99">
         <f t="shared" si="4"/>
-        <v>4.3202892085210021</v>
+        <v>4.3983932500079304</v>
       </c>
       <c r="T99">
         <f t="shared" si="5"/>
-        <v>4.2502230000000001</v>
+        <v>4.2978680000000002</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -9504,47 +9504,47 @@
         <v>31</v>
       </c>
       <c r="E100">
-        <v>5.3581110000000001</v>
+        <v>5.5902099999999999</v>
       </c>
       <c r="F100">
-        <v>4.8250279999999997</v>
+        <v>4.6569880000000001</v>
       </c>
       <c r="G100">
-        <v>5.5082599999999999</v>
+        <v>5.0073569999999998</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I100">
         <v>0.95009999999999994</v>
       </c>
       <c r="J100">
         <f>(F100-F$110)^2</f>
-        <v>17.895903347685095</v>
+        <v>6.6527723455023846</v>
       </c>
       <c r="L100">
         <f>MAX(G100,0)</f>
-        <v>5.5082599999999999</v>
+        <v>5.0073569999999998</v>
       </c>
       <c r="M100">
         <f>F100</f>
-        <v>4.8250279999999997</v>
+        <v>4.6569880000000001</v>
       </c>
       <c r="O100">
         <f>F100</f>
-        <v>4.8250279999999997</v>
+        <v>4.6569880000000001</v>
       </c>
       <c r="Q100">
         <f t="shared" si="3"/>
-        <v>1.8884234992926239</v>
+        <v>0.71063685691150946</v>
       </c>
       <c r="S100">
         <f t="shared" si="4"/>
-        <v>6.1992272211075594</v>
+        <v>5.4999807976628921</v>
       </c>
       <c r="T100">
         <f t="shared" si="5"/>
-        <v>4.8250279999999997</v>
+        <v>4.6569880000000001</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -9561,48 +9561,48 @@
         <v>30</v>
       </c>
       <c r="E101">
-        <v>5.8127190000000004</v>
+        <v>5.9670990000000002</v>
       </c>
       <c r="F101">
-        <v>6.2287509999999999</v>
+        <v>5.8367180000000003</v>
       </c>
       <c r="G101">
-        <v>9.0376259999999995</v>
+        <v>8.0641660000000002</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I101">
         <f>(1/12)*SQRT(SUM(J2:J109))</f>
-        <v>3.6250930998980344</v>
+        <v>2.1099401491933474</v>
       </c>
       <c r="J101">
         <f>(F101-F$110)^2</f>
-        <v>7.989848411078964</v>
+        <v>1.958787424638311</v>
       </c>
       <c r="L101">
         <f>MAX(G101,0)</f>
-        <v>9.0376259999999995</v>
+        <v>8.0641660000000002</v>
       </c>
       <c r="M101">
         <f>F101</f>
-        <v>6.2287509999999999</v>
+        <v>5.8367180000000003</v>
       </c>
       <c r="O101">
         <f>F101</f>
-        <v>6.2287509999999999</v>
+        <v>5.8367180000000003</v>
       </c>
       <c r="Q101">
         <f t="shared" si="3"/>
-        <v>4.8929562970668332</v>
+        <v>0.66267043194432418</v>
       </c>
       <c r="S101">
         <f t="shared" si="4"/>
-        <v>8.440753779624572</v>
+        <v>6.6507637185836215</v>
       </c>
       <c r="T101">
         <f t="shared" si="5"/>
-        <v>6.2287509999999999</v>
+        <v>5.8367180000000003</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -9619,48 +9619,48 @@
         <v>31</v>
       </c>
       <c r="E102">
-        <v>7.3695170000000001</v>
+        <v>7.3923310000000004</v>
       </c>
       <c r="F102">
-        <v>10.341208999999999</v>
+        <v>8.8799700000000001</v>
       </c>
       <c r="G102">
-        <v>14.467637</v>
+        <v>13.328352000000001</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I102">
         <f>(1/12)*SQRT(SUM(Q2:Q109))</f>
-        <v>1.1515736424935914</v>
+        <v>0.66520849101544366</v>
       </c>
       <c r="J102">
         <f>(F102-F$110)^2</f>
-        <v>1.6533485260875904</v>
+        <v>2.7017008053655744</v>
       </c>
       <c r="L102">
         <f>MAX(G102,0)</f>
-        <v>14.467637</v>
+        <v>13.328352000000001</v>
       </c>
       <c r="M102">
         <f>F102</f>
-        <v>10.341208999999999</v>
+        <v>8.8799700000000001</v>
       </c>
       <c r="O102">
         <f>F102</f>
-        <v>10.341208999999999</v>
+        <v>8.8799700000000001</v>
       </c>
       <c r="Q102">
         <f t="shared" si="3"/>
-        <v>2.3968770833129773</v>
+        <v>6.1217757158476487E-2</v>
       </c>
       <c r="S102">
         <f t="shared" si="4"/>
-        <v>11.889394093363508</v>
+        <v>8.6325477755364801</v>
       </c>
       <c r="T102">
         <f t="shared" si="5"/>
-        <v>10.341208999999999</v>
+        <v>8.8799700000000001</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
@@ -9677,41 +9677,41 @@
         <v>30</v>
       </c>
       <c r="E103">
-        <v>7.3800800000000004</v>
+        <v>7.6494749999999998</v>
       </c>
       <c r="F103">
-        <v>12.749307</v>
+        <v>10.157683</v>
       </c>
       <c r="G103">
-        <v>15.423711000000001</v>
+        <v>14.454447</v>
       </c>
       <c r="J103">
         <f>(F103-F$110)^2</f>
-        <v>13.645074586181998</v>
+        <v>8.534567031803503</v>
       </c>
       <c r="L103">
         <f>MAX(G103,0)</f>
-        <v>15.423711000000001</v>
+        <v>14.454447</v>
       </c>
       <c r="M103">
         <f>F103</f>
-        <v>12.749307</v>
+        <v>10.157683</v>
       </c>
       <c r="O103">
         <f>F103</f>
-        <v>12.749307</v>
+        <v>10.157683</v>
       </c>
       <c r="Q103">
         <f t="shared" si="3"/>
-        <v>6.3858911667188697E-2</v>
+        <v>1.2126400827579999</v>
       </c>
       <c r="S103">
         <f t="shared" si="4"/>
-        <v>12.496603791339744</v>
+        <v>9.0564836162560756</v>
       </c>
       <c r="T103">
         <f t="shared" si="5"/>
-        <v>12.749307</v>
+        <v>10.157683</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -9728,41 +9728,41 @@
         <v>31</v>
       </c>
       <c r="E104">
-        <v>8.407959</v>
+        <v>8.2279730000000004</v>
       </c>
       <c r="F104">
-        <v>16.671403999999999</v>
+        <v>11.548427</v>
       </c>
       <c r="G104">
-        <v>20.496765</v>
+        <v>19.654102000000002</v>
       </c>
       <c r="J104">
         <f>(F104-F$110)^2</f>
-        <v>58.003776013478408</v>
+        <v>18.594569746126762</v>
       </c>
       <c r="L104">
         <f>MAX(G104,0)</f>
-        <v>20.496765</v>
+        <v>19.654102000000002</v>
       </c>
       <c r="M104">
         <f>F104</f>
-        <v>16.671403999999999</v>
+        <v>11.548427</v>
       </c>
       <c r="O104">
         <f>F104</f>
-        <v>16.671403999999999</v>
+        <v>11.548427</v>
       </c>
       <c r="Q104">
         <f t="shared" si="3"/>
-        <v>0.90795349326933661</v>
+        <v>0.28564002800844768</v>
       </c>
       <c r="S104">
         <f t="shared" si="4"/>
-        <v>15.718538063328246</v>
+        <v>11.013973982412441</v>
       </c>
       <c r="T104">
         <f t="shared" si="5"/>
-        <v>16.671403999999999</v>
+        <v>11.548427</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
@@ -9779,41 +9779,41 @@
         <v>31</v>
       </c>
       <c r="E105">
-        <v>8.2837960000000006</v>
+        <v>8.0727980000000006</v>
       </c>
       <c r="F105">
-        <v>16.85783</v>
+        <v>10.903589</v>
       </c>
       <c r="G105">
-        <v>19.262259</v>
+        <v>18.605588999999998</v>
       </c>
       <c r="J105">
         <f>(F105-F$110)^2</f>
-        <v>60.878179332298757</v>
+        <v>13.449119579198539</v>
       </c>
       <c r="L105">
         <f>MAX(G105,0)</f>
-        <v>19.262259</v>
+        <v>18.605588999999998</v>
       </c>
       <c r="M105">
         <f>F105</f>
-        <v>16.85783</v>
+        <v>10.903589</v>
       </c>
       <c r="O105">
         <f>F105</f>
-        <v>16.85783</v>
+        <v>10.903589</v>
       </c>
       <c r="Q105">
         <f t="shared" si="3"/>
-        <v>3.6992208523205568</v>
+        <v>8.0851463224074188E-2</v>
       </c>
       <c r="S105">
         <f t="shared" si="4"/>
-        <v>14.934494134291528</v>
+        <v>10.619245082843198</v>
       </c>
       <c r="T105">
         <f t="shared" si="5"/>
-        <v>16.85783</v>
+        <v>10.903589</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
@@ -9830,41 +9830,41 @@
         <v>30</v>
       </c>
       <c r="E106">
-        <v>7.0831480000000004</v>
+        <v>7.0805559999999996</v>
       </c>
       <c r="F106">
-        <v>12.116732000000001</v>
+        <v>8.9095630000000003</v>
       </c>
       <c r="G106">
-        <v>14.452723000000001</v>
+        <v>14.212524999999999</v>
       </c>
       <c r="J106">
         <f>(F106-F$110)^2</f>
-        <v>9.371857756492652</v>
+        <v>2.7998596990968343</v>
       </c>
       <c r="L106">
         <f>MAX(G106,0)</f>
-        <v>14.452723000000001</v>
+        <v>14.212524999999999</v>
       </c>
       <c r="M106">
         <f>F106</f>
-        <v>12.116732000000001</v>
+        <v>8.9095630000000003</v>
       </c>
       <c r="O106">
         <f>F106</f>
-        <v>12.116732000000001</v>
+        <v>8.9095630000000003</v>
       </c>
       <c r="Q106">
         <f t="shared" si="3"/>
-        <v>5.6078928169608522E-2</v>
+        <v>3.1187026699041479E-3</v>
       </c>
       <c r="S106">
         <f t="shared" si="4"/>
-        <v>11.879922101200123</v>
+        <v>8.9654083460003982</v>
       </c>
       <c r="T106">
         <f t="shared" si="5"/>
-        <v>12.116732000000001</v>
+        <v>8.9095630000000003</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
@@ -9881,41 +9881,41 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>5.938123</v>
+        <v>6.0533960000000002</v>
       </c>
       <c r="F107">
-        <v>9.4111759999999993</v>
+        <v>7.4504200000000003</v>
       </c>
       <c r="G107">
-        <v>11.042744000000001</v>
+        <v>10.985486</v>
       </c>
       <c r="J107">
         <f>(F107-F$110)^2</f>
-        <v>0.12658866543775879</v>
+        <v>4.5853853741498585E-2</v>
       </c>
       <c r="L107">
         <f>MAX(G107,0)</f>
-        <v>11.042744000000001</v>
+        <v>10.985486</v>
       </c>
       <c r="M107">
         <f>F107</f>
-        <v>9.4111759999999993</v>
+        <v>7.4504200000000003</v>
       </c>
       <c r="O107">
         <f>F107</f>
-        <v>9.4111759999999993</v>
+        <v>7.4504200000000003</v>
       </c>
       <c r="Q107">
         <f t="shared" si="3"/>
-        <v>9.1835128365344895E-2</v>
+        <v>9.0071843079276306E-2</v>
       </c>
       <c r="S107">
         <f t="shared" si="4"/>
-        <v>9.7142191130472106</v>
+        <v>7.7505397145794932</v>
       </c>
       <c r="T107">
         <f t="shared" si="5"/>
-        <v>9.4111759999999993</v>
+        <v>7.4504200000000003</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -9932,41 +9932,41 @@
         <v>30</v>
       </c>
       <c r="E108">
-        <v>5.1767469999999998</v>
+        <v>5.2026240000000001</v>
       </c>
       <c r="F108">
-        <v>6.3036919999999999</v>
+        <v>5.8304580000000001</v>
       </c>
       <c r="G108">
-        <v>6.3645849999999999</v>
+        <v>6.2082769999999998</v>
       </c>
       <c r="J108">
         <f>(F108-F$110)^2</f>
-        <v>7.5718033085237604</v>
+        <v>1.9763491894553484</v>
       </c>
       <c r="L108">
         <f>MAX(G108,0)</f>
-        <v>6.3645849999999999</v>
+        <v>6.2082769999999998</v>
       </c>
       <c r="M108">
         <f>F108</f>
-        <v>6.3036919999999999</v>
+        <v>5.8304580000000001</v>
       </c>
       <c r="O108">
         <f>F108</f>
-        <v>6.3036919999999999</v>
+        <v>5.8304580000000001</v>
       </c>
       <c r="Q108">
         <f t="shared" si="3"/>
-        <v>0.19306672549830292</v>
+        <v>1.4793288731987035E-2</v>
       </c>
       <c r="S108">
         <f t="shared" si="4"/>
-        <v>6.743085588367312</v>
+        <v>5.9520856643366429</v>
       </c>
       <c r="T108">
         <f t="shared" si="5"/>
-        <v>6.3036919999999999</v>
+        <v>5.8304580000000001</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -9983,41 +9983,41 @@
         <v>31</v>
       </c>
       <c r="E109">
-        <v>4.937602</v>
+        <v>4.841971</v>
       </c>
       <c r="F109">
-        <v>5.5905180000000003</v>
+        <v>4.8333740000000001</v>
       </c>
       <c r="G109">
-        <v>3.6972330000000002</v>
+        <v>3.7380429999999998</v>
       </c>
       <c r="J109">
         <f>(F109-F$110)^2</f>
-        <v>12.005289404060832</v>
+        <v>5.7739806509440887</v>
       </c>
       <c r="L109">
         <f>MAX(G109,0)</f>
-        <v>3.6972330000000002</v>
+        <v>3.7380429999999998</v>
       </c>
       <c r="M109">
         <f>F109</f>
-        <v>5.5905180000000003</v>
+        <v>4.8333740000000001</v>
       </c>
       <c r="O109">
         <f>F109</f>
-        <v>5.5905180000000003</v>
+        <v>4.8333740000000001</v>
       </c>
       <c r="Q109">
         <f t="shared" si="3"/>
-        <v>0.29320868746500689</v>
+        <v>3.5628055236927511E-2</v>
       </c>
       <c r="S109">
         <f t="shared" si="4"/>
-        <v>5.0490305232611501</v>
+        <v>5.022127954228587</v>
       </c>
       <c r="T109">
         <f t="shared" si="5"/>
-        <v>5.5905180000000003</v>
+        <v>4.8333740000000001</v>
       </c>
     </row>
     <row r="110" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10026,44 +10026,44 @@
       </c>
       <c r="E110" s="5">
         <f t="shared" ref="E110:F110" si="6">AVERAGE(E2:E109)</f>
-        <v>6.1602766018518533</v>
+        <v>6.1914047222222246</v>
       </c>
       <c r="F110" s="5">
         <f t="shared" si="6"/>
-        <v>9.0553829907407408</v>
+        <v>7.2362848703703699</v>
       </c>
       <c r="G110" s="5">
         <f>AVERAGE(G2:G109)</f>
-        <v>9.833689296296301</v>
+        <v>9.4566901574074063</v>
       </c>
       <c r="H110" s="6"/>
       <c r="J110" s="5">
         <f t="shared" ref="J110" si="7">AVERAGE(J2:J109)</f>
-        <v>17.521733310571122</v>
+        <v>5.9357965775707262</v>
       </c>
       <c r="L110" s="5">
         <f t="shared" ref="L110" si="8">AVERAGE(L2:L109)</f>
-        <v>10.005382296296302</v>
+        <v>9.6194778611111111</v>
       </c>
       <c r="M110" s="5">
         <f t="shared" ref="M110" si="9">AVERAGE(M2:M109)</f>
-        <v>9.0553829907407408</v>
+        <v>7.2362848703703699</v>
       </c>
       <c r="O110" s="5">
         <f t="shared" ref="O110:Q110" si="10">AVERAGE(O2:O109)</f>
-        <v>9.0553829907407408</v>
+        <v>7.2362848703703699</v>
       </c>
       <c r="Q110" s="5">
         <f t="shared" ref="Q110:T110" si="11">AVERAGE(Q2:Q109)</f>
-        <v>1.7681624721146108</v>
+        <v>0.59000311535872485</v>
       </c>
       <c r="S110" s="5">
         <f t="shared" si="11"/>
-        <v>9.0553829907407408</v>
+        <v>7.2362848703703753</v>
       </c>
       <c r="T110" s="5">
         <f t="shared" si="11"/>
-        <v>9.0553829907407408</v>
+        <v>7.2362848703703699</v>
       </c>
     </row>
   </sheetData>

--- a/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
+++ b/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{98A7E6D9-4B51-4405-9AAB-CC2B45ABB478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833488CA-F76D-4573-97F1-5B4900CA785A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FLOW_Tidbit_Cr_Stream_Temp_Anal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -61,9 +72,6 @@
     <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</t>
   </si>
   <si>
-    <t xml:space="preserve"> Air temp at S Fork abv CGR degC</t>
-  </si>
-  <si>
     <t>air temp but not lower than 0</t>
   </si>
   <si>
@@ -78,13 +86,16 @@
   <si>
     <t>sim-obs</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Air temp for HBVCALIB=8 CGR degC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -580,7 +591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1117,328 +1128,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5.5406029236442773</c:v>
+                  <c:v>5.4745362541830138</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3652272550483389</c:v>
+                  <c:v>5.6392606325548797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2677200728858562</c:v>
+                  <c:v>5.6629098676913401</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6051016167234273</c:v>
+                  <c:v>6.0885563422800466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5289248226160082</c:v>
+                  <c:v>6.9229542902636902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1405669373676943</c:v>
+                  <c:v>8.1901668471052247</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.311348311644846</c:v>
+                  <c:v>10.232651543814104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.210642679171549</c:v>
+                  <c:v>10.163985940002686</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8247006261123282</c:v>
+                  <c:v>9.1494149618248599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.209104118462248</c:v>
+                  <c:v>7.4836042539555478</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9982389637715627</c:v>
+                  <c:v>5.0151679933374185</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5713331872584169</c:v>
+                  <c:v>4.4836622205827199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9485526795823844</c:v>
+                  <c:v>4.5317855619815468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.0785497247884717</c:v>
+                  <c:v>3.8862165597157619</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0220458847643972</c:v>
+                  <c:v>5.0359395958702518</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.15614625985432</c:v>
+                  <c:v>5.2240457854062514</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.5278902956086977</c:v>
+                  <c:v>6.7939550761698806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5371401410886154</c:v>
+                  <c:v>8.7381198219138057</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.7156177415191003</c:v>
+                  <c:v>9.681855672223028</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.509950391537375</c:v>
+                  <c:v>10.315962272019252</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.273520688565668</c:v>
+                  <c:v>10.307363273021767</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.3103778372725259</c:v>
+                  <c:v>7.1944871335765654</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.9617745220218881</c:v>
+                  <c:v>4.956200379683624</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6499546045559992</c:v>
+                  <c:v>4.41481582309987</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6752560933141263</c:v>
+                  <c:v>3.9989435063729539</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.6544465900913821</c:v>
+                  <c:v>4.1469377740754565</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.6863087419340799</c:v>
+                  <c:v>4.2776256512809052</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.633882255679028</c:v>
+                  <c:v>6.7684275956690998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.5429137582803998</c:v>
+                  <c:v>7.5620733108995903</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.2626671003451584</c:v>
+                  <c:v>8.3792042077498721</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.310158680879525</c:v>
+                  <c:v>10.364273103151415</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>11.007563529035263</c:v>
+                  <c:v>10.8559619993003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.148421978421815</c:v>
+                  <c:v>9.9878443575791156</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6851213164498109</c:v>
+                  <c:v>7.5014032235064789</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.0099182840102445</c:v>
+                  <c:v>5.8353079330062076</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.0304378190361829</c:v>
+                  <c:v>3.8319269823102706</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.3674063802947805</c:v>
+                  <c:v>4.0313390538688054</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.5672899485180549</c:v>
+                  <c:v>4.5876549914927232</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7066550493497292</c:v>
+                  <c:v>5.7634102238140743</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.3523105827485811</c:v>
+                  <c:v>6.3971209189501703</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.8598042886507518</c:v>
+                  <c:v>8.1035072509398933</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.2046468575607321</c:v>
+                  <c:v>9.3079697561591104</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.961638887443264</c:v>
+                  <c:v>10.762466560937819</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.82655857283368</c:v>
+                  <c:v>11.039559646654965</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.0392083705095452</c:v>
+                  <c:v>9.5430643046010584</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.114294311120501</c:v>
+                  <c:v>7.1397367834112444</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.4668085461166127</c:v>
+                  <c:v>5.2963783201183334</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.311368371335826</c:v>
+                  <c:v>3.5140473465227089</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.6922744463103339</c:v>
+                  <c:v>5.4485408863566285</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.8081431203165081</c:v>
+                  <c:v>4.0504014866004159</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.8941664576136663</c:v>
+                  <c:v>5.865068580142486</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.7396246191679001</c:v>
+                  <c:v>6.8210222324049168</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.0494423501404171</c:v>
+                  <c:v>8.3700573871877939</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.7193083754752756</c:v>
+                  <c:v>8.6664041619047101</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>10.998090152902817</c:v>
+                  <c:v>11.062840179882787</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.701943620770031</c:v>
+                  <c:v>10.976091442393349</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.8607067661055243</c:v>
+                  <c:v>9.9842063034454149</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.1100943194347437</c:v>
+                  <c:v>8.3548736483145891</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.7115468411739627</c:v>
+                  <c:v>5.3205983945321851</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.44991993036881</c:v>
+                  <c:v>4.9753306100420218</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.2547284839651187</c:v>
+                  <c:v>5.8651275891880221</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.4289883090204203</c:v>
+                  <c:v>6.26240619751667</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.9986275659115691</c:v>
+                  <c:v>7.0223318005057482</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.5458604965428187</c:v>
+                  <c:v>6.6353165810618195</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.147407314268289</c:v>
+                  <c:v>8.40039054761694</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.385388897565079</c:v>
+                  <c:v>10.539265055446689</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>10.706726614084397</c:v>
+                  <c:v>11.346956597530424</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.759940002906578</c:v>
+                  <c:v>10.898879152568076</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.0013796180340719</c:v>
+                  <c:v>9.0053077580581462</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.5929289299315439</c:v>
+                  <c:v>8.5250130482481659</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.218831518947221</c:v>
+                  <c:v>5.1077883401097059</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.7372520442009183</c:v>
+                  <c:v>4.552547538925392</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.9367241357069478</c:v>
+                  <c:v>4.5710650796194923</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8574757601393221</c:v>
+                  <c:v>5.8608948410563944</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.7326959162164286</c:v>
+                  <c:v>5.7844567833888769</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.6245243111085665</c:v>
+                  <c:v>7.8597496724084959</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.2132466007510168</c:v>
+                  <c:v>8.54635632706613</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.2424899157226239</c:v>
+                  <c:v>9.4657088864525694</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.7784505750613704</c:v>
+                  <c:v>9.9620528011369611</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.755322277916887</c:v>
+                  <c:v>10.791781082949683</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.8182540320536731</c:v>
+                  <c:v>8.7290487505520264</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.0838013640542172</c:v>
+                  <c:v>7.0322637343261754</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.5432184621405973</c:v>
+                  <c:v>6.3651342497343872</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.7340303963589765</c:v>
+                  <c:v>3.3308899652382915</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.6148839811614817</c:v>
+                  <c:v>3.3865547463574992</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.6148839811614817</c:v>
+                  <c:v>4.4753369231155977</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.5188881643830765</c:v>
+                  <c:v>5.5145657307543061</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.1817348484114536</c:v>
+                  <c:v>6.1252775457664566</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.4338628732488949</c:v>
+                  <c:v>8.2564314942198713</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.522704663910257</c:v>
+                  <c:v>9.3718028957945432</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.955433321075246</c:v>
+                  <c:v>10.627068004182279</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.345452171809825</c:v>
+                  <c:v>11.559833612571952</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.0916586639009331</c:v>
+                  <c:v>9.881171487891681</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.3169273497197924</c:v>
+                  <c:v>7.2399019179348656</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.6148839811614817</c:v>
+                  <c:v>5.4394036913835393</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.6148839811614817</c:v>
+                  <c:v>4.3581575137955237</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.6073449742330936</c:v>
+                  <c:v>5.2299245092548743</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.3983932500079304</c:v>
+                  <c:v>4.3140731532369516</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.4999807976628921</c:v>
+                  <c:v>5.2781675427602508</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.6507637185836215</c:v>
+                  <c:v>6.5968845337587112</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.6325477755364801</c:v>
+                  <c:v>8.7354811550194107</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.0564836162560756</c:v>
+                  <c:v>9.032004956872937</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.013973982412441</c:v>
+                  <c:v>11.303964532070086</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.619245082843198</c:v>
+                  <c:v>10.818697577791857</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.9654083460003982</c:v>
+                  <c:v>8.956087936522394</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.7505397145794932</c:v>
+                  <c:v>7.7216634838058837</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.9520856643366429</c:v>
+                  <c:v>5.8259028955569239</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.022127954228587</c:v>
+                  <c:v>4.530437561019319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,331 +1940,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.1152610000000003</c:v>
+                  <c:v>5.122166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.649413</c:v>
+                  <c:v>5.5157689999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3904059999999996</c:v>
+                  <c:v>5.5722779999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2865880000000001</c:v>
+                  <c:v>6.5893449999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7405270000000002</c:v>
+                  <c:v>8.5831090000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.021509999999999</c:v>
+                  <c:v>11.611068</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.787727</c:v>
+                  <c:v>16.491512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.520223999999999</c:v>
+                  <c:v>16.327438000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.838765</c:v>
+                  <c:v>13.903157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5472780000000004</c:v>
+                  <c:v>9.9227620000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6745869999999998</c:v>
+                  <c:v>4.0245220000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5406029999999999</c:v>
+                  <c:v>2.754508</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5426060000000001</c:v>
+                  <c:v>2.869497</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2316290000000001</c:v>
+                  <c:v>1.3269329999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.737825</c:v>
+                  <c:v>4.0741550000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0940339999999997</c:v>
+                  <c:v>4.5236280000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.7377789999999997</c:v>
+                  <c:v>8.2748699999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.074922000000001</c:v>
+                  <c:v>12.920382</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.205296000000001</c:v>
+                  <c:v>15.175405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.315270999999999</c:v>
+                  <c:v>16.690580000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.687245999999998</c:v>
+                  <c:v>16.670033</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.8162900000000004</c:v>
+                  <c:v>9.2319270000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5777269999999999</c:v>
+                  <c:v>3.8836210000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.749444</c:v>
+                  <c:v>2.5900020000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.8166519999999999</c:v>
+                  <c:v>1.59629</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7613759999999998</c:v>
+                  <c:v>1.9499169999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8460109999999998</c:v>
+                  <c:v>2.2621910000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0193239999999992</c:v>
+                  <c:v>8.2138729999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.433972000000001</c:v>
+                  <c:v>10.110260999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.345843</c:v>
+                  <c:v>12.062766</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.784566999999999</c:v>
+                  <c:v>16.806017000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.637073999999998</c:v>
+                  <c:v>17.980889999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.354948</c:v>
+                  <c:v>15.906554</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.811716000000001</c:v>
+                  <c:v>9.9652919999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.3618969999999999</c:v>
+                  <c:v>5.9842170000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1038300000000001</c:v>
+                  <c:v>1.1972100000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.998915</c:v>
+                  <c:v>1.6736979999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.5298630000000002</c:v>
+                  <c:v>3.0029949999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.556343</c:v>
+                  <c:v>5.8124200000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.2713890000000001</c:v>
+                  <c:v>7.3266489999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.275724</c:v>
+                  <c:v>11.403998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.848011</c:v>
+                  <c:v>14.282018000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>19.515084999999999</c:v>
+                  <c:v>17.757486</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>19.156272999999999</c:v>
+                  <c:v>18.419589999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.408559</c:v>
+                  <c:v>14.843768000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.2954360000000005</c:v>
+                  <c:v>9.1011030000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.9192419999999997</c:v>
+                  <c:v>4.6964639999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.8500620000000001</c:v>
+                  <c:v>0.43764799999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.5181440000000004</c:v>
+                  <c:v>5.0600509999999996</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.169638</c:v>
+                  <c:v>1.719247</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0544269999999996</c:v>
+                  <c:v>6.0553290000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.3002059999999993</c:v>
+                  <c:v>8.3395460000000003</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.779457000000001</c:v>
+                  <c:v>12.04091</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.558813000000001</c:v>
+                  <c:v>12.74902</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19.611910000000002</c:v>
+                  <c:v>18.475218000000002</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.82526</c:v>
+                  <c:v>18.267935000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>16.590693999999999</c:v>
+                  <c:v>15.897861000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.940566</c:v>
+                  <c:v>12.004629</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.569337</c:v>
+                  <c:v>4.7543369999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.8743809999999996</c:v>
+                  <c:v>3.929332</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7.0121830000000003</c:v>
+                  <c:v>6.0554699999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.4750670000000001</c:v>
+                  <c:v>7.004753</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.9881919999999997</c:v>
+                  <c:v>8.8205679999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.7855129999999999</c:v>
+                  <c:v>7.8958089999999999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.039680000000001</c:v>
+                  <c:v>12.113390000000001</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.984400000000001</c:v>
+                  <c:v>17.224153999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>18.837965000000001</c:v>
+                  <c:v>19.154104</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18.979315</c:v>
+                  <c:v>18.083438999999998</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>14.308075000000001</c:v>
+                  <c:v>13.558818</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13.223113</c:v>
+                  <c:v>12.411171</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.2605440000000003</c:v>
+                  <c:v>4.2458349999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.981331</c:v>
+                  <c:v>2.9191069999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.5111859999999999</c:v>
+                  <c:v>2.9633539999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.9569660000000004</c:v>
+                  <c:v>6.045356</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.625515</c:v>
+                  <c:v>5.8627099999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.650753</c:v>
+                  <c:v>10.821548</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.214568</c:v>
+                  <c:v>12.46217</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.948532999999999</c:v>
+                  <c:v>14.65893</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.372198000000001</c:v>
+                  <c:v>15.844925999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>18.967048999999999</c:v>
+                  <c:v>17.827532000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.821641</c:v>
+                  <c:v>12.898707</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.2144379999999995</c:v>
+                  <c:v>8.8443000000000005</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.7784950000000004</c:v>
+                  <c:v>7.2502180000000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.31648700000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.13300899999999999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>2.7346149999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.401294</c:v>
+                  <c:v>5.2178149999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.8182910000000003</c:v>
+                  <c:v>6.6770889999999996</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>12.800587999999999</c:v>
+                  <c:v>11.769405000000001</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.349150000000002</c:v>
+                  <c:v>14.434545</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>24.811174000000001</c:v>
+                  <c:v>17.433955999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>20.534603000000001</c:v>
+                  <c:v>19.662766000000001</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>14.547882</c:v>
+                  <c:v>15.651662999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.1774009999999997</c:v>
+                  <c:v>9.3404439999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>5.0382179999999996</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>2.4546190000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.2925469999999999</c:v>
+                  <c:v>4.5376750000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.0812249999999999</c:v>
+                  <c:v>2.349281</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.0073569999999998</c:v>
+                  <c:v>4.6529499999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>8.0641660000000002</c:v>
+                  <c:v>7.8039769999999997</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>13.328352000000001</c:v>
+                  <c:v>12.914077000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14.454447</c:v>
+                  <c:v>13.62261</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>19.654102000000002</c:v>
+                  <c:v>19.051376000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>18.605588999999998</c:v>
+                  <c:v>17.891848</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>14.212524999999999</c:v>
+                  <c:v>13.441209000000001</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.985486</c:v>
+                  <c:v>10.491595999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.2082769999999998</c:v>
+                  <c:v>5.9617440000000004</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.7380429999999998</c:v>
+                  <c:v>2.866276</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.6194778611111111</c:v>
+                  <c:v>9.3318011944444432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4383,11 +4394,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T109"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4409,38 +4420,38 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="str">
-        <f>F1</f>
+        <f t="shared" ref="M1:M32" si="0">F1</f>
         <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</v>
       </c>
       <c r="O1" s="1" t="str">
-        <f>F1</f>
+        <f t="shared" ref="O1:O32" si="1">F1</f>
         <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T1" s="1" t="str">
         <f>F1</f>
@@ -4461,48 +4472,48 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>4.983333</v>
+        <v>5.4295159999999996</v>
       </c>
       <c r="F2">
         <v>5.5611240000000004</v>
       </c>
       <c r="G2">
-        <v>5.1152610000000003</v>
+        <v>5.122166</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I2">
         <f>SLOPE(M2:M109,L2:L109)</f>
-        <v>0.37646543206354377</v>
+        <v>0.41850386905553671</v>
       </c>
       <c r="J2">
-        <f>(F2-F$110)^2</f>
+        <f t="shared" ref="J2:J33" si="2">(F2-F$110)^2</f>
         <v>2.8061639416200141</v>
       </c>
       <c r="K2">
         <f>SLOPE(M2:M109,L2:L109)</f>
-        <v>0.37646543206354377</v>
+        <v>0.41850386905553671</v>
       </c>
       <c r="L2">
-        <f>MAX(G2,0)</f>
-        <v>5.1152610000000003</v>
+        <f t="shared" ref="L2:L33" si="3">MAX(G2,0)</f>
+        <v>5.122166</v>
       </c>
       <c r="M2">
-        <f>F2</f>
+        <f t="shared" si="0"/>
         <v>5.5611240000000004</v>
       </c>
       <c r="O2">
-        <f>F2</f>
+        <f t="shared" si="1"/>
         <v>5.5611240000000004</v>
       </c>
       <c r="Q2">
         <f>(S2-M2)^2</f>
-        <v>4.2111457479741723E-4</v>
+        <v>7.4974377256670777E-3</v>
       </c>
       <c r="S2">
         <f>L2*I$2+I$3</f>
-        <v>5.5406029236442773</v>
+        <v>5.4745362541830138</v>
       </c>
       <c r="T2">
         <f>F2</f>
@@ -4523,47 +4534,47 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>5.2462260000000001</v>
+        <v>5.62934</v>
       </c>
       <c r="F3">
         <v>5.204129</v>
       </c>
       <c r="G3">
-        <v>4.649413</v>
+        <v>5.5157689999999997</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
         <f>INTERCEPT(M2:M109,L2:L109)</f>
-        <v>3.6148839811614817</v>
+        <v>3.3308899652382915</v>
       </c>
       <c r="J3">
-        <f>(F3-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>4.1296574814807556</v>
       </c>
       <c r="L3">
-        <f>MAX(G3,0)</f>
-        <v>4.649413</v>
+        <f t="shared" si="3"/>
+        <v>5.5157689999999997</v>
       </c>
       <c r="M3">
-        <f>F3</f>
+        <f t="shared" si="0"/>
         <v>5.204129</v>
       </c>
       <c r="O3">
-        <f>F3</f>
+        <f t="shared" si="1"/>
         <v>5.204129</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q66" si="0">(S3-M3)^2</f>
-        <v>2.5952647779619635E-2</v>
+        <f t="shared" ref="Q3:Q66" si="4">(S3-M3)^2</f>
+        <v>0.18933953764987488</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S66" si="1">L3*I$2+I$3</f>
-        <v>5.3652272550483389</v>
+        <f t="shared" ref="S3:S66" si="5">L3*I$2+I$3</f>
+        <v>5.6392606325548797</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T66" si="2">F3</f>
+        <f t="shared" ref="T3:T66" si="6">F3</f>
         <v>5.204129</v>
       </c>
     </row>
@@ -4581,47 +4592,47 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>5.7393200000000002</v>
+        <v>5.9064769999999998</v>
       </c>
       <c r="F4">
         <v>5.0899530000000004</v>
       </c>
       <c r="G4">
-        <v>4.3904059999999996</v>
+        <v>5.5722779999999998</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I4">
         <f>RSQ(M2:M109,L2:L109)</f>
-        <v>0.90060253789893352</v>
+        <v>0.92132234907160648</v>
       </c>
       <c r="J4">
-        <f>(F4-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>4.6067404977675688</v>
       </c>
       <c r="L4">
-        <f>MAX(G4,0)</f>
-        <v>4.3904059999999996</v>
+        <f t="shared" si="3"/>
+        <v>5.5722779999999998</v>
       </c>
       <c r="M4">
-        <f>F4</f>
+        <f t="shared" si="0"/>
         <v>5.0899530000000004</v>
       </c>
       <c r="O4">
-        <f>F4</f>
+        <f t="shared" si="1"/>
         <v>5.0899530000000004</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
-        <v>3.1601132202405173E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.32827957223467136</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
-        <v>5.2677200728858562</v>
+        <f t="shared" si="5"/>
+        <v>5.6629098676913401</v>
       </c>
       <c r="T4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.0899530000000004</v>
       </c>
     </row>
@@ -4639,47 +4650,47 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>5.9586629999999996</v>
+        <v>6.3741919999999999</v>
       </c>
       <c r="F5">
         <v>5.3831249999999997</v>
       </c>
       <c r="G5">
-        <v>5.2865880000000001</v>
+        <v>6.5893449999999998</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <f>S110-T110</f>
         <v>0</v>
       </c>
       <c r="J5">
-        <f>(F5-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>3.4342015051511274</v>
       </c>
       <c r="L5">
-        <f>MAX(G5,0)</f>
-        <v>5.2865880000000001</v>
+        <f t="shared" si="3"/>
+        <v>6.5893449999999998</v>
       </c>
       <c r="M5">
-        <f>F5</f>
+        <f t="shared" si="0"/>
         <v>5.3831249999999997</v>
       </c>
       <c r="O5">
-        <f>F5</f>
+        <f t="shared" si="1"/>
         <v>5.3831249999999997</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>4.927361837197948E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.49763337867102869</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
-        <v>5.6051016167234273</v>
+        <f t="shared" si="5"/>
+        <v>6.0885563422800466</v>
       </c>
       <c r="T5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.3831249999999997</v>
       </c>
     </row>
@@ -4697,47 +4708,47 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>6.2439270000000002</v>
+        <v>7.374498</v>
       </c>
       <c r="F6">
         <v>6.4534450000000003</v>
       </c>
       <c r="G6">
-        <v>7.7405270000000002</v>
+        <v>8.5831090000000003</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="4">
         <f>(1/108)*SQRT(SUM(Q2:Q109))</f>
-        <v>7.3912054557271512E-2</v>
+        <v>6.5758715174552798E-2</v>
       </c>
       <c r="J6">
-        <f>(F6-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>0.6128382626414971</v>
       </c>
       <c r="L6">
-        <f>MAX(G6,0)</f>
-        <v>7.7405270000000002</v>
+        <f t="shared" si="3"/>
+        <v>8.5831090000000003</v>
       </c>
       <c r="M6">
-        <f>F6</f>
+        <f t="shared" si="0"/>
         <v>6.4534450000000003</v>
       </c>
       <c r="O6">
-        <f>F6</f>
+        <f t="shared" si="1"/>
         <v>6.4534450000000003</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>5.697203622144007E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.22043897364391385</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
-        <v>6.5289248226160082</v>
+        <f t="shared" si="5"/>
+        <v>6.9229542902636902</v>
       </c>
       <c r="T6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4534450000000003</v>
       </c>
     </row>
@@ -4755,40 +4766,40 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>6.7417850000000001</v>
+        <v>8.5896299999999997</v>
       </c>
       <c r="F7">
         <v>8.8064929999999997</v>
       </c>
       <c r="G7">
-        <v>12.021509999999999</v>
+        <v>11.611068</v>
       </c>
       <c r="J7">
-        <f>(F7-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>2.46555357035498</v>
       </c>
       <c r="L7">
-        <f>MAX(G7,0)</f>
-        <v>12.021509999999999</v>
+        <f t="shared" si="3"/>
+        <v>11.611068</v>
       </c>
       <c r="M7">
-        <f>F7</f>
+        <f t="shared" si="0"/>
         <v>8.8064929999999997</v>
       </c>
       <c r="O7">
-        <f>F7</f>
+        <f t="shared" si="1"/>
         <v>8.8064929999999997</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0.44345752089296508</v>
+        <f t="shared" si="4"/>
+        <v>0.37985792674207358</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
-        <v>8.1405669373676943</v>
+        <f t="shared" si="5"/>
+        <v>8.1901668471052247</v>
       </c>
       <c r="T7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.8064929999999997</v>
       </c>
     </row>
@@ -4806,40 +4817,40 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>8.0498410000000007</v>
+        <v>11.274891</v>
       </c>
       <c r="F8">
         <v>11.253795</v>
       </c>
       <c r="G8">
-        <v>17.787727</v>
+        <v>16.491512</v>
       </c>
       <c r="J8">
-        <f>(F8-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>16.140387641676689</v>
       </c>
       <c r="L8">
-        <f>MAX(G8,0)</f>
-        <v>17.787727</v>
+        <f t="shared" si="3"/>
+        <v>16.491512</v>
       </c>
       <c r="M8">
-        <f>F8</f>
+        <f t="shared" si="0"/>
         <v>11.253795</v>
       </c>
       <c r="O8">
-        <f>F8</f>
+        <f t="shared" si="1"/>
         <v>11.253795</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>0.88820576039159782</v>
+        <f t="shared" si="4"/>
+        <v>1.042733958111278</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
-        <v>10.311348311644846</v>
+        <f t="shared" si="5"/>
+        <v>10.232651543814104</v>
       </c>
       <c r="T8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.253795</v>
       </c>
     </row>
@@ -4857,40 +4868,40 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <v>7.8786880000000004</v>
+        <v>11.335907000000001</v>
       </c>
       <c r="F9">
         <v>10.724527999999999</v>
       </c>
       <c r="G9">
-        <v>17.520223999999999</v>
+        <v>16.327438000000001</v>
       </c>
       <c r="J9">
-        <f>(F9-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>12.167840131408312</v>
       </c>
       <c r="L9">
-        <f>MAX(G9,0)</f>
-        <v>17.520223999999999</v>
+        <f t="shared" si="3"/>
+        <v>16.327438000000001</v>
       </c>
       <c r="M9">
-        <f>F9</f>
+        <f t="shared" si="0"/>
         <v>10.724527999999999</v>
       </c>
       <c r="O9">
-        <f>F9</f>
+        <f t="shared" si="1"/>
         <v>10.724527999999999</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0.26407812296295918</v>
+        <f t="shared" si="4"/>
+        <v>0.31420740102603201</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
-        <v>10.210642679171549</v>
+        <f t="shared" si="5"/>
+        <v>10.163985940002686</v>
       </c>
       <c r="T9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.724527999999999</v>
       </c>
     </row>
@@ -4908,40 +4919,40 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>6.896039</v>
+        <v>9.7070430000000005</v>
       </c>
       <c r="F10">
         <v>9.3905910000000006</v>
       </c>
       <c r="G10">
-        <v>13.838765</v>
+        <v>13.903157</v>
       </c>
       <c r="J10">
-        <f>(F10-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>4.6410349001597986</v>
       </c>
       <c r="L10">
-        <f>MAX(G10,0)</f>
-        <v>13.838765</v>
+        <f t="shared" si="3"/>
+        <v>13.903157</v>
       </c>
       <c r="M10">
-        <f>F10</f>
+        <f t="shared" si="0"/>
         <v>9.3905910000000006</v>
       </c>
       <c r="O10">
-        <f>F10</f>
+        <f t="shared" si="1"/>
         <v>9.3905910000000006</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0.32023191525872963</v>
+        <f t="shared" si="4"/>
+        <v>5.8165881389856906E-2</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
-        <v>8.8247006261123282</v>
+        <f t="shared" si="5"/>
+        <v>9.1494149618248599</v>
       </c>
       <c r="T10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.3905910000000006</v>
       </c>
     </row>
@@ -4959,40 +4970,40 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>5.9561190000000002</v>
+        <v>7.7781789999999997</v>
       </c>
       <c r="F11">
         <v>7.7608730000000001</v>
       </c>
       <c r="G11">
-        <v>9.5472780000000004</v>
+        <v>9.9227620000000005</v>
       </c>
       <c r="J11">
-        <f>(F11-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>0.27519270574831367</v>
       </c>
       <c r="L11">
-        <f>MAX(G11,0)</f>
-        <v>9.5472780000000004</v>
+        <f t="shared" si="3"/>
+        <v>9.9227620000000005</v>
       </c>
       <c r="M11">
-        <f>F11</f>
+        <f t="shared" si="0"/>
         <v>7.7608730000000001</v>
       </c>
       <c r="O11">
-        <f>F11</f>
+        <f t="shared" si="1"/>
         <v>7.7608730000000001</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0.304448898633422</v>
+        <f t="shared" si="4"/>
+        <v>7.6877957533062979E-2</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
-        <v>7.209104118462248</v>
+        <f t="shared" si="5"/>
+        <v>7.4836042539555478</v>
       </c>
       <c r="T11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.7608730000000001</v>
       </c>
     </row>
@@ -5010,40 +5021,40 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>5.0397850000000002</v>
+        <v>5.2305520000000003</v>
       </c>
       <c r="F12">
         <v>5.7657990000000003</v>
       </c>
       <c r="G12">
-        <v>3.6745869999999998</v>
+        <v>4.0245220000000002</v>
       </c>
       <c r="J12">
-        <f>(F12-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>2.1623286949589033</v>
       </c>
       <c r="L12">
-        <f>MAX(G12,0)</f>
-        <v>3.6745869999999998</v>
+        <f t="shared" si="3"/>
+        <v>4.0245220000000002</v>
       </c>
       <c r="M12">
-        <f>F12</f>
+        <f t="shared" si="0"/>
         <v>5.7657990000000003</v>
       </c>
       <c r="O12">
-        <f>F12</f>
+        <f t="shared" si="1"/>
         <v>5.7657990000000003</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>0.58914840921500045</v>
+        <f t="shared" si="4"/>
+        <v>0.56344690816328102</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
-        <v>4.9982389637715627</v>
+        <f t="shared" si="5"/>
+        <v>5.0151679933374185</v>
       </c>
       <c r="T12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.7657990000000003</v>
       </c>
     </row>
@@ -5061,40 +5072,40 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>4.816497</v>
+        <v>4.5947290000000001</v>
       </c>
       <c r="F13">
         <v>4.8019150000000002</v>
       </c>
       <c r="G13">
-        <v>2.5406029999999999</v>
+        <v>2.754508</v>
       </c>
       <c r="J13">
-        <f>(F13-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>5.926156665767051</v>
       </c>
       <c r="L13">
-        <f>MAX(G13,0)</f>
-        <v>2.5406029999999999</v>
+        <f t="shared" si="3"/>
+        <v>2.754508</v>
       </c>
       <c r="M13">
-        <f>F13</f>
+        <f t="shared" si="0"/>
         <v>4.8019150000000002</v>
       </c>
       <c r="O13">
-        <f>F13</f>
+        <f t="shared" si="1"/>
         <v>4.8019150000000002</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>5.3167972367194581E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.10128483160682404</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
-        <v>4.5713331872584169</v>
+        <f t="shared" si="5"/>
+        <v>4.4836622205827199</v>
       </c>
       <c r="T13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.8019150000000002</v>
       </c>
     </row>
@@ -5112,40 +5123,40 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>4.934253</v>
+        <v>4.6790120000000002</v>
       </c>
       <c r="F14">
         <v>4.3048380000000002</v>
       </c>
       <c r="G14">
-        <v>3.5426060000000001</v>
+        <v>2.869497</v>
       </c>
       <c r="J14">
-        <f>(F14-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>8.5933807538042348</v>
       </c>
       <c r="L14">
-        <f>MAX(G14,0)</f>
-        <v>3.5426060000000001</v>
+        <f t="shared" si="3"/>
+        <v>2.869497</v>
       </c>
       <c r="M14">
-        <f>F14</f>
+        <f t="shared" si="0"/>
         <v>4.3048380000000002</v>
       </c>
       <c r="O14">
-        <f>F14</f>
+        <f t="shared" si="1"/>
         <v>4.3048380000000002</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>0.41436858870985166</v>
+        <f t="shared" si="4"/>
+        <v>5.1505195889367958E-2</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
-        <v>4.9485526795823844</v>
+        <f t="shared" si="5"/>
+        <v>4.5317855619815468</v>
       </c>
       <c r="T14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.3048380000000002</v>
       </c>
     </row>
@@ -5163,40 +5174,40 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>5.0063829999999996</v>
+        <v>4.242286</v>
       </c>
       <c r="F15">
         <v>3.5831170000000001</v>
       </c>
       <c r="G15">
-        <v>1.2316290000000001</v>
+        <v>1.3269329999999999</v>
       </c>
       <c r="J15">
-        <f>(F15-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>13.345635489106384</v>
       </c>
       <c r="L15">
-        <f>MAX(G15,0)</f>
-        <v>1.2316290000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.3269329999999999</v>
       </c>
       <c r="M15">
-        <f>F15</f>
+        <f t="shared" si="0"/>
         <v>3.5831170000000001</v>
       </c>
       <c r="O15">
-        <f>F15</f>
+        <f t="shared" si="1"/>
         <v>3.5831170000000001</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0.24545358479132939</v>
+        <f t="shared" si="4"/>
+        <v>9.1869343099888617E-2</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
-        <v>4.0785497247884717</v>
+        <f t="shared" si="5"/>
+        <v>3.8862165597157619</v>
       </c>
       <c r="T15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.5831170000000001</v>
       </c>
     </row>
@@ -5214,40 +5225,40 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.2800989999999999</v>
+        <v>5.0323019999999996</v>
       </c>
       <c r="F16">
         <v>4.5250349999999999</v>
       </c>
       <c r="G16">
-        <v>3.737825</v>
+        <v>4.0741550000000002</v>
       </c>
       <c r="J16">
-        <f>(F16-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>7.3508758595833479</v>
       </c>
       <c r="L16">
-        <f>MAX(G16,0)</f>
-        <v>3.737825</v>
+        <f t="shared" si="3"/>
+        <v>4.0741550000000002</v>
       </c>
       <c r="M16">
-        <f>F16</f>
+        <f t="shared" si="0"/>
         <v>4.5250349999999999</v>
       </c>
       <c r="O16">
-        <f>F16</f>
+        <f t="shared" si="1"/>
         <v>4.5250349999999999</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>0.24701981957428898</v>
+        <f t="shared" si="4"/>
+        <v>0.26102350608134534</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
-        <v>5.0220458847643972</v>
+        <f t="shared" si="5"/>
+        <v>5.0359395958702518</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.5250349999999999</v>
       </c>
     </row>
@@ -5265,40 +5276,40 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>5.630503</v>
+        <v>5.2489809999999997</v>
       </c>
       <c r="F17">
         <v>4.8515620000000004</v>
       </c>
       <c r="G17">
-        <v>4.0940339999999997</v>
+        <v>4.5236280000000004</v>
       </c>
       <c r="J17">
-        <f>(F17-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>5.6869031684674942</v>
       </c>
       <c r="L17">
-        <f>MAX(G17,0)</f>
-        <v>4.0940339999999997</v>
+        <f t="shared" si="3"/>
+        <v>4.5236280000000004</v>
       </c>
       <c r="M17">
-        <f>F17</f>
+        <f t="shared" si="0"/>
         <v>4.8515620000000004</v>
       </c>
       <c r="O17">
-        <f>F17</f>
+        <f t="shared" si="1"/>
         <v>4.8515620000000004</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>9.2771571351003682E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.13874417039057008</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
-        <v>5.15614625985432</v>
+        <f t="shared" si="5"/>
+        <v>5.2240457854062514</v>
       </c>
       <c r="T17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.8515620000000004</v>
       </c>
     </row>
@@ -5316,40 +5327,40 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>6.0524209999999998</v>
+        <v>7.0568229999999996</v>
       </c>
       <c r="F18">
         <v>5.832058</v>
       </c>
       <c r="G18">
-        <v>7.7377789999999997</v>
+        <v>8.2748699999999999</v>
       </c>
       <c r="J18">
-        <f>(F18-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>1.9718531034701638</v>
       </c>
       <c r="L18">
-        <f>MAX(G18,0)</f>
-        <v>7.7377789999999997</v>
+        <f t="shared" si="3"/>
+        <v>8.2748699999999999</v>
       </c>
       <c r="M18">
-        <f>F18</f>
+        <f t="shared" si="0"/>
         <v>5.832058</v>
       </c>
       <c r="O18">
-        <f>F18</f>
+        <f t="shared" si="1"/>
         <v>5.832058</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>0.48418258361207012</v>
+        <f t="shared" si="4"/>
+        <v>0.92524598514416512</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
-        <v>6.5278902956086977</v>
+        <f t="shared" si="5"/>
+        <v>6.7939550761698806</v>
       </c>
       <c r="T18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.832058</v>
       </c>
     </row>
@@ -5367,40 +5378,40 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>6.608867</v>
+        <v>9.4286290000000008</v>
       </c>
       <c r="F19">
         <v>7.7188309999999998</v>
       </c>
       <c r="G19">
-        <v>13.074922000000001</v>
+        <v>12.920382</v>
       </c>
       <c r="J19">
-        <f>(F19-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>0.23285076722053552</v>
       </c>
       <c r="L19">
-        <f>MAX(G19,0)</f>
-        <v>13.074922000000001</v>
+        <f t="shared" si="3"/>
+        <v>12.920382</v>
       </c>
       <c r="M19">
-        <f>F19</f>
+        <f t="shared" si="0"/>
         <v>7.7188309999999998</v>
       </c>
       <c r="O19">
-        <f>F19</f>
+        <f t="shared" si="1"/>
         <v>7.7188309999999998</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>0.66962985038918788</v>
+        <f t="shared" si="4"/>
+        <v>1.0389497024784342</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
-        <v>8.5371401410886154</v>
+        <f t="shared" si="5"/>
+        <v>8.7381198219138057</v>
       </c>
       <c r="T19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.7188309999999998</v>
       </c>
     </row>
@@ -5418,40 +5429,40 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>7.539841</v>
+        <v>10.747157</v>
       </c>
       <c r="F20">
         <v>10.470634</v>
       </c>
       <c r="G20">
-        <v>16.205296000000001</v>
+        <v>15.175405</v>
       </c>
       <c r="J20">
-        <f>(F20-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>10.461014292335948</v>
       </c>
       <c r="L20">
-        <f>MAX(G20,0)</f>
-        <v>16.205296000000001</v>
+        <f t="shared" si="3"/>
+        <v>15.175405</v>
       </c>
       <c r="M20">
-        <f>F20</f>
+        <f t="shared" si="0"/>
         <v>10.470634</v>
       </c>
       <c r="O20">
-        <f>F20</f>
+        <f t="shared" si="1"/>
         <v>10.470634</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>0.57004955057049744</v>
+        <f t="shared" si="4"/>
+        <v>0.62217125037063692</v>
       </c>
       <c r="S20">
-        <f t="shared" si="1"/>
-        <v>9.7156177415191003</v>
+        <f t="shared" si="5"/>
+        <v>9.681855672223028</v>
       </c>
       <c r="T20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.470634</v>
       </c>
     </row>
@@ -5469,40 +5480,40 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>7.9891500000000004</v>
+        <v>11.530892</v>
       </c>
       <c r="F21">
         <v>10.573588000000001</v>
       </c>
       <c r="G21">
-        <v>18.315270999999999</v>
+        <v>16.690580000000001</v>
       </c>
       <c r="J21">
-        <f>(F21-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>11.13759217903573</v>
       </c>
       <c r="L21">
-        <f>MAX(G21,0)</f>
-        <v>18.315270999999999</v>
+        <f t="shared" si="3"/>
+        <v>16.690580000000001</v>
       </c>
       <c r="M21">
-        <f>F21</f>
+        <f t="shared" si="0"/>
         <v>10.573588000000001</v>
       </c>
       <c r="O21">
-        <f>F21</f>
+        <f t="shared" si="1"/>
         <v>10.573588000000001</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>4.0497452108424889E-3</v>
+        <f t="shared" si="4"/>
+        <v>6.6371015717610657E-2</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
-        <v>10.509950391537375</v>
+        <f t="shared" si="5"/>
+        <v>10.315962272019252</v>
       </c>
       <c r="T21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.573588000000001</v>
       </c>
     </row>
@@ -5520,40 +5531,40 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>7.337771</v>
+        <v>11.117245</v>
       </c>
       <c r="F22">
         <v>9.3907810000000005</v>
       </c>
       <c r="G22">
-        <v>17.687245999999998</v>
+        <v>16.670033</v>
       </c>
       <c r="J22">
-        <f>(F22-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>4.6418535725890582</v>
       </c>
       <c r="L22">
-        <f>MAX(G22,0)</f>
-        <v>17.687245999999998</v>
+        <f t="shared" si="3"/>
+        <v>16.670033</v>
       </c>
       <c r="M22">
-        <f>F22</f>
+        <f t="shared" si="0"/>
         <v>9.3907810000000005</v>
       </c>
       <c r="O22">
-        <f>F22</f>
+        <f t="shared" si="1"/>
         <v>9.3907810000000005</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>0.7792293577690117</v>
+        <f t="shared" si="4"/>
+        <v>0.84012306321774899</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
-        <v>10.273520688565668</v>
+        <f t="shared" si="5"/>
+        <v>10.307363273021767</v>
       </c>
       <c r="T22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.3907810000000005</v>
       </c>
     </row>
@@ -5571,40 +5582,40 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>6.0370949999999999</v>
+        <v>7.4821730000000004</v>
       </c>
       <c r="F23">
         <v>7.5293890000000001</v>
       </c>
       <c r="G23">
-        <v>9.8162900000000004</v>
+        <v>9.2319270000000007</v>
       </c>
       <c r="J23">
-        <f>(F23-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>8.5910030805943047E-2</v>
       </c>
       <c r="L23">
-        <f>MAX(G23,0)</f>
-        <v>9.8162900000000004</v>
+        <f t="shared" si="3"/>
+        <v>9.2319270000000007</v>
       </c>
       <c r="M23">
-        <f>F23</f>
+        <f t="shared" si="0"/>
         <v>7.5293890000000001</v>
       </c>
       <c r="O23">
-        <f>F23</f>
+        <f t="shared" si="1"/>
         <v>7.5293890000000001</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>4.7965889399240194E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.11215926013390008</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
-        <v>7.3103778372725259</v>
+        <f t="shared" si="5"/>
+        <v>7.1944871335765654</v>
       </c>
       <c r="T23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.5293890000000001</v>
       </c>
     </row>
@@ -5622,40 +5633,40 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <v>5.0719779999999997</v>
+        <v>5.0233150000000002</v>
       </c>
       <c r="F24">
         <v>5.3008189999999997</v>
       </c>
       <c r="G24">
-        <v>3.5777269999999999</v>
+        <v>3.8836210000000002</v>
       </c>
       <c r="J24">
-        <f>(F24-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>3.7460281353685345</v>
       </c>
       <c r="L24">
-        <f>MAX(G24,0)</f>
-        <v>3.5777269999999999</v>
+        <f t="shared" si="3"/>
+        <v>3.8836210000000002</v>
       </c>
       <c r="M24">
-        <f>F24</f>
+        <f t="shared" si="0"/>
         <v>5.3008189999999997</v>
       </c>
       <c r="O24">
-        <f>F24</f>
+        <f t="shared" si="1"/>
         <v>5.3008189999999997</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>0.11495115804745024</v>
+        <f t="shared" si="4"/>
+        <v>0.1187619934687623</v>
       </c>
       <c r="S24">
-        <f t="shared" si="1"/>
-        <v>4.9617745220218881</v>
+        <f t="shared" si="5"/>
+        <v>4.956200379683624</v>
       </c>
       <c r="T24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.3008189999999997</v>
       </c>
     </row>
@@ -5673,40 +5684,40 @@
         <v>31</v>
       </c>
       <c r="E25">
-        <v>4.8349580000000003</v>
+        <v>4.3382329999999998</v>
       </c>
       <c r="F25">
         <v>3.5235210000000001</v>
       </c>
       <c r="G25">
-        <v>2.749444</v>
+        <v>2.5900020000000001</v>
       </c>
       <c r="J25">
-        <f>(F25-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>13.784615557127568</v>
       </c>
       <c r="L25">
-        <f>MAX(G25,0)</f>
-        <v>2.749444</v>
+        <f t="shared" si="3"/>
+        <v>2.5900020000000001</v>
       </c>
       <c r="M25">
-        <f>F25</f>
+        <f t="shared" si="0"/>
         <v>3.5235210000000001</v>
       </c>
       <c r="O25">
-        <f>F25</f>
+        <f t="shared" si="1"/>
         <v>3.5235210000000001</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>1.2688526654730208</v>
+        <f t="shared" si="4"/>
+        <v>0.79440646168462825</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
-        <v>4.6499546045559992</v>
+        <f t="shared" si="5"/>
+        <v>4.41481582309987</v>
       </c>
       <c r="T25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.5235210000000001</v>
       </c>
     </row>
@@ -5724,40 +5735,40 @@
         <v>31</v>
       </c>
       <c r="E26">
-        <v>4.9048470000000002</v>
+        <v>4.188841</v>
       </c>
       <c r="F26">
         <v>4.1981859999999998</v>
       </c>
       <c r="G26">
-        <v>2.8166519999999999</v>
+        <v>1.59629</v>
       </c>
       <c r="J26">
-        <f>(F26-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>9.2300447461457189</v>
       </c>
       <c r="L26">
-        <f>MAX(G26,0)</f>
-        <v>2.8166519999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.59629</v>
       </c>
       <c r="M26">
-        <f>F26</f>
+        <f t="shared" si="0"/>
         <v>4.1981859999999998</v>
       </c>
       <c r="O26">
-        <f>F26</f>
+        <f t="shared" si="1"/>
         <v>4.1981859999999998</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>0.22759587393474939</v>
+        <f t="shared" si="4"/>
+        <v>3.9697571266723394E-2</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
-        <v>4.6752560933141263</v>
+        <f t="shared" si="5"/>
+        <v>3.9989435063729539</v>
       </c>
       <c r="T26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.1981859999999998</v>
       </c>
     </row>
@@ -5775,40 +5786,40 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>5.0810380000000004</v>
+        <v>4.3217140000000001</v>
       </c>
       <c r="F27">
         <v>4.2563820000000003</v>
       </c>
       <c r="G27">
-        <v>2.7613759999999998</v>
+        <v>1.9499169999999999</v>
       </c>
       <c r="J27">
-        <f>(F27-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>8.8798211168415673</v>
       </c>
       <c r="L27">
-        <f>MAX(G27,0)</f>
-        <v>2.7613759999999998</v>
+        <f t="shared" si="3"/>
+        <v>1.9499169999999999</v>
       </c>
       <c r="M27">
-        <f>F27</f>
+        <f t="shared" si="0"/>
         <v>4.2563820000000003</v>
       </c>
       <c r="O27">
-        <f>F27</f>
+        <f t="shared" si="1"/>
         <v>4.2563820000000003</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>0.15845541788461975</v>
+        <f t="shared" si="4"/>
+        <v>1.1978038588222594E-2</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
-        <v>4.6544465900913821</v>
+        <f t="shared" si="5"/>
+        <v>4.1469377740754565</v>
       </c>
       <c r="T27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.2563820000000003</v>
       </c>
     </row>
@@ -5826,40 +5837,40 @@
         <v>31</v>
       </c>
       <c r="E28">
-        <v>5.336551</v>
+        <v>4.6069509999999996</v>
       </c>
       <c r="F28">
         <v>4.3000590000000001</v>
       </c>
       <c r="G28">
-        <v>2.8460109999999998</v>
+        <v>2.2621910000000001</v>
       </c>
       <c r="J28">
-        <f>(F28-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>8.6214223618322361</v>
       </c>
       <c r="L28">
-        <f>MAX(G28,0)</f>
-        <v>2.8460109999999998</v>
+        <f t="shared" si="3"/>
+        <v>2.2621910000000001</v>
       </c>
       <c r="M28">
-        <f>F28</f>
+        <f t="shared" si="0"/>
         <v>4.3000590000000001</v>
       </c>
       <c r="O28">
-        <f>F28</f>
+        <f t="shared" si="1"/>
         <v>4.3000590000000001</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>0.14918886314414323</v>
+        <f t="shared" si="4"/>
+        <v>5.032551347525149E-4</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
-        <v>4.6863087419340799</v>
+        <f t="shared" si="5"/>
+        <v>4.2776256512809052</v>
       </c>
       <c r="T28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.3000590000000001</v>
       </c>
     </row>
@@ -5877,40 +5888,40 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <v>5.8612830000000002</v>
+        <v>6.5429639999999996</v>
       </c>
       <c r="F29">
         <v>5.3488879999999996</v>
       </c>
       <c r="G29">
-        <v>8.0193239999999992</v>
+        <v>8.2138729999999995</v>
       </c>
       <c r="J29">
-        <f>(F29-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>3.5622669462838683</v>
       </c>
       <c r="L29">
-        <f>MAX(G29,0)</f>
-        <v>8.0193239999999992</v>
+        <f t="shared" si="3"/>
+        <v>8.2138729999999995</v>
       </c>
       <c r="M29">
-        <f>F29</f>
+        <f t="shared" si="0"/>
         <v>5.3488879999999996</v>
       </c>
       <c r="O29">
-        <f>F29</f>
+        <f t="shared" si="1"/>
         <v>5.3488879999999996</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>1.6512102371281001</v>
+        <f t="shared" si="4"/>
+        <v>2.0150926636723923</v>
       </c>
       <c r="S29">
-        <f t="shared" si="1"/>
-        <v>6.633882255679028</v>
+        <f t="shared" si="5"/>
+        <v>6.7684275956690998</v>
       </c>
       <c r="T29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.3488879999999996</v>
       </c>
     </row>
@@ -5928,40 +5939,40 @@
         <v>31</v>
       </c>
       <c r="E30">
-        <v>6.4225440000000003</v>
+        <v>7.729641</v>
       </c>
       <c r="F30">
         <v>6.8545740000000004</v>
       </c>
       <c r="G30">
-        <v>10.433972000000001</v>
+        <v>10.110260999999999</v>
       </c>
       <c r="J30">
-        <f>(F30-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>0.14570318855890507</v>
       </c>
       <c r="L30">
-        <f>MAX(G30,0)</f>
-        <v>10.433972000000001</v>
+        <f t="shared" si="3"/>
+        <v>10.110260999999999</v>
       </c>
       <c r="M30">
-        <f>F30</f>
+        <f t="shared" si="0"/>
         <v>6.8545740000000004</v>
       </c>
       <c r="O30">
-        <f>F30</f>
+        <f t="shared" si="1"/>
         <v>6.8545740000000004</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>0.47381162282951866</v>
+        <f t="shared" si="4"/>
+        <v>0.50055527492339469</v>
       </c>
       <c r="S30">
-        <f t="shared" si="1"/>
-        <v>7.5429137582803998</v>
+        <f t="shared" si="5"/>
+        <v>7.5620733108995903</v>
       </c>
       <c r="T30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.8545740000000004</v>
       </c>
     </row>
@@ -5979,40 +5990,40 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>6.6376160000000004</v>
+        <v>8.7047369999999997</v>
       </c>
       <c r="F31">
         <v>8.6545620000000003</v>
       </c>
       <c r="G31">
-        <v>12.345843</v>
+        <v>12.062766</v>
       </c>
       <c r="J31">
-        <f>(F31-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>2.0115100164304636</v>
       </c>
       <c r="L31">
-        <f>MAX(G31,0)</f>
-        <v>12.345843</v>
+        <f t="shared" si="3"/>
+        <v>12.062766</v>
       </c>
       <c r="M31">
-        <f>F31</f>
+        <f t="shared" si="0"/>
         <v>8.6545620000000003</v>
       </c>
       <c r="O31">
-        <f>F31</f>
+        <f t="shared" si="1"/>
         <v>8.6545620000000003</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>0.15358161237547863</v>
+        <f t="shared" si="4"/>
+        <v>7.5821913752864789E-2</v>
       </c>
       <c r="S31">
-        <f t="shared" si="1"/>
-        <v>8.2626671003451584</v>
+        <f t="shared" si="5"/>
+        <v>8.3792042077498721</v>
       </c>
       <c r="T31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.6545620000000003</v>
       </c>
     </row>
@@ -6030,40 +6041,40 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>7.8634810000000002</v>
+        <v>11.462436</v>
       </c>
       <c r="F32">
         <v>10.81798</v>
       </c>
       <c r="G32">
-        <v>17.784566999999999</v>
+        <v>16.806017000000001</v>
       </c>
       <c r="J32">
-        <f>(F32-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>12.828540001612614</v>
       </c>
       <c r="L32">
-        <f>MAX(G32,0)</f>
-        <v>17.784566999999999</v>
+        <f t="shared" si="3"/>
+        <v>16.806017000000001</v>
       </c>
       <c r="M32">
-        <f>F32</f>
+        <f t="shared" si="0"/>
         <v>10.81798</v>
       </c>
       <c r="O32">
-        <f>F32</f>
+        <f t="shared" si="1"/>
         <v>10.81798</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>0.25788249215325998</v>
+        <f t="shared" si="4"/>
+        <v>0.20584994824797265</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
-        <v>10.310158680879525</v>
+        <f t="shared" si="5"/>
+        <v>10.364273103151415</v>
       </c>
       <c r="T32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.81798</v>
       </c>
     </row>
@@ -6081,40 +6092,40 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>8.0501430000000003</v>
+        <v>12.089046</v>
       </c>
       <c r="F33">
         <v>8.1575600000000001</v>
       </c>
       <c r="G33">
-        <v>19.637073999999998</v>
+        <v>17.980889999999999</v>
       </c>
       <c r="J33">
-        <f>(F33-F$110)^2</f>
+        <f t="shared" si="2"/>
         <v>0.8487478644740919</v>
       </c>
       <c r="L33">
-        <f>MAX(G33,0)</f>
-        <v>19.637073999999998</v>
+        <f t="shared" si="3"/>
+        <v>17.980889999999999</v>
       </c>
       <c r="M33">
-        <f>F33</f>
+        <f t="shared" ref="M33:M64" si="7">F33</f>
         <v>8.1575600000000001</v>
       </c>
       <c r="O33">
-        <f>F33</f>
+        <f t="shared" ref="O33:O64" si="8">F33</f>
         <v>8.1575600000000001</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>8.1225201155134528</v>
+        <f t="shared" si="4"/>
+        <v>7.2813733498278559</v>
       </c>
       <c r="S33">
-        <f t="shared" si="1"/>
-        <v>11.007563529035263</v>
+        <f t="shared" si="5"/>
+        <v>10.8559619993003</v>
       </c>
       <c r="T33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.1575600000000001</v>
       </c>
     </row>
@@ -6132,40 +6143,40 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>7.2795350000000001</v>
+        <v>10.758958</v>
       </c>
       <c r="F34">
         <v>9.2495150000000006</v>
       </c>
       <c r="G34">
-        <v>17.354948</v>
+        <v>15.906554</v>
       </c>
       <c r="J34">
-        <f>(F34-F$110)^2</f>
+        <f t="shared" ref="J34:J65" si="9">(F34-F$110)^2</f>
         <v>4.0530955548485395</v>
       </c>
       <c r="L34">
-        <f>MAX(G34,0)</f>
-        <v>17.354948</v>
+        <f t="shared" ref="L34:L65" si="10">MAX(G34,0)</f>
+        <v>15.906554</v>
       </c>
       <c r="M34">
-        <f>F34</f>
+        <f t="shared" si="7"/>
         <v>9.2495150000000006</v>
       </c>
       <c r="O34">
-        <f>F34</f>
+        <f t="shared" si="8"/>
         <v>9.2495150000000006</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>0.80803375585543713</v>
+        <f t="shared" si="4"/>
+        <v>0.54513024026318868</v>
       </c>
       <c r="S34">
-        <f t="shared" si="1"/>
-        <v>10.148421978421815</v>
+        <f t="shared" si="5"/>
+        <v>9.9878443575791156</v>
       </c>
       <c r="T34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.2495150000000006</v>
       </c>
     </row>
@@ -6183,40 +6194,40 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <v>6.0749079999999998</v>
+        <v>7.785825</v>
       </c>
       <c r="F35">
         <v>7.6215419999999998</v>
       </c>
       <c r="G35">
-        <v>10.811716000000001</v>
+        <v>9.9652919999999998</v>
       </c>
       <c r="J35">
-        <f>(F35-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>0.14842305593046143</v>
       </c>
       <c r="L35">
-        <f>MAX(G35,0)</f>
-        <v>10.811716000000001</v>
+        <f t="shared" si="10"/>
+        <v>9.9652919999999998</v>
       </c>
       <c r="M35">
-        <f>F35</f>
+        <f t="shared" si="7"/>
         <v>7.6215419999999998</v>
       </c>
       <c r="O35">
-        <f>F35</f>
+        <f t="shared" si="8"/>
         <v>7.6215419999999998</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>4.0423294802252171E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.4433325617360169E-2</v>
       </c>
       <c r="S35">
-        <f t="shared" si="1"/>
-        <v>7.6851213164498109</v>
+        <f t="shared" si="5"/>
+        <v>7.5014032235064789</v>
       </c>
       <c r="T35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.6215419999999998</v>
       </c>
     </row>
@@ -6234,40 +6245,40 @@
         <v>30</v>
       </c>
       <c r="E36">
-        <v>5.1222820000000002</v>
+        <v>5.806216</v>
       </c>
       <c r="F36">
         <v>6.709956</v>
       </c>
       <c r="G36">
-        <v>6.3618969999999999</v>
+        <v>5.9842170000000001</v>
       </c>
       <c r="J36">
-        <f>(F36-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>0.27702207978534965</v>
       </c>
       <c r="L36">
-        <f>MAX(G36,0)</f>
-        <v>6.3618969999999999</v>
+        <f t="shared" si="10"/>
+        <v>5.9842170000000001</v>
       </c>
       <c r="M36">
-        <f>F36</f>
+        <f t="shared" si="7"/>
         <v>6.709956</v>
       </c>
       <c r="O36">
-        <f>F36</f>
+        <f t="shared" si="8"/>
         <v>6.709956</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>0.49005280380815358</v>
+        <f t="shared" si="4"/>
+        <v>0.76500924109597757</v>
       </c>
       <c r="S36">
-        <f t="shared" si="1"/>
-        <v>6.0099182840102445</v>
+        <f t="shared" si="5"/>
+        <v>5.8353079330062076</v>
       </c>
       <c r="T36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.709956</v>
       </c>
     </row>
@@ -6285,40 +6296,40 @@
         <v>31</v>
       </c>
       <c r="E37">
-        <v>4.7990560000000002</v>
+        <v>4.0176309999999997</v>
       </c>
       <c r="F37">
         <v>4.9356859999999996</v>
       </c>
       <c r="G37">
-        <v>1.1038300000000001</v>
+        <v>1.1972100000000001</v>
       </c>
       <c r="J37">
-        <f>(F37-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>5.2927551623494242</v>
       </c>
       <c r="L37">
-        <f>MAX(G37,0)</f>
-        <v>1.1038300000000001</v>
+        <f t="shared" si="10"/>
+        <v>1.1972100000000001</v>
       </c>
       <c r="M37">
-        <f>F37</f>
+        <f t="shared" si="7"/>
         <v>4.9356859999999996</v>
       </c>
       <c r="O37">
-        <f>F37</f>
+        <f t="shared" si="8"/>
         <v>4.9356859999999996</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>0.81947426913829891</v>
+        <f t="shared" si="4"/>
+        <v>1.2182839691313954</v>
       </c>
       <c r="S37">
-        <f t="shared" si="1"/>
-        <v>4.0304378190361829</v>
+        <f t="shared" si="5"/>
+        <v>3.8319269823102706</v>
       </c>
       <c r="T37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.9356859999999996</v>
       </c>
     </row>
@@ -6336,40 +6347,40 @@
         <v>31</v>
       </c>
       <c r="E38">
-        <v>4.8608219999999998</v>
+        <v>4.2897559999999997</v>
       </c>
       <c r="F38">
         <v>3.6660560000000002</v>
       </c>
       <c r="G38">
-        <v>1.998915</v>
+        <v>1.6736979999999999</v>
       </c>
       <c r="J38">
-        <f>(F38-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>12.746534186826086</v>
       </c>
       <c r="L38">
-        <f>MAX(G38,0)</f>
-        <v>1.998915</v>
+        <f t="shared" si="10"/>
+        <v>1.6736979999999999</v>
       </c>
       <c r="M38">
-        <f>F38</f>
+        <f t="shared" si="7"/>
         <v>3.6660560000000002</v>
       </c>
       <c r="O38">
-        <f>F38</f>
+        <f t="shared" si="8"/>
         <v>3.6660560000000002</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="0"/>
-        <v>0.49189235593963287</v>
+        <f t="shared" si="4"/>
+        <v>0.13343170944372046</v>
       </c>
       <c r="S38">
-        <f t="shared" si="1"/>
-        <v>4.3674063802947805</v>
+        <f t="shared" si="5"/>
+        <v>4.0313390538688054</v>
       </c>
       <c r="T38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.6660560000000002</v>
       </c>
     </row>
@@ -6387,40 +6398,40 @@
         <v>28</v>
       </c>
       <c r="E39">
-        <v>5.1435199999999996</v>
+        <v>4.611059</v>
       </c>
       <c r="F39">
         <v>4.3088790000000001</v>
       </c>
       <c r="G39">
-        <v>2.5298630000000002</v>
+        <v>3.0029949999999999</v>
       </c>
       <c r="J39">
-        <f>(F39-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>8.5697051298789031</v>
       </c>
       <c r="L39">
-        <f>MAX(G39,0)</f>
-        <v>2.5298630000000002</v>
+        <f t="shared" si="10"/>
+        <v>3.0029949999999999</v>
       </c>
       <c r="M39">
-        <f>F39</f>
+        <f t="shared" si="7"/>
         <v>4.3088790000000001</v>
       </c>
       <c r="O39">
-        <f>F39</f>
+        <f t="shared" si="8"/>
         <v>4.3088790000000001</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="0"/>
-        <v>6.6776218314000768E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.7716053432750787E-2</v>
       </c>
       <c r="S39">
-        <f t="shared" si="1"/>
-        <v>4.5672899485180549</v>
+        <f t="shared" si="5"/>
+        <v>4.5876549914927232</v>
       </c>
       <c r="T39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.3088790000000001</v>
       </c>
     </row>
@@ -6438,40 +6449,40 @@
         <v>31</v>
       </c>
       <c r="E40">
-        <v>5.5917969999999997</v>
+        <v>5.6663240000000004</v>
       </c>
       <c r="F40">
         <v>4.8697699999999999</v>
       </c>
       <c r="G40">
-        <v>5.556343</v>
+        <v>5.8124200000000004</v>
       </c>
       <c r="J40">
-        <f>(F40-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>5.6003926316840893</v>
       </c>
       <c r="L40">
-        <f>MAX(G40,0)</f>
-        <v>5.556343</v>
+        <f t="shared" si="10"/>
+        <v>5.8124200000000004</v>
       </c>
       <c r="M40">
-        <f>F40</f>
+        <f t="shared" si="7"/>
         <v>4.8697699999999999</v>
       </c>
       <c r="O40">
-        <f>F40</f>
+        <f t="shared" si="8"/>
         <v>4.8697699999999999</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
-        <v>0.70037658582509887</v>
+        <f t="shared" si="4"/>
+        <v>0.79859284961846899</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
-        <v>5.7066550493497292</v>
+        <f t="shared" si="5"/>
+        <v>5.7634102238140743</v>
       </c>
       <c r="T40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.8697699999999999</v>
       </c>
     </row>
@@ -6489,40 +6500,40 @@
         <v>30</v>
       </c>
       <c r="E41">
-        <v>6.0384869999999999</v>
+        <v>6.5383649999999998</v>
       </c>
       <c r="F41">
         <v>5.6472230000000003</v>
       </c>
       <c r="G41">
-        <v>7.2713890000000001</v>
+        <v>7.3266489999999997</v>
       </c>
       <c r="J41">
-        <f>(F41-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>2.5251176278649772</v>
       </c>
       <c r="L41">
-        <f>MAX(G41,0)</f>
-        <v>7.2713890000000001</v>
+        <f t="shared" si="10"/>
+        <v>7.3266489999999997</v>
       </c>
       <c r="M41">
-        <f>F41</f>
+        <f t="shared" si="7"/>
         <v>5.6472230000000003</v>
       </c>
       <c r="O41">
-        <f>F41</f>
+        <f t="shared" si="8"/>
         <v>5.6472230000000003</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="0"/>
-        <v>0.49714849934623667</v>
+        <f t="shared" si="4"/>
+        <v>0.56234688884579576</v>
       </c>
       <c r="S41">
-        <f t="shared" si="1"/>
-        <v>6.3523105827485811</v>
+        <f t="shared" si="5"/>
+        <v>6.3971209189501703</v>
       </c>
       <c r="T41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.6472230000000003</v>
       </c>
     </row>
@@ -6540,40 +6551,40 @@
         <v>31</v>
       </c>
       <c r="E42">
-        <v>6.9739409999999999</v>
+        <v>8.8429400000000005</v>
       </c>
       <c r="F42">
         <v>7.939508</v>
       </c>
       <c r="G42">
-        <v>11.275724</v>
+        <v>11.403998</v>
       </c>
       <c r="J42">
-        <f>(F42-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>0.49452277004609152</v>
       </c>
       <c r="L42">
-        <f>MAX(G42,0)</f>
-        <v>11.275724</v>
+        <f t="shared" si="10"/>
+        <v>11.403998</v>
       </c>
       <c r="M42">
-        <f>F42</f>
+        <f t="shared" si="7"/>
         <v>7.939508</v>
       </c>
       <c r="O42">
-        <f>F42</f>
+        <f t="shared" si="8"/>
         <v>7.939508</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="0"/>
-        <v>6.3526816028442847E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.6895754308846099E-2</v>
       </c>
       <c r="S42">
-        <f t="shared" si="1"/>
-        <v>7.8598042886507518</v>
+        <f t="shared" si="5"/>
+        <v>8.1035072509398933</v>
       </c>
       <c r="T42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.939508</v>
       </c>
     </row>
@@ -6591,40 +6602,40 @@
         <v>30</v>
       </c>
       <c r="E43">
-        <v>7.3833710000000004</v>
+        <v>10.068769</v>
       </c>
       <c r="F43">
         <v>9.6459100000000007</v>
       </c>
       <c r="G43">
-        <v>14.848011</v>
+        <v>14.282018000000001</v>
       </c>
       <c r="J43">
-        <f>(F43-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>5.8062932653426147</v>
       </c>
       <c r="L43">
-        <f>MAX(G43,0)</f>
-        <v>14.848011</v>
+        <f t="shared" si="10"/>
+        <v>14.282018000000001</v>
       </c>
       <c r="M43">
-        <f>F43</f>
+        <f t="shared" si="7"/>
         <v>9.6459100000000007</v>
       </c>
       <c r="O43">
-        <f>F43</f>
+        <f t="shared" si="8"/>
         <v>9.6459100000000007</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="0"/>
-        <v>0.19471316087537821</v>
+        <f t="shared" si="4"/>
+        <v>0.11420360840724038</v>
       </c>
       <c r="S43">
-        <f t="shared" si="1"/>
-        <v>9.2046468575607321</v>
+        <f t="shared" si="5"/>
+        <v>9.3079697561591104</v>
       </c>
       <c r="T43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.6459100000000007</v>
       </c>
     </row>
@@ -6642,40 +6653,40 @@
         <v>31</v>
       </c>
       <c r="E44">
-        <v>8.1253510000000002</v>
+        <v>12.090405000000001</v>
       </c>
       <c r="F44">
         <v>11.247596</v>
       </c>
       <c r="G44">
-        <v>19.515084999999999</v>
+        <v>17.757486</v>
       </c>
       <c r="J44">
-        <f>(F44-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>16.090616978690537</v>
       </c>
       <c r="L44">
-        <f>MAX(G44,0)</f>
-        <v>19.515084999999999</v>
+        <f t="shared" si="10"/>
+        <v>17.757486</v>
       </c>
       <c r="M44">
-        <f>F44</f>
+        <f t="shared" si="7"/>
         <v>11.247596</v>
       </c>
       <c r="O44">
-        <f>F44</f>
+        <f t="shared" si="8"/>
         <v>11.247596</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="0"/>
-        <v>8.1771470221785367E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.23535057264478637</v>
       </c>
       <c r="S44">
-        <f t="shared" si="1"/>
-        <v>10.961638887443264</v>
+        <f t="shared" si="5"/>
+        <v>10.762466560937819</v>
       </c>
       <c r="T44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.247596</v>
       </c>
     </row>
@@ -6693,40 +6704,40 @@
         <v>31</v>
       </c>
       <c r="E45">
-        <v>7.9256909999999996</v>
+        <v>12.180735</v>
       </c>
       <c r="F45">
         <v>10.529299</v>
       </c>
       <c r="G45">
-        <v>19.156272999999999</v>
+        <v>18.419589999999999</v>
       </c>
       <c r="J45">
-        <f>(F45-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>10.84394205794039</v>
       </c>
       <c r="L45">
-        <f>MAX(G45,0)</f>
-        <v>19.156272999999999</v>
+        <f t="shared" si="10"/>
+        <v>18.419589999999999</v>
       </c>
       <c r="M45">
-        <f>F45</f>
+        <f t="shared" si="7"/>
         <v>10.529299</v>
       </c>
       <c r="O45">
-        <f>F45</f>
+        <f t="shared" si="8"/>
         <v>10.529299</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="0"/>
-        <v>8.836325364126163E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.26036592752474291</v>
       </c>
       <c r="S45">
-        <f t="shared" si="1"/>
-        <v>10.82655857283368</v>
+        <f t="shared" si="5"/>
+        <v>11.039559646654965</v>
       </c>
       <c r="T45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.529299</v>
       </c>
     </row>
@@ -6744,40 +6755,40 @@
         <v>30</v>
       </c>
       <c r="E46">
-        <v>6.9186310000000004</v>
+        <v>10.212038</v>
       </c>
       <c r="F46">
         <v>9.5790260000000007</v>
       </c>
       <c r="G46">
-        <v>14.408559</v>
+        <v>14.843768000000001</v>
       </c>
       <c r="J46">
-        <f>(F46-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>5.4884360004583188</v>
       </c>
       <c r="L46">
-        <f>MAX(G46,0)</f>
-        <v>14.408559</v>
+        <f t="shared" si="10"/>
+        <v>14.843768000000001</v>
       </c>
       <c r="M46">
-        <f>F46</f>
+        <f t="shared" si="7"/>
         <v>9.5790260000000007</v>
       </c>
       <c r="O46">
-        <f>F46</f>
+        <f t="shared" si="8"/>
         <v>9.5790260000000007</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="0"/>
-        <v>0.29140307310869473</v>
+        <f t="shared" si="4"/>
+        <v>1.2932435359663105E-3</v>
       </c>
       <c r="S46">
-        <f t="shared" si="1"/>
-        <v>9.0392083705095452</v>
+        <f t="shared" si="5"/>
+        <v>9.5430643046010584</v>
       </c>
       <c r="T46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.5790260000000007</v>
       </c>
     </row>
@@ -6795,40 +6806,40 @@
         <v>31</v>
       </c>
       <c r="E47">
-        <v>5.8479640000000002</v>
+        <v>7.3231299999999999</v>
       </c>
       <c r="F47">
         <v>6.826441</v>
       </c>
       <c r="G47">
-        <v>9.2954360000000005</v>
+        <v>9.1011030000000002</v>
       </c>
       <c r="J47">
-        <f>(F47-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>0.16797199808016461</v>
       </c>
       <c r="L47">
-        <f>MAX(G47,0)</f>
-        <v>9.2954360000000005</v>
+        <f t="shared" si="10"/>
+        <v>9.1011030000000002</v>
       </c>
       <c r="M47">
-        <f>F47</f>
+        <f t="shared" si="7"/>
         <v>6.826441</v>
       </c>
       <c r="O47">
-        <f>F47</f>
+        <f t="shared" si="8"/>
         <v>6.826441</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="0"/>
-        <v>8.285952872303598E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.8154247903265379E-2</v>
       </c>
       <c r="S47">
-        <f t="shared" si="1"/>
-        <v>7.114294311120501</v>
+        <f t="shared" si="5"/>
+        <v>7.1397367834112444</v>
       </c>
       <c r="T47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.826441</v>
       </c>
     </row>
@@ -6846,40 +6857,40 @@
         <v>30</v>
       </c>
       <c r="E48">
-        <v>5.0869629999999999</v>
+        <v>5.3550509999999996</v>
       </c>
       <c r="F48">
         <v>5.7604949999999997</v>
       </c>
       <c r="G48">
-        <v>4.9192419999999997</v>
+        <v>4.6964639999999997</v>
       </c>
       <c r="J48">
-        <f>(F48-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>2.1779557414877941</v>
       </c>
       <c r="L48">
-        <f>MAX(G48,0)</f>
-        <v>4.9192419999999997</v>
+        <f t="shared" si="10"/>
+        <v>4.6964639999999997</v>
       </c>
       <c r="M48">
-        <f>F48</f>
+        <f t="shared" si="7"/>
         <v>5.7604949999999997</v>
       </c>
       <c r="O48">
-        <f>F48</f>
+        <f t="shared" si="8"/>
         <v>5.7604949999999997</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="0"/>
-        <v>8.6251733194598793E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.21540429254438109</v>
       </c>
       <c r="S48">
-        <f t="shared" si="1"/>
-        <v>5.4668085461166127</v>
+        <f t="shared" si="5"/>
+        <v>5.2963783201183334</v>
       </c>
       <c r="T48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.7604949999999997</v>
       </c>
     </row>
@@ -6897,40 +6908,40 @@
         <v>31</v>
       </c>
       <c r="E49">
-        <v>4.8063250000000002</v>
+        <v>4.1092579999999996</v>
       </c>
       <c r="F49">
         <v>3.2154120000000002</v>
       </c>
       <c r="G49">
-        <v>1.8500620000000001</v>
+        <v>0.43764799999999998</v>
       </c>
       <c r="J49">
-        <f>(F49-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>16.167418639680459</v>
       </c>
       <c r="L49">
-        <f>MAX(G49,0)</f>
-        <v>1.8500620000000001</v>
+        <f t="shared" si="10"/>
+        <v>0.43764799999999998</v>
       </c>
       <c r="M49">
-        <f>F49</f>
+        <f t="shared" si="7"/>
         <v>3.2154120000000002</v>
       </c>
       <c r="O49">
-        <f>F49</f>
+        <f t="shared" si="8"/>
         <v>3.2154120000000002</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="0"/>
-        <v>1.2011203678715905</v>
+        <f t="shared" si="4"/>
+        <v>8.9183070192738328E-2</v>
       </c>
       <c r="S49">
-        <f t="shared" si="1"/>
-        <v>4.311368371335826</v>
+        <f t="shared" si="5"/>
+        <v>3.5140473465227089</v>
       </c>
       <c r="T49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3.2154120000000002</v>
       </c>
     </row>
@@ -6948,40 +6959,40 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>5.0500759999999998</v>
+        <v>5.2833730000000001</v>
       </c>
       <c r="F50">
         <v>4.2341430000000004</v>
       </c>
       <c r="G50">
-        <v>5.5181440000000004</v>
+        <v>5.0600509999999996</v>
       </c>
       <c r="J50">
-        <f>(F50-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>9.0128558098309011</v>
       </c>
       <c r="L50">
-        <f>MAX(G50,0)</f>
-        <v>5.5181440000000004</v>
+        <f t="shared" si="10"/>
+        <v>5.0600509999999996</v>
       </c>
       <c r="M50">
-        <f>F50</f>
+        <f t="shared" si="7"/>
         <v>4.2341430000000004</v>
       </c>
       <c r="O50">
-        <f>F50</f>
+        <f t="shared" si="8"/>
         <v>4.2341430000000004</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>2.1261473147190646</v>
+        <f t="shared" si="4"/>
+        <v>1.4747622263874456</v>
       </c>
       <c r="S50">
-        <f t="shared" si="1"/>
-        <v>5.6922744463103339</v>
+        <f t="shared" si="5"/>
+        <v>5.4485408863566285</v>
       </c>
       <c r="T50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.2341430000000004</v>
       </c>
     </row>
@@ -6999,40 +7010,40 @@
         <v>28</v>
       </c>
       <c r="E51">
-        <v>5.0447449999999998</v>
+        <v>4.4355120000000001</v>
       </c>
       <c r="F51">
         <v>4.2153099999999997</v>
       </c>
       <c r="G51">
-        <v>3.169638</v>
+        <v>1.719247</v>
       </c>
       <c r="J51">
-        <f>(F51-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>9.1262891674092756</v>
       </c>
       <c r="L51">
-        <f>MAX(G51,0)</f>
-        <v>3.169638</v>
+        <f t="shared" si="10"/>
+        <v>1.719247</v>
       </c>
       <c r="M51">
-        <f>F51</f>
+        <f t="shared" si="7"/>
         <v>4.2153099999999997</v>
       </c>
       <c r="O51">
-        <f>F51</f>
+        <f t="shared" si="8"/>
         <v>4.2153099999999997</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="0"/>
-        <v>0.3514511085442078</v>
+        <f t="shared" si="4"/>
+        <v>2.7194817791660705E-2</v>
       </c>
       <c r="S51">
-        <f t="shared" si="1"/>
-        <v>4.8081431203165081</v>
+        <f t="shared" si="5"/>
+        <v>4.0504014866004159</v>
       </c>
       <c r="T51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.2153099999999997</v>
       </c>
     </row>
@@ -7050,40 +7061,40 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>5.5180369999999996</v>
+        <v>5.818829</v>
       </c>
       <c r="F52">
         <v>5.1653010000000004</v>
       </c>
       <c r="G52">
-        <v>6.0544269999999996</v>
+        <v>6.0553290000000004</v>
       </c>
       <c r="J52">
-        <f>(F52-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>4.2889741913342361</v>
       </c>
       <c r="L52">
-        <f>MAX(G52,0)</f>
-        <v>6.0544269999999996</v>
+        <f t="shared" si="10"/>
+        <v>6.0553290000000004</v>
       </c>
       <c r="M52">
-        <f>F52</f>
+        <f t="shared" si="7"/>
         <v>5.1653010000000004</v>
       </c>
       <c r="O52">
-        <f>F52</f>
+        <f t="shared" si="8"/>
         <v>5.1653010000000004</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>0.53124485530237864</v>
+        <f t="shared" si="4"/>
+        <v>0.48967466621847006</v>
       </c>
       <c r="S52">
-        <f t="shared" si="1"/>
-        <v>5.8941664576136663</v>
+        <f t="shared" si="5"/>
+        <v>5.865068580142486</v>
       </c>
       <c r="T52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.1653010000000004</v>
       </c>
     </row>
@@ -7101,40 +7112,40 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>5.9384800000000002</v>
+        <v>7.0061809999999998</v>
       </c>
       <c r="F53">
         <v>6.1528090000000004</v>
       </c>
       <c r="G53">
-        <v>8.3002059999999993</v>
+        <v>8.3395460000000003</v>
       </c>
       <c r="J53">
-        <f>(F53-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>1.1739199616748297</v>
       </c>
       <c r="L53">
-        <f>MAX(G53,0)</f>
-        <v>8.3002059999999993</v>
+        <f t="shared" si="10"/>
+        <v>8.3395460000000003</v>
       </c>
       <c r="M53">
-        <f>F53</f>
+        <f t="shared" si="7"/>
         <v>6.1528090000000004</v>
       </c>
       <c r="O53">
-        <f>F53</f>
+        <f t="shared" si="8"/>
         <v>6.1528090000000004</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="0"/>
-        <v>0.34435257089940552</v>
+        <f t="shared" si="4"/>
+        <v>0.44650892396102676</v>
       </c>
       <c r="S53">
-        <f t="shared" si="1"/>
-        <v>6.7396246191679001</v>
+        <f t="shared" si="5"/>
+        <v>6.8210222324049168</v>
       </c>
       <c r="T53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.1528090000000004</v>
       </c>
     </row>
@@ -7152,40 +7163,40 @@
         <v>31</v>
       </c>
       <c r="E54">
-        <v>6.5765729999999998</v>
+        <v>9.0441029999999998</v>
       </c>
       <c r="F54">
         <v>8.2855150000000002</v>
       </c>
       <c r="G54">
-        <v>11.779457000000001</v>
+        <v>12.04091</v>
       </c>
       <c r="J54">
-        <f>(F54-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>1.1008838649226107</v>
       </c>
       <c r="L54">
-        <f>MAX(G54,0)</f>
-        <v>11.779457000000001</v>
+        <f t="shared" si="10"/>
+        <v>12.04091</v>
       </c>
       <c r="M54">
-        <f>F54</f>
+        <f t="shared" si="7"/>
         <v>8.2855150000000002</v>
       </c>
       <c r="O54">
-        <f>F54</f>
+        <f t="shared" si="8"/>
         <v>8.2855150000000002</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="0"/>
-        <v>5.5730296011725321E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.1474152314108278E-3</v>
       </c>
       <c r="S54">
-        <f t="shared" si="1"/>
-        <v>8.0494423501404171</v>
+        <f t="shared" si="5"/>
+        <v>8.3700573871877939</v>
       </c>
       <c r="T54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.2855150000000002</v>
       </c>
     </row>
@@ -7203,40 +7214,40 @@
         <v>30</v>
       </c>
       <c r="E55">
-        <v>7.4129649999999998</v>
+        <v>9.6463059999999992</v>
       </c>
       <c r="F55">
         <v>9.8023209999999992</v>
       </c>
       <c r="G55">
-        <v>13.558813000000001</v>
+        <v>12.74902</v>
       </c>
       <c r="J55">
-        <f>(F55-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>6.5845414185646076</v>
       </c>
       <c r="L55">
-        <f>MAX(G55,0)</f>
-        <v>13.558813000000001</v>
+        <f t="shared" si="10"/>
+        <v>12.74902</v>
       </c>
       <c r="M55">
-        <f>F55</f>
+        <f t="shared" si="7"/>
         <v>9.8023209999999992</v>
       </c>
       <c r="O55">
-        <f>F55</f>
+        <f t="shared" si="8"/>
         <v>9.8023209999999992</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="0"/>
-        <v>1.1729163448799298</v>
+        <f t="shared" si="4"/>
+        <v>1.2903070630683993</v>
       </c>
       <c r="S55">
-        <f t="shared" si="1"/>
-        <v>8.7193083754752756</v>
+        <f t="shared" si="5"/>
+        <v>8.6664041619047101</v>
       </c>
       <c r="T55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.8023209999999992</v>
       </c>
     </row>
@@ -7254,40 +7265,40 @@
         <v>31</v>
       </c>
       <c r="E56">
-        <v>8.0479970000000005</v>
+        <v>12.161580000000001</v>
       </c>
       <c r="F56">
         <v>11.490181</v>
       </c>
       <c r="G56">
-        <v>19.611910000000002</v>
+        <v>18.475218000000002</v>
       </c>
       <c r="J56">
-        <f>(F56-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>18.095632281677943</v>
       </c>
       <c r="L56">
-        <f>MAX(G56,0)</f>
-        <v>19.611910000000002</v>
+        <f t="shared" si="10"/>
+        <v>18.475218000000002</v>
       </c>
       <c r="M56">
-        <f>F56</f>
+        <f t="shared" si="7"/>
         <v>11.490181</v>
       </c>
       <c r="O56">
-        <f>F56</f>
+        <f t="shared" si="8"/>
         <v>11.490181</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="0"/>
-        <v>0.2421534017968229</v>
+        <f t="shared" si="4"/>
+        <v>0.1826201765384517</v>
       </c>
       <c r="S56">
-        <f t="shared" si="1"/>
-        <v>10.998090152902817</v>
+        <f t="shared" si="5"/>
+        <v>11.062840179882787</v>
       </c>
       <c r="T56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11.490181</v>
       </c>
     </row>
@@ -7305,40 +7316,40 @@
         <v>31</v>
       </c>
       <c r="E57">
-        <v>7.8845679999999998</v>
+        <v>12.272174</v>
       </c>
       <c r="F57">
         <v>10.824233</v>
       </c>
       <c r="G57">
-        <v>18.82526</v>
+        <v>18.267935000000001</v>
       </c>
       <c r="J57">
-        <f>(F57-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>12.873371780912757</v>
       </c>
       <c r="L57">
-        <f>MAX(G57,0)</f>
-        <v>18.82526</v>
+        <f t="shared" si="10"/>
+        <v>18.267935000000001</v>
       </c>
       <c r="M57">
-        <f>F57</f>
+        <f t="shared" si="7"/>
         <v>10.824233</v>
       </c>
       <c r="O57">
-        <f>F57</f>
+        <f t="shared" si="8"/>
         <v>10.824233</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="0"/>
-        <v>1.4954692272451083E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.3060986526134197E-2</v>
       </c>
       <c r="S57">
-        <f t="shared" si="1"/>
-        <v>10.701943620770031</v>
+        <f t="shared" si="5"/>
+        <v>10.976091442393349</v>
       </c>
       <c r="T57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10.824233</v>
       </c>
     </row>
@@ -7356,40 +7367,40 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>7.261952</v>
+        <v>10.921455999999999</v>
       </c>
       <c r="F58">
         <v>9.5962580000000006</v>
       </c>
       <c r="G58">
-        <v>16.590693999999999</v>
+        <v>15.897861000000001</v>
       </c>
       <c r="J58">
-        <f>(F58-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>5.5694731725738738</v>
       </c>
       <c r="L58">
-        <f>MAX(G58,0)</f>
-        <v>16.590693999999999</v>
+        <f t="shared" si="10"/>
+        <v>15.897861000000001</v>
       </c>
       <c r="M58">
-        <f>F58</f>
+        <f t="shared" si="7"/>
         <v>9.5962580000000006</v>
       </c>
       <c r="O58">
-        <f>F58</f>
+        <f t="shared" si="8"/>
         <v>9.5962580000000006</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="0"/>
-        <v>6.9933149894733981E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.15050388614617527</v>
       </c>
       <c r="S58">
-        <f t="shared" si="1"/>
-        <v>9.8607067661055243</v>
+        <f t="shared" si="5"/>
+        <v>9.9842063034454149</v>
       </c>
       <c r="T58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.5962580000000006</v>
       </c>
     </row>
@@ -7407,40 +7418,40 @@
         <v>31</v>
       </c>
       <c r="E59">
-        <v>6.053572</v>
+        <v>8.5935299999999994</v>
       </c>
       <c r="F59">
         <v>8.3947640000000003</v>
       </c>
       <c r="G59">
-        <v>11.940566</v>
+        <v>12.004629</v>
       </c>
       <c r="J59">
-        <f>(F59-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>1.3420738937874259</v>
       </c>
       <c r="L59">
-        <f>MAX(G59,0)</f>
-        <v>11.940566</v>
+        <f t="shared" si="10"/>
+        <v>12.004629</v>
       </c>
       <c r="M59">
-        <f>F59</f>
+        <f t="shared" si="7"/>
         <v>8.3947640000000003</v>
       </c>
       <c r="O59">
-        <f>F59</f>
+        <f t="shared" si="8"/>
         <v>8.3947640000000003</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="0"/>
-        <v>8.1036827033125258E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.5912401575857895E-3</v>
       </c>
       <c r="S59">
-        <f t="shared" si="1"/>
-        <v>8.1100943194347437</v>
+        <f t="shared" si="5"/>
+        <v>8.3548736483145891</v>
       </c>
       <c r="T59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.3947640000000003</v>
       </c>
     </row>
@@ -7458,40 +7469,40 @@
         <v>30</v>
       </c>
       <c r="E60">
-        <v>5.1288280000000004</v>
+        <v>5.4711910000000001</v>
       </c>
       <c r="F60">
         <v>6.7528550000000003</v>
       </c>
       <c r="G60">
-        <v>5.569337</v>
+        <v>4.7543369999999996</v>
       </c>
       <c r="J60">
-        <f>(F60-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>0.23370443956631243</v>
       </c>
       <c r="L60">
-        <f>MAX(G60,0)</f>
-        <v>5.569337</v>
+        <f t="shared" si="10"/>
+        <v>4.7543369999999996</v>
       </c>
       <c r="M60">
-        <f>F60</f>
+        <f t="shared" si="7"/>
         <v>6.7528550000000003</v>
       </c>
       <c r="O60">
-        <f>F60</f>
+        <f t="shared" si="8"/>
         <v>6.7528550000000003</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="0"/>
-        <v>1.0843226816376723</v>
+        <f t="shared" si="4"/>
+        <v>2.051358983906189</v>
       </c>
       <c r="S60">
-        <f t="shared" si="1"/>
-        <v>5.7115468411739627</v>
+        <f t="shared" si="5"/>
+        <v>5.3205983945321851</v>
       </c>
       <c r="T60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.7528550000000003</v>
       </c>
     </row>
@@ -7509,40 +7520,40 @@
         <v>31</v>
       </c>
       <c r="E61">
-        <v>4.9102730000000001</v>
+        <v>5.0601799999999999</v>
       </c>
       <c r="F61">
         <v>6.0831379999999999</v>
       </c>
       <c r="G61">
-        <v>4.8743809999999996</v>
+        <v>3.929332</v>
       </c>
       <c r="J61">
-        <f>(F61-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>1.3297477046449788</v>
       </c>
       <c r="L61">
-        <f>MAX(G61,0)</f>
-        <v>4.8743809999999996</v>
+        <f t="shared" si="10"/>
+        <v>3.929332</v>
       </c>
       <c r="M61">
-        <f>F61</f>
+        <f t="shared" si="7"/>
         <v>6.0831379999999999</v>
       </c>
       <c r="O61">
-        <f>F61</f>
+        <f t="shared" si="8"/>
         <v>6.0831379999999999</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="0"/>
-        <v>0.40096512370745058</v>
+        <f t="shared" si="4"/>
+        <v>1.2272372132455078</v>
       </c>
       <c r="S61">
-        <f t="shared" si="1"/>
-        <v>5.44991993036881</v>
+        <f t="shared" si="5"/>
+        <v>4.9753306100420218</v>
       </c>
       <c r="T61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.0831379999999999</v>
       </c>
     </row>
@@ -7560,40 +7571,40 @@
         <v>31</v>
       </c>
       <c r="E62">
-        <v>5.0788440000000001</v>
+        <v>5.7708979999999999</v>
       </c>
       <c r="F62">
         <v>5.1523380000000003</v>
       </c>
       <c r="G62">
-        <v>7.0121830000000003</v>
+        <v>6.0554699999999997</v>
       </c>
       <c r="J62">
-        <f>(F62-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>4.3428345585264578</v>
       </c>
       <c r="L62">
-        <f>MAX(G62,0)</f>
-        <v>7.0121830000000003</v>
+        <f t="shared" si="10"/>
+        <v>6.0554699999999997</v>
       </c>
       <c r="M62">
-        <f>F62</f>
+        <f t="shared" si="7"/>
         <v>5.1523380000000003</v>
       </c>
       <c r="O62">
-        <f>F62</f>
+        <f t="shared" si="8"/>
         <v>5.1523380000000003</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="0"/>
-        <v>1.2152647791368481</v>
+        <f t="shared" si="4"/>
+        <v>0.50806899845482889</v>
       </c>
       <c r="S62">
-        <f t="shared" si="1"/>
-        <v>6.2547284839651187</v>
+        <f t="shared" si="5"/>
+        <v>5.8651275891880221</v>
       </c>
       <c r="T62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.1523380000000003</v>
       </c>
     </row>
@@ -7611,40 +7622,40 @@
         <v>28</v>
       </c>
       <c r="E63">
-        <v>5.3502900000000002</v>
+        <v>6.2892950000000001</v>
       </c>
       <c r="F63">
         <v>6.0189560000000002</v>
       </c>
       <c r="G63">
-        <v>7.4750670000000001</v>
+        <v>7.004753</v>
       </c>
       <c r="J63">
-        <f>(F63-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>1.4818895786372004</v>
       </c>
       <c r="L63">
-        <f>MAX(G63,0)</f>
-        <v>7.4750670000000001</v>
+        <f t="shared" si="10"/>
+        <v>7.004753</v>
       </c>
       <c r="M63">
-        <f>F63</f>
+        <f t="shared" si="7"/>
         <v>6.0189560000000002</v>
       </c>
       <c r="O63">
-        <f>F63</f>
+        <f t="shared" si="8"/>
         <v>6.0189560000000002</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="0"/>
-        <v>0.16812649444061728</v>
+        <f t="shared" si="4"/>
+        <v>5.9267998670905563E-2</v>
       </c>
       <c r="S63">
-        <f t="shared" si="1"/>
-        <v>6.4289883090204203</v>
+        <f t="shared" si="5"/>
+        <v>6.26240619751667</v>
       </c>
       <c r="T63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.0189560000000002</v>
       </c>
     </row>
@@ -7662,40 +7673,40 @@
         <v>31</v>
       </c>
       <c r="E64">
-        <v>5.9963150000000001</v>
+        <v>7.2105259999999998</v>
       </c>
       <c r="F64">
         <v>6.4329400000000003</v>
       </c>
       <c r="G64">
-        <v>8.9881919999999997</v>
+        <v>8.8205679999999997</v>
       </c>
       <c r="J64">
-        <f>(F64-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>0.64536298075038601</v>
       </c>
       <c r="L64">
-        <f>MAX(G64,0)</f>
-        <v>8.9881919999999997</v>
+        <f t="shared" si="10"/>
+        <v>8.8205679999999997</v>
       </c>
       <c r="M64">
-        <f>F64</f>
+        <f t="shared" si="7"/>
         <v>6.4329400000000003</v>
       </c>
       <c r="O64">
-        <f>F64</f>
+        <f t="shared" si="8"/>
         <v>6.4329400000000003</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="0"/>
-        <v>0.32000242222695546</v>
+        <f t="shared" si="4"/>
+        <v>0.34738269450340736</v>
       </c>
       <c r="S64">
-        <f t="shared" si="1"/>
-        <v>6.9986275659115691</v>
+        <f t="shared" si="5"/>
+        <v>7.0223318005057482</v>
       </c>
       <c r="T64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4329400000000003</v>
       </c>
     </row>
@@ -7713,40 +7724,40 @@
         <v>30</v>
       </c>
       <c r="E65">
-        <v>6.2385539999999997</v>
+        <v>7.0362989999999996</v>
       </c>
       <c r="F65">
         <v>6.7924300000000004</v>
       </c>
       <c r="G65">
-        <v>7.7855129999999999</v>
+        <v>7.8958089999999999</v>
       </c>
       <c r="J65">
-        <f>(F65-F$110)^2</f>
+        <f t="shared" si="9"/>
         <v>0.19700714595149754</v>
       </c>
       <c r="L65">
-        <f>MAX(G65,0)</f>
-        <v>7.7855129999999999</v>
+        <f t="shared" si="10"/>
+        <v>7.8958089999999999</v>
       </c>
       <c r="M65">
-        <f>F65</f>
+        <f t="shared" ref="M65:M96" si="11">F65</f>
         <v>6.7924300000000004</v>
       </c>
       <c r="O65">
-        <f>F65</f>
+        <f t="shared" ref="O65:O96" si="12">F65</f>
         <v>6.7924300000000004</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="0"/>
-        <v>6.079652003512117E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.4684626410444332E-2</v>
       </c>
       <c r="S65">
-        <f t="shared" si="1"/>
-        <v>6.5458604965428187</v>
+        <f t="shared" si="5"/>
+        <v>6.6353165810618195</v>
       </c>
       <c r="T65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.7924300000000004</v>
       </c>
     </row>
@@ -7764,40 +7775,40 @@
         <v>31</v>
       </c>
       <c r="E66">
-        <v>7.3567799999999997</v>
+        <v>9.4376010000000008</v>
       </c>
       <c r="F66">
         <v>8.9587699999999995</v>
       </c>
       <c r="G66">
-        <v>12.039680000000001</v>
+        <v>12.113390000000001</v>
       </c>
       <c r="J66">
-        <f>(F66-F$110)^2</f>
+        <f t="shared" ref="J66:J97" si="13">(F66-F$110)^2</f>
         <v>2.9669550217952017</v>
       </c>
       <c r="L66">
-        <f>MAX(G66,0)</f>
-        <v>12.039680000000001</v>
+        <f t="shared" ref="L66:L97" si="14">MAX(G66,0)</f>
+        <v>12.113390000000001</v>
       </c>
       <c r="M66">
-        <f>F66</f>
+        <f t="shared" si="11"/>
         <v>8.9587699999999995</v>
       </c>
       <c r="O66">
-        <f>F66</f>
+        <f t="shared" si="12"/>
         <v>8.9587699999999995</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="0"/>
-        <v>0.65830940779777436</v>
+        <f t="shared" si="4"/>
+        <v>0.31178761284360534</v>
       </c>
       <c r="S66">
-        <f t="shared" si="1"/>
-        <v>8.147407314268289</v>
+        <f t="shared" si="5"/>
+        <v>8.40039054761694</v>
       </c>
       <c r="T66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.9587699999999995</v>
       </c>
     </row>
@@ -7815,40 +7826,40 @@
         <v>30</v>
       </c>
       <c r="E67">
-        <v>7.9984029999999997</v>
+        <v>11.747441</v>
       </c>
       <c r="F67">
         <v>11.389341</v>
       </c>
       <c r="G67">
-        <v>17.984400000000001</v>
+        <v>17.224153999999999</v>
       </c>
       <c r="J67">
-        <f>(F67-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>17.247875215854243</v>
       </c>
       <c r="L67">
-        <f>MAX(G67,0)</f>
-        <v>17.984400000000001</v>
+        <f t="shared" si="14"/>
+        <v>17.224153999999999</v>
       </c>
       <c r="M67">
-        <f>F67</f>
+        <f t="shared" si="11"/>
         <v>11.389341</v>
       </c>
       <c r="O67">
-        <f>F67</f>
+        <f t="shared" si="12"/>
         <v>11.389341</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q110" si="3">(S67-M67)^2</f>
-        <v>1.0079198239834981</v>
+        <f t="shared" ref="Q67:Q109" si="15">(S67-M67)^2</f>
+        <v>0.72262911150820319</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S109" si="4">L67*I$2+I$3</f>
-        <v>10.385388897565079</v>
+        <f t="shared" ref="S67:S109" si="16">L67*I$2+I$3</f>
+        <v>10.539265055446689</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T110" si="5">F67</f>
+        <f t="shared" ref="T67:T109" si="17">F67</f>
         <v>11.389341</v>
       </c>
     </row>
@@ -7866,40 +7877,40 @@
         <v>31</v>
       </c>
       <c r="E68">
-        <v>8.1881129999999995</v>
+        <v>12.948187000000001</v>
       </c>
       <c r="F68">
         <v>11.897917</v>
       </c>
       <c r="G68">
-        <v>18.837965000000001</v>
+        <v>19.154104</v>
       </c>
       <c r="J68">
-        <f>(F68-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>21.730814111995276</v>
       </c>
       <c r="L68">
-        <f>MAX(G68,0)</f>
-        <v>18.837965000000001</v>
+        <f t="shared" si="14"/>
+        <v>19.154104</v>
       </c>
       <c r="M68">
-        <f>F68</f>
+        <f t="shared" si="11"/>
         <v>11.897917</v>
       </c>
       <c r="O68">
-        <f>F68</f>
+        <f t="shared" si="12"/>
         <v>11.897917</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="3"/>
-        <v>1.4189345354977616</v>
+        <f t="shared" si="15"/>
+        <v>0.30355736508943693</v>
       </c>
       <c r="S68">
-        <f t="shared" si="4"/>
-        <v>10.706726614084397</v>
+        <f t="shared" si="16"/>
+        <v>11.346956597530424</v>
       </c>
       <c r="T68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>11.897917</v>
       </c>
     </row>
@@ -7917,40 +7928,40 @@
         <v>31</v>
       </c>
       <c r="E69">
-        <v>8.110989</v>
+        <v>12.335387000000001</v>
       </c>
       <c r="F69">
         <v>11.168345</v>
       </c>
       <c r="G69">
-        <v>18.979315</v>
+        <v>18.083438999999998</v>
       </c>
       <c r="J69">
-        <f>(F69-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>15.461096863022986</v>
       </c>
       <c r="L69">
-        <f>MAX(G69,0)</f>
-        <v>18.979315</v>
+        <f t="shared" si="14"/>
+        <v>18.083438999999998</v>
       </c>
       <c r="M69">
-        <f>F69</f>
+        <f t="shared" si="11"/>
         <v>11.168345</v>
       </c>
       <c r="O69">
-        <f>F69</f>
+        <f t="shared" si="12"/>
         <v>11.168345</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="3"/>
-        <v>0.16679464165087807</v>
+        <f t="shared" si="15"/>
+        <v>7.2611842932204962E-2</v>
       </c>
       <c r="S69">
-        <f t="shared" si="4"/>
-        <v>10.759940002906578</v>
+        <f t="shared" si="16"/>
+        <v>10.898879152568076</v>
       </c>
       <c r="T69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>11.168345</v>
       </c>
     </row>
@@ -7968,40 +7979,40 @@
         <v>30</v>
       </c>
       <c r="E70">
-        <v>7.1402999999999999</v>
+        <v>9.7056509999999996</v>
       </c>
       <c r="F70">
         <v>9.3149300000000004</v>
       </c>
       <c r="G70">
-        <v>14.308075000000001</v>
+        <v>13.558818</v>
       </c>
       <c r="J70">
-        <f>(F70-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>4.3207655749329827</v>
       </c>
       <c r="L70">
-        <f>MAX(G70,0)</f>
-        <v>14.308075000000001</v>
+        <f t="shared" si="14"/>
+        <v>13.558818</v>
       </c>
       <c r="M70">
-        <f>F70</f>
+        <f t="shared" si="11"/>
         <v>9.3149300000000004</v>
       </c>
       <c r="O70">
-        <f>F70</f>
+        <f t="shared" si="12"/>
         <v>9.3149300000000004</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="3"/>
-        <v>9.831384203097962E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.5865932705100076E-2</v>
       </c>
       <c r="S70">
-        <f t="shared" si="4"/>
-        <v>9.0013796180340719</v>
+        <f t="shared" si="16"/>
+        <v>9.0053077580581462</v>
       </c>
       <c r="T70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.3149300000000004</v>
       </c>
     </row>
@@ -8019,40 +8030,40 @@
         <v>31</v>
       </c>
       <c r="E71">
-        <v>6.3493510000000004</v>
+        <v>8.9459579999999992</v>
       </c>
       <c r="F71">
         <v>8.3287630000000004</v>
       </c>
       <c r="G71">
-        <v>13.223113</v>
+        <v>12.411171</v>
       </c>
       <c r="J71">
-        <f>(F71-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>1.1935084637190556</v>
       </c>
       <c r="L71">
-        <f>MAX(G71,0)</f>
-        <v>13.223113</v>
+        <f t="shared" si="14"/>
+        <v>12.411171</v>
       </c>
       <c r="M71">
-        <f>F71</f>
+        <f t="shared" si="11"/>
         <v>8.3287630000000004</v>
       </c>
       <c r="O71">
-        <f>F71</f>
+        <f t="shared" si="12"/>
         <v>8.3287630000000004</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="3"/>
-        <v>6.9783638536597165E-2</v>
+        <f t="shared" si="15"/>
+        <v>3.8514081437407283E-2</v>
       </c>
       <c r="S71">
-        <f t="shared" si="4"/>
-        <v>8.5929289299315439</v>
+        <f t="shared" si="16"/>
+        <v>8.5250130482481659</v>
       </c>
       <c r="T71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.3287630000000004</v>
       </c>
     </row>
@@ -8070,40 +8081,40 @@
         <v>30</v>
       </c>
       <c r="E72">
-        <v>5.0575190000000001</v>
+        <v>5.0821430000000003</v>
       </c>
       <c r="F72">
         <v>5.9748169999999998</v>
       </c>
       <c r="G72">
-        <v>4.2605440000000003</v>
+        <v>4.2458349999999996</v>
       </c>
       <c r="J72">
-        <f>(F72-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>1.5913011879767569</v>
       </c>
       <c r="L72">
-        <f>MAX(G72,0)</f>
-        <v>4.2605440000000003</v>
+        <f t="shared" si="14"/>
+        <v>4.2458349999999996</v>
       </c>
       <c r="M72">
-        <f>F72</f>
+        <f t="shared" si="11"/>
         <v>5.9748169999999998</v>
       </c>
       <c r="O72">
-        <f>F72</f>
+        <f t="shared" si="12"/>
         <v>5.9748169999999998</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="3"/>
-        <v>0.57151404756260149</v>
+        <f t="shared" si="15"/>
+        <v>0.75173869707115892</v>
       </c>
       <c r="S72">
-        <f t="shared" si="4"/>
-        <v>5.218831518947221</v>
+        <f t="shared" si="16"/>
+        <v>5.1077883401097059</v>
       </c>
       <c r="T72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.9748169999999998</v>
       </c>
     </row>
@@ -8121,40 +8132,40 @@
         <v>31</v>
       </c>
       <c r="E73">
-        <v>4.8352789999999999</v>
+        <v>4.6347180000000003</v>
       </c>
       <c r="F73">
         <v>5.4039159999999997</v>
       </c>
       <c r="G73">
-        <v>2.981331</v>
+        <v>2.9191069999999999</v>
       </c>
       <c r="J73">
-        <f>(F73-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>3.3575756771023868</v>
       </c>
       <c r="L73">
-        <f>MAX(G73,0)</f>
-        <v>2.981331</v>
+        <f t="shared" si="14"/>
+        <v>2.9191069999999999</v>
       </c>
       <c r="M73">
-        <f>F73</f>
+        <f t="shared" si="11"/>
         <v>5.4039159999999997</v>
       </c>
       <c r="O73">
-        <f>F73</f>
+        <f t="shared" si="12"/>
         <v>5.4039159999999997</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="3"/>
-        <v>0.44444082996167961</v>
+        <f t="shared" si="15"/>
+        <v>0.7248282565125459</v>
       </c>
       <c r="S73">
-        <f t="shared" si="4"/>
-        <v>4.7372520442009183</v>
+        <f t="shared" si="16"/>
+        <v>4.552547538925392</v>
       </c>
       <c r="T73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.4039159999999997</v>
       </c>
     </row>
@@ -8172,40 +8183,40 @@
         <v>31</v>
       </c>
       <c r="E74">
-        <v>4.9184869999999998</v>
+        <v>4.68269</v>
       </c>
       <c r="F74">
         <v>4.6272169999999999</v>
       </c>
       <c r="G74">
-        <v>3.5111859999999999</v>
+        <v>2.9633539999999998</v>
       </c>
       <c r="J74">
-        <f>(F74-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>6.8072351521989782</v>
       </c>
       <c r="L74">
-        <f>MAX(G74,0)</f>
-        <v>3.5111859999999999</v>
+        <f t="shared" si="14"/>
+        <v>2.9633539999999998</v>
       </c>
       <c r="M74">
-        <f>F74</f>
+        <f t="shared" si="11"/>
         <v>4.6272169999999999</v>
       </c>
       <c r="O74">
-        <f>F74</f>
+        <f t="shared" si="12"/>
         <v>4.6272169999999999</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="3"/>
-        <v>9.579466705351905E-2</v>
+        <f t="shared" si="15"/>
+        <v>3.15303816241887E-3</v>
       </c>
       <c r="S74">
-        <f t="shared" si="4"/>
-        <v>4.9367241357069478</v>
+        <f t="shared" si="16"/>
+        <v>4.5710650796194923</v>
       </c>
       <c r="T74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.6272169999999999</v>
       </c>
     </row>
@@ -8223,40 +8234,40 @@
         <v>29</v>
       </c>
       <c r="E75">
-        <v>5.168787</v>
+        <v>5.7543259999999998</v>
       </c>
       <c r="F75">
         <v>5.3779450000000004</v>
       </c>
       <c r="G75">
-        <v>5.9569660000000004</v>
+        <v>6.045356</v>
       </c>
       <c r="J75">
-        <f>(F75-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>3.4534270738081618</v>
       </c>
       <c r="L75">
-        <f>MAX(G75,0)</f>
-        <v>5.9569660000000004</v>
+        <f t="shared" si="14"/>
+        <v>6.045356</v>
       </c>
       <c r="M75">
-        <f>F75</f>
+        <f t="shared" si="11"/>
         <v>5.3779450000000004</v>
       </c>
       <c r="O75">
-        <f>F75</f>
+        <f t="shared" si="12"/>
         <v>5.3779450000000004</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="3"/>
-        <v>0.22994974991979569</v>
+        <f t="shared" si="15"/>
+        <v>0.23324054897639618</v>
       </c>
       <c r="S75">
-        <f t="shared" si="4"/>
-        <v>5.8574757601393221</v>
+        <f t="shared" si="16"/>
+        <v>5.8608948410563944</v>
       </c>
       <c r="T75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.3779450000000004</v>
       </c>
     </row>
@@ -8274,40 +8285,40 @@
         <v>31</v>
       </c>
       <c r="E76">
-        <v>5.3635900000000003</v>
+        <v>5.7626489999999997</v>
       </c>
       <c r="F76">
         <v>5.659497</v>
       </c>
       <c r="G76">
-        <v>5.625515</v>
+        <v>5.8627099999999999</v>
       </c>
       <c r="J76">
-        <f>(F76-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>2.4862599881471263</v>
       </c>
       <c r="L76">
-        <f>MAX(G76,0)</f>
-        <v>5.625515</v>
+        <f t="shared" si="14"/>
+        <v>5.8627099999999999</v>
       </c>
       <c r="M76">
-        <f>F76</f>
+        <f t="shared" si="11"/>
         <v>5.659497</v>
       </c>
       <c r="O76">
-        <f>F76</f>
+        <f t="shared" si="12"/>
         <v>5.659497</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="3"/>
-        <v>5.3580813352597338E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.561494746459504E-2</v>
       </c>
       <c r="S76">
-        <f t="shared" si="4"/>
-        <v>5.7326959162164286</v>
+        <f t="shared" si="16"/>
+        <v>5.7844567833888769</v>
       </c>
       <c r="T76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.659497</v>
       </c>
     </row>
@@ -8325,40 +8336,40 @@
         <v>30</v>
       </c>
       <c r="E77">
-        <v>6.1376330000000001</v>
+        <v>8.3102809999999998</v>
       </c>
       <c r="F77">
         <v>6.7848269999999999</v>
       </c>
       <c r="G77">
-        <v>10.650753</v>
+        <v>10.821548</v>
       </c>
       <c r="J77">
-        <f>(F77-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>0.2038142087193498</v>
       </c>
       <c r="L77">
-        <f>MAX(G77,0)</f>
-        <v>10.650753</v>
+        <f t="shared" si="14"/>
+        <v>10.821548</v>
       </c>
       <c r="M77">
-        <f>F77</f>
+        <f t="shared" si="11"/>
         <v>6.7848269999999999</v>
       </c>
       <c r="O77">
-        <f>F77</f>
+        <f t="shared" si="12"/>
         <v>6.7848269999999999</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="3"/>
-        <v>0.70509157428295688</v>
+        <f t="shared" si="15"/>
+        <v>1.1554587516578227</v>
       </c>
       <c r="S77">
-        <f t="shared" si="4"/>
-        <v>7.6245243111085665</v>
+        <f t="shared" si="16"/>
+        <v>7.8597496724084959</v>
       </c>
       <c r="T77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.7848269999999999</v>
       </c>
     </row>
@@ -8376,40 +8387,40 @@
         <v>31</v>
       </c>
       <c r="E78">
-        <v>7.0882719999999999</v>
+        <v>9.5077499999999997</v>
       </c>
       <c r="F78">
         <v>8.7718749999999996</v>
       </c>
       <c r="G78">
-        <v>12.214568</v>
+        <v>12.46217</v>
       </c>
       <c r="J78">
-        <f>(F78-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>2.358037046215943</v>
       </c>
       <c r="L78">
-        <f>MAX(G78,0)</f>
-        <v>12.214568</v>
+        <f t="shared" si="14"/>
+        <v>12.46217</v>
       </c>
       <c r="M78">
-        <f>F78</f>
+        <f t="shared" si="11"/>
         <v>8.7718749999999996</v>
       </c>
       <c r="O78">
-        <f>F78</f>
+        <f t="shared" si="12"/>
         <v>8.7718749999999996</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="3"/>
-        <v>0.312065688447481</v>
+        <f t="shared" si="15"/>
+        <v>5.0858671841853657E-2</v>
       </c>
       <c r="S78">
-        <f t="shared" si="4"/>
-        <v>8.2132466007510168</v>
+        <f t="shared" si="16"/>
+        <v>8.54635632706613</v>
       </c>
       <c r="T78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.7718749999999996</v>
       </c>
     </row>
@@ -8427,40 +8438,40 @@
         <v>30</v>
       </c>
       <c r="E79">
-        <v>7.7204509999999997</v>
+        <v>10.471867</v>
       </c>
       <c r="F79">
         <v>10.353471000000001</v>
       </c>
       <c r="G79">
-        <v>14.948532999999999</v>
+        <v>14.65893</v>
       </c>
       <c r="J79">
-        <f>(F79-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>9.7168493667553584</v>
       </c>
       <c r="L79">
-        <f>MAX(G79,0)</f>
-        <v>14.948532999999999</v>
+        <f t="shared" si="14"/>
+        <v>14.65893</v>
       </c>
       <c r="M79">
-        <f>F79</f>
+        <f t="shared" si="11"/>
         <v>10.353471000000001</v>
       </c>
       <c r="O79">
-        <f>F79</f>
+        <f t="shared" si="12"/>
         <v>10.353471000000001</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="3"/>
-        <v>1.2342789696221359</v>
+        <f t="shared" si="15"/>
+        <v>0.78812157025020246</v>
       </c>
       <c r="S79">
-        <f t="shared" si="4"/>
-        <v>9.2424899157226239</v>
+        <f t="shared" si="16"/>
+        <v>9.4657088864525694</v>
       </c>
       <c r="T79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>10.353471000000001</v>
       </c>
     </row>
@@ -8478,40 +8489,40 @@
         <v>31</v>
       </c>
       <c r="E80">
-        <v>7.9087399999999999</v>
+        <v>11.121703999999999</v>
       </c>
       <c r="F80">
         <v>11.011625</v>
       </c>
       <c r="G80">
-        <v>16.372198000000001</v>
+        <v>15.844925999999999</v>
       </c>
       <c r="J80">
-        <f>(F80-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>14.253193094391875</v>
       </c>
       <c r="L80">
-        <f>MAX(G80,0)</f>
-        <v>16.372198000000001</v>
+        <f t="shared" si="14"/>
+        <v>15.844925999999999</v>
       </c>
       <c r="M80">
-        <f>F80</f>
+        <f t="shared" si="11"/>
         <v>11.011625</v>
       </c>
       <c r="O80">
-        <f>F80</f>
+        <f t="shared" si="12"/>
         <v>11.011625</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="3"/>
-        <v>1.520719162322721</v>
+        <f t="shared" si="15"/>
+        <v>1.1016018006261954</v>
       </c>
       <c r="S80">
-        <f t="shared" si="4"/>
-        <v>9.7784505750613704</v>
+        <f t="shared" si="16"/>
+        <v>9.9620528011369611</v>
       </c>
       <c r="T80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>11.011625</v>
       </c>
     </row>
@@ -8529,40 +8540,40 @@
         <v>31</v>
       </c>
       <c r="E81">
-        <v>8.0124739999999992</v>
+        <v>11.952463</v>
       </c>
       <c r="F81">
         <v>10.872294999999999</v>
       </c>
       <c r="G81">
-        <v>18.967048999999999</v>
+        <v>17.827532000000001</v>
       </c>
       <c r="J81">
-        <f>(F81-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>13.220569662769275</v>
       </c>
       <c r="L81">
-        <f>MAX(G81,0)</f>
-        <v>18.967048999999999</v>
+        <f t="shared" si="14"/>
+        <v>17.827532000000001</v>
       </c>
       <c r="M81">
-        <f>F81</f>
+        <f t="shared" si="11"/>
         <v>10.872294999999999</v>
       </c>
       <c r="O81">
-        <f>F81</f>
+        <f t="shared" si="12"/>
         <v>10.872294999999999</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="3"/>
-        <v>1.3682617711532969E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.482490838785231E-3</v>
       </c>
       <c r="S81">
-        <f t="shared" si="4"/>
-        <v>10.755322277916887</v>
+        <f t="shared" si="16"/>
+        <v>10.791781082949683</v>
       </c>
       <c r="T81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>10.872294999999999</v>
       </c>
     </row>
@@ -8580,40 +8591,40 @@
         <v>30</v>
       </c>
       <c r="E82">
-        <v>7.1239970000000001</v>
+        <v>9.5066059999999997</v>
       </c>
       <c r="F82">
         <v>9.0363220000000002</v>
       </c>
       <c r="G82">
-        <v>13.821641</v>
+        <v>12.898707</v>
       </c>
       <c r="J82">
-        <f>(F82-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>3.2401336680452784</v>
       </c>
       <c r="L82">
-        <f>MAX(G82,0)</f>
-        <v>13.821641</v>
+        <f t="shared" si="14"/>
+        <v>12.898707</v>
       </c>
       <c r="M82">
-        <f>F82</f>
+        <f t="shared" si="11"/>
         <v>9.0363220000000002</v>
       </c>
       <c r="O82">
-        <f>F82</f>
+        <f t="shared" si="12"/>
         <v>9.0363220000000002</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="3"/>
-        <v>4.7553638644240344E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.4416849826316693E-2</v>
       </c>
       <c r="S82">
-        <f t="shared" si="4"/>
-        <v>8.8182540320536731</v>
+        <f t="shared" si="16"/>
+        <v>8.7290487505520264</v>
       </c>
       <c r="T82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.0363220000000002</v>
       </c>
     </row>
@@ -8631,40 +8642,40 @@
         <v>31</v>
       </c>
       <c r="E83">
-        <v>5.6444619999999999</v>
+        <v>7.1048580000000001</v>
       </c>
       <c r="F83">
         <v>8.2622250000000008</v>
       </c>
       <c r="G83">
-        <v>9.2144379999999995</v>
+        <v>8.8443000000000005</v>
       </c>
       <c r="J83">
-        <f>(F83-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>1.0525531495844638</v>
       </c>
       <c r="L83">
-        <f>MAX(G83,0)</f>
-        <v>9.2144379999999995</v>
+        <f t="shared" si="14"/>
+        <v>8.8443000000000005</v>
       </c>
       <c r="M83">
-        <f>F83</f>
+        <f t="shared" si="11"/>
         <v>8.2622250000000008</v>
       </c>
       <c r="O83">
-        <f>F83</f>
+        <f t="shared" si="12"/>
         <v>8.2622250000000008</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="3"/>
-        <v>1.3886822657556808</v>
+        <f t="shared" si="15"/>
+        <v>1.5128047150579587</v>
       </c>
       <c r="S83">
-        <f t="shared" si="4"/>
-        <v>7.0838013640542172</v>
+        <f t="shared" si="16"/>
+        <v>7.0322637343261754</v>
       </c>
       <c r="T83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.2622250000000008</v>
       </c>
     </row>
@@ -8682,40 +8693,40 @@
         <v>30</v>
       </c>
       <c r="E84">
-        <v>5.1466320000000003</v>
+        <v>6.2943569999999998</v>
       </c>
       <c r="F84">
         <v>7.2404169999999999</v>
       </c>
       <c r="G84">
-        <v>7.7784950000000004</v>
+        <v>7.2502180000000003</v>
       </c>
       <c r="J84">
-        <f>(F84-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>1.7074495276065697E-5</v>
       </c>
       <c r="L84">
-        <f>MAX(G84,0)</f>
-        <v>7.7784950000000004</v>
+        <f t="shared" si="14"/>
+        <v>7.2502180000000003</v>
       </c>
       <c r="M84">
-        <f>F84</f>
+        <f t="shared" si="11"/>
         <v>7.2404169999999999</v>
       </c>
       <c r="O84">
-        <f>F84</f>
+        <f t="shared" si="12"/>
         <v>7.2404169999999999</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="3"/>
-        <v>0.48608580119328876</v>
+        <f t="shared" si="15"/>
+        <v>0.76611989291253479</v>
       </c>
       <c r="S84">
-        <f t="shared" si="4"/>
-        <v>6.5432184621405973</v>
+        <f t="shared" si="16"/>
+        <v>6.3651342497343872</v>
       </c>
       <c r="T84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.2404169999999999</v>
       </c>
     </row>
@@ -8733,40 +8744,40 @@
         <v>31</v>
       </c>
       <c r="E85">
-        <v>4.72811</v>
+        <v>3.6990850000000002</v>
       </c>
       <c r="F85">
         <v>4.67211</v>
       </c>
       <c r="G85">
-        <v>0.31648700000000002</v>
+        <v>-0.209699</v>
       </c>
       <c r="J85">
-        <f>(F85-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>6.5749927658389034</v>
       </c>
       <c r="L85">
-        <f>MAX(G85,0)</f>
-        <v>0.31648700000000002</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="M85">
-        <f>F85</f>
+        <f t="shared" si="11"/>
         <v>4.67211</v>
       </c>
       <c r="O85">
-        <f>F85</f>
+        <f t="shared" si="12"/>
         <v>4.67211</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="3"/>
-        <v>0.87999334276729979</v>
+        <f t="shared" si="15"/>
+        <v>1.7988711816461984</v>
       </c>
       <c r="S85">
-        <f t="shared" si="4"/>
-        <v>3.7340303963589765</v>
+        <f t="shared" si="16"/>
+        <v>3.3308899652382915</v>
       </c>
       <c r="T85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.67211</v>
       </c>
     </row>
@@ -8784,40 +8795,40 @@
         <v>31</v>
       </c>
       <c r="E86">
-        <v>4.394838</v>
+        <v>3.995349</v>
       </c>
       <c r="F86">
         <v>3.6666099999999999</v>
       </c>
       <c r="G86">
-        <v>-9.9130509999999994</v>
+        <v>0.13300899999999999</v>
       </c>
       <c r="J86">
-        <f>(F86-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>12.742578680153718</v>
       </c>
       <c r="L86">
-        <f>MAX(G86,0)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.13300899999999999</v>
       </c>
       <c r="M86">
-        <f>F86</f>
+        <f t="shared" si="11"/>
         <v>3.6666099999999999</v>
       </c>
       <c r="O86">
-        <f>F86</f>
+        <f t="shared" si="12"/>
         <v>3.6666099999999999</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="3"/>
-        <v>2.6755810248827437E-3</v>
+        <f t="shared" si="15"/>
+        <v>7.8430945092765408E-2</v>
       </c>
       <c r="S86">
-        <f t="shared" si="4"/>
-        <v>3.6148839811614817</v>
+        <f t="shared" si="16"/>
+        <v>3.3865547463574992</v>
       </c>
       <c r="T86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.6666099999999999</v>
       </c>
     </row>
@@ -8835,40 +8846,40 @@
         <v>28</v>
       </c>
       <c r="E87">
-        <v>4.8363040000000002</v>
+        <v>4.6958510000000002</v>
       </c>
       <c r="F87">
         <v>4.7065109999999999</v>
       </c>
       <c r="G87">
-        <v>-2.8912089999999999</v>
+        <v>2.7346149999999998</v>
       </c>
       <c r="J87">
-        <f>(F87-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>6.3997558352086816</v>
       </c>
       <c r="L87">
-        <f>MAX(G87,0)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2.7346149999999998</v>
       </c>
       <c r="M87">
-        <f>F87</f>
+        <f t="shared" si="11"/>
         <v>4.7065109999999999</v>
       </c>
       <c r="O87">
-        <f>F87</f>
+        <f t="shared" si="12"/>
         <v>4.7065109999999999</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="3"/>
-        <v>1.1916495482582705</v>
+        <f t="shared" si="15"/>
+        <v>5.3441453823355488E-2</v>
       </c>
       <c r="S87">
-        <f t="shared" si="4"/>
-        <v>3.6148839811614817</v>
+        <f t="shared" si="16"/>
+        <v>4.4753369231155977</v>
       </c>
       <c r="T87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.7065109999999999</v>
       </c>
     </row>
@@ -8886,40 +8897,40 @@
         <v>31</v>
       </c>
       <c r="E88">
-        <v>5.2467290000000002</v>
+        <v>5.4186959999999997</v>
       </c>
       <c r="F88">
         <v>4.946485</v>
       </c>
       <c r="G88">
-        <v>2.401294</v>
+        <v>5.2178149999999999</v>
       </c>
       <c r="J88">
-        <f>(F88-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>5.243183446348163</v>
       </c>
       <c r="L88">
-        <f>MAX(G88,0)</f>
-        <v>2.401294</v>
+        <f t="shared" si="14"/>
+        <v>5.2178149999999999</v>
       </c>
       <c r="M88">
-        <f>F88</f>
+        <f t="shared" si="11"/>
         <v>4.946485</v>
       </c>
       <c r="O88">
-        <f>F88</f>
+        <f t="shared" si="12"/>
         <v>4.946485</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="3"/>
-        <v>0.1828390538296063</v>
+        <f t="shared" si="15"/>
+        <v>0.3227157166543464</v>
       </c>
       <c r="S88">
-        <f t="shared" si="4"/>
-        <v>4.5188881643830765</v>
+        <f t="shared" si="16"/>
+        <v>5.5145657307543061</v>
       </c>
       <c r="T88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.946485</v>
       </c>
     </row>
@@ -8937,40 +8948,40 @@
         <v>30</v>
       </c>
       <c r="E89">
-        <v>5.7135670000000003</v>
+        <v>6.0783129999999996</v>
       </c>
       <c r="F89">
         <v>5.5992629999999997</v>
       </c>
       <c r="G89">
-        <v>6.8182910000000003</v>
+        <v>6.6770889999999996</v>
       </c>
       <c r="J89">
-        <f>(F89-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>2.6798406040709053</v>
       </c>
       <c r="L89">
-        <f>MAX(G89,0)</f>
-        <v>6.8182910000000003</v>
+        <f t="shared" si="14"/>
+        <v>6.6770889999999996</v>
       </c>
       <c r="M89">
-        <f>F89</f>
+        <f t="shared" si="11"/>
         <v>5.5992629999999997</v>
       </c>
       <c r="O89">
-        <f>F89</f>
+        <f t="shared" si="12"/>
         <v>5.5992629999999997</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="3"/>
-        <v>0.33927345419185578</v>
+        <f t="shared" si="15"/>
+        <v>0.27669130235789197</v>
       </c>
       <c r="S89">
-        <f t="shared" si="4"/>
-        <v>6.1817348484114536</v>
+        <f t="shared" si="16"/>
+        <v>6.1252775457664566</v>
       </c>
       <c r="T89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.5992629999999997</v>
       </c>
     </row>
@@ -8988,40 +8999,40 @@
         <v>31</v>
       </c>
       <c r="E90">
-        <v>6.3849330000000002</v>
+        <v>8.7789099999999998</v>
       </c>
       <c r="F90">
         <v>7.0140260000000003</v>
       </c>
       <c r="G90">
-        <v>12.800587999999999</v>
+        <v>11.769405000000001</v>
       </c>
       <c r="J90">
-        <f>(F90-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>4.9399005458312766E-2</v>
       </c>
       <c r="L90">
-        <f>MAX(G90,0)</f>
-        <v>12.800587999999999</v>
+        <f t="shared" si="14"/>
+        <v>11.769405000000001</v>
       </c>
       <c r="M90">
-        <f>F90</f>
+        <f t="shared" si="11"/>
         <v>7.0140260000000003</v>
       </c>
       <c r="O90">
-        <f>F90</f>
+        <f t="shared" si="12"/>
         <v>7.0140260000000003</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="3"/>
-        <v>2.0159367466371978</v>
+        <f t="shared" si="15"/>
+        <v>1.543571412067722</v>
       </c>
       <c r="S90">
-        <f t="shared" si="4"/>
-        <v>8.4338628732488949</v>
+        <f t="shared" si="16"/>
+        <v>8.2564314942198713</v>
       </c>
       <c r="T90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.0140260000000003</v>
       </c>
     </row>
@@ -9039,40 +9050,40 @@
         <v>30</v>
       </c>
       <c r="E91">
-        <v>7.2680939999999996</v>
+        <v>10.229964000000001</v>
       </c>
       <c r="F91">
         <v>9.7849989999999991</v>
       </c>
       <c r="G91">
-        <v>18.349150000000002</v>
+        <v>14.434545</v>
       </c>
       <c r="J91">
-        <f>(F91-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>6.495943714573718</v>
       </c>
       <c r="L91">
-        <f>MAX(G91,0)</f>
-        <v>18.349150000000002</v>
+        <f t="shared" si="14"/>
+        <v>14.434545</v>
       </c>
       <c r="M91">
-        <f>F91</f>
+        <f t="shared" si="11"/>
         <v>9.7849989999999991</v>
       </c>
       <c r="O91">
-        <f>F91</f>
+        <f t="shared" si="12"/>
         <v>9.7849989999999991</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="3"/>
-        <v>0.54420964656527504</v>
+        <f t="shared" si="15"/>
+        <v>0.17073102053056599</v>
       </c>
       <c r="S91">
-        <f t="shared" si="4"/>
-        <v>10.522704663910257</v>
+        <f t="shared" si="16"/>
+        <v>9.3718028957945432</v>
       </c>
       <c r="T91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.7849989999999991</v>
       </c>
     </row>
@@ -9090,40 +9101,40 @@
         <v>31</v>
       </c>
       <c r="E92">
-        <v>8.2842459999999996</v>
+        <v>11.892227999999999</v>
       </c>
       <c r="F92">
         <v>11.298373</v>
       </c>
       <c r="G92">
-        <v>24.811174000000001</v>
+        <v>17.433955999999998</v>
       </c>
       <c r="J92">
-        <f>(F92-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>16.500559972877944</v>
       </c>
       <c r="L92">
-        <f>MAX(G92,0)</f>
-        <v>24.811174000000001</v>
+        <f t="shared" si="14"/>
+        <v>17.433955999999998</v>
       </c>
       <c r="M92">
-        <f>F92</f>
+        <f t="shared" si="11"/>
         <v>11.298373</v>
       </c>
       <c r="O92">
-        <f>F92</f>
+        <f t="shared" si="12"/>
         <v>11.298373</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="3"/>
-        <v>2.7458489076819972</v>
+        <f t="shared" si="15"/>
+        <v>0.45065039740983021</v>
       </c>
       <c r="S92">
-        <f t="shared" si="4"/>
-        <v>12.955433321075246</v>
+        <f t="shared" si="16"/>
+        <v>10.627068004182279</v>
       </c>
       <c r="T92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>11.298373</v>
       </c>
     </row>
@@ -9141,40 +9152,40 @@
         <v>31</v>
       </c>
       <c r="E93">
-        <v>7.5959539999999999</v>
+        <v>12.658903</v>
       </c>
       <c r="F93">
         <v>10.501163</v>
       </c>
       <c r="G93">
-        <v>20.534603000000001</v>
+        <v>19.662766000000001</v>
       </c>
       <c r="J93">
-        <f>(F93-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>10.659429201333872</v>
       </c>
       <c r="L93">
-        <f>MAX(G93,0)</f>
-        <v>20.534603000000001</v>
+        <f t="shared" si="14"/>
+        <v>19.662766000000001</v>
       </c>
       <c r="M93">
-        <f>F93</f>
+        <f t="shared" si="11"/>
         <v>10.501163</v>
       </c>
       <c r="O93">
-        <f>F93</f>
+        <f t="shared" si="12"/>
         <v>10.501163</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="3"/>
-        <v>0.71282420563532001</v>
+        <f t="shared" si="15"/>
+        <v>1.1207834659234712</v>
       </c>
       <c r="S93">
-        <f t="shared" si="4"/>
-        <v>11.345452171809825</v>
+        <f t="shared" si="16"/>
+        <v>11.559833612571952</v>
       </c>
       <c r="T93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>10.501163</v>
       </c>
     </row>
@@ -9192,40 +9203,40 @@
         <v>30</v>
       </c>
       <c r="E94">
-        <v>6.5677149999999997</v>
+        <v>10.572832999999999</v>
       </c>
       <c r="F94">
         <v>9.2247319999999995</v>
       </c>
       <c r="G94">
-        <v>14.547882</v>
+        <v>15.651662999999999</v>
       </c>
       <c r="J94">
-        <f>(F94-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>3.9539219873323126</v>
       </c>
       <c r="L94">
-        <f>MAX(G94,0)</f>
-        <v>14.547882</v>
+        <f t="shared" si="14"/>
+        <v>15.651662999999999</v>
       </c>
       <c r="M94">
-        <f>F94</f>
+        <f t="shared" si="11"/>
         <v>9.2247319999999995</v>
       </c>
       <c r="O94">
-        <f>F94</f>
+        <f t="shared" si="12"/>
         <v>9.2247319999999995</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="3"/>
-        <v>1.7708512780535077E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.43091280126349307</v>
       </c>
       <c r="S94">
-        <f t="shared" si="4"/>
-        <v>9.0916586639009331</v>
+        <f t="shared" si="16"/>
+        <v>9.881171487891681</v>
       </c>
       <c r="T94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.2247319999999995</v>
       </c>
     </row>
@@ -9243,40 +9254,40 @@
         <v>31</v>
       </c>
       <c r="E95">
-        <v>5.4521119999999996</v>
+        <v>7.3501329999999996</v>
       </c>
       <c r="F95">
         <v>7.2264099999999996</v>
       </c>
       <c r="G95">
-        <v>7.1774009999999997</v>
+        <v>9.3404439999999997</v>
       </c>
       <c r="J95">
-        <f>(F95-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>9.7513064831618873E-5</v>
       </c>
       <c r="L95">
-        <f>MAX(G95,0)</f>
-        <v>7.1774009999999997</v>
+        <f t="shared" si="14"/>
+        <v>9.3404439999999997</v>
       </c>
       <c r="M95">
-        <f>F95</f>
+        <f t="shared" si="11"/>
         <v>7.2264099999999996</v>
       </c>
       <c r="O95">
-        <f>F95</f>
+        <f t="shared" si="12"/>
         <v>7.2264099999999996</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="3"/>
-        <v>0.82715869116070961</v>
+        <f t="shared" si="15"/>
+        <v>1.8203184956115984E-4</v>
       </c>
       <c r="S95">
-        <f t="shared" si="4"/>
-        <v>6.3169273497197924</v>
+        <f t="shared" si="16"/>
+        <v>7.2399019179348656</v>
       </c>
       <c r="T95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.2264099999999996</v>
       </c>
     </row>
@@ -9294,40 +9305,40 @@
         <v>30</v>
       </c>
       <c r="E96">
-        <v>4.7862309999999999</v>
+        <v>5.4171240000000003</v>
       </c>
       <c r="F96">
         <v>6.0619870000000002</v>
       </c>
       <c r="G96">
-        <v>-0.226655</v>
+        <v>5.0382179999999996</v>
       </c>
       <c r="J96">
-        <f>(F96-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>1.3789754883563856</v>
       </c>
       <c r="L96">
-        <f>MAX(G96,0)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>5.0382179999999996</v>
       </c>
       <c r="M96">
-        <f>F96</f>
+        <f t="shared" si="11"/>
         <v>6.0619870000000002</v>
       </c>
       <c r="O96">
-        <f>F96</f>
+        <f t="shared" si="12"/>
         <v>6.0619870000000002</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="3"/>
-        <v>5.9883131848085913</v>
+        <f t="shared" si="15"/>
+        <v>0.38760997616781945</v>
       </c>
       <c r="S96">
-        <f t="shared" si="4"/>
-        <v>3.6148839811614817</v>
+        <f t="shared" si="16"/>
+        <v>5.4394036913835393</v>
       </c>
       <c r="T96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.0619870000000002</v>
       </c>
     </row>
@@ -9345,40 +9356,40 @@
         <v>31</v>
       </c>
       <c r="E97">
-        <v>4.5298080000000001</v>
+        <v>4.291633</v>
       </c>
       <c r="F97">
         <v>4.5872989999999998</v>
       </c>
       <c r="G97">
-        <v>-4.5501569999999996</v>
+        <v>2.4546190000000001</v>
       </c>
       <c r="J97">
-        <f>(F97-F$110)^2</f>
+        <f t="shared" si="13"/>
         <v>7.0171261414218673</v>
       </c>
       <c r="L97">
-        <f>MAX(G97,0)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2.4546190000000001</v>
       </c>
       <c r="M97">
-        <f>F97</f>
+        <f t="shared" ref="M97:M109" si="18">F97</f>
         <v>4.5872989999999998</v>
       </c>
       <c r="O97">
-        <f>F97</f>
+        <f t="shared" ref="O97:O109" si="19">F97</f>
         <v>4.5872989999999998</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="3"/>
-        <v>0.94559096886271554</v>
+        <f t="shared" si="15"/>
+        <v>5.2505820699996091E-2</v>
       </c>
       <c r="S97">
-        <f t="shared" si="4"/>
-        <v>3.6148839811614817</v>
+        <f t="shared" si="16"/>
+        <v>4.3581575137955237</v>
       </c>
       <c r="T97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.5872989999999998</v>
       </c>
     </row>
@@ -9396,40 +9407,40 @@
         <v>31</v>
       </c>
       <c r="E98">
-        <v>4.9579940000000002</v>
+        <v>5.1397180000000002</v>
       </c>
       <c r="F98">
         <v>4.9552849999999999</v>
       </c>
       <c r="G98">
-        <v>5.2925469999999999</v>
+        <v>4.5376750000000001</v>
       </c>
       <c r="J98">
-        <f>(F98-F$110)^2</f>
+        <f t="shared" ref="J98:J109" si="20">(F98-F$110)^2</f>
         <v>5.2029604086296448</v>
       </c>
       <c r="L98">
-        <f>MAX(G98,0)</f>
-        <v>5.2925469999999999</v>
+        <f t="shared" ref="L98:L109" si="21">MAX(G98,0)</f>
+        <v>4.5376750000000001</v>
       </c>
       <c r="M98">
-        <f>F98</f>
+        <f t="shared" si="18"/>
         <v>4.9552849999999999</v>
       </c>
       <c r="O98">
-        <f>F98</f>
+        <f t="shared" si="19"/>
         <v>4.9552849999999999</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="3"/>
-        <v>0.42518220999686279</v>
+        <f t="shared" si="15"/>
+        <v>7.5426860043758218E-2</v>
       </c>
       <c r="S98">
-        <f t="shared" si="4"/>
-        <v>5.6073449742330936</v>
+        <f t="shared" si="16"/>
+        <v>5.2299245092548743</v>
       </c>
       <c r="T98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.9552849999999999</v>
       </c>
     </row>
@@ -9447,13 +9458,13 @@
         <v>28</v>
       </c>
       <c r="E99">
-        <v>5.0746250000000002</v>
+        <v>4.6000930000000002</v>
       </c>
       <c r="F99">
         <v>4.2978680000000002</v>
       </c>
       <c r="G99">
-        <v>2.0812249999999999</v>
+        <v>2.349281</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>5</v>
@@ -9462,31 +9473,31 @@
         <v>2.7461000000000002</v>
       </c>
       <c r="J99">
-        <f>(F99-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>8.6342937040771979</v>
       </c>
       <c r="L99">
-        <f>MAX(G99,0)</f>
-        <v>2.0812249999999999</v>
+        <f t="shared" si="21"/>
+        <v>2.349281</v>
       </c>
       <c r="M99">
-        <f>F99</f>
+        <f t="shared" si="18"/>
         <v>4.2978680000000002</v>
       </c>
       <c r="O99">
-        <f>F99</f>
+        <f t="shared" si="19"/>
         <v>4.2978680000000002</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="3"/>
-        <v>1.0105325889156852E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.6260699143307564E-4</v>
       </c>
       <c r="S99">
-        <f t="shared" si="4"/>
-        <v>4.3983932500079304</v>
+        <f t="shared" si="16"/>
+        <v>4.3140731532369516</v>
       </c>
       <c r="T99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.2978680000000002</v>
       </c>
     </row>
@@ -9504,13 +9515,13 @@
         <v>31</v>
       </c>
       <c r="E100">
-        <v>5.5902099999999999</v>
+        <v>5.3379760000000003</v>
       </c>
       <c r="F100">
         <v>4.6569880000000001</v>
       </c>
       <c r="G100">
-        <v>5.0073569999999998</v>
+        <v>4.6529499999999997</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>6</v>
@@ -9519,31 +9530,31 @@
         <v>0.95009999999999994</v>
       </c>
       <c r="J100">
-        <f>(F100-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>6.6527723455023846</v>
       </c>
       <c r="L100">
-        <f>MAX(G100,0)</f>
-        <v>5.0073569999999998</v>
+        <f t="shared" si="21"/>
+        <v>4.6529499999999997</v>
       </c>
       <c r="M100">
-        <f>F100</f>
+        <f t="shared" si="18"/>
         <v>4.6569880000000001</v>
       </c>
       <c r="O100">
-        <f>F100</f>
+        <f t="shared" si="19"/>
         <v>4.6569880000000001</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="3"/>
-        <v>0.71063685691150946</v>
+        <f t="shared" si="15"/>
+        <v>0.3858640243438341</v>
       </c>
       <c r="S100">
-        <f t="shared" si="4"/>
-        <v>5.4999807976628921</v>
+        <f t="shared" si="16"/>
+        <v>5.2781675427602508</v>
       </c>
       <c r="T100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.6569880000000001</v>
       </c>
     </row>
@@ -9561,13 +9572,13 @@
         <v>30</v>
       </c>
       <c r="E101">
-        <v>5.9670990000000002</v>
+        <v>6.7929079999999997</v>
       </c>
       <c r="F101">
         <v>5.8367180000000003</v>
       </c>
       <c r="G101">
-        <v>8.0641660000000002</v>
+        <v>7.8039769999999997</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>7</v>
@@ -9577,31 +9588,31 @@
         <v>2.1099401491933474</v>
       </c>
       <c r="J101">
-        <f>(F101-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>1.958787424638311</v>
       </c>
       <c r="L101">
-        <f>MAX(G101,0)</f>
-        <v>8.0641660000000002</v>
+        <f t="shared" si="21"/>
+        <v>7.8039769999999997</v>
       </c>
       <c r="M101">
-        <f>F101</f>
+        <f t="shared" si="18"/>
         <v>5.8367180000000003</v>
       </c>
       <c r="O101">
-        <f>F101</f>
+        <f t="shared" si="19"/>
         <v>5.8367180000000003</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="3"/>
-        <v>0.66267043194432418</v>
+        <f t="shared" si="15"/>
+        <v>0.5778531590467334</v>
       </c>
       <c r="S101">
-        <f t="shared" si="4"/>
-        <v>6.6507637185836215</v>
+        <f t="shared" si="16"/>
+        <v>6.5968845337587112</v>
       </c>
       <c r="T101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.8367180000000003</v>
       </c>
     </row>
@@ -9619,47 +9630,47 @@
         <v>31</v>
       </c>
       <c r="E102">
-        <v>7.3923310000000004</v>
+        <v>9.9120489999999997</v>
       </c>
       <c r="F102">
         <v>8.8799700000000001</v>
       </c>
       <c r="G102">
-        <v>13.328352000000001</v>
+        <v>12.914077000000001</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I102">
         <f>(1/12)*SQRT(SUM(Q2:Q109))</f>
-        <v>0.66520849101544366</v>
+        <v>0.59182843657097517</v>
       </c>
       <c r="J102">
-        <f>(F102-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>2.7017008053655744</v>
       </c>
       <c r="L102">
-        <f>MAX(G102,0)</f>
-        <v>13.328352000000001</v>
+        <f t="shared" si="21"/>
+        <v>12.914077000000001</v>
       </c>
       <c r="M102">
-        <f>F102</f>
+        <f t="shared" si="18"/>
         <v>8.8799700000000001</v>
       </c>
       <c r="O102">
-        <f>F102</f>
+        <f t="shared" si="19"/>
         <v>8.8799700000000001</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="3"/>
-        <v>6.1217757158476487E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.0877026323824807E-2</v>
       </c>
       <c r="S102">
-        <f t="shared" si="4"/>
-        <v>8.6325477755364801</v>
+        <f t="shared" si="16"/>
+        <v>8.7354811550194107</v>
       </c>
       <c r="T102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.8799700000000001</v>
       </c>
     </row>
@@ -9677,40 +9688,40 @@
         <v>30</v>
       </c>
       <c r="E103">
-        <v>7.6494749999999998</v>
+        <v>10.304717999999999</v>
       </c>
       <c r="F103">
         <v>10.157683</v>
       </c>
       <c r="G103">
-        <v>14.454447</v>
+        <v>13.62261</v>
       </c>
       <c r="J103">
-        <f>(F103-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>8.534567031803503</v>
       </c>
       <c r="L103">
-        <f>MAX(G103,0)</f>
-        <v>14.454447</v>
+        <f t="shared" si="21"/>
+        <v>13.62261</v>
       </c>
       <c r="M103">
-        <f>F103</f>
+        <f t="shared" si="18"/>
         <v>10.157683</v>
       </c>
       <c r="O103">
-        <f>F103</f>
+        <f t="shared" si="19"/>
         <v>10.157683</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="3"/>
-        <v>1.2126400827579999</v>
+        <f t="shared" si="15"/>
+        <v>1.2671510567783748</v>
       </c>
       <c r="S103">
-        <f t="shared" si="4"/>
-        <v>9.0564836162560756</v>
+        <f t="shared" si="16"/>
+        <v>9.032004956872937</v>
       </c>
       <c r="T103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>10.157683</v>
       </c>
     </row>
@@ -9728,40 +9739,40 @@
         <v>31</v>
       </c>
       <c r="E104">
-        <v>8.2279730000000004</v>
+        <v>12.686346</v>
       </c>
       <c r="F104">
         <v>11.548427</v>
       </c>
       <c r="G104">
-        <v>19.654102000000002</v>
+        <v>19.051376000000001</v>
       </c>
       <c r="J104">
-        <f>(F104-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>18.594569746126762</v>
       </c>
       <c r="L104">
-        <f>MAX(G104,0)</f>
-        <v>19.654102000000002</v>
+        <f t="shared" si="21"/>
+        <v>19.051376000000001</v>
       </c>
       <c r="M104">
-        <f>F104</f>
+        <f t="shared" si="18"/>
         <v>11.548427</v>
       </c>
       <c r="O104">
-        <f>F104</f>
+        <f t="shared" si="19"/>
         <v>11.548427</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="3"/>
-        <v>0.28564002800844768</v>
+        <f t="shared" si="15"/>
+        <v>5.9761898226384176E-2</v>
       </c>
       <c r="S104">
-        <f t="shared" si="4"/>
-        <v>11.013973982412441</v>
+        <f t="shared" si="16"/>
+        <v>11.303964532070086</v>
       </c>
       <c r="T104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>11.548427</v>
       </c>
     </row>
@@ -9779,40 +9790,40 @@
         <v>31</v>
       </c>
       <c r="E105">
-        <v>8.0727980000000006</v>
+        <v>12.276451</v>
       </c>
       <c r="F105">
         <v>10.903589</v>
       </c>
       <c r="G105">
-        <v>18.605588999999998</v>
+        <v>17.891848</v>
       </c>
       <c r="J105">
-        <f>(F105-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>13.449119579198539</v>
       </c>
       <c r="L105">
-        <f>MAX(G105,0)</f>
-        <v>18.605588999999998</v>
+        <f t="shared" si="21"/>
+        <v>17.891848</v>
       </c>
       <c r="M105">
-        <f>F105</f>
+        <f t="shared" si="18"/>
         <v>10.903589</v>
       </c>
       <c r="O105">
-        <f>F105</f>
+        <f t="shared" si="19"/>
         <v>10.903589</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="3"/>
-        <v>8.0851463224074188E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.2065535645211842E-3</v>
       </c>
       <c r="S105">
-        <f t="shared" si="4"/>
-        <v>10.619245082843198</v>
+        <f t="shared" si="16"/>
+        <v>10.818697577791857</v>
       </c>
       <c r="T105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>10.903589</v>
       </c>
     </row>
@@ -9830,40 +9841,40 @@
         <v>30</v>
       </c>
       <c r="E106">
-        <v>7.0805559999999996</v>
+        <v>9.7302560000000007</v>
       </c>
       <c r="F106">
         <v>8.9095630000000003</v>
       </c>
       <c r="G106">
-        <v>14.212524999999999</v>
+        <v>13.441209000000001</v>
       </c>
       <c r="J106">
-        <f>(F106-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>2.7998596990968343</v>
       </c>
       <c r="L106">
-        <f>MAX(G106,0)</f>
-        <v>14.212524999999999</v>
+        <f t="shared" si="21"/>
+        <v>13.441209000000001</v>
       </c>
       <c r="M106">
-        <f>F106</f>
+        <f t="shared" si="18"/>
         <v>8.9095630000000003</v>
       </c>
       <c r="O106">
-        <f>F106</f>
+        <f t="shared" si="19"/>
         <v>8.9095630000000003</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="3"/>
-        <v>3.1187026699041479E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.164569718412758E-3</v>
       </c>
       <c r="S106">
-        <f t="shared" si="4"/>
-        <v>8.9654083460003982</v>
+        <f t="shared" si="16"/>
+        <v>8.956087936522394</v>
       </c>
       <c r="T106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.9095630000000003</v>
       </c>
     </row>
@@ -9881,40 +9892,40 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>6.0533960000000002</v>
+        <v>8.0274110000000007</v>
       </c>
       <c r="F107">
         <v>7.4504200000000003</v>
       </c>
       <c r="G107">
-        <v>10.985486</v>
+        <v>10.491595999999999</v>
       </c>
       <c r="J107">
-        <f>(F107-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>4.5853853741498585E-2</v>
       </c>
       <c r="L107">
-        <f>MAX(G107,0)</f>
-        <v>10.985486</v>
+        <f t="shared" si="21"/>
+        <v>10.491595999999999</v>
       </c>
       <c r="M107">
-        <f>F107</f>
+        <f t="shared" si="18"/>
         <v>7.4504200000000003</v>
       </c>
       <c r="O107">
-        <f>F107</f>
+        <f t="shared" si="19"/>
         <v>7.4504200000000003</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="3"/>
-        <v>9.0071843079276306E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.3573027507152569E-2</v>
       </c>
       <c r="S107">
-        <f t="shared" si="4"/>
-        <v>7.7505397145794932</v>
+        <f t="shared" si="16"/>
+        <v>7.7216634838058837</v>
       </c>
       <c r="T107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.4504200000000003</v>
       </c>
     </row>
@@ -9932,40 +9943,40 @@
         <v>30</v>
       </c>
       <c r="E108">
-        <v>5.2026240000000001</v>
+        <v>5.8724049999999997</v>
       </c>
       <c r="F108">
         <v>5.8304580000000001</v>
       </c>
       <c r="G108">
-        <v>6.2082769999999998</v>
+        <v>5.9617440000000004</v>
       </c>
       <c r="J108">
-        <f>(F108-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>1.9763491894553484</v>
       </c>
       <c r="L108">
-        <f>MAX(G108,0)</f>
-        <v>6.2082769999999998</v>
+        <f t="shared" si="21"/>
+        <v>5.9617440000000004</v>
       </c>
       <c r="M108">
-        <f>F108</f>
+        <f t="shared" si="18"/>
         <v>5.8304580000000001</v>
       </c>
       <c r="O108">
-        <f>F108</f>
+        <f t="shared" si="19"/>
         <v>5.8304580000000001</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="3"/>
-        <v>1.4793288731987035E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.0748976487333215E-5</v>
       </c>
       <c r="S108">
-        <f t="shared" si="4"/>
-        <v>5.9520856643366429</v>
+        <f t="shared" si="16"/>
+        <v>5.8259028955569239</v>
       </c>
       <c r="T108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.8304580000000001</v>
       </c>
     </row>
@@ -9983,86 +9994,86 @@
         <v>31</v>
       </c>
       <c r="E109">
-        <v>4.841971</v>
+        <v>4.5698980000000002</v>
       </c>
       <c r="F109">
         <v>4.8333740000000001</v>
       </c>
       <c r="G109">
-        <v>3.7380429999999998</v>
+        <v>2.866276</v>
       </c>
       <c r="J109">
-        <f>(F109-F$110)^2</f>
+        <f t="shared" si="20"/>
         <v>5.7739806509440887</v>
       </c>
       <c r="L109">
-        <f>MAX(G109,0)</f>
-        <v>3.7380429999999998</v>
+        <f t="shared" si="21"/>
+        <v>2.866276</v>
       </c>
       <c r="M109">
-        <f>F109</f>
+        <f t="shared" si="18"/>
         <v>4.8333740000000001</v>
       </c>
       <c r="O109">
-        <f>F109</f>
+        <f t="shared" si="19"/>
         <v>4.8333740000000001</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="3"/>
-        <v>3.5628055236927511E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.1770486062295875E-2</v>
       </c>
       <c r="S109">
-        <f t="shared" si="4"/>
-        <v>5.022127954228587</v>
+        <f t="shared" si="16"/>
+        <v>4.530437561019319</v>
       </c>
       <c r="T109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.8333740000000001</v>
       </c>
     </row>
     <row r="110" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" ref="E110:F110" si="6">AVERAGE(E2:E109)</f>
-        <v>6.1914047222222246</v>
+        <f t="shared" ref="E110:F110" si="22">AVERAGE(E2:E109)</f>
+        <v>7.7047417870370349</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>7.2362848703703699</v>
       </c>
       <c r="G110" s="5">
         <f>AVERAGE(G2:G109)</f>
-        <v>9.4566901574074063</v>
+        <v>9.3298595370370361</v>
       </c>
       <c r="H110" s="6"/>
       <c r="J110" s="5">
-        <f t="shared" ref="J110" si="7">AVERAGE(J2:J109)</f>
+        <f t="shared" ref="J110" si="23">AVERAGE(J2:J109)</f>
         <v>5.9357965775707262</v>
       </c>
       <c r="L110" s="5">
-        <f t="shared" ref="L110" si="8">AVERAGE(L2:L109)</f>
-        <v>9.6194778611111111</v>
+        <f t="shared" ref="L110" si="24">AVERAGE(L2:L109)</f>
+        <v>9.3318011944444432</v>
       </c>
       <c r="M110" s="5">
-        <f t="shared" ref="M110" si="9">AVERAGE(M2:M109)</f>
+        <f t="shared" ref="M110" si="25">AVERAGE(M2:M109)</f>
         <v>7.2362848703703699</v>
       </c>
       <c r="O110" s="5">
-        <f t="shared" ref="O110:Q110" si="10">AVERAGE(O2:O109)</f>
+        <f t="shared" ref="O110" si="26">AVERAGE(O2:O109)</f>
         <v>7.2362848703703699</v>
       </c>
       <c r="Q110" s="5">
-        <f t="shared" ref="Q110:T110" si="11">AVERAGE(Q2:Q109)</f>
-        <v>0.59000311535872485</v>
+        <f t="shared" ref="Q110:T110" si="27">AVERAGE(Q2:Q109)</f>
+        <v>0.46701453111205971</v>
       </c>
       <c r="S110" s="5">
-        <f t="shared" si="11"/>
-        <v>7.2362848703703753</v>
+        <f t="shared" si="27"/>
+        <v>7.2362848703703735</v>
       </c>
       <c r="T110" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>7.2362848703703699</v>
       </c>
     </row>

--- a/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
+++ b/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833488CA-F76D-4573-97F1-5B4900CA785A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{495F740D-A452-4607-B474-36541C645C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FLOW_Tidbit_Cr_Stream_Temp_Anal" sheetId="1" r:id="rId1"/>
+    <sheet name="Fit water temp to air temp" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -66,12 +67,6 @@
     <t>(Tw-Tw_bar)^2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Stream temp in S Fork abv CGR degC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</t>
-  </si>
-  <si>
     <t>air temp but not lower than 0</t>
   </si>
   <si>
@@ -87,7 +82,13 @@
     <t>sim-obs</t>
   </si>
   <si>
-    <t xml:space="preserve"> Air temp for HBVCALIB=8 CGR degC</t>
+    <t xml:space="preserve"> Stream temp in Blue R near Vida degC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Air temp for HBVCALIB=34 McKenzie above Walterville deg C</t>
   </si>
 </sst>
 </file>
@@ -734,11 +735,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$O$1</c:f>
+              <c:f>'Fit water temp to air temp'!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</c:v>
+                  <c:v> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -757,333 +758,333 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$O$2:$O$109</c:f>
+              <c:f>'Fit water temp to air temp'!$O$2:$O$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5.5611240000000004</c:v>
+                  <c:v>6.0277560000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.204129</c:v>
+                  <c:v>6.2143959999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0899530000000004</c:v>
+                  <c:v>6.5663590000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3831249999999997</c:v>
+                  <c:v>7.2644799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4534450000000003</c:v>
+                  <c:v>8.4262440000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8064929999999997</c:v>
+                  <c:v>9.8885059999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.253795</c:v>
+                  <c:v>12.718325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.724527999999999</c:v>
+                  <c:v>12.646362999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3905910000000006</c:v>
+                  <c:v>8.4777419999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7608730000000001</c:v>
+                  <c:v>10.216244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7657990000000003</c:v>
+                  <c:v>7.1973070000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8019150000000002</c:v>
+                  <c:v>5.9561909999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3048380000000002</c:v>
+                  <c:v>5.3656420000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5831170000000001</c:v>
+                  <c:v>5.1297389999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5250349999999999</c:v>
+                  <c:v>5.912344</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8515620000000004</c:v>
+                  <c:v>6.5666330000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.832058</c:v>
+                  <c:v>7.677454</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7188309999999998</c:v>
+                  <c:v>9.1876390000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.470634</c:v>
+                  <c:v>11.532924</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.573588000000001</c:v>
+                  <c:v>12.244027000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.3907810000000005</c:v>
+                  <c:v>10.441041999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5293890000000001</c:v>
+                  <c:v>9.8561499999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3008189999999997</c:v>
+                  <c:v>7.0112930000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5235210000000001</c:v>
+                  <c:v>4.5103070000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1981859999999998</c:v>
+                  <c:v>5.2459680000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2563820000000003</c:v>
+                  <c:v>5.3679870000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3000590000000001</c:v>
+                  <c:v>5.4123000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.3488879999999996</c:v>
+                  <c:v>6.7007640000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.8545740000000004</c:v>
+                  <c:v>8.3082320000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.6545620000000003</c:v>
+                  <c:v>9.8178820000000009</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.81798</c:v>
+                  <c:v>12.230672999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.1575600000000001</c:v>
+                  <c:v>12.635013000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.2495150000000006</c:v>
+                  <c:v>10.685915</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6215419999999998</c:v>
+                  <c:v>9.6595440000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.709956</c:v>
+                  <c:v>7.5716700000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9356859999999996</c:v>
+                  <c:v>5.9516650000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6660560000000002</c:v>
+                  <c:v>4.5533950000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.3088790000000001</c:v>
+                  <c:v>5.4744789999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.8697699999999999</c:v>
+                  <c:v>6.4087949999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6472230000000003</c:v>
+                  <c:v>7.2206440000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.939508</c:v>
+                  <c:v>9.3150300000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.6459100000000007</c:v>
+                  <c:v>11.220304</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.247596</c:v>
+                  <c:v>13.132799</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.529299</c:v>
+                  <c:v>12.611022</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.5790260000000007</c:v>
+                  <c:v>10.935141</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.826441</c:v>
+                  <c:v>8.7769480000000009</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.7604949999999997</c:v>
+                  <c:v>6.8595550000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2154120000000002</c:v>
+                  <c:v>4.037299</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.2341430000000004</c:v>
+                  <c:v>4.8515449999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.2153099999999997</c:v>
+                  <c:v>5.3713449999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.1653010000000004</c:v>
+                  <c:v>6.6242960000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.1528090000000004</c:v>
+                  <c:v>7.853091</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.2855150000000002</c:v>
+                  <c:v>9.6087039999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.8023209999999992</c:v>
+                  <c:v>11.088483999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.490181</c:v>
+                  <c:v>12.808116999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.824233</c:v>
+                  <c:v>12.318883</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.5962580000000006</c:v>
+                  <c:v>11.641112</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.3947640000000003</c:v>
+                  <c:v>10.59234</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.7528550000000003</c:v>
+                  <c:v>7.7233270000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.0831379999999999</c:v>
+                  <c:v>7.0356180000000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1523380000000003</c:v>
+                  <c:v>6.0788659999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.0189560000000002</c:v>
+                  <c:v>6.818454</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.4329400000000003</c:v>
+                  <c:v>7.5365339999999996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.7924300000000004</c:v>
+                  <c:v>8.4580090000000006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.9587699999999995</c:v>
+                  <c:v>10.594303</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11.389341</c:v>
+                  <c:v>13.236169</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.897917</c:v>
+                  <c:v>14.036566000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.168345</c:v>
+                  <c:v>13.965273</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.3149300000000004</c:v>
+                  <c:v>11.955242</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.3287630000000004</c:v>
+                  <c:v>10.076076</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.9748169999999998</c:v>
+                  <c:v>7.7356850000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.4039159999999997</c:v>
+                  <c:v>6.5616260000000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.6272169999999999</c:v>
+                  <c:v>5.6369619999999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.3779450000000004</c:v>
+                  <c:v>6.342816</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.659497</c:v>
+                  <c:v>6.5873419999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.7848269999999999</c:v>
+                  <c:v>8.4011800000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.7718749999999996</c:v>
+                  <c:v>9.935651</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.353471000000001</c:v>
+                  <c:v>11.818369000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.011625</c:v>
+                  <c:v>13.30447</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.872294999999999</c:v>
+                  <c:v>13.42826</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.0363220000000002</c:v>
+                  <c:v>12.032812</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.2622250000000008</c:v>
+                  <c:v>9.9867939999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.2404169999999999</c:v>
+                  <c:v>8.4069409999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.67211</c:v>
+                  <c:v>5.5496970000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.6666099999999999</c:v>
+                  <c:v>4.2770169999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.7065109999999999</c:v>
+                  <c:v>5.5488460000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.946485</c:v>
+                  <c:v>6.0741759999999996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.5992629999999997</c:v>
+                  <c:v>7.1115269999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.0140260000000003</c:v>
+                  <c:v>8.7900189999999991</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7849989999999991</c:v>
+                  <c:v>10.85993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11.298373</c:v>
+                  <c:v>12.943749</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.501163</c:v>
+                  <c:v>12.343012</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.2247319999999995</c:v>
+                  <c:v>10.551356</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.2264099999999996</c:v>
+                  <c:v>9.1225149999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0619870000000002</c:v>
+                  <c:v>7.2800349999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.5872989999999998</c:v>
+                  <c:v>5.2787300000000004</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9552849999999999</c:v>
+                  <c:v>6.1034769999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2978680000000002</c:v>
+                  <c:v>5.3785959999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6569880000000001</c:v>
+                  <c:v>6.0071289999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.8367180000000003</c:v>
+                  <c:v>7.1868619999999996</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.8799700000000001</c:v>
+                  <c:v>9.8519500000000004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.157683</c:v>
+                  <c:v>10.823691</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.548427</c:v>
+                  <c:v>13.000705999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.903589</c:v>
+                  <c:v>14.031585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.9095630000000003</c:v>
+                  <c:v>10.90118</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.4504200000000003</c:v>
+                  <c:v>8.9403500000000005</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.8304580000000001</c:v>
+                  <c:v>7.1636199999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.8333740000000001</c:v>
+                  <c:v>5.9061490000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1100,7 +1101,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$S$1</c:f>
+              <c:f>'Fit water temp to air temp'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1123,333 +1124,333 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$S$2:$S$109</c:f>
+              <c:f>'Fit water temp to air temp'!$S$2:$S$109</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>5.4745362541830138</c:v>
+                  <c:v>6.6119757694297689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6392606325548797</c:v>
+                  <c:v>6.8253927777515102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6629098676913401</c:v>
+                  <c:v>6.8527127578543521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0885563422800466</c:v>
+                  <c:v>7.3411196138761259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9229542902636902</c:v>
+                  <c:v>8.3733097441389983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1901668471052247</c:v>
+                  <c:v>9.8870627578189563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.232651543814104</c:v>
+                  <c:v>12.165674392497337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.163985940002686</c:v>
+                  <c:v>12.080204017599826</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.1494149618248599</c:v>
+                  <c:v>10.844958160428053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4836042539555478</c:v>
+                  <c:v>8.8863533433813018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.0151679933374185</c:v>
+                  <c:v>6.1991628684847182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4836622205827199</c:v>
+                  <c:v>5.5975334982174996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5317855619815468</c:v>
+                  <c:v>5.7362749471435004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8862165597157619</c:v>
+                  <c:v>5.0491055432245258</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0359395958702518</c:v>
+                  <c:v>6.3040836173803632</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2240457854062514</c:v>
+                  <c:v>6.4239040071842446</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.7939550761698806</c:v>
+                  <c:v>8.144441324250387</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.7381198219138057</c:v>
+                  <c:v>10.357888110894017</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.681855672223028</c:v>
+                  <c:v>11.509146591383679</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.315962272019252</c:v>
+                  <c:v>12.210734440869057</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.307363273021767</c:v>
+                  <c:v>12.054081984757509</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.1944871335765654</c:v>
+                  <c:v>8.6050085092001396</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.956200379683624</c:v>
+                  <c:v>6.1365130681032802</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.41481582309987</c:v>
+                  <c:v>5.4691276669527769</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9989435063729539</c:v>
+                  <c:v>5.1946075575626285</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1469377740754565</c:v>
+                  <c:v>5.5147601086406404</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.2776256512809052</c:v>
+                  <c:v>5.4761416619115781</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7684275956690998</c:v>
+                  <c:v>8.1230088837251806</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.5620733108995903</c:v>
+                  <c:v>9.0204615685873755</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.3792042077498721</c:v>
+                  <c:v>9.9942955357617862</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.364273103151415</c:v>
+                  <c:v>12.27476412617836</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.8559619993003</c:v>
+                  <c:v>12.789935525394117</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.9878443575791156</c:v>
+                  <c:v>11.690666764479838</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.5014032235064789</c:v>
+                  <c:v>8.8985642480318905</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.8353079330062076</c:v>
+                  <c:v>7.0950381491882588</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.8319269823102706</c:v>
+                  <c:v>4.9702293776352278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.0313390538688054</c:v>
+                  <c:v>5.1065543093826751</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.5876549914927232</c:v>
+                  <c:v>5.7355412388175253</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.7634102238140743</c:v>
+                  <c:v>7.0054198704441557</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.3971209189501703</c:v>
+                  <c:v>7.7106670959338484</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.1035072509398933</c:v>
+                  <c:v>9.594475825608761</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.3079697561591104</c:v>
+                  <c:v>11.002496474249853</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.762466560937819</c:v>
+                  <c:v>12.717320398623972</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.039559646654965</c:v>
+                  <c:v>12.965352766712012</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.5430643046010584</c:v>
+                  <c:v>11.167841151360005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.1397367834112444</c:v>
+                  <c:v>8.477306139697049</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.2963783201183334</c:v>
+                  <c:v>6.4246083855084315</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.5140473465227089</c:v>
+                  <c:v>4.6007639279262547</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.4485408863566285</c:v>
+                  <c:v>6.3500849754969639</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.0504014866004159</c:v>
+                  <c:v>5.1470054229421995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.865068580142486</c:v>
+                  <c:v>7.1167945945769642</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.8210222324049168</c:v>
+                  <c:v>8.1683704811777851</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.3700573871877939</c:v>
+                  <c:v>9.9161407049039596</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.6664041619047101</c:v>
+                  <c:v>10.415739248014194</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.062840179882787</c:v>
+                  <c:v>13.140941863509131</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.976091442393349</c:v>
+                  <c:v>12.948441729274915</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.9842063034454149</c:v>
+                  <c:v>11.676268025008385</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.3548736483145891</c:v>
+                  <c:v>9.871776785793422</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.3205983945321851</c:v>
+                  <c:v>6.460811231621495</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.9753306100420218</c:v>
+                  <c:v>6.1036373440680274</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.8651275891880221</c:v>
+                  <c:v>6.9133983646785584</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.26240619751667</c:v>
+                  <c:v>7.4665984026186747</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.0223318005057482</c:v>
+                  <c:v>8.3220189035124665</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.6353165810618195</c:v>
+                  <c:v>7.9359233427897742</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.40039054761694</c:v>
+                  <c:v>10.005709947551324</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>10.539265055446689</c:v>
+                  <c:v>12.496516812664467</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.346956597530424</c:v>
+                  <c:v>13.288060694195789</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10.898879152568076</c:v>
+                  <c:v>12.909986430680799</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.0053077580581462</c:v>
+                  <c:v>10.688534386674192</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.5250130482481659</c:v>
+                  <c:v>10.017503816238992</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.1077883401097059</c:v>
+                  <c:v>6.252889932384754</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.552547538925392</c:v>
+                  <c:v>5.7391722013826083</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.5710650796194923</c:v>
+                  <c:v>5.7047649013164952</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8608948410563944</c:v>
+                  <c:v>7.1474334476946151</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.7844567833888769</c:v>
+                  <c:v>7.0829216504809249</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7.8597496724084959</c:v>
+                  <c:v>9.3416938303562027</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.54635632706613</c:v>
+                  <c:v>10.146381218938711</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.4657088864525694</c:v>
+                  <c:v>11.258960759570623</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.9620528011369611</c:v>
+                  <c:v>11.955753612044964</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.791781082949683</c:v>
+                  <c:v>12.801277070460465</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.7290487505520264</c:v>
+                  <c:v>10.440969923770929</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>7.0322637343261754</c:v>
+                  <c:v>8.4676134906687146</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.3651342497343872</c:v>
+                  <c:v>7.703714968947569</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.3308899652382915</c:v>
+                  <c:v>4.4348097367164501</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.3865547463574992</c:v>
+                  <c:v>4.4348097367164501</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.4753369231155977</c:v>
+                  <c:v>5.5795894947799392</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.5145657307543061</c:v>
+                  <c:v>6.813274904200342</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.1252775457664566</c:v>
+                  <c:v>7.3978461287402482</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.2564314942198713</c:v>
+                  <c:v>9.8081847591045488</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.3718028957945432</c:v>
+                  <c:v>11.167566182593241</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>10.627068004182279</c:v>
+                  <c:v>12.662217574327574</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>11.559833612571952</c:v>
+                  <c:v>13.602449899922483</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.881171487891681</c:v>
+                  <c:v>11.596244781380415</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.2399019179348656</c:v>
+                  <c:v>8.588695987112029</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.4394036913835393</c:v>
+                  <c:v>6.6771452002772955</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3581575137955237</c:v>
+                  <c:v>5.3028132666585144</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5.2299245092548743</c:v>
+                  <c:v>6.382196286360621</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.3140731532369516</c:v>
+                  <c:v>5.4705510886020443</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.2781675427602508</c:v>
+                  <c:v>6.4838953178723795</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.5968845337587112</c:v>
+                  <c:v>7.9118319542899869</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.7354811550194107</c:v>
+                  <c:v>10.404852317975561</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>9.032004956872937</c:v>
+                  <c:v>10.874564505826516</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.303964532070086</c:v>
+                  <c:v>13.276105968779564</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.818697577791857</c:v>
+                  <c:v>12.837571572829113</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.956087936522394</c:v>
+                  <c:v>10.647954496075569</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.7216634838058837</c:v>
+                  <c:v>9.1435174242134796</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.8259028955569239</c:v>
+                  <c:v>6.9393352518845912</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.530437561019319</c:v>
+                  <c:v>5.5868720425676113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,7 +1853,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$L$1</c:f>
+              <c:f>'Fit water temp to air temp'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1935,672 +1936,672 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$L$2:$L$110</c:f>
+              <c:f>'Fit water temp to air temp'!$L$2:$L$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.122166</c:v>
+                  <c:v>4.7507200000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5157689999999997</c:v>
+                  <c:v>5.2164099999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5722779999999998</c:v>
+                  <c:v>5.2760239999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5893449999999998</c:v>
+                  <c:v>6.3417599999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5831090000000003</c:v>
+                  <c:v>8.5940670000000008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.611068</c:v>
+                  <c:v>11.897176</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.491512</c:v>
+                  <c:v>16.869257000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.327438000000001</c:v>
+                  <c:v>16.682755</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.903157</c:v>
+                  <c:v>13.987367000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9227620000000005</c:v>
+                  <c:v>9.7135619999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0245220000000002</c:v>
+                  <c:v>3.8499349999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.754508</c:v>
+                  <c:v>2.53714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.869497</c:v>
+                  <c:v>2.8398829999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3269329999999999</c:v>
+                  <c:v>1.3404339999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0741550000000002</c:v>
+                  <c:v>4.0788789999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5236280000000004</c:v>
+                  <c:v>4.3403349999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.2748699999999999</c:v>
+                  <c:v>8.0946610000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.920382</c:v>
+                  <c:v>12.924548</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.175405</c:v>
+                  <c:v>15.436669999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.690580000000001</c:v>
+                  <c:v>16.967580999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.670033</c:v>
+                  <c:v>16.625755000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.2319270000000007</c:v>
+                  <c:v>9.0996489999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8836210000000002</c:v>
+                  <c:v>3.7132290000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.5900020000000001</c:v>
+                  <c:v>2.2569499999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.59629</c:v>
+                  <c:v>1.657929</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9499169999999999</c:v>
+                  <c:v>2.3565230000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2621910000000001</c:v>
+                  <c:v>2.2722549999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.2138729999999995</c:v>
+                  <c:v>8.0478939999999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.110260999999999</c:v>
+                  <c:v>10.006195</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.062766</c:v>
+                  <c:v>12.131164999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>16.806017000000001</c:v>
+                  <c:v>17.107298</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>17.980889999999999</c:v>
+                  <c:v>18.231435999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.906554</c:v>
+                  <c:v>15.832758999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.9652919999999998</c:v>
+                  <c:v>9.7402069999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.9842170000000001</c:v>
+                  <c:v>5.8047940000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1972100000000001</c:v>
+                  <c:v>1.1683209999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.6736979999999999</c:v>
+                  <c:v>1.4657910000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.0029949999999999</c:v>
+                  <c:v>2.838282</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.8124200000000004</c:v>
+                  <c:v>5.6092409999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.3266489999999997</c:v>
+                  <c:v>7.1481370000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.403998</c:v>
+                  <c:v>11.258732</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.282018000000001</c:v>
+                  <c:v>14.331125999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>17.757486</c:v>
+                  <c:v>18.072984999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.419589999999999</c:v>
+                  <c:v>18.614208000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.843768000000001</c:v>
+                  <c:v>14.691919</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>9.1011030000000002</c:v>
+                  <c:v>8.8209940000000007</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.6964639999999997</c:v>
+                  <c:v>4.3418720000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.43764799999999998</c:v>
+                  <c:v>0.36212299999999997</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.0600509999999996</c:v>
+                  <c:v>4.1792569999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.719247</c:v>
+                  <c:v>1.5540579999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.0553290000000004</c:v>
+                  <c:v>5.8522679999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.3395460000000003</c:v>
+                  <c:v>8.1468760000000007</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12.04091</c:v>
+                  <c:v>11.960626</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12.74902</c:v>
+                  <c:v>13.050782999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18.475218000000002</c:v>
+                  <c:v>18.997354999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.267935000000001</c:v>
+                  <c:v>18.577307000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>15.897861000000001</c:v>
+                  <c:v>15.80134</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>12.004629</c:v>
+                  <c:v>11.863821</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.7543369999999996</c:v>
+                  <c:v>4.4208689999999997</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.929332</c:v>
+                  <c:v>3.641492</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0554699999999997</c:v>
+                  <c:v>5.4084440000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.004753</c:v>
+                  <c:v>6.6155629999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.8205679999999997</c:v>
+                  <c:v>8.4821469999999994</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.8958089999999999</c:v>
+                  <c:v>7.6396610000000003</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.113390000000001</c:v>
+                  <c:v>12.156072</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.224153999999999</c:v>
+                  <c:v>17.591176999999998</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.154104</c:v>
+                  <c:v>19.318377999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18.083438999999998</c:v>
+                  <c:v>18.493395</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.558818</c:v>
+                  <c:v>13.646039999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.411171</c:v>
+                  <c:v>12.181806999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.2458349999999996</c:v>
+                  <c:v>3.967171</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.9191069999999999</c:v>
+                  <c:v>2.8462049999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.9633539999999998</c:v>
+                  <c:v>2.7711260000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.045356</c:v>
+                  <c:v>5.9191240000000001</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.8627099999999999</c:v>
+                  <c:v>5.7783550000000004</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.821548</c:v>
+                  <c:v>10.707145000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.46217</c:v>
+                  <c:v>12.463025999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.65893</c:v>
+                  <c:v>14.890748</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.844925999999999</c:v>
+                  <c:v>16.411196</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>17.827532000000001</c:v>
+                  <c:v>18.256184000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.898707</c:v>
+                  <c:v>13.105838</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.8443000000000005</c:v>
+                  <c:v>8.7998440000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.2502180000000003</c:v>
+                  <c:v>7.1329669999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.13300899999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.7346149999999998</c:v>
+                  <c:v>2.4979849999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.2178149999999999</c:v>
+                  <c:v>5.1899680000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.6770889999999996</c:v>
+                  <c:v>6.465541</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>11.769405000000001</c:v>
+                  <c:v>11.725059</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.434545</c:v>
+                  <c:v>14.691319</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>17.433955999999998</c:v>
+                  <c:v>17.952746999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>19.662766000000001</c:v>
+                  <c:v>20.004396</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>15.651662999999999</c:v>
+                  <c:v>15.626723999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.3404439999999997</c:v>
+                  <c:v>9.0640540000000005</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.0382179999999996</c:v>
+                  <c:v>4.8929239999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.4546190000000001</c:v>
+                  <c:v>1.8940410000000001</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.5376750000000001</c:v>
+                  <c:v>4.2493259999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.349281</c:v>
+                  <c:v>2.2600560000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6529499999999997</c:v>
+                  <c:v>4.4712399999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.8039769999999997</c:v>
+                  <c:v>7.5870920000000002</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>12.914077000000001</c:v>
+                  <c:v>13.027027</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>13.62261</c:v>
+                  <c:v>14.051970000000001</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>19.051376000000001</c:v>
+                  <c:v>19.292292</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>17.891848</c:v>
+                  <c:v>18.335381000000002</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.441209000000001</c:v>
+                  <c:v>13.557492</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.491595999999999</c:v>
+                  <c:v>10.274711</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.9617440000000004</c:v>
+                  <c:v>5.4650400000000001</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.866276</c:v>
+                  <c:v>2.5138760000000002</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.3318011944444432</c:v>
+                  <c:v>9.2876375833333356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>FLOW_Tidbit_Cr_Stream_Temp_Anal!$M$2:$M$110</c:f>
+              <c:f>'Fit water temp to air temp'!$M$2:$M$110</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>5.5611240000000004</c:v>
+                  <c:v>6.0277560000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.204129</c:v>
+                  <c:v>6.2143959999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0899530000000004</c:v>
+                  <c:v>6.5663590000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3831249999999997</c:v>
+                  <c:v>7.2644799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4534450000000003</c:v>
+                  <c:v>8.4262440000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8064929999999997</c:v>
+                  <c:v>9.8885059999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.253795</c:v>
+                  <c:v>12.718325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.724527999999999</c:v>
+                  <c:v>12.646362999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3905910000000006</c:v>
+                  <c:v>8.4777419999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7608730000000001</c:v>
+                  <c:v>10.216244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.7657990000000003</c:v>
+                  <c:v>7.1973070000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8019150000000002</c:v>
+                  <c:v>5.9561909999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3048380000000002</c:v>
+                  <c:v>5.3656420000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5831170000000001</c:v>
+                  <c:v>5.1297389999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5250349999999999</c:v>
+                  <c:v>5.912344</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8515620000000004</c:v>
+                  <c:v>6.5666330000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.832058</c:v>
+                  <c:v>7.677454</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.7188309999999998</c:v>
+                  <c:v>9.1876390000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10.470634</c:v>
+                  <c:v>11.532924</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.573588000000001</c:v>
+                  <c:v>12.244027000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.3907810000000005</c:v>
+                  <c:v>10.441041999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.5293890000000001</c:v>
+                  <c:v>9.8561499999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.3008189999999997</c:v>
+                  <c:v>7.0112930000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.5235210000000001</c:v>
+                  <c:v>4.5103070000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1981859999999998</c:v>
+                  <c:v>5.2459680000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.2563820000000003</c:v>
+                  <c:v>5.3679870000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.3000590000000001</c:v>
+                  <c:v>5.4123000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.3488879999999996</c:v>
+                  <c:v>6.7007640000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.8545740000000004</c:v>
+                  <c:v>8.3082320000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.6545620000000003</c:v>
+                  <c:v>9.8178820000000009</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.81798</c:v>
+                  <c:v>12.230672999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.1575600000000001</c:v>
+                  <c:v>12.635013000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.2495150000000006</c:v>
+                  <c:v>10.685915</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.6215419999999998</c:v>
+                  <c:v>9.6595440000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.709956</c:v>
+                  <c:v>7.5716700000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9356859999999996</c:v>
+                  <c:v>5.9516650000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6660560000000002</c:v>
+                  <c:v>4.5533950000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.3088790000000001</c:v>
+                  <c:v>5.4744789999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.8697699999999999</c:v>
+                  <c:v>6.4087949999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6472230000000003</c:v>
+                  <c:v>7.2206440000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.939508</c:v>
+                  <c:v>9.3150300000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.6459100000000007</c:v>
+                  <c:v>11.220304</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11.247596</c:v>
+                  <c:v>13.132799</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.529299</c:v>
+                  <c:v>12.611022</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.5790260000000007</c:v>
+                  <c:v>10.935141</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.826441</c:v>
+                  <c:v>8.7769480000000009</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.7604949999999997</c:v>
+                  <c:v>6.8595550000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2154120000000002</c:v>
+                  <c:v>4.037299</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.2341430000000004</c:v>
+                  <c:v>4.8515449999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.2153099999999997</c:v>
+                  <c:v>5.3713449999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.1653010000000004</c:v>
+                  <c:v>6.6242960000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.1528090000000004</c:v>
+                  <c:v>7.853091</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.2855150000000002</c:v>
+                  <c:v>9.6087039999999995</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>9.8023209999999992</c:v>
+                  <c:v>11.088483999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>11.490181</c:v>
+                  <c:v>12.808116999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>10.824233</c:v>
+                  <c:v>12.318883</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>9.5962580000000006</c:v>
+                  <c:v>11.641112</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.3947640000000003</c:v>
+                  <c:v>10.59234</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.7528550000000003</c:v>
+                  <c:v>7.7233270000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.0831379999999999</c:v>
+                  <c:v>7.0356180000000004</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1523380000000003</c:v>
+                  <c:v>6.0788659999999997</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.0189560000000002</c:v>
+                  <c:v>6.818454</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.4329400000000003</c:v>
+                  <c:v>7.5365339999999996</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.7924300000000004</c:v>
+                  <c:v>8.4580090000000006</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.9587699999999995</c:v>
+                  <c:v>10.594303</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>11.389341</c:v>
+                  <c:v>13.236169</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>11.897917</c:v>
+                  <c:v>14.036566000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>11.168345</c:v>
+                  <c:v>13.965273</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.3149300000000004</c:v>
+                  <c:v>11.955242</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.3287630000000004</c:v>
+                  <c:v>10.076076</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.9748169999999998</c:v>
+                  <c:v>7.7356850000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.4039159999999997</c:v>
+                  <c:v>6.5616260000000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.6272169999999999</c:v>
+                  <c:v>5.6369619999999996</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.3779450000000004</c:v>
+                  <c:v>6.342816</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.659497</c:v>
+                  <c:v>6.5873419999999996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.7848269999999999</c:v>
+                  <c:v>8.4011800000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.7718749999999996</c:v>
+                  <c:v>9.935651</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>10.353471000000001</c:v>
+                  <c:v>11.818369000000001</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.011625</c:v>
+                  <c:v>13.30447</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>10.872294999999999</c:v>
+                  <c:v>13.42826</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.0363220000000002</c:v>
+                  <c:v>12.032812</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.2622250000000008</c:v>
+                  <c:v>9.9867939999999997</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.2404169999999999</c:v>
+                  <c:v>8.4069409999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.67211</c:v>
+                  <c:v>5.5496970000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.6666099999999999</c:v>
+                  <c:v>4.2770169999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.7065109999999999</c:v>
+                  <c:v>5.5488460000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.946485</c:v>
+                  <c:v>6.0741759999999996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.5992629999999997</c:v>
+                  <c:v>7.1115269999999997</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.0140260000000003</c:v>
+                  <c:v>8.7900189999999991</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.7849989999999991</c:v>
+                  <c:v>10.85993</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>11.298373</c:v>
+                  <c:v>12.943749</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>10.501163</c:v>
+                  <c:v>12.343012</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9.2247319999999995</c:v>
+                  <c:v>10.551356</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.2264099999999996</c:v>
+                  <c:v>9.1225149999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.0619870000000002</c:v>
+                  <c:v>7.2800349999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.5872989999999998</c:v>
+                  <c:v>5.2787300000000004</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.9552849999999999</c:v>
+                  <c:v>6.1034769999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.2978680000000002</c:v>
+                  <c:v>5.3785959999999999</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6569880000000001</c:v>
+                  <c:v>6.0071289999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>5.8367180000000003</c:v>
+                  <c:v>7.1868619999999996</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.8799700000000001</c:v>
+                  <c:v>9.8519500000000004</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.157683</c:v>
+                  <c:v>10.823691</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>11.548427</c:v>
+                  <c:v>13.000705999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10.903589</c:v>
+                  <c:v>14.031585</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>8.9095630000000003</c:v>
+                  <c:v>10.90118</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>7.4504200000000003</c:v>
+                  <c:v>8.9403500000000005</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.8304580000000001</c:v>
+                  <c:v>7.1636199999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.8333740000000001</c:v>
+                  <c:v>5.9061490000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>7.2362848703703699</c:v>
+                  <c:v>8.691160157407408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4398,7 +4399,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F109"/>
+      <selection activeCell="G1" sqref="G1:G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4407,7 +4408,7 @@
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4421,41 +4422,41 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="str">
         <f t="shared" ref="M1:M32" si="0">F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</v>
       </c>
       <c r="O1" s="1" t="str">
         <f t="shared" ref="O1:O32" si="1">F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T1" s="1" t="str">
         <f>F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14159200_temp_SO FK MCKENZIE RIVER ABOVE COUGAR LAKE NR RAINBOW_23773037.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -4472,52 +4473,52 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>5.4295159999999996</v>
+        <v>4.891324</v>
       </c>
       <c r="F2">
-        <v>5.5611240000000004</v>
+        <v>6.0277560000000001</v>
       </c>
       <c r="G2">
-        <v>5.122166</v>
+        <v>4.7507200000000003</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I2">
         <f>SLOPE(M2:M109,L2:L109)</f>
-        <v>0.41850386905553671</v>
+        <v>0.45828127793541151</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J33" si="2">(F2-F$110)^2</f>
-        <v>2.8061639416200141</v>
+        <v>7.0937217056950645</v>
       </c>
       <c r="K2">
         <f>SLOPE(M2:M109,L2:L109)</f>
-        <v>0.41850386905553671</v>
+        <v>0.45828127793541151</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L33" si="3">MAX(G2,0)</f>
-        <v>5.122166</v>
+        <v>4.7507200000000003</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>5.5611240000000004</v>
+        <v>6.0277560000000001</v>
       </c>
       <c r="O2">
         <f t="shared" si="1"/>
-        <v>5.5611240000000004</v>
+        <v>6.0277560000000001</v>
       </c>
       <c r="Q2">
         <f>(S2-M2)^2</f>
-        <v>7.4974377256670777E-3</v>
+        <v>0.34131273899257225</v>
       </c>
       <c r="S2">
         <f>L2*I$2+I$3</f>
-        <v>5.4745362541830138</v>
+        <v>6.6119757694297689</v>
       </c>
       <c r="T2">
         <f>F2</f>
-        <v>5.5611240000000004</v>
+        <v>6.0277560000000001</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -4534,48 +4535,48 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>5.62934</v>
+        <v>5.1274309999999996</v>
       </c>
       <c r="F3">
-        <v>5.204129</v>
+        <v>6.2143959999999998</v>
       </c>
       <c r="G3">
-        <v>5.5157689999999997</v>
+        <v>5.2164099999999998</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
         <f>INTERCEPT(M2:M109,L2:L109)</f>
-        <v>3.3308899652382915</v>
+        <v>4.4348097367164501</v>
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>4.1296574814807556</v>
+        <v>6.1343606914180286</v>
       </c>
       <c r="L3">
         <f t="shared" si="3"/>
-        <v>5.5157689999999997</v>
+        <v>5.2164099999999998</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>5.204129</v>
+        <v>6.2143959999999998</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>5.204129</v>
+        <v>6.2143959999999998</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="4">(S3-M3)^2</f>
-        <v>0.18933953764987488</v>
+        <v>0.37331706242272861</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="5">L3*I$2+I$3</f>
-        <v>5.6392606325548797</v>
+        <v>6.8253927777515102</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T66" si="6">F3</f>
-        <v>5.204129</v>
+        <v>6.2143959999999998</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -4592,48 +4593,48 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>5.9064769999999998</v>
+        <v>5.5109320000000004</v>
       </c>
       <c r="F4">
-        <v>5.0899530000000004</v>
+        <v>6.5663590000000003</v>
       </c>
       <c r="G4">
-        <v>5.5722779999999998</v>
+        <v>5.2760239999999996</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I4">
         <f>RSQ(M2:M109,L2:L109)</f>
-        <v>0.92132234907160648</v>
+        <v>0.92640948738026707</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>4.6067404977675688</v>
+        <v>4.5147799585198598</v>
       </c>
       <c r="L4">
         <f t="shared" si="3"/>
-        <v>5.5722779999999998</v>
+        <v>5.2760239999999996</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>5.0899530000000004</v>
+        <v>6.5663590000000003</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>5.0899530000000004</v>
+        <v>6.5663590000000003</v>
       </c>
       <c r="Q4">
         <f t="shared" si="4"/>
-        <v>0.32827957223467136</v>
+        <v>8.1998474637308749E-2</v>
       </c>
       <c r="S4">
         <f t="shared" si="5"/>
-        <v>5.6629098676913401</v>
+        <v>6.8527127578543521</v>
       </c>
       <c r="T4">
         <f t="shared" si="6"/>
-        <v>5.0899530000000004</v>
+        <v>6.5663590000000003</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -4650,16 +4651,16 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>6.3741919999999999</v>
+        <v>5.8578989999999997</v>
       </c>
       <c r="F5">
-        <v>5.3831249999999997</v>
+        <v>7.2644799999999998</v>
       </c>
       <c r="G5">
-        <v>6.5893449999999998</v>
+        <v>6.3417599999999998</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5">
         <f>S110-T110</f>
@@ -4667,31 +4668,31 @@
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>3.4342015051511274</v>
+        <v>2.035416271540027</v>
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
-        <v>6.5893449999999998</v>
+        <v>6.3417599999999998</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>5.3831249999999997</v>
+        <v>7.2644799999999998</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>5.3831249999999997</v>
+        <v>7.2644799999999998</v>
       </c>
       <c r="Q5">
         <f t="shared" si="4"/>
-        <v>0.49763337867102869</v>
+        <v>5.8736304150816933E-3</v>
       </c>
       <c r="S5">
         <f t="shared" si="5"/>
-        <v>6.0885563422800466</v>
+        <v>7.3411196138761259</v>
       </c>
       <c r="T5">
         <f t="shared" si="6"/>
-        <v>5.3831249999999997</v>
+        <v>7.2644799999999998</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -4708,48 +4709,48 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>7.374498</v>
+        <v>6.9932160000000003</v>
       </c>
       <c r="F6">
-        <v>6.4534450000000003</v>
+        <v>8.4262440000000005</v>
       </c>
       <c r="G6">
-        <v>8.5831090000000003</v>
+        <v>8.5940670000000008</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="4">
         <f>(1/108)*SQRT(SUM(Q2:Q109))</f>
-        <v>6.5758715174552798E-2</v>
+        <v>7.1654376003599307E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>0.6128382626414971</v>
+        <v>7.0180570455506297E-2</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>8.5831090000000003</v>
+        <v>8.5940670000000008</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>6.4534450000000003</v>
+        <v>8.4262440000000005</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>6.4534450000000003</v>
+        <v>8.4262440000000005</v>
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
-        <v>0.22043897364391385</v>
+        <v>2.8020354435580458E-3</v>
       </c>
       <c r="S6">
         <f t="shared" si="5"/>
-        <v>6.9229542902636902</v>
+        <v>8.3733097441389983</v>
       </c>
       <c r="T6">
         <f t="shared" si="6"/>
-        <v>6.4534450000000003</v>
+        <v>8.4262440000000005</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -4766,41 +4767,41 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>8.5896299999999997</v>
+        <v>8.5532020000000006</v>
       </c>
       <c r="F7">
-        <v>8.8064929999999997</v>
+        <v>9.8885059999999996</v>
       </c>
       <c r="G7">
-        <v>11.611068</v>
+        <v>11.897176</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>2.46555357035498</v>
+        <v>1.433637066773763</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>11.611068</v>
+        <v>11.897176</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>8.8064929999999997</v>
+        <v>9.8885059999999996</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>8.8064929999999997</v>
+        <v>9.8885059999999996</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>0.37985792674207358</v>
+        <v>2.0829479931426293E-6</v>
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>8.1901668471052247</v>
+        <v>9.8870627578189563</v>
       </c>
       <c r="T7">
         <f t="shared" si="6"/>
-        <v>8.8064929999999997</v>
+        <v>9.8885059999999996</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -4817,41 +4818,41 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>11.274891</v>
+        <v>11.783552999999999</v>
       </c>
       <c r="F8">
-        <v>11.253795</v>
+        <v>12.718325</v>
       </c>
       <c r="G8">
-        <v>16.491512</v>
+        <v>16.869257000000001</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>16.140387641676689</v>
+        <v>16.218056669413816</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>16.491512</v>
+        <v>16.869257000000001</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>11.253795</v>
+        <v>12.718325</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>11.253795</v>
+        <v>12.718325</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>1.042733958111278</v>
+        <v>0.30542269397306265</v>
       </c>
       <c r="S8">
         <f t="shared" si="5"/>
-        <v>10.232651543814104</v>
+        <v>12.165674392497337</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>11.253795</v>
+        <v>12.718325</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -4868,41 +4869,41 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <v>11.335907000000001</v>
+        <v>12.34004</v>
       </c>
       <c r="F9">
-        <v>10.724527999999999</v>
+        <v>12.646362999999999</v>
       </c>
       <c r="G9">
-        <v>16.327438000000001</v>
+        <v>16.682755</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>12.167840131408312</v>
+        <v>15.643629526052512</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>16.327438000000001</v>
+        <v>16.682755</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>10.724527999999999</v>
+        <v>12.646362999999999</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>10.724527999999999</v>
+        <v>12.646362999999999</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>0.31420740102603201</v>
+        <v>0.3205359933523998</v>
       </c>
       <c r="S9">
         <f t="shared" si="5"/>
-        <v>10.163985940002686</v>
+        <v>12.080204017599826</v>
       </c>
       <c r="T9">
         <f t="shared" si="6"/>
-        <v>10.724527999999999</v>
+        <v>12.646362999999999</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -4919,41 +4920,41 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>9.7070430000000005</v>
+        <v>10.419921</v>
       </c>
       <c r="F10">
-        <v>9.3905910000000006</v>
+        <v>8.4777419999999992</v>
       </c>
       <c r="G10">
-        <v>13.903157</v>
+        <v>13.987367000000001</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>4.6410349001597986</v>
+        <v>4.5547309911173506E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>13.903157</v>
+        <v>13.987367000000001</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>9.3905910000000006</v>
+        <v>8.4777419999999992</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>9.3905910000000006</v>
+        <v>8.4777419999999992</v>
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>5.8165881389856906E-2</v>
+        <v>5.6037123501917376</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>9.1494149618248599</v>
+        <v>10.844958160428053</v>
       </c>
       <c r="T10">
         <f t="shared" si="6"/>
-        <v>9.3905910000000006</v>
+        <v>8.4777419999999992</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -4970,41 +4971,41 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>7.7781789999999997</v>
+        <v>9.7654530000000008</v>
       </c>
       <c r="F11">
-        <v>7.7608730000000001</v>
+        <v>10.216244</v>
       </c>
       <c r="G11">
-        <v>9.9227620000000005</v>
+        <v>9.7135619999999996</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>0.27519270574831367</v>
+        <v>2.325880726936985</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>9.9227620000000005</v>
+        <v>9.7135619999999996</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>7.7608730000000001</v>
+        <v>10.216244</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>7.7608730000000001</v>
+        <v>10.216244</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>7.6877957533062979E-2</v>
+        <v>1.7686091585617114</v>
       </c>
       <c r="S11">
         <f t="shared" si="5"/>
-        <v>7.4836042539555478</v>
+        <v>8.8863533433813018</v>
       </c>
       <c r="T11">
         <f t="shared" si="6"/>
-        <v>7.7608730000000001</v>
+        <v>10.216244</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -5021,41 +5022,41 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>5.2305520000000003</v>
+        <v>6.4215689999999999</v>
       </c>
       <c r="F12">
-        <v>5.7657990000000003</v>
+        <v>7.1973070000000003</v>
       </c>
       <c r="G12">
-        <v>4.0245220000000002</v>
+        <v>3.8499349999999999</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>2.1623286949589033</v>
+        <v>2.231597255896081</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>4.0245220000000002</v>
+        <v>3.8499349999999999</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>5.7657990000000003</v>
+        <v>7.1973070000000003</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>5.7657990000000003</v>
+        <v>7.1973070000000003</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>0.56344690816328102</v>
+        <v>0.99629170727839689</v>
       </c>
       <c r="S12">
         <f t="shared" si="5"/>
-        <v>5.0151679933374185</v>
+        <v>6.1991628684847182</v>
       </c>
       <c r="T12">
         <f t="shared" si="6"/>
-        <v>5.7657990000000003</v>
+        <v>7.1973070000000003</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -5072,41 +5073,41 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>4.5947290000000001</v>
+        <v>4.5358590000000003</v>
       </c>
       <c r="F13">
-        <v>4.8019150000000002</v>
+        <v>5.9561909999999996</v>
       </c>
       <c r="G13">
-        <v>2.754508</v>
+        <v>2.53714</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>5.926156665767051</v>
+        <v>7.4800562919697899</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>2.754508</v>
+        <v>2.53714</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>4.8019150000000002</v>
+        <v>5.9561909999999996</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>4.8019150000000002</v>
+        <v>5.9561909999999996</v>
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
-        <v>0.10128483160682404</v>
+        <v>0.12863520358486399</v>
       </c>
       <c r="S13">
         <f t="shared" si="5"/>
-        <v>4.4836622205827199</v>
+        <v>5.5975334982174996</v>
       </c>
       <c r="T13">
         <f t="shared" si="6"/>
-        <v>4.8019150000000002</v>
+        <v>5.9561909999999996</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -5123,41 +5124,41 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>4.6790120000000002</v>
+        <v>4.2176619999999998</v>
       </c>
       <c r="F14">
-        <v>4.3048380000000002</v>
+        <v>5.3656420000000002</v>
       </c>
       <c r="G14">
-        <v>2.869497</v>
+        <v>2.8398829999999999</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>8.5933807538042348</v>
+        <v>11.05907101524636</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>2.869497</v>
+        <v>2.8398829999999999</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>4.3048380000000002</v>
+        <v>5.3656420000000002</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>4.3048380000000002</v>
+        <v>5.3656420000000002</v>
       </c>
       <c r="Q14">
         <f t="shared" si="4"/>
-        <v>5.1505195889367958E-2</v>
+        <v>0.13736878150827658</v>
       </c>
       <c r="S14">
         <f t="shared" si="5"/>
-        <v>4.5317855619815468</v>
+        <v>5.7362749471435004</v>
       </c>
       <c r="T14">
         <f t="shared" si="6"/>
-        <v>4.3048380000000002</v>
+        <v>5.3656420000000002</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -5174,41 +5175,41 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>4.242286</v>
+        <v>3.948896</v>
       </c>
       <c r="F15">
-        <v>3.5831170000000001</v>
+        <v>5.1297389999999998</v>
       </c>
       <c r="G15">
-        <v>1.3269329999999999</v>
+        <v>1.3404339999999999</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>13.345635489106384</v>
+        <v>12.683720660429122</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>1.3269329999999999</v>
+        <v>1.3404339999999999</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>3.5831170000000001</v>
+        <v>5.1297389999999998</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>3.5831170000000001</v>
+        <v>5.1297389999999998</v>
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>9.1869343099888617E-2</v>
+        <v>6.5017543515622448E-3</v>
       </c>
       <c r="S15">
         <f t="shared" si="5"/>
-        <v>3.8862165597157619</v>
+        <v>5.0491055432245258</v>
       </c>
       <c r="T15">
         <f t="shared" si="6"/>
-        <v>3.5831170000000001</v>
+        <v>5.1297389999999998</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -5225,41 +5226,41 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>5.0323019999999996</v>
+        <v>4.599081</v>
       </c>
       <c r="F16">
-        <v>4.5250349999999999</v>
+        <v>5.912344</v>
       </c>
       <c r="G16">
-        <v>4.0741550000000002</v>
+        <v>4.0788789999999997</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>7.3508758595833479</v>
+        <v>7.7218192366684724</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>4.0741550000000002</v>
+        <v>4.0788789999999997</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>4.5250349999999999</v>
+        <v>5.912344</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>4.5250349999999999</v>
+        <v>5.912344</v>
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
-        <v>0.26102350608134534</v>
+        <v>0.15345992782531329</v>
       </c>
       <c r="S16">
         <f t="shared" si="5"/>
-        <v>5.0359395958702518</v>
+        <v>6.3040836173803632</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>4.5250349999999999</v>
+        <v>5.912344</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -5276,41 +5277,41 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>5.2489809999999997</v>
+        <v>4.9802590000000002</v>
       </c>
       <c r="F17">
-        <v>4.8515620000000004</v>
+        <v>6.5666330000000004</v>
       </c>
       <c r="G17">
-        <v>4.5236280000000004</v>
+        <v>4.3403349999999996</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>5.6869031684674942</v>
+        <v>4.5136156425616001</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>4.5236280000000004</v>
+        <v>4.3403349999999996</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>4.8515620000000004</v>
+        <v>6.5666330000000004</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>4.8515620000000004</v>
+        <v>6.5666330000000004</v>
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
-        <v>0.13874417039057008</v>
+        <v>2.0371565390200068E-2</v>
       </c>
       <c r="S17">
         <f t="shared" si="5"/>
-        <v>5.2240457854062514</v>
+        <v>6.4239040071842446</v>
       </c>
       <c r="T17">
         <f t="shared" si="6"/>
-        <v>4.8515620000000004</v>
+        <v>6.5666330000000004</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -5327,41 +5328,41 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>7.0568229999999996</v>
+        <v>6.556673</v>
       </c>
       <c r="F18">
-        <v>5.832058</v>
+        <v>7.677454</v>
       </c>
       <c r="G18">
-        <v>8.2748699999999999</v>
+        <v>8.0946610000000003</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>1.9718531034701638</v>
+        <v>1.0276001735656926</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>8.2748699999999999</v>
+        <v>8.0946610000000003</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>5.832058</v>
+        <v>7.677454</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>5.832058</v>
+        <v>7.677454</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
-        <v>0.92524598514416512</v>
+        <v>0.21807716101053612</v>
       </c>
       <c r="S18">
         <f t="shared" si="5"/>
-        <v>6.7939550761698806</v>
+        <v>8.144441324250387</v>
       </c>
       <c r="T18">
         <f t="shared" si="6"/>
-        <v>5.832058</v>
+        <v>7.677454</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -5378,41 +5379,41 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>9.4286290000000008</v>
+        <v>9.0292580000000005</v>
       </c>
       <c r="F19">
-        <v>7.7188309999999998</v>
+        <v>9.1876390000000008</v>
       </c>
       <c r="G19">
-        <v>12.920382</v>
+        <v>12.924548</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>0.23285076722053552</v>
+        <v>0.24649124114208051</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>12.920382</v>
+        <v>12.924548</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>7.7188309999999998</v>
+        <v>9.1876390000000008</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>7.7188309999999998</v>
+        <v>9.1876390000000008</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
-        <v>1.0389497024784342</v>
+        <v>1.3694829815482346</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>8.7381198219138057</v>
+        <v>10.357888110894017</v>
       </c>
       <c r="T19">
         <f t="shared" si="6"/>
-        <v>7.7188309999999998</v>
+        <v>9.1876390000000008</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -5429,41 +5430,41 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>10.747157</v>
+        <v>10.802398999999999</v>
       </c>
       <c r="F20">
-        <v>10.470634</v>
+        <v>11.532924</v>
       </c>
       <c r="G20">
-        <v>15.175405</v>
+        <v>15.436669999999999</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>10.461014292335948</v>
+        <v>8.0756217370666121</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>15.175405</v>
+        <v>15.436669999999999</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>10.470634</v>
+        <v>11.532924</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>10.470634</v>
+        <v>11.532924</v>
       </c>
       <c r="Q20">
         <f t="shared" si="4"/>
-        <v>0.62217125037063692</v>
+        <v>5.6536516050746156E-4</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>9.681855672223028</v>
+        <v>11.509146591383679</v>
       </c>
       <c r="T20">
         <f t="shared" si="6"/>
-        <v>10.470634</v>
+        <v>11.532924</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -5480,41 +5481,41 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>11.530892</v>
+        <v>12.162274</v>
       </c>
       <c r="F21">
-        <v>10.573588000000001</v>
+        <v>12.244027000000001</v>
       </c>
       <c r="G21">
-        <v>16.690580000000001</v>
+        <v>16.967580999999999</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>11.13759217903573</v>
+        <v>12.622862801193861</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>16.690580000000001</v>
+        <v>16.967580999999999</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>10.573588000000001</v>
+        <v>12.244027000000001</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>10.573588000000001</v>
+        <v>12.244027000000001</v>
       </c>
       <c r="Q21">
         <f t="shared" si="4"/>
-        <v>6.6371015717610657E-2</v>
+        <v>1.108394493487379E-3</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>10.315962272019252</v>
+        <v>12.210734440869057</v>
       </c>
       <c r="T21">
         <f t="shared" si="6"/>
-        <v>10.573588000000001</v>
+        <v>12.244027000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -5531,41 +5532,41 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>11.117245</v>
+        <v>11.35037</v>
       </c>
       <c r="F22">
-        <v>9.3907810000000005</v>
+        <v>10.441041999999999</v>
       </c>
       <c r="G22">
-        <v>16.670033</v>
+        <v>16.625755000000002</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>4.6418535725890582</v>
+        <v>3.0620864630352433</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>16.670033</v>
+        <v>16.625755000000002</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>9.3907810000000005</v>
+        <v>10.441041999999999</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>9.3907810000000005</v>
+        <v>10.441041999999999</v>
       </c>
       <c r="Q22">
         <f t="shared" si="4"/>
-        <v>0.84012306321774899</v>
+        <v>2.6018979924265078</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>10.307363273021767</v>
+        <v>12.054081984757509</v>
       </c>
       <c r="T22">
         <f t="shared" si="6"/>
-        <v>9.3907810000000005</v>
+        <v>10.441041999999999</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -5582,41 +5583,41 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>7.4821730000000004</v>
+        <v>9.3715519999999994</v>
       </c>
       <c r="F23">
-        <v>7.5293890000000001</v>
+        <v>9.8561499999999995</v>
       </c>
       <c r="G23">
-        <v>9.2319270000000007</v>
+        <v>9.0996489999999994</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>8.5910030805943047E-2</v>
+        <v>1.3572013333439112</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>9.2319270000000007</v>
+        <v>9.0996489999999994</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>7.5293890000000001</v>
+        <v>9.8561499999999995</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>7.5293890000000001</v>
+        <v>9.8561499999999995</v>
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
-        <v>0.11215926013390008</v>
+        <v>1.565355030000896</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>7.1944871335765654</v>
+        <v>8.6050085092001396</v>
       </c>
       <c r="T23">
         <f t="shared" si="6"/>
-        <v>7.5293890000000001</v>
+        <v>9.8561499999999995</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -5633,41 +5634,41 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <v>5.0233150000000002</v>
+        <v>6.5119009999999999</v>
       </c>
       <c r="F24">
-        <v>5.3008189999999997</v>
+        <v>7.0112930000000002</v>
       </c>
       <c r="G24">
-        <v>3.8836210000000002</v>
+        <v>3.7132290000000001</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>3.7460281353685345</v>
+        <v>2.8219536665360447</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>3.8836210000000002</v>
+        <v>3.7132290000000001</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>5.3008189999999997</v>
+        <v>7.0112930000000002</v>
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>5.3008189999999997</v>
+        <v>7.0112930000000002</v>
       </c>
       <c r="Q24">
         <f t="shared" si="4"/>
-        <v>0.1187619934687623</v>
+        <v>0.76523992924923001</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>4.956200379683624</v>
+        <v>6.1365130681032802</v>
       </c>
       <c r="T24">
         <f t="shared" si="6"/>
-        <v>5.3008189999999997</v>
+        <v>7.0112930000000002</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -5684,41 +5685,41 @@
         <v>31</v>
       </c>
       <c r="E25">
-        <v>4.3382329999999998</v>
+        <v>4.0834869999999999</v>
       </c>
       <c r="F25">
-        <v>3.5235210000000001</v>
+        <v>4.5103070000000001</v>
       </c>
       <c r="G25">
-        <v>2.5900020000000001</v>
+        <v>2.2569499999999998</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>13.784615557127568</v>
+        <v>17.479533123803492</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>2.5900020000000001</v>
+        <v>2.2569499999999998</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>3.5235210000000001</v>
+        <v>4.5103070000000001</v>
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>3.5235210000000001</v>
+        <v>4.5103070000000001</v>
       </c>
       <c r="Q25">
         <f t="shared" si="4"/>
-        <v>0.79440646168462825</v>
+        <v>0.9193370713757677</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>4.41481582309987</v>
+        <v>5.4691276669527769</v>
       </c>
       <c r="T25">
         <f t="shared" si="6"/>
-        <v>3.5235210000000001</v>
+        <v>4.5103070000000001</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -5735,41 +5736,41 @@
         <v>31</v>
       </c>
       <c r="E26">
-        <v>4.188841</v>
+        <v>3.8024610000000001</v>
       </c>
       <c r="F26">
-        <v>4.1981859999999998</v>
+        <v>5.2459680000000004</v>
       </c>
       <c r="G26">
-        <v>1.59629</v>
+        <v>1.657929</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>9.2300447461457189</v>
+        <v>11.869349001461508</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>1.59629</v>
+        <v>1.657929</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>4.1981859999999998</v>
+        <v>5.2459680000000004</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>4.1981859999999998</v>
+        <v>5.2459680000000004</v>
       </c>
       <c r="Q26">
         <f t="shared" si="4"/>
-        <v>3.9697571266723394E-2</v>
+        <v>2.6378950473625947E-3</v>
       </c>
       <c r="S26">
         <f t="shared" si="5"/>
-        <v>3.9989435063729539</v>
+        <v>5.1946075575626285</v>
       </c>
       <c r="T26">
         <f t="shared" si="6"/>
-        <v>4.1981859999999998</v>
+        <v>5.2459680000000004</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -5786,41 +5787,41 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>4.3217140000000001</v>
+        <v>3.9679000000000002</v>
       </c>
       <c r="F27">
-        <v>4.2563820000000003</v>
+        <v>5.3679870000000003</v>
       </c>
       <c r="G27">
-        <v>1.9499169999999999</v>
+        <v>2.3565230000000001</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>8.8798211168415673</v>
+        <v>11.04347983411312</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>1.9499169999999999</v>
+        <v>2.3565230000000001</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>4.2563820000000003</v>
+        <v>5.3679870000000003</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>4.2563820000000003</v>
+        <v>5.3679870000000003</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
-        <v>1.1978038588222594E-2</v>
+        <v>2.1542345420037138E-2</v>
       </c>
       <c r="S27">
         <f t="shared" si="5"/>
-        <v>4.1469377740754565</v>
+        <v>5.5147601086406404</v>
       </c>
       <c r="T27">
         <f t="shared" si="6"/>
-        <v>4.2563820000000003</v>
+        <v>5.3679870000000003</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -5837,41 +5838,41 @@
         <v>31</v>
       </c>
       <c r="E28">
-        <v>4.6069509999999996</v>
+        <v>4.1457949999999997</v>
       </c>
       <c r="F28">
-        <v>4.3000590000000001</v>
+        <v>5.4123000000000001</v>
       </c>
       <c r="G28">
-        <v>2.2621910000000001</v>
+        <v>2.2722549999999999</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>8.6214223618322361</v>
+        <v>10.750923931833732</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>2.2621910000000001</v>
+        <v>2.2722549999999999</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>4.3000590000000001</v>
+        <v>5.4123000000000001</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>4.3000590000000001</v>
+        <v>5.4123000000000001</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>5.032551347525149E-4</v>
+        <v>4.075757795632233E-3</v>
       </c>
       <c r="S28">
         <f t="shared" si="5"/>
-        <v>4.2776256512809052</v>
+        <v>5.4761416619115781</v>
       </c>
       <c r="T28">
         <f t="shared" si="6"/>
-        <v>4.3000590000000001</v>
+        <v>5.4123000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -5888,41 +5889,41 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <v>6.5429639999999996</v>
+        <v>5.938904</v>
       </c>
       <c r="F29">
-        <v>5.3488879999999996</v>
+        <v>6.7007640000000004</v>
       </c>
       <c r="G29">
-        <v>8.2138729999999995</v>
+        <v>8.0478939999999994</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>3.5622669462838683</v>
+        <v>3.9616768634221735</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>8.2138729999999995</v>
+        <v>8.0478939999999994</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>5.3488879999999996</v>
+        <v>6.7007640000000004</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>5.3488879999999996</v>
+        <v>6.7007640000000004</v>
       </c>
       <c r="Q29">
         <f t="shared" si="4"/>
-        <v>2.0150926636723923</v>
+        <v>2.0227805092824513</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>6.7684275956690998</v>
+        <v>8.1230088837251806</v>
       </c>
       <c r="T29">
         <f t="shared" si="6"/>
-        <v>5.3488879999999996</v>
+        <v>6.7007640000000004</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -5939,41 +5940,41 @@
         <v>31</v>
       </c>
       <c r="E30">
-        <v>7.729641</v>
+        <v>7.6089000000000002</v>
       </c>
       <c r="F30">
-        <v>6.8545740000000004</v>
+        <v>8.3082320000000003</v>
       </c>
       <c r="G30">
-        <v>10.110260999999999</v>
+        <v>10.006195</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>0.14570318855890507</v>
+        <v>0.14663397373543241</v>
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>10.110260999999999</v>
+        <v>10.006195</v>
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>6.8545740000000004</v>
+        <v>8.3082320000000003</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>6.8545740000000004</v>
+        <v>8.3082320000000003</v>
       </c>
       <c r="Q30">
         <f t="shared" si="4"/>
-        <v>0.50055527492339469</v>
+        <v>0.50727095837015856</v>
       </c>
       <c r="S30">
         <f t="shared" si="5"/>
-        <v>7.5620733108995903</v>
+        <v>9.0204615685873755</v>
       </c>
       <c r="T30">
         <f t="shared" si="6"/>
-        <v>6.8545740000000004</v>
+        <v>8.3082320000000003</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -5990,41 +5991,41 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>8.7047369999999997</v>
+        <v>8.6331659999999992</v>
       </c>
       <c r="F31">
-        <v>8.6545620000000003</v>
+        <v>9.8178820000000009</v>
       </c>
       <c r="G31">
-        <v>12.062766</v>
+        <v>12.131164999999999</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>2.0115100164304636</v>
+        <v>1.2695021105752478</v>
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>12.062766</v>
+        <v>12.131164999999999</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>8.6545620000000003</v>
+        <v>9.8178820000000009</v>
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>8.6545620000000003</v>
+        <v>9.8178820000000009</v>
       </c>
       <c r="Q31">
         <f t="shared" si="4"/>
-        <v>7.5821913752864789E-2</v>
+        <v>3.1121735599974706E-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="5"/>
-        <v>8.3792042077498721</v>
+        <v>9.9942955357617862</v>
       </c>
       <c r="T31">
         <f t="shared" si="6"/>
-        <v>8.6545620000000003</v>
+        <v>9.8178820000000009</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -6041,41 +6042,41 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>11.462436</v>
+        <v>11.774445</v>
       </c>
       <c r="F32">
-        <v>10.81798</v>
+        <v>12.230672999999999</v>
       </c>
       <c r="G32">
-        <v>16.806017000000001</v>
+        <v>17.107298</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>12.828540001612614</v>
+        <v>12.528151162877887</v>
       </c>
       <c r="L32">
         <f t="shared" si="3"/>
-        <v>16.806017000000001</v>
+        <v>17.107298</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>10.81798</v>
+        <v>12.230672999999999</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>10.81798</v>
+        <v>12.230672999999999</v>
       </c>
       <c r="Q32">
         <f t="shared" si="4"/>
-        <v>0.20584994824797265</v>
+        <v>1.9440274076760701E-3</v>
       </c>
       <c r="S32">
         <f t="shared" si="5"/>
-        <v>10.364273103151415</v>
+        <v>12.27476412617836</v>
       </c>
       <c r="T32">
         <f t="shared" si="6"/>
-        <v>10.81798</v>
+        <v>12.230672999999999</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -6092,41 +6093,41 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>12.089046</v>
+        <v>12.806654999999999</v>
       </c>
       <c r="F33">
-        <v>8.1575600000000001</v>
+        <v>12.635013000000001</v>
       </c>
       <c r="G33">
-        <v>17.980889999999999</v>
+        <v>18.231435999999999</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>0.8487478644740919</v>
+        <v>15.553975244025674</v>
       </c>
       <c r="L33">
         <f t="shared" si="3"/>
-        <v>17.980889999999999</v>
+        <v>18.231435999999999</v>
       </c>
       <c r="M33">
         <f t="shared" ref="M33:M64" si="7">F33</f>
-        <v>8.1575600000000001</v>
+        <v>12.635013000000001</v>
       </c>
       <c r="O33">
         <f t="shared" ref="O33:O64" si="8">F33</f>
-        <v>8.1575600000000001</v>
+        <v>12.635013000000001</v>
       </c>
       <c r="Q33">
         <f t="shared" si="4"/>
-        <v>7.2813733498278559</v>
+        <v>2.400098887449072E-2</v>
       </c>
       <c r="S33">
         <f t="shared" si="5"/>
-        <v>10.8559619993003</v>
+        <v>12.789935525394117</v>
       </c>
       <c r="T33">
         <f t="shared" si="6"/>
-        <v>8.1575600000000001</v>
+        <v>12.635013000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -6143,41 +6144,41 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>10.758958</v>
+        <v>11.520238000000001</v>
       </c>
       <c r="F34">
-        <v>9.2495150000000006</v>
+        <v>10.685915</v>
       </c>
       <c r="G34">
-        <v>15.906554</v>
+        <v>15.832758999999999</v>
       </c>
       <c r="J34">
         <f t="shared" ref="J34:J65" si="9">(F34-F$110)^2</f>
-        <v>4.0530955548485395</v>
+        <v>3.9790468820465947</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34:L65" si="10">MAX(G34,0)</f>
-        <v>15.906554</v>
+        <v>15.832758999999999</v>
       </c>
       <c r="M34">
         <f t="shared" si="7"/>
-        <v>9.2495150000000006</v>
+        <v>10.685915</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
-        <v>9.2495150000000006</v>
+        <v>10.685915</v>
       </c>
       <c r="Q34">
         <f t="shared" si="4"/>
-        <v>0.54513024026318868</v>
+        <v>1.0095261082253484</v>
       </c>
       <c r="S34">
         <f t="shared" si="5"/>
-        <v>9.9878443575791156</v>
+        <v>11.690666764479838</v>
       </c>
       <c r="T34">
         <f t="shared" si="6"/>
-        <v>9.2495150000000006</v>
+        <v>10.685915</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -6194,41 +6195,41 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <v>7.785825</v>
+        <v>9.7786620000000006</v>
       </c>
       <c r="F35">
-        <v>7.6215419999999998</v>
+        <v>9.6595440000000004</v>
       </c>
       <c r="G35">
-        <v>9.9652919999999998</v>
+        <v>9.7402069999999998</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>0.14842305593046143</v>
+        <v>0.93776726659439469</v>
       </c>
       <c r="L35">
         <f t="shared" si="10"/>
-        <v>9.9652919999999998</v>
+        <v>9.7402069999999998</v>
       </c>
       <c r="M35">
         <f t="shared" si="7"/>
-        <v>7.6215419999999998</v>
+        <v>9.6595440000000004</v>
       </c>
       <c r="O35">
         <f t="shared" si="8"/>
-        <v>7.6215419999999998</v>
+        <v>9.6595440000000004</v>
       </c>
       <c r="Q35">
         <f t="shared" si="4"/>
-        <v>1.4433325617360169E-2</v>
+        <v>0.579090182905446</v>
       </c>
       <c r="S35">
         <f t="shared" si="5"/>
-        <v>7.5014032235064789</v>
+        <v>8.8985642480318905</v>
       </c>
       <c r="T35">
         <f t="shared" si="6"/>
-        <v>7.6215419999999998</v>
+        <v>9.6595440000000004</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -6245,41 +6246,41 @@
         <v>30</v>
       </c>
       <c r="E36">
-        <v>5.806216</v>
+        <v>6.5644960000000001</v>
       </c>
       <c r="F36">
-        <v>6.709956</v>
+        <v>7.5716700000000001</v>
       </c>
       <c r="G36">
-        <v>5.9842170000000001</v>
+        <v>5.8047940000000002</v>
       </c>
       <c r="J36">
         <f t="shared" si="9"/>
-        <v>0.27702207978534965</v>
+        <v>1.2532582125320628</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>5.9842170000000001</v>
+        <v>5.8047940000000002</v>
       </c>
       <c r="M36">
         <f t="shared" si="7"/>
-        <v>6.709956</v>
+        <v>7.5716700000000001</v>
       </c>
       <c r="O36">
         <f t="shared" si="8"/>
-        <v>6.709956</v>
+        <v>7.5716700000000001</v>
       </c>
       <c r="Q36">
         <f t="shared" si="4"/>
-        <v>0.76500924109597757</v>
+        <v>0.22717792120822602</v>
       </c>
       <c r="S36">
         <f t="shared" si="5"/>
-        <v>5.8353079330062076</v>
+        <v>7.0950381491882588</v>
       </c>
       <c r="T36">
         <f t="shared" si="6"/>
-        <v>6.709956</v>
+        <v>7.5716700000000001</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -6296,41 +6297,41 @@
         <v>31</v>
       </c>
       <c r="E37">
-        <v>4.0176309999999997</v>
+        <v>3.8894739999999999</v>
       </c>
       <c r="F37">
-        <v>4.9356859999999996</v>
+        <v>5.9516650000000002</v>
       </c>
       <c r="G37">
-        <v>1.1972100000000001</v>
+        <v>1.1683209999999999</v>
       </c>
       <c r="J37">
         <f t="shared" si="9"/>
-        <v>5.2927551623494242</v>
+        <v>7.5048337174586379</v>
       </c>
       <c r="L37">
         <f t="shared" si="10"/>
-        <v>1.1972100000000001</v>
+        <v>1.1683209999999999</v>
       </c>
       <c r="M37">
         <f t="shared" si="7"/>
-        <v>4.9356859999999996</v>
+        <v>5.9516650000000002</v>
       </c>
       <c r="O37">
         <f t="shared" si="8"/>
-        <v>4.9356859999999996</v>
+        <v>5.9516650000000002</v>
       </c>
       <c r="Q37">
         <f t="shared" si="4"/>
-        <v>1.2182839691313954</v>
+        <v>0.96321588084652821</v>
       </c>
       <c r="S37">
         <f t="shared" si="5"/>
-        <v>3.8319269823102706</v>
+        <v>4.9702293776352278</v>
       </c>
       <c r="T37">
         <f t="shared" si="6"/>
-        <v>4.9356859999999996</v>
+        <v>5.9516650000000002</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -6347,41 +6348,41 @@
         <v>31</v>
       </c>
       <c r="E38">
-        <v>4.2897559999999997</v>
+        <v>3.5921910000000001</v>
       </c>
       <c r="F38">
-        <v>3.6660560000000002</v>
+        <v>4.5533950000000001</v>
       </c>
       <c r="G38">
-        <v>1.6736979999999999</v>
+        <v>1.4657910000000001</v>
       </c>
       <c r="J38">
         <f t="shared" si="9"/>
-        <v>12.746534186826086</v>
+        <v>17.121100497854751</v>
       </c>
       <c r="L38">
         <f t="shared" si="10"/>
-        <v>1.6736979999999999</v>
+        <v>1.4657910000000001</v>
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
-        <v>3.6660560000000002</v>
+        <v>4.5533950000000001</v>
       </c>
       <c r="O38">
         <f t="shared" si="8"/>
-        <v>3.6660560000000002</v>
+        <v>4.5533950000000001</v>
       </c>
       <c r="Q38">
         <f t="shared" si="4"/>
-        <v>0.13343170944372046</v>
+        <v>0.30598522155671792</v>
       </c>
       <c r="S38">
         <f t="shared" si="5"/>
-        <v>4.0313390538688054</v>
+        <v>5.1065543093826751</v>
       </c>
       <c r="T38">
         <f t="shared" si="6"/>
-        <v>3.6660560000000002</v>
+        <v>4.5533950000000001</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -6398,41 +6399,41 @@
         <v>28</v>
       </c>
       <c r="E39">
-        <v>4.611059</v>
+        <v>4.089823</v>
       </c>
       <c r="F39">
-        <v>4.3088790000000001</v>
+        <v>5.4744789999999997</v>
       </c>
       <c r="G39">
-        <v>3.0029949999999999</v>
+        <v>2.838282</v>
       </c>
       <c r="J39">
         <f t="shared" si="9"/>
-        <v>8.5697051298789031</v>
+        <v>10.347037668419864</v>
       </c>
       <c r="L39">
         <f t="shared" si="10"/>
-        <v>3.0029949999999999</v>
+        <v>2.838282</v>
       </c>
       <c r="M39">
         <f t="shared" si="7"/>
-        <v>4.3088790000000001</v>
+        <v>5.4744789999999997</v>
       </c>
       <c r="O39">
         <f t="shared" si="8"/>
-        <v>4.3088790000000001</v>
+        <v>5.4744789999999997</v>
       </c>
       <c r="Q39">
         <f t="shared" si="4"/>
-        <v>7.7716053432750787E-2</v>
+        <v>6.8153492536418808E-2</v>
       </c>
       <c r="S39">
         <f t="shared" si="5"/>
-        <v>4.5876549914927232</v>
+        <v>5.7355412388175253</v>
       </c>
       <c r="T39">
         <f t="shared" si="6"/>
-        <v>4.3088790000000001</v>
+        <v>5.4744789999999997</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -6449,41 +6450,41 @@
         <v>31</v>
       </c>
       <c r="E40">
-        <v>5.6663240000000004</v>
+        <v>5.1888930000000002</v>
       </c>
       <c r="F40">
-        <v>4.8697699999999999</v>
+        <v>6.4087949999999996</v>
       </c>
       <c r="G40">
-        <v>5.8124200000000004</v>
+        <v>5.6092409999999999</v>
       </c>
       <c r="J40">
         <f t="shared" si="9"/>
-        <v>5.6003926316840893</v>
+        <v>5.2091907117473442</v>
       </c>
       <c r="L40">
         <f t="shared" si="10"/>
-        <v>5.8124200000000004</v>
+        <v>5.6092409999999999</v>
       </c>
       <c r="M40">
         <f t="shared" si="7"/>
-        <v>4.8697699999999999</v>
+        <v>6.4087949999999996</v>
       </c>
       <c r="O40">
         <f t="shared" si="8"/>
-        <v>4.8697699999999999</v>
+        <v>6.4087949999999996</v>
       </c>
       <c r="Q40">
         <f t="shared" si="4"/>
-        <v>0.79859284961846899</v>
+        <v>0.35596123603250607</v>
       </c>
       <c r="S40">
         <f t="shared" si="5"/>
-        <v>5.7634102238140743</v>
+        <v>7.0054198704441557</v>
       </c>
       <c r="T40">
         <f t="shared" si="6"/>
-        <v>4.8697699999999999</v>
+        <v>6.4087949999999996</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -6500,41 +6501,41 @@
         <v>30</v>
       </c>
       <c r="E41">
-        <v>6.5383649999999998</v>
+        <v>6.2393809999999998</v>
       </c>
       <c r="F41">
-        <v>5.6472230000000003</v>
+        <v>7.2206440000000001</v>
       </c>
       <c r="G41">
-        <v>7.3266489999999997</v>
+        <v>7.1481370000000002</v>
       </c>
       <c r="J41">
         <f t="shared" si="9"/>
-        <v>2.5251176278649772</v>
+        <v>2.1624177691962485</v>
       </c>
       <c r="L41">
         <f t="shared" si="10"/>
-        <v>7.3266489999999997</v>
+        <v>7.1481370000000002</v>
       </c>
       <c r="M41">
         <f t="shared" si="7"/>
-        <v>5.6472230000000003</v>
+        <v>7.2206440000000001</v>
       </c>
       <c r="O41">
         <f t="shared" si="8"/>
-        <v>5.6472230000000003</v>
+        <v>7.2206440000000001</v>
       </c>
       <c r="Q41">
         <f t="shared" si="4"/>
-        <v>0.56234688884579576</v>
+        <v>0.24012263454859348</v>
       </c>
       <c r="S41">
         <f t="shared" si="5"/>
-        <v>6.3971209189501703</v>
+        <v>7.7106670959338484</v>
       </c>
       <c r="T41">
         <f t="shared" si="6"/>
-        <v>5.6472230000000003</v>
+        <v>7.2206440000000001</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -6551,41 +6552,41 @@
         <v>31</v>
       </c>
       <c r="E42">
-        <v>8.8429400000000005</v>
+        <v>8.5597930000000009</v>
       </c>
       <c r="F42">
-        <v>7.939508</v>
+        <v>9.3150300000000001</v>
       </c>
       <c r="G42">
-        <v>11.403998</v>
+        <v>11.258732</v>
       </c>
       <c r="J42">
         <f t="shared" si="9"/>
-        <v>0.49452277004609152</v>
+        <v>0.38921358049650573</v>
       </c>
       <c r="L42">
         <f t="shared" si="10"/>
-        <v>11.403998</v>
+        <v>11.258732</v>
       </c>
       <c r="M42">
         <f t="shared" si="7"/>
-        <v>7.939508</v>
+        <v>9.3150300000000001</v>
       </c>
       <c r="O42">
         <f t="shared" si="8"/>
-        <v>7.939508</v>
+        <v>9.3150300000000001</v>
       </c>
       <c r="Q42">
         <f t="shared" si="4"/>
-        <v>2.6895754308846099E-2</v>
+        <v>7.8089969450161986E-2</v>
       </c>
       <c r="S42">
         <f t="shared" si="5"/>
-        <v>8.1035072509398933</v>
+        <v>9.594475825608761</v>
       </c>
       <c r="T42">
         <f t="shared" si="6"/>
-        <v>7.939508</v>
+        <v>9.3150300000000001</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -6602,41 +6603,41 @@
         <v>30</v>
       </c>
       <c r="E43">
-        <v>10.068769</v>
+        <v>9.8807500000000008</v>
       </c>
       <c r="F43">
-        <v>9.6459100000000007</v>
+        <v>11.220304</v>
       </c>
       <c r="G43">
-        <v>14.282018000000001</v>
+        <v>14.331125999999999</v>
       </c>
       <c r="J43">
         <f t="shared" si="9"/>
-        <v>5.8062932653426147</v>
+        <v>6.3965685765240243</v>
       </c>
       <c r="L43">
         <f t="shared" si="10"/>
-        <v>14.282018000000001</v>
+        <v>14.331125999999999</v>
       </c>
       <c r="M43">
         <f t="shared" si="7"/>
-        <v>9.6459100000000007</v>
+        <v>11.220304</v>
       </c>
       <c r="O43">
         <f t="shared" si="8"/>
-        <v>9.6459100000000007</v>
+        <v>11.220304</v>
       </c>
       <c r="Q43">
         <f t="shared" si="4"/>
-        <v>0.11420360840724038</v>
+        <v>4.744011827340136E-2</v>
       </c>
       <c r="S43">
         <f t="shared" si="5"/>
-        <v>9.3079697561591104</v>
+        <v>11.002496474249853</v>
       </c>
       <c r="T43">
         <f t="shared" si="6"/>
-        <v>9.6459100000000007</v>
+        <v>11.220304</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -6653,41 +6654,41 @@
         <v>31</v>
       </c>
       <c r="E44">
-        <v>12.090405000000001</v>
+        <v>12.57972</v>
       </c>
       <c r="F44">
-        <v>11.247596</v>
+        <v>13.132799</v>
       </c>
       <c r="G44">
-        <v>17.757486</v>
+        <v>18.072984999999999</v>
       </c>
       <c r="J44">
         <f t="shared" si="9"/>
-        <v>16.090616978690537</v>
+        <v>19.728155608027262</v>
       </c>
       <c r="L44">
         <f t="shared" si="10"/>
-        <v>17.757486</v>
+        <v>18.072984999999999</v>
       </c>
       <c r="M44">
         <f t="shared" si="7"/>
-        <v>11.247596</v>
+        <v>13.132799</v>
       </c>
       <c r="O44">
         <f t="shared" si="8"/>
-        <v>11.247596</v>
+        <v>13.132799</v>
       </c>
       <c r="Q44">
         <f t="shared" si="4"/>
-        <v>0.23535057264478637</v>
+        <v>0.17262246820138064</v>
       </c>
       <c r="S44">
         <f t="shared" si="5"/>
-        <v>10.762466560937819</v>
+        <v>12.717320398623972</v>
       </c>
       <c r="T44">
         <f t="shared" si="6"/>
-        <v>11.247596</v>
+        <v>13.132799</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -6704,41 +6705,41 @@
         <v>31</v>
       </c>
       <c r="E45">
-        <v>12.180735</v>
+        <v>12.917382999999999</v>
       </c>
       <c r="F45">
-        <v>10.529299</v>
+        <v>12.611022</v>
       </c>
       <c r="G45">
-        <v>18.419589999999999</v>
+        <v>18.614208000000001</v>
       </c>
       <c r="J45">
         <f t="shared" si="9"/>
-        <v>10.84394205794039</v>
+        <v>15.365316865013392</v>
       </c>
       <c r="L45">
         <f t="shared" si="10"/>
-        <v>18.419589999999999</v>
+        <v>18.614208000000001</v>
       </c>
       <c r="M45">
         <f t="shared" si="7"/>
-        <v>10.529299</v>
+        <v>12.611022</v>
       </c>
       <c r="O45">
         <f t="shared" si="8"/>
-        <v>10.529299</v>
+        <v>12.611022</v>
       </c>
       <c r="Q45">
         <f t="shared" si="4"/>
-        <v>0.26036592752474291</v>
+        <v>0.12555029223872236</v>
       </c>
       <c r="S45">
         <f t="shared" si="5"/>
-        <v>11.039559646654965</v>
+        <v>12.965352766712012</v>
       </c>
       <c r="T45">
         <f t="shared" si="6"/>
-        <v>10.529299</v>
+        <v>12.611022</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -6755,41 +6756,41 @@
         <v>30</v>
       </c>
       <c r="E46">
-        <v>10.212038</v>
+        <v>11.136229999999999</v>
       </c>
       <c r="F46">
-        <v>9.5790260000000007</v>
+        <v>10.935141</v>
       </c>
       <c r="G46">
-        <v>14.843768000000001</v>
+        <v>14.691919</v>
       </c>
       <c r="J46">
         <f t="shared" si="9"/>
-        <v>5.4884360004583188</v>
+        <v>5.035450021922558</v>
       </c>
       <c r="L46">
         <f t="shared" si="10"/>
-        <v>14.843768000000001</v>
+        <v>14.691919</v>
       </c>
       <c r="M46">
         <f t="shared" si="7"/>
-        <v>9.5790260000000007</v>
+        <v>10.935141</v>
       </c>
       <c r="O46">
         <f t="shared" si="8"/>
-        <v>9.5790260000000007</v>
+        <v>10.935141</v>
       </c>
       <c r="Q46">
         <f t="shared" si="4"/>
-        <v>1.2932435359663105E-3</v>
+        <v>5.4149360442969183E-2</v>
       </c>
       <c r="S46">
         <f t="shared" si="5"/>
-        <v>9.5430643046010584</v>
+        <v>11.167841151360005</v>
       </c>
       <c r="T46">
         <f t="shared" si="6"/>
-        <v>9.5790260000000007</v>
+        <v>10.935141</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -6806,41 +6807,41 @@
         <v>31</v>
       </c>
       <c r="E47">
-        <v>7.3231299999999999</v>
+        <v>8.9348899999999993</v>
       </c>
       <c r="F47">
-        <v>6.826441</v>
+        <v>8.7769480000000009</v>
       </c>
       <c r="G47">
-        <v>9.1011030000000002</v>
+        <v>8.8209940000000007</v>
       </c>
       <c r="J47">
         <f t="shared" si="9"/>
-        <v>0.16797199808016461</v>
+        <v>7.3595539366914904E-3</v>
       </c>
       <c r="L47">
         <f t="shared" si="10"/>
-        <v>9.1011030000000002</v>
+        <v>8.8209940000000007</v>
       </c>
       <c r="M47">
         <f t="shared" si="7"/>
-        <v>6.826441</v>
+        <v>8.7769480000000009</v>
       </c>
       <c r="O47">
         <f t="shared" si="8"/>
-        <v>6.826441</v>
+        <v>8.7769480000000009</v>
       </c>
       <c r="Q47">
         <f t="shared" si="4"/>
-        <v>9.8154247903265379E-2</v>
+        <v>8.9785244445813692E-2</v>
       </c>
       <c r="S47">
         <f t="shared" si="5"/>
-        <v>7.1397367834112444</v>
+        <v>8.477306139697049</v>
       </c>
       <c r="T47">
         <f t="shared" si="6"/>
-        <v>6.826441</v>
+        <v>8.7769480000000009</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -6857,41 +6858,41 @@
         <v>30</v>
       </c>
       <c r="E48">
-        <v>5.3550509999999996</v>
+        <v>6.5374980000000003</v>
       </c>
       <c r="F48">
-        <v>5.7604949999999997</v>
+        <v>6.8595550000000003</v>
       </c>
       <c r="G48">
-        <v>4.6964639999999997</v>
+        <v>4.3418720000000004</v>
       </c>
       <c r="J48">
         <f t="shared" si="9"/>
-        <v>2.1779557414877941</v>
+        <v>3.3547774526414149</v>
       </c>
       <c r="L48">
         <f t="shared" si="10"/>
-        <v>4.6964639999999997</v>
+        <v>4.3418720000000004</v>
       </c>
       <c r="M48">
         <f t="shared" si="7"/>
-        <v>5.7604949999999997</v>
+        <v>6.8595550000000003</v>
       </c>
       <c r="O48">
         <f t="shared" si="8"/>
-        <v>5.7604949999999997</v>
+        <v>6.8595550000000003</v>
       </c>
       <c r="Q48">
         <f t="shared" si="4"/>
-        <v>0.21540429254438109</v>
+        <v>0.18917855745767737</v>
       </c>
       <c r="S48">
         <f t="shared" si="5"/>
-        <v>5.2963783201183334</v>
+        <v>6.4246083855084315</v>
       </c>
       <c r="T48">
         <f t="shared" si="6"/>
-        <v>5.7604949999999997</v>
+        <v>6.8595550000000003</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -6908,41 +6909,41 @@
         <v>31</v>
       </c>
       <c r="E49">
-        <v>4.1092579999999996</v>
+        <v>3.94286</v>
       </c>
       <c r="F49">
-        <v>3.2154120000000002</v>
+        <v>4.037299</v>
       </c>
       <c r="G49">
-        <v>0.43764799999999998</v>
+        <v>0.36212299999999997</v>
       </c>
       <c r="J49">
         <f t="shared" si="9"/>
-        <v>16.167418639680459</v>
+        <v>21.658423672425421</v>
       </c>
       <c r="L49">
         <f t="shared" si="10"/>
-        <v>0.43764799999999998</v>
+        <v>0.36212299999999997</v>
       </c>
       <c r="M49">
         <f t="shared" si="7"/>
-        <v>3.2154120000000002</v>
+        <v>4.037299</v>
       </c>
       <c r="O49">
         <f t="shared" si="8"/>
-        <v>3.2154120000000002</v>
+        <v>4.037299</v>
       </c>
       <c r="Q49">
         <f t="shared" si="4"/>
-        <v>8.9183070192738328E-2</v>
+        <v>0.3174927250029394</v>
       </c>
       <c r="S49">
         <f t="shared" si="5"/>
-        <v>3.5140473465227089</v>
+        <v>4.6007639279262547</v>
       </c>
       <c r="T49">
         <f t="shared" si="6"/>
-        <v>3.2154120000000002</v>
+        <v>4.037299</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -6959,41 +6960,41 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>5.2833730000000001</v>
+        <v>4.8798630000000003</v>
       </c>
       <c r="F50">
-        <v>4.2341430000000004</v>
+        <v>4.8515449999999998</v>
       </c>
       <c r="G50">
-        <v>5.0600509999999996</v>
+        <v>4.1792569999999998</v>
       </c>
       <c r="J50">
         <f t="shared" si="9"/>
-        <v>9.0128558098309011</v>
+        <v>14.742644556992715</v>
       </c>
       <c r="L50">
         <f t="shared" si="10"/>
-        <v>5.0600509999999996</v>
+        <v>4.1792569999999998</v>
       </c>
       <c r="M50">
         <f t="shared" si="7"/>
-        <v>4.2341430000000004</v>
+        <v>4.8515449999999998</v>
       </c>
       <c r="O50">
         <f t="shared" si="8"/>
-        <v>4.2341430000000004</v>
+        <v>4.8515449999999998</v>
       </c>
       <c r="Q50">
         <f t="shared" si="4"/>
-        <v>1.4747622263874456</v>
+        <v>2.245622058162442</v>
       </c>
       <c r="S50">
         <f t="shared" si="5"/>
-        <v>5.4485408863566285</v>
+        <v>6.3500849754969639</v>
       </c>
       <c r="T50">
         <f t="shared" si="6"/>
-        <v>4.2341430000000004</v>
+        <v>4.8515449999999998</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -7010,41 +7011,41 @@
         <v>28</v>
       </c>
       <c r="E51">
-        <v>4.4355120000000001</v>
+        <v>4.0763959999999999</v>
       </c>
       <c r="F51">
-        <v>4.2153099999999997</v>
+        <v>5.3713449999999998</v>
       </c>
       <c r="G51">
-        <v>1.719247</v>
+        <v>1.5540579999999999</v>
       </c>
       <c r="J51">
         <f t="shared" si="9"/>
-        <v>9.1262891674092756</v>
+        <v>11.021172679351974</v>
       </c>
       <c r="L51">
         <f t="shared" si="10"/>
-        <v>1.719247</v>
+        <v>1.5540579999999999</v>
       </c>
       <c r="M51">
         <f t="shared" si="7"/>
-        <v>4.2153099999999997</v>
+        <v>5.3713449999999998</v>
       </c>
       <c r="O51">
         <f t="shared" si="8"/>
-        <v>4.2153099999999997</v>
+        <v>5.3713449999999998</v>
       </c>
       <c r="Q51">
         <f t="shared" si="4"/>
-        <v>2.7194817791660705E-2</v>
+        <v>5.0328245834472707E-2</v>
       </c>
       <c r="S51">
         <f t="shared" si="5"/>
-        <v>4.0504014866004159</v>
+        <v>5.1470054229421995</v>
       </c>
       <c r="T51">
         <f t="shared" si="6"/>
-        <v>4.2153099999999997</v>
+        <v>5.3713449999999998</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -7061,41 +7062,41 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>5.818829</v>
+        <v>5.3521599999999996</v>
       </c>
       <c r="F52">
-        <v>5.1653010000000004</v>
+        <v>6.6242960000000002</v>
       </c>
       <c r="G52">
-        <v>6.0553290000000004</v>
+        <v>5.8522679999999996</v>
       </c>
       <c r="J52">
         <f t="shared" si="9"/>
-        <v>4.2889741913342361</v>
+        <v>4.2719274451754341</v>
       </c>
       <c r="L52">
         <f t="shared" si="10"/>
-        <v>6.0553290000000004</v>
+        <v>5.8522679999999996</v>
       </c>
       <c r="M52">
         <f t="shared" si="7"/>
-        <v>5.1653010000000004</v>
+        <v>6.6242960000000002</v>
       </c>
       <c r="O52">
         <f t="shared" si="8"/>
-        <v>5.1653010000000004</v>
+        <v>6.6242960000000002</v>
       </c>
       <c r="Q52">
         <f t="shared" si="4"/>
-        <v>0.48967466621847006</v>
+        <v>0.24255486566028475</v>
       </c>
       <c r="S52">
         <f t="shared" si="5"/>
-        <v>5.865068580142486</v>
+        <v>7.1167945945769642</v>
       </c>
       <c r="T52">
         <f t="shared" si="6"/>
-        <v>5.1653010000000004</v>
+        <v>6.6242960000000002</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -7112,41 +7113,41 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>7.0061809999999998</v>
+        <v>6.5824449999999999</v>
       </c>
       <c r="F53">
-        <v>6.1528090000000004</v>
+        <v>7.853091</v>
       </c>
       <c r="G53">
-        <v>8.3395460000000003</v>
+        <v>8.1468760000000007</v>
       </c>
       <c r="J53">
         <f t="shared" si="9"/>
-        <v>1.1739199616748297</v>
+        <v>0.7023599125975627</v>
       </c>
       <c r="L53">
         <f t="shared" si="10"/>
-        <v>8.3395460000000003</v>
+        <v>8.1468760000000007</v>
       </c>
       <c r="M53">
         <f t="shared" si="7"/>
-        <v>6.1528090000000004</v>
+        <v>7.853091</v>
       </c>
       <c r="O53">
         <f t="shared" si="8"/>
-        <v>6.1528090000000004</v>
+        <v>7.853091</v>
       </c>
       <c r="Q53">
         <f t="shared" si="4"/>
-        <v>0.44650892396102676</v>
+        <v>9.9401151251733308E-2</v>
       </c>
       <c r="S53">
         <f t="shared" si="5"/>
-        <v>6.8210222324049168</v>
+        <v>8.1683704811777851</v>
       </c>
       <c r="T53">
         <f t="shared" si="6"/>
-        <v>6.1528090000000004</v>
+        <v>7.853091</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -7163,41 +7164,41 @@
         <v>31</v>
       </c>
       <c r="E54">
-        <v>9.0441029999999998</v>
+        <v>8.6636839999999999</v>
       </c>
       <c r="F54">
-        <v>8.2855150000000002</v>
+        <v>9.6087039999999995</v>
       </c>
       <c r="G54">
-        <v>12.04091</v>
+        <v>11.960626</v>
       </c>
       <c r="J54">
         <f t="shared" si="9"/>
-        <v>1.1008838649226107</v>
+        <v>0.84188670307957825</v>
       </c>
       <c r="L54">
         <f t="shared" si="10"/>
-        <v>12.04091</v>
+        <v>11.960626</v>
       </c>
       <c r="M54">
         <f t="shared" si="7"/>
-        <v>8.2855150000000002</v>
+        <v>9.6087039999999995</v>
       </c>
       <c r="O54">
         <f t="shared" si="8"/>
-        <v>8.2855150000000002</v>
+        <v>9.6087039999999995</v>
       </c>
       <c r="Q54">
         <f t="shared" si="4"/>
-        <v>7.1474152314108278E-3</v>
+        <v>9.4517327522204667E-2</v>
       </c>
       <c r="S54">
         <f t="shared" si="5"/>
-        <v>8.3700573871877939</v>
+        <v>9.9161407049039596</v>
       </c>
       <c r="T54">
         <f t="shared" si="6"/>
-        <v>8.2855150000000002</v>
+        <v>9.6087039999999995</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -7214,41 +7215,41 @@
         <v>30</v>
       </c>
       <c r="E55">
-        <v>9.6463059999999992</v>
+        <v>9.6670999999999996</v>
       </c>
       <c r="F55">
-        <v>9.8023209999999992</v>
+        <v>11.088483999999999</v>
       </c>
       <c r="G55">
-        <v>12.74902</v>
+        <v>13.050782999999999</v>
       </c>
       <c r="J55">
         <f t="shared" si="9"/>
-        <v>6.5845414185646076</v>
+        <v>5.7471616062629076</v>
       </c>
       <c r="L55">
         <f t="shared" si="10"/>
-        <v>12.74902</v>
+        <v>13.050782999999999</v>
       </c>
       <c r="M55">
         <f t="shared" si="7"/>
-        <v>9.8023209999999992</v>
+        <v>11.088483999999999</v>
       </c>
       <c r="O55">
         <f t="shared" si="8"/>
-        <v>9.8023209999999992</v>
+        <v>11.088483999999999</v>
       </c>
       <c r="Q55">
         <f t="shared" si="4"/>
-        <v>1.2903070630683993</v>
+        <v>0.45258550132444225</v>
       </c>
       <c r="S55">
         <f t="shared" si="5"/>
-        <v>8.6664041619047101</v>
+        <v>10.415739248014194</v>
       </c>
       <c r="T55">
         <f t="shared" si="6"/>
-        <v>9.8023209999999992</v>
+        <v>11.088483999999999</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -7265,41 +7266,41 @@
         <v>31</v>
       </c>
       <c r="E56">
-        <v>12.161580000000001</v>
+        <v>12.638795</v>
       </c>
       <c r="F56">
-        <v>11.490181</v>
+        <v>12.808116999999999</v>
       </c>
       <c r="G56">
-        <v>18.475218000000002</v>
+        <v>18.997354999999999</v>
       </c>
       <c r="J56">
         <f t="shared" si="9"/>
-        <v>18.095632281677943</v>
+        <v>16.949333643769958</v>
       </c>
       <c r="L56">
         <f t="shared" si="10"/>
-        <v>18.475218000000002</v>
+        <v>18.997354999999999</v>
       </c>
       <c r="M56">
         <f t="shared" si="7"/>
-        <v>11.490181</v>
+        <v>12.808116999999999</v>
       </c>
       <c r="O56">
         <f t="shared" si="8"/>
-        <v>11.490181</v>
+        <v>12.808116999999999</v>
       </c>
       <c r="Q56">
         <f t="shared" si="4"/>
-        <v>0.1826201765384517</v>
+        <v>0.11077238976987189</v>
       </c>
       <c r="S56">
         <f t="shared" si="5"/>
-        <v>11.062840179882787</v>
+        <v>13.140941863509131</v>
       </c>
       <c r="T56">
         <f t="shared" si="6"/>
-        <v>11.490181</v>
+        <v>12.808116999999999</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -7316,41 +7317,41 @@
         <v>31</v>
       </c>
       <c r="E57">
-        <v>12.272174</v>
+        <v>13.121287000000001</v>
       </c>
       <c r="F57">
-        <v>10.824233</v>
+        <v>12.318883</v>
       </c>
       <c r="G57">
-        <v>18.267935000000001</v>
+        <v>18.577307000000001</v>
       </c>
       <c r="J57">
         <f t="shared" si="9"/>
-        <v>12.873371780912757</v>
+        <v>13.160373022668074</v>
       </c>
       <c r="L57">
         <f t="shared" si="10"/>
-        <v>18.267935000000001</v>
+        <v>18.577307000000001</v>
       </c>
       <c r="M57">
         <f t="shared" si="7"/>
-        <v>10.824233</v>
+        <v>12.318883</v>
       </c>
       <c r="O57">
         <f t="shared" si="8"/>
-        <v>10.824233</v>
+        <v>12.318883</v>
       </c>
       <c r="Q57">
         <f t="shared" si="4"/>
-        <v>2.3060986526134197E-2</v>
+        <v>0.39634419360624623</v>
       </c>
       <c r="S57">
         <f t="shared" si="5"/>
-        <v>10.976091442393349</v>
+        <v>12.948441729274915</v>
       </c>
       <c r="T57">
         <f t="shared" si="6"/>
-        <v>10.824233</v>
+        <v>12.318883</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -7367,41 +7368,41 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>10.921455999999999</v>
+        <v>11.649562</v>
       </c>
       <c r="F58">
-        <v>9.5962580000000006</v>
+        <v>11.641112</v>
       </c>
       <c r="G58">
-        <v>15.897861000000001</v>
+        <v>15.80134</v>
       </c>
       <c r="J58">
         <f t="shared" si="9"/>
-        <v>5.5694731725738738</v>
+        <v>8.702215873615426</v>
       </c>
       <c r="L58">
         <f t="shared" si="10"/>
-        <v>15.897861000000001</v>
+        <v>15.80134</v>
       </c>
       <c r="M58">
         <f t="shared" si="7"/>
-        <v>9.5962580000000006</v>
+        <v>11.641112</v>
       </c>
       <c r="O58">
         <f t="shared" si="8"/>
-        <v>9.5962580000000006</v>
+        <v>11.641112</v>
       </c>
       <c r="Q58">
         <f t="shared" si="4"/>
-        <v>0.15050388614617527</v>
+        <v>1.2359460943902145E-3</v>
       </c>
       <c r="S58">
         <f t="shared" si="5"/>
-        <v>9.9842063034454149</v>
+        <v>11.676268025008385</v>
       </c>
       <c r="T58">
         <f t="shared" si="6"/>
-        <v>9.5962580000000006</v>
+        <v>11.641112</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -7418,41 +7419,41 @@
         <v>31</v>
       </c>
       <c r="E59">
-        <v>8.5935299999999994</v>
+        <v>10.621052000000001</v>
       </c>
       <c r="F59">
-        <v>8.3947640000000003</v>
+        <v>10.59234</v>
       </c>
       <c r="G59">
-        <v>12.004629</v>
+        <v>11.863821</v>
       </c>
       <c r="J59">
         <f t="shared" si="9"/>
-        <v>1.3420738937874259</v>
+        <v>3.6144847938803935</v>
       </c>
       <c r="L59">
         <f t="shared" si="10"/>
-        <v>12.004629</v>
+        <v>11.863821</v>
       </c>
       <c r="M59">
         <f t="shared" si="7"/>
-        <v>8.3947640000000003</v>
+        <v>10.59234</v>
       </c>
       <c r="O59">
         <f t="shared" si="8"/>
-        <v>8.3947640000000003</v>
+        <v>10.59234</v>
       </c>
       <c r="Q59">
         <f t="shared" si="4"/>
-        <v>1.5912401575857895E-3</v>
+        <v>0.51921134566771499</v>
       </c>
       <c r="S59">
         <f t="shared" si="5"/>
-        <v>8.3548736483145891</v>
+        <v>9.871776785793422</v>
       </c>
       <c r="T59">
         <f t="shared" si="6"/>
-        <v>8.3947640000000003</v>
+        <v>10.59234</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -7469,41 +7470,41 @@
         <v>30</v>
       </c>
       <c r="E60">
-        <v>5.4711910000000001</v>
+        <v>6.8657409999999999</v>
       </c>
       <c r="F60">
-        <v>6.7528550000000003</v>
+        <v>7.7233270000000003</v>
       </c>
       <c r="G60">
-        <v>4.7543369999999996</v>
+        <v>4.4208689999999997</v>
       </c>
       <c r="J60">
         <f t="shared" si="9"/>
-        <v>0.23370443956631243</v>
+        <v>0.93670102057719207</v>
       </c>
       <c r="L60">
         <f t="shared" si="10"/>
-        <v>4.7543369999999996</v>
+        <v>4.4208689999999997</v>
       </c>
       <c r="M60">
         <f t="shared" si="7"/>
-        <v>6.7528550000000003</v>
+        <v>7.7233270000000003</v>
       </c>
       <c r="O60">
         <f t="shared" si="8"/>
-        <v>6.7528550000000003</v>
+        <v>7.7233270000000003</v>
       </c>
       <c r="Q60">
         <f t="shared" si="4"/>
-        <v>2.051358983906189</v>
+        <v>1.5939460654043678</v>
       </c>
       <c r="S60">
         <f t="shared" si="5"/>
-        <v>5.3205983945321851</v>
+        <v>6.460811231621495</v>
       </c>
       <c r="T60">
         <f t="shared" si="6"/>
-        <v>6.7528550000000003</v>
+        <v>7.7233270000000003</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -7520,41 +7521,41 @@
         <v>31</v>
       </c>
       <c r="E61">
-        <v>5.0601799999999999</v>
+        <v>5.1098869999999996</v>
       </c>
       <c r="F61">
-        <v>6.0831379999999999</v>
+        <v>7.0356180000000004</v>
       </c>
       <c r="G61">
-        <v>3.929332</v>
+        <v>3.641492</v>
       </c>
       <c r="J61">
         <f t="shared" si="9"/>
-        <v>1.3297477046449788</v>
+        <v>2.7408198349531738</v>
       </c>
       <c r="L61">
         <f t="shared" si="10"/>
-        <v>3.929332</v>
+        <v>3.641492</v>
       </c>
       <c r="M61">
         <f t="shared" si="7"/>
-        <v>6.0831379999999999</v>
+        <v>7.0356180000000004</v>
       </c>
       <c r="O61">
         <f t="shared" si="8"/>
-        <v>6.0831379999999999</v>
+        <v>7.0356180000000004</v>
       </c>
       <c r="Q61">
         <f t="shared" si="4"/>
-        <v>1.2272372132455078</v>
+        <v>0.86858794303139064</v>
       </c>
       <c r="S61">
         <f t="shared" si="5"/>
-        <v>4.9753306100420218</v>
+        <v>6.1036373440680274</v>
       </c>
       <c r="T61">
         <f t="shared" si="6"/>
-        <v>6.0831379999999999</v>
+        <v>7.0356180000000004</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -7571,41 +7572,41 @@
         <v>31</v>
       </c>
       <c r="E62">
-        <v>5.7708979999999999</v>
+        <v>5.286162</v>
       </c>
       <c r="F62">
-        <v>5.1523380000000003</v>
+        <v>6.0788659999999997</v>
       </c>
       <c r="G62">
-        <v>6.0554699999999997</v>
+        <v>5.4084440000000003</v>
       </c>
       <c r="J62">
         <f t="shared" si="9"/>
-        <v>4.3428345585264578</v>
+        <v>6.8240807648248811</v>
       </c>
       <c r="L62">
         <f t="shared" si="10"/>
-        <v>6.0554699999999997</v>
+        <v>5.4084440000000003</v>
       </c>
       <c r="M62">
         <f t="shared" si="7"/>
-        <v>5.1523380000000003</v>
+        <v>6.0788659999999997</v>
       </c>
       <c r="O62">
         <f t="shared" si="8"/>
-        <v>5.1523380000000003</v>
+        <v>6.0788659999999997</v>
       </c>
       <c r="Q62">
         <f t="shared" si="4"/>
-        <v>0.50806899845482889</v>
+        <v>0.696444267695987</v>
       </c>
       <c r="S62">
         <f t="shared" si="5"/>
-        <v>5.8651275891880221</v>
+        <v>6.9133983646785584</v>
       </c>
       <c r="T62">
         <f t="shared" si="6"/>
-        <v>5.1523380000000003</v>
+        <v>6.0788659999999997</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -7622,41 +7623,41 @@
         <v>28</v>
       </c>
       <c r="E63">
-        <v>6.2892950000000001</v>
+        <v>5.8979850000000003</v>
       </c>
       <c r="F63">
-        <v>6.0189560000000002</v>
+        <v>6.818454</v>
       </c>
       <c r="G63">
-        <v>7.004753</v>
+        <v>6.6155629999999999</v>
       </c>
       <c r="J63">
         <f t="shared" si="9"/>
-        <v>1.4818895786372004</v>
+        <v>3.5070283519916194</v>
       </c>
       <c r="L63">
         <f t="shared" si="10"/>
-        <v>7.004753</v>
+        <v>6.6155629999999999</v>
       </c>
       <c r="M63">
         <f t="shared" si="7"/>
-        <v>6.0189560000000002</v>
+        <v>6.818454</v>
       </c>
       <c r="O63">
         <f t="shared" si="8"/>
-        <v>6.0189560000000002</v>
+        <v>6.818454</v>
       </c>
       <c r="Q63">
         <f t="shared" si="4"/>
-        <v>5.9267998670905563E-2</v>
+        <v>0.42009116664591867</v>
       </c>
       <c r="S63">
         <f t="shared" si="5"/>
-        <v>6.26240619751667</v>
+        <v>7.4665984026186747</v>
       </c>
       <c r="T63">
         <f t="shared" si="6"/>
-        <v>6.0189560000000002</v>
+        <v>6.818454</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -7673,41 +7674,41 @@
         <v>31</v>
       </c>
       <c r="E64">
-        <v>7.2105259999999998</v>
+        <v>6.8977899999999996</v>
       </c>
       <c r="F64">
-        <v>6.4329400000000003</v>
+        <v>7.5365339999999996</v>
       </c>
       <c r="G64">
-        <v>8.8205679999999997</v>
+        <v>8.4821469999999994</v>
       </c>
       <c r="J64">
         <f t="shared" si="9"/>
-        <v>0.64536298075038601</v>
+        <v>1.3331615633693974</v>
       </c>
       <c r="L64">
         <f t="shared" si="10"/>
-        <v>8.8205679999999997</v>
+        <v>8.4821469999999994</v>
       </c>
       <c r="M64">
         <f t="shared" si="7"/>
-        <v>6.4329400000000003</v>
+        <v>7.5365339999999996</v>
       </c>
       <c r="O64">
         <f t="shared" si="8"/>
-        <v>6.4329400000000003</v>
+        <v>7.5365339999999996</v>
       </c>
       <c r="Q64">
         <f t="shared" si="4"/>
-        <v>0.34738269450340736</v>
+        <v>0.61698653364598943</v>
       </c>
       <c r="S64">
         <f t="shared" si="5"/>
-        <v>7.0223318005057482</v>
+        <v>8.3220189035124665</v>
       </c>
       <c r="T64">
         <f t="shared" si="6"/>
-        <v>6.4329400000000003</v>
+        <v>7.5365339999999996</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -7724,41 +7725,41 @@
         <v>30</v>
       </c>
       <c r="E65">
-        <v>7.0362989999999996</v>
+        <v>6.8305220000000002</v>
       </c>
       <c r="F65">
-        <v>6.7924300000000004</v>
+        <v>8.4580090000000006</v>
       </c>
       <c r="G65">
-        <v>7.8958089999999999</v>
+        <v>7.6396610000000003</v>
       </c>
       <c r="J65">
         <f t="shared" si="9"/>
-        <v>0.19700714595149754</v>
+        <v>5.4359462200413683E-2</v>
       </c>
       <c r="L65">
         <f t="shared" si="10"/>
-        <v>7.8958089999999999</v>
+        <v>7.6396610000000003</v>
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M96" si="11">F65</f>
-        <v>6.7924300000000004</v>
+        <v>8.4580090000000006</v>
       </c>
       <c r="O65">
         <f t="shared" ref="O65:O96" si="12">F65</f>
-        <v>6.7924300000000004</v>
+        <v>8.4580090000000006</v>
       </c>
       <c r="Q65">
         <f t="shared" si="4"/>
-        <v>2.4684626410444332E-2</v>
+        <v>0.27257343346463397</v>
       </c>
       <c r="S65">
         <f t="shared" si="5"/>
-        <v>6.6353165810618195</v>
+        <v>7.9359233427897742</v>
       </c>
       <c r="T65">
         <f t="shared" si="6"/>
-        <v>6.7924300000000004</v>
+        <v>8.4580090000000006</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -7775,41 +7776,41 @@
         <v>31</v>
       </c>
       <c r="E66">
-        <v>9.4376010000000008</v>
+        <v>9.5027450000000009</v>
       </c>
       <c r="F66">
-        <v>8.9587699999999995</v>
+        <v>10.594303</v>
       </c>
       <c r="G66">
-        <v>12.113390000000001</v>
+        <v>12.156072</v>
       </c>
       <c r="J66">
         <f t="shared" ref="J66:J97" si="13">(F66-F$110)^2</f>
-        <v>2.9669550217952017</v>
+        <v>3.6219526793114114</v>
       </c>
       <c r="L66">
         <f t="shared" ref="L66:L97" si="14">MAX(G66,0)</f>
-        <v>12.113390000000001</v>
+        <v>12.156072</v>
       </c>
       <c r="M66">
         <f t="shared" si="11"/>
-        <v>8.9587699999999995</v>
+        <v>10.594303</v>
       </c>
       <c r="O66">
         <f t="shared" si="12"/>
-        <v>8.9587699999999995</v>
+        <v>10.594303</v>
       </c>
       <c r="Q66">
         <f t="shared" si="4"/>
-        <v>0.31178761284360534</v>
+        <v>0.34644178139084986</v>
       </c>
       <c r="S66">
         <f t="shared" si="5"/>
-        <v>8.40039054761694</v>
+        <v>10.005709947551324</v>
       </c>
       <c r="T66">
         <f t="shared" si="6"/>
-        <v>8.9587699999999995</v>
+        <v>10.594303</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -7826,41 +7827,41 @@
         <v>30</v>
       </c>
       <c r="E67">
-        <v>11.747441</v>
+        <v>12.335012000000001</v>
       </c>
       <c r="F67">
-        <v>11.389341</v>
+        <v>13.236169</v>
       </c>
       <c r="G67">
-        <v>17.224153999999999</v>
+        <v>17.591176999999998</v>
       </c>
       <c r="J67">
         <f t="shared" si="13"/>
-        <v>17.247875215854243</v>
+        <v>20.657105379244854</v>
       </c>
       <c r="L67">
         <f t="shared" si="14"/>
-        <v>17.224153999999999</v>
+        <v>17.591176999999998</v>
       </c>
       <c r="M67">
         <f t="shared" si="11"/>
-        <v>11.389341</v>
+        <v>13.236169</v>
       </c>
       <c r="O67">
         <f t="shared" si="12"/>
-        <v>11.389341</v>
+        <v>13.236169</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q109" si="15">(S67-M67)^2</f>
-        <v>0.72262911150820319</v>
+        <v>0.54708535823023885</v>
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S109" si="16">L67*I$2+I$3</f>
-        <v>10.539265055446689</v>
+        <v>12.496516812664467</v>
       </c>
       <c r="T67">
         <f t="shared" ref="T67:T109" si="17">F67</f>
-        <v>11.389341</v>
+        <v>13.236169</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -7877,41 +7878,41 @@
         <v>31</v>
       </c>
       <c r="E68">
-        <v>12.948187000000001</v>
+        <v>13.765948</v>
       </c>
       <c r="F68">
-        <v>11.897917</v>
+        <v>14.036566000000001</v>
       </c>
       <c r="G68">
-        <v>19.154104</v>
+        <v>19.318377999999999</v>
       </c>
       <c r="J68">
         <f t="shared" si="13"/>
-        <v>21.730814111995276</v>
+        <v>28.573363622023024</v>
       </c>
       <c r="L68">
         <f t="shared" si="14"/>
-        <v>19.154104</v>
+        <v>19.318377999999999</v>
       </c>
       <c r="M68">
         <f t="shared" si="11"/>
-        <v>11.897917</v>
+        <v>14.036566000000001</v>
       </c>
       <c r="O68">
         <f t="shared" si="12"/>
-        <v>11.897917</v>
+        <v>14.036566000000001</v>
       </c>
       <c r="Q68">
         <f t="shared" si="15"/>
-        <v>0.30355736508943693</v>
+        <v>0.56026019281705686</v>
       </c>
       <c r="S68">
         <f t="shared" si="16"/>
-        <v>11.346956597530424</v>
+        <v>13.288060694195789</v>
       </c>
       <c r="T68">
         <f t="shared" si="17"/>
-        <v>11.897917</v>
+        <v>14.036566000000001</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -7928,41 +7929,41 @@
         <v>31</v>
       </c>
       <c r="E69">
-        <v>12.335387000000001</v>
+        <v>13.942228</v>
       </c>
       <c r="F69">
-        <v>11.168345</v>
+        <v>13.965273</v>
       </c>
       <c r="G69">
-        <v>18.083438999999998</v>
+        <v>18.493395</v>
       </c>
       <c r="J69">
         <f t="shared" si="13"/>
-        <v>15.461096863022986</v>
+        <v>27.816266276400111</v>
       </c>
       <c r="L69">
         <f t="shared" si="14"/>
-        <v>18.083438999999998</v>
+        <v>18.493395</v>
       </c>
       <c r="M69">
         <f t="shared" si="11"/>
-        <v>11.168345</v>
+        <v>13.965273</v>
       </c>
       <c r="O69">
         <f t="shared" si="12"/>
-        <v>11.168345</v>
+        <v>13.965273</v>
       </c>
       <c r="Q69">
         <f t="shared" si="15"/>
-        <v>7.2611842932204962E-2</v>
+        <v>1.1136297433854876</v>
       </c>
       <c r="S69">
         <f t="shared" si="16"/>
-        <v>10.898879152568076</v>
+        <v>12.909986430680799</v>
       </c>
       <c r="T69">
         <f t="shared" si="17"/>
-        <v>11.168345</v>
+        <v>13.965273</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -7979,41 +7980,41 @@
         <v>30</v>
       </c>
       <c r="E70">
-        <v>9.7056509999999996</v>
+        <v>11.338362</v>
       </c>
       <c r="F70">
-        <v>9.3149300000000004</v>
+        <v>11.955242</v>
       </c>
       <c r="G70">
-        <v>13.558818</v>
+        <v>13.646039999999999</v>
       </c>
       <c r="J70">
         <f t="shared" si="13"/>
-        <v>4.3207655749329827</v>
+        <v>10.654230275142652</v>
       </c>
       <c r="L70">
         <f t="shared" si="14"/>
-        <v>13.558818</v>
+        <v>13.646039999999999</v>
       </c>
       <c r="M70">
         <f t="shared" si="11"/>
-        <v>9.3149300000000004</v>
+        <v>11.955242</v>
       </c>
       <c r="O70">
         <f t="shared" si="12"/>
-        <v>9.3149300000000004</v>
+        <v>11.955242</v>
       </c>
       <c r="Q70">
         <f t="shared" si="15"/>
-        <v>9.5865932705100076E-2</v>
+        <v>1.6045481776575652</v>
       </c>
       <c r="S70">
         <f t="shared" si="16"/>
-        <v>9.0053077580581462</v>
+        <v>10.688534386674192</v>
       </c>
       <c r="T70">
         <f t="shared" si="17"/>
-        <v>9.3149300000000004</v>
+        <v>11.955242</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -8030,41 +8031,41 @@
         <v>31</v>
       </c>
       <c r="E71">
-        <v>8.9459579999999992</v>
+        <v>10.123279999999999</v>
       </c>
       <c r="F71">
-        <v>8.3287630000000004</v>
+        <v>10.076076</v>
       </c>
       <c r="G71">
-        <v>12.411171</v>
+        <v>12.181806999999999</v>
       </c>
       <c r="J71">
         <f t="shared" si="13"/>
-        <v>1.1935084637190556</v>
+        <v>1.9179918910639504</v>
       </c>
       <c r="L71">
         <f t="shared" si="14"/>
-        <v>12.411171</v>
+        <v>12.181806999999999</v>
       </c>
       <c r="M71">
         <f t="shared" si="11"/>
-        <v>8.3287630000000004</v>
+        <v>10.076076</v>
       </c>
       <c r="O71">
         <f t="shared" si="12"/>
-        <v>8.3287630000000004</v>
+        <v>10.076076</v>
       </c>
       <c r="Q71">
         <f t="shared" si="15"/>
-        <v>3.8514081437407283E-2</v>
+        <v>3.4307007105332933E-3</v>
       </c>
       <c r="S71">
         <f t="shared" si="16"/>
-        <v>8.5250130482481659</v>
+        <v>10.017503816238992</v>
       </c>
       <c r="T71">
         <f t="shared" si="17"/>
-        <v>8.3287630000000004</v>
+        <v>10.076076</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -8081,41 +8082,41 @@
         <v>30</v>
       </c>
       <c r="E72">
-        <v>5.0821430000000003</v>
+        <v>5.7852569999999996</v>
       </c>
       <c r="F72">
-        <v>5.9748169999999998</v>
+        <v>7.7356850000000001</v>
       </c>
       <c r="G72">
-        <v>4.2458349999999996</v>
+        <v>3.967171</v>
       </c>
       <c r="J72">
         <f t="shared" si="13"/>
-        <v>1.5913011879767569</v>
+        <v>0.91293277642271076</v>
       </c>
       <c r="L72">
         <f t="shared" si="14"/>
-        <v>4.2458349999999996</v>
+        <v>3.967171</v>
       </c>
       <c r="M72">
         <f t="shared" si="11"/>
-        <v>5.9748169999999998</v>
+        <v>7.7356850000000001</v>
       </c>
       <c r="O72">
         <f t="shared" si="12"/>
-        <v>5.9748169999999998</v>
+        <v>7.7356850000000001</v>
       </c>
       <c r="Q72">
         <f t="shared" si="15"/>
-        <v>0.75173869707115892</v>
+        <v>2.1986812125441024</v>
       </c>
       <c r="S72">
         <f t="shared" si="16"/>
-        <v>5.1077883401097059</v>
+        <v>6.252889932384754</v>
       </c>
       <c r="T72">
         <f t="shared" si="17"/>
-        <v>5.9748169999999998</v>
+        <v>7.7356850000000001</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -8132,41 +8133,41 @@
         <v>31</v>
       </c>
       <c r="E73">
-        <v>4.6347180000000003</v>
+        <v>4.7748210000000002</v>
       </c>
       <c r="F73">
-        <v>5.4039159999999997</v>
+        <v>6.5616260000000004</v>
       </c>
       <c r="G73">
-        <v>2.9191069999999999</v>
+        <v>2.8462049999999999</v>
       </c>
       <c r="J73">
         <f t="shared" si="13"/>
-        <v>3.3575756771023868</v>
+        <v>4.5349157275648775</v>
       </c>
       <c r="L73">
         <f t="shared" si="14"/>
-        <v>2.9191069999999999</v>
+        <v>2.8462049999999999</v>
       </c>
       <c r="M73">
         <f t="shared" si="11"/>
-        <v>5.4039159999999997</v>
+        <v>6.5616260000000004</v>
       </c>
       <c r="O73">
         <f t="shared" si="12"/>
-        <v>5.4039159999999997</v>
+        <v>6.5616260000000004</v>
       </c>
       <c r="Q73">
         <f t="shared" si="15"/>
-        <v>0.7248282565125459</v>
+        <v>0.67643025086017772</v>
       </c>
       <c r="S73">
         <f t="shared" si="16"/>
-        <v>4.552547538925392</v>
+        <v>5.7391722013826083</v>
       </c>
       <c r="T73">
         <f t="shared" si="17"/>
-        <v>5.4039159999999997</v>
+        <v>6.5616260000000004</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -8183,41 +8184,41 @@
         <v>31</v>
       </c>
       <c r="E74">
-        <v>4.68269</v>
+        <v>4.1133379999999997</v>
       </c>
       <c r="F74">
-        <v>4.6272169999999999</v>
+        <v>5.6369619999999996</v>
       </c>
       <c r="G74">
-        <v>2.9633539999999998</v>
+        <v>2.7711260000000002</v>
       </c>
       <c r="J74">
         <f t="shared" si="13"/>
-        <v>6.8072351521989782</v>
+        <v>9.3281263847108082</v>
       </c>
       <c r="L74">
         <f t="shared" si="14"/>
-        <v>2.9633539999999998</v>
+        <v>2.7711260000000002</v>
       </c>
       <c r="M74">
         <f t="shared" si="11"/>
-        <v>4.6272169999999999</v>
+        <v>5.6369619999999996</v>
       </c>
       <c r="O74">
         <f t="shared" si="12"/>
-        <v>4.6272169999999999</v>
+        <v>5.6369619999999996</v>
       </c>
       <c r="Q74">
         <f t="shared" si="15"/>
-        <v>3.15303816241887E-3</v>
+        <v>4.5972334269344375E-3</v>
       </c>
       <c r="S74">
         <f t="shared" si="16"/>
-        <v>4.5710650796194923</v>
+        <v>5.7047649013164952</v>
       </c>
       <c r="T74">
         <f t="shared" si="17"/>
-        <v>4.6272169999999999</v>
+        <v>5.6369619999999996</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -8234,41 +8235,41 @@
         <v>29</v>
       </c>
       <c r="E75">
-        <v>5.7543259999999998</v>
+        <v>5.2976960000000002</v>
       </c>
       <c r="F75">
-        <v>5.3779450000000004</v>
+        <v>6.342816</v>
       </c>
       <c r="G75">
-        <v>6.045356</v>
+        <v>5.9191240000000001</v>
       </c>
       <c r="J75">
         <f t="shared" si="13"/>
-        <v>3.4534270738081618</v>
+        <v>5.5147202816295087</v>
       </c>
       <c r="L75">
         <f t="shared" si="14"/>
-        <v>6.045356</v>
+        <v>5.9191240000000001</v>
       </c>
       <c r="M75">
         <f t="shared" si="11"/>
-        <v>5.3779450000000004</v>
+        <v>6.342816</v>
       </c>
       <c r="O75">
         <f t="shared" si="12"/>
-        <v>5.3779450000000004</v>
+        <v>6.342816</v>
       </c>
       <c r="Q75">
         <f t="shared" si="15"/>
-        <v>0.23324054897639618</v>
+        <v>0.64740923713459664</v>
       </c>
       <c r="S75">
         <f t="shared" si="16"/>
-        <v>5.8608948410563944</v>
+        <v>7.1474334476946151</v>
       </c>
       <c r="T75">
         <f t="shared" si="17"/>
-        <v>5.3779450000000004</v>
+        <v>6.342816</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -8285,41 +8286,41 @@
         <v>31</v>
       </c>
       <c r="E76">
-        <v>5.7626489999999997</v>
+        <v>5.3825690000000002</v>
       </c>
       <c r="F76">
-        <v>5.659497</v>
+        <v>6.5873419999999996</v>
       </c>
       <c r="G76">
-        <v>5.8627099999999999</v>
+        <v>5.7783550000000004</v>
       </c>
       <c r="J76">
         <f t="shared" si="13"/>
-        <v>2.4862599881471263</v>
+        <v>4.426050839437103</v>
       </c>
       <c r="L76">
         <f t="shared" si="14"/>
-        <v>5.8627099999999999</v>
+        <v>5.7783550000000004</v>
       </c>
       <c r="M76">
         <f t="shared" si="11"/>
-        <v>5.659497</v>
+        <v>6.5873419999999996</v>
       </c>
       <c r="O76">
         <f t="shared" si="12"/>
-        <v>5.659497</v>
+        <v>6.5873419999999996</v>
       </c>
       <c r="Q76">
         <f t="shared" si="15"/>
-        <v>1.561494746459504E-2</v>
+        <v>0.24559918997079613</v>
       </c>
       <c r="S76">
         <f t="shared" si="16"/>
-        <v>5.7844567833888769</v>
+        <v>7.0829216504809249</v>
       </c>
       <c r="T76">
         <f t="shared" si="17"/>
-        <v>5.659497</v>
+        <v>6.5873419999999996</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -8336,41 +8337,41 @@
         <v>30</v>
       </c>
       <c r="E77">
-        <v>8.3102809999999998</v>
+        <v>8.0166889999999995</v>
       </c>
       <c r="F77">
-        <v>6.7848269999999999</v>
+        <v>8.4011800000000001</v>
       </c>
       <c r="G77">
-        <v>10.821548</v>
+        <v>10.707145000000001</v>
       </c>
       <c r="J77">
         <f t="shared" si="13"/>
-        <v>0.2038142087193498</v>
+        <v>8.4088491690025066E-2</v>
       </c>
       <c r="L77">
         <f t="shared" si="14"/>
-        <v>10.821548</v>
+        <v>10.707145000000001</v>
       </c>
       <c r="M77">
         <f t="shared" si="11"/>
-        <v>6.7848269999999999</v>
+        <v>8.4011800000000001</v>
       </c>
       <c r="O77">
         <f t="shared" si="12"/>
-        <v>6.7848269999999999</v>
+        <v>8.4011800000000001</v>
       </c>
       <c r="Q77">
         <f t="shared" si="15"/>
-        <v>1.1554587516578227</v>
+        <v>0.88456626509129588</v>
       </c>
       <c r="S77">
         <f t="shared" si="16"/>
-        <v>7.8597496724084959</v>
+        <v>9.3416938303562027</v>
       </c>
       <c r="T77">
         <f t="shared" si="17"/>
-        <v>6.7848269999999999</v>
+        <v>8.4011800000000001</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -8387,41 +8388,41 @@
         <v>31</v>
       </c>
       <c r="E78">
-        <v>9.5077499999999997</v>
+        <v>9.3692679999999999</v>
       </c>
       <c r="F78">
-        <v>8.7718749999999996</v>
+        <v>9.935651</v>
       </c>
       <c r="G78">
-        <v>12.46217</v>
+        <v>12.463025999999999</v>
       </c>
       <c r="J78">
         <f t="shared" si="13"/>
-        <v>2.358037046215943</v>
+        <v>1.5487574572968197</v>
       </c>
       <c r="L78">
         <f t="shared" si="14"/>
-        <v>12.46217</v>
+        <v>12.463025999999999</v>
       </c>
       <c r="M78">
         <f t="shared" si="11"/>
-        <v>8.7718749999999996</v>
+        <v>9.935651</v>
       </c>
       <c r="O78">
         <f t="shared" si="12"/>
-        <v>8.7718749999999996</v>
+        <v>9.935651</v>
       </c>
       <c r="Q78">
         <f t="shared" si="15"/>
-        <v>5.0858671841853657E-2</v>
+        <v>4.4407225173956892E-2</v>
       </c>
       <c r="S78">
         <f t="shared" si="16"/>
-        <v>8.54635632706613</v>
+        <v>10.146381218938711</v>
       </c>
       <c r="T78">
         <f t="shared" si="17"/>
-        <v>8.7718749999999996</v>
+        <v>9.935651</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -8438,41 +8439,41 @@
         <v>30</v>
       </c>
       <c r="E79">
-        <v>10.471867</v>
+        <v>10.616182999999999</v>
       </c>
       <c r="F79">
-        <v>10.353471000000001</v>
+        <v>11.818369000000001</v>
       </c>
       <c r="G79">
-        <v>14.65893</v>
+        <v>14.890748</v>
       </c>
       <c r="J79">
         <f t="shared" si="13"/>
-        <v>9.7168493667553584</v>
+        <v>9.7794351451893018</v>
       </c>
       <c r="L79">
         <f t="shared" si="14"/>
-        <v>14.65893</v>
+        <v>14.890748</v>
       </c>
       <c r="M79">
         <f t="shared" si="11"/>
-        <v>10.353471000000001</v>
+        <v>11.818369000000001</v>
       </c>
       <c r="O79">
         <f t="shared" si="12"/>
-        <v>10.353471000000001</v>
+        <v>11.818369000000001</v>
       </c>
       <c r="Q79">
         <f t="shared" si="15"/>
-        <v>0.78812157025020246</v>
+        <v>0.31293757946029188</v>
       </c>
       <c r="S79">
         <f t="shared" si="16"/>
-        <v>9.4657088864525694</v>
+        <v>11.258960759570623</v>
       </c>
       <c r="T79">
         <f t="shared" si="17"/>
-        <v>10.353471000000001</v>
+        <v>11.818369000000001</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -8489,41 +8490,41 @@
         <v>31</v>
       </c>
       <c r="E80">
-        <v>11.121703999999999</v>
+        <v>11.944646000000001</v>
       </c>
       <c r="F80">
-        <v>11.011625</v>
+        <v>13.30447</v>
       </c>
       <c r="G80">
-        <v>15.844925999999999</v>
+        <v>16.411196</v>
       </c>
       <c r="J80">
         <f t="shared" si="13"/>
-        <v>14.253193094391875</v>
+        <v>21.282627703761687</v>
       </c>
       <c r="L80">
         <f t="shared" si="14"/>
-        <v>15.844925999999999</v>
+        <v>16.411196</v>
       </c>
       <c r="M80">
         <f t="shared" si="11"/>
-        <v>11.011625</v>
+        <v>13.30447</v>
       </c>
       <c r="O80">
         <f t="shared" si="12"/>
-        <v>11.011625</v>
+        <v>13.30447</v>
       </c>
       <c r="Q80">
         <f t="shared" si="15"/>
-        <v>1.1016018006261954</v>
+        <v>1.8190358951384806</v>
       </c>
       <c r="S80">
         <f t="shared" si="16"/>
-        <v>9.9620528011369611</v>
+        <v>11.955753612044964</v>
       </c>
       <c r="T80">
         <f t="shared" si="17"/>
-        <v>11.011625</v>
+        <v>13.30447</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -8540,41 +8541,41 @@
         <v>31</v>
       </c>
       <c r="E81">
-        <v>11.952463</v>
+        <v>13.071818</v>
       </c>
       <c r="F81">
-        <v>10.872294999999999</v>
+        <v>13.42826</v>
       </c>
       <c r="G81">
-        <v>17.827532000000001</v>
+        <v>18.256184000000001</v>
       </c>
       <c r="J81">
         <f t="shared" si="13"/>
-        <v>13.220569662769275</v>
+        <v>22.44011491869076</v>
       </c>
       <c r="L81">
         <f t="shared" si="14"/>
-        <v>17.827532000000001</v>
+        <v>18.256184000000001</v>
       </c>
       <c r="M81">
         <f t="shared" si="11"/>
-        <v>10.872294999999999</v>
+        <v>13.42826</v>
       </c>
       <c r="O81">
         <f t="shared" si="12"/>
-        <v>10.872294999999999</v>
+        <v>13.42826</v>
       </c>
       <c r="Q81">
         <f t="shared" si="15"/>
-        <v>6.482490838785231E-3</v>
+        <v>0.39310759393397759</v>
       </c>
       <c r="S81">
         <f t="shared" si="16"/>
-        <v>10.791781082949683</v>
+        <v>12.801277070460465</v>
       </c>
       <c r="T81">
         <f t="shared" si="17"/>
-        <v>10.872294999999999</v>
+        <v>13.42826</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -8591,41 +8592,41 @@
         <v>30</v>
       </c>
       <c r="E82">
-        <v>9.5066059999999997</v>
+        <v>10.615712</v>
       </c>
       <c r="F82">
-        <v>9.0363220000000002</v>
+        <v>12.032812</v>
       </c>
       <c r="G82">
-        <v>12.898707</v>
+        <v>13.105838</v>
       </c>
       <c r="J82">
         <f t="shared" si="13"/>
-        <v>3.2401336680452784</v>
+        <v>11.166637037102465</v>
       </c>
       <c r="L82">
         <f t="shared" si="14"/>
-        <v>12.898707</v>
+        <v>13.105838</v>
       </c>
       <c r="M82">
         <f t="shared" si="11"/>
-        <v>9.0363220000000002</v>
+        <v>12.032812</v>
       </c>
       <c r="O82">
         <f t="shared" si="12"/>
-        <v>9.0363220000000002</v>
+        <v>12.032812</v>
       </c>
       <c r="Q82">
         <f t="shared" si="15"/>
-        <v>9.4416849826316693E-2</v>
+        <v>2.533961195653279</v>
       </c>
       <c r="S82">
         <f t="shared" si="16"/>
-        <v>8.7290487505520264</v>
+        <v>10.440969923770929</v>
       </c>
       <c r="T82">
         <f t="shared" si="17"/>
-        <v>9.0363220000000002</v>
+        <v>12.032812</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -8642,41 +8643,41 @@
         <v>31</v>
       </c>
       <c r="E83">
-        <v>7.1048580000000001</v>
+        <v>8.3828270000000007</v>
       </c>
       <c r="F83">
-        <v>8.2622250000000008</v>
+        <v>9.9867939999999997</v>
       </c>
       <c r="G83">
-        <v>8.8443000000000005</v>
+        <v>8.7998440000000002</v>
       </c>
       <c r="J83">
         <f t="shared" si="13"/>
-        <v>1.0525531495844638</v>
+        <v>1.6786670540712447</v>
       </c>
       <c r="L83">
         <f t="shared" si="14"/>
-        <v>8.8443000000000005</v>
+        <v>8.7998440000000002</v>
       </c>
       <c r="M83">
         <f t="shared" si="11"/>
-        <v>8.2622250000000008</v>
+        <v>9.9867939999999997</v>
       </c>
       <c r="O83">
         <f t="shared" si="12"/>
-        <v>8.2622250000000008</v>
+        <v>9.9867939999999997</v>
       </c>
       <c r="Q83">
         <f t="shared" si="15"/>
-        <v>1.5128047150579587</v>
+        <v>2.3079094199320629</v>
       </c>
       <c r="S83">
         <f t="shared" si="16"/>
-        <v>7.0322637343261754</v>
+        <v>8.4676134906687146</v>
       </c>
       <c r="T83">
         <f t="shared" si="17"/>
-        <v>8.2622250000000008</v>
+        <v>9.9867939999999997</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -8693,41 +8694,41 @@
         <v>30</v>
       </c>
       <c r="E84">
-        <v>6.2943569999999998</v>
+        <v>7.0832819999999996</v>
       </c>
       <c r="F84">
-        <v>7.2404169999999999</v>
+        <v>8.4069409999999998</v>
       </c>
       <c r="G84">
-        <v>7.2502180000000003</v>
+        <v>7.1329669999999998</v>
       </c>
       <c r="J84">
         <f t="shared" si="13"/>
-        <v>1.7074495276065697E-5</v>
+        <v>8.0780529437377097E-2</v>
       </c>
       <c r="L84">
         <f t="shared" si="14"/>
-        <v>7.2502180000000003</v>
+        <v>7.1329669999999998</v>
       </c>
       <c r="M84">
         <f t="shared" si="11"/>
-        <v>7.2404169999999999</v>
+        <v>8.4069409999999998</v>
       </c>
       <c r="O84">
         <f t="shared" si="12"/>
-        <v>7.2404169999999999</v>
+        <v>8.4069409999999998</v>
       </c>
       <c r="Q84">
         <f t="shared" si="15"/>
-        <v>0.76611989291253479</v>
+        <v>0.49452685074975433</v>
       </c>
       <c r="S84">
         <f t="shared" si="16"/>
-        <v>6.3651342497343872</v>
+        <v>7.703714968947569</v>
       </c>
       <c r="T84">
         <f t="shared" si="17"/>
-        <v>7.2404169999999999</v>
+        <v>8.4069409999999998</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -8744,17 +8745,17 @@
         <v>31</v>
       </c>
       <c r="E85">
-        <v>3.6990850000000002</v>
+        <v>3.4949620000000001</v>
       </c>
       <c r="F85">
-        <v>4.67211</v>
+        <v>5.5496970000000001</v>
       </c>
       <c r="G85">
-        <v>-0.209699</v>
+        <v>-0.42491800000000002</v>
       </c>
       <c r="J85">
         <f t="shared" si="13"/>
-        <v>6.5749927658389034</v>
+        <v>9.8687907693481201</v>
       </c>
       <c r="L85">
         <f t="shared" si="14"/>
@@ -8762,23 +8763,23 @@
       </c>
       <c r="M85">
         <f t="shared" si="11"/>
-        <v>4.67211</v>
+        <v>5.5496970000000001</v>
       </c>
       <c r="O85">
         <f t="shared" si="12"/>
-        <v>4.67211</v>
+        <v>5.5496970000000001</v>
       </c>
       <c r="Q85">
         <f t="shared" si="15"/>
-        <v>1.7988711816461984</v>
+        <v>1.2429736098318838</v>
       </c>
       <c r="S85">
         <f t="shared" si="16"/>
-        <v>3.3308899652382915</v>
+        <v>4.4348097367164501</v>
       </c>
       <c r="T85">
         <f t="shared" si="17"/>
-        <v>4.67211</v>
+        <v>5.5496970000000001</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -8795,41 +8796,41 @@
         <v>31</v>
       </c>
       <c r="E86">
-        <v>3.995349</v>
+        <v>3.233365</v>
       </c>
       <c r="F86">
-        <v>3.6666099999999999</v>
+        <v>4.2770169999999998</v>
       </c>
       <c r="G86">
-        <v>0.13300899999999999</v>
+        <v>-0.44098999999999999</v>
       </c>
       <c r="J86">
         <f t="shared" si="13"/>
-        <v>12.742578680153718</v>
+        <v>19.484659814086644</v>
       </c>
       <c r="L86">
         <f t="shared" si="14"/>
-        <v>0.13300899999999999</v>
+        <v>0</v>
       </c>
       <c r="M86">
         <f t="shared" si="11"/>
-        <v>3.6666099999999999</v>
+        <v>4.2770169999999998</v>
       </c>
       <c r="O86">
         <f t="shared" si="12"/>
-        <v>3.6666099999999999</v>
+        <v>4.2770169999999998</v>
       </c>
       <c r="Q86">
         <f t="shared" si="15"/>
-        <v>7.8430945092765408E-2</v>
+        <v>2.4898547760466978E-2</v>
       </c>
       <c r="S86">
         <f t="shared" si="16"/>
-        <v>3.3865547463574992</v>
+        <v>4.4348097367164501</v>
       </c>
       <c r="T86">
         <f t="shared" si="17"/>
-        <v>3.6666099999999999</v>
+        <v>4.2770169999999998</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -8846,41 +8847,41 @@
         <v>28</v>
       </c>
       <c r="E87">
-        <v>4.6958510000000002</v>
+        <v>4.4049040000000002</v>
       </c>
       <c r="F87">
-        <v>4.7065109999999999</v>
+        <v>5.5488460000000002</v>
       </c>
       <c r="G87">
-        <v>2.7346149999999998</v>
+        <v>2.4979849999999999</v>
       </c>
       <c r="J87">
         <f t="shared" si="13"/>
-        <v>6.3997558352086816</v>
+        <v>9.8741382638430277</v>
       </c>
       <c r="L87">
         <f t="shared" si="14"/>
-        <v>2.7346149999999998</v>
+        <v>2.4979849999999999</v>
       </c>
       <c r="M87">
         <f t="shared" si="11"/>
-        <v>4.7065109999999999</v>
+        <v>5.5488460000000002</v>
       </c>
       <c r="O87">
         <f t="shared" si="12"/>
-        <v>4.7065109999999999</v>
+        <v>5.5488460000000002</v>
       </c>
       <c r="Q87">
         <f t="shared" si="15"/>
-        <v>5.3441453823355488E-2</v>
+        <v>9.4516247128413557E-4</v>
       </c>
       <c r="S87">
         <f t="shared" si="16"/>
-        <v>4.4753369231155977</v>
+        <v>5.5795894947799392</v>
       </c>
       <c r="T87">
         <f t="shared" si="17"/>
-        <v>4.7065109999999999</v>
+        <v>5.5488460000000002</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -8897,41 +8898,41 @@
         <v>31</v>
       </c>
       <c r="E88">
-        <v>5.4186959999999997</v>
+        <v>4.9875100000000003</v>
       </c>
       <c r="F88">
-        <v>4.946485</v>
+        <v>6.0741759999999996</v>
       </c>
       <c r="G88">
-        <v>5.2178149999999999</v>
+        <v>5.1899680000000004</v>
       </c>
       <c r="J88">
         <f t="shared" si="13"/>
-        <v>5.243183446348163</v>
+        <v>6.8486060801213631</v>
       </c>
       <c r="L88">
         <f t="shared" si="14"/>
-        <v>5.2178149999999999</v>
+        <v>5.1899680000000004</v>
       </c>
       <c r="M88">
         <f t="shared" si="11"/>
-        <v>4.946485</v>
+        <v>6.0741759999999996</v>
       </c>
       <c r="O88">
         <f t="shared" si="12"/>
-        <v>4.946485</v>
+        <v>6.0741759999999996</v>
       </c>
       <c r="Q88">
         <f t="shared" si="15"/>
-        <v>0.3227157166543464</v>
+        <v>0.54626719019014691</v>
       </c>
       <c r="S88">
         <f t="shared" si="16"/>
-        <v>5.5145657307543061</v>
+        <v>6.813274904200342</v>
       </c>
       <c r="T88">
         <f t="shared" si="17"/>
-        <v>4.946485</v>
+        <v>6.0741759999999996</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -8948,41 +8949,41 @@
         <v>30</v>
       </c>
       <c r="E89">
-        <v>6.0783129999999996</v>
+        <v>5.6224129999999999</v>
       </c>
       <c r="F89">
-        <v>5.5992629999999997</v>
+        <v>7.1115269999999997</v>
       </c>
       <c r="G89">
-        <v>6.6770889999999996</v>
+        <v>6.465541</v>
       </c>
       <c r="J89">
         <f t="shared" si="13"/>
-        <v>2.6798406040709053</v>
+        <v>2.4952409119808978</v>
       </c>
       <c r="L89">
         <f t="shared" si="14"/>
-        <v>6.6770889999999996</v>
+        <v>6.465541</v>
       </c>
       <c r="M89">
         <f t="shared" si="11"/>
-        <v>5.5992629999999997</v>
+        <v>7.1115269999999997</v>
       </c>
       <c r="O89">
         <f t="shared" si="12"/>
-        <v>5.5992629999999997</v>
+        <v>7.1115269999999997</v>
       </c>
       <c r="Q89">
         <f t="shared" si="15"/>
-        <v>0.27669130235789197</v>
+        <v>8.197864348257497E-2</v>
       </c>
       <c r="S89">
         <f t="shared" si="16"/>
-        <v>6.1252775457664566</v>
+        <v>7.3978461287402482</v>
       </c>
       <c r="T89">
         <f t="shared" si="17"/>
-        <v>5.5992629999999997</v>
+        <v>7.1115269999999997</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -8999,41 +9000,41 @@
         <v>31</v>
       </c>
       <c r="E90">
-        <v>8.7789099999999998</v>
+        <v>8.3056780000000003</v>
       </c>
       <c r="F90">
-        <v>7.0140260000000003</v>
+        <v>8.7900189999999991</v>
       </c>
       <c r="G90">
-        <v>11.769405000000001</v>
+        <v>11.725059</v>
       </c>
       <c r="J90">
         <f t="shared" si="13"/>
-        <v>4.9399005458312766E-2</v>
+        <v>9.773070758746713E-3</v>
       </c>
       <c r="L90">
         <f t="shared" si="14"/>
-        <v>11.769405000000001</v>
+        <v>11.725059</v>
       </c>
       <c r="M90">
         <f t="shared" si="11"/>
-        <v>7.0140260000000003</v>
+        <v>8.7900189999999991</v>
       </c>
       <c r="O90">
         <f t="shared" si="12"/>
-        <v>7.0140260000000003</v>
+        <v>8.7900189999999991</v>
       </c>
       <c r="Q90">
         <f t="shared" si="15"/>
-        <v>1.543571412067722</v>
+        <v>1.0366615130129437</v>
       </c>
       <c r="S90">
         <f t="shared" si="16"/>
-        <v>8.2564314942198713</v>
+        <v>9.8081847591045488</v>
       </c>
       <c r="T90">
         <f t="shared" si="17"/>
-        <v>7.0140260000000003</v>
+        <v>8.7900189999999991</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9050,41 +9051,41 @@
         <v>30</v>
       </c>
       <c r="E91">
-        <v>10.229964000000001</v>
+        <v>10.159817</v>
       </c>
       <c r="F91">
-        <v>9.7849989999999991</v>
+        <v>10.85993</v>
       </c>
       <c r="G91">
-        <v>14.434545</v>
+        <v>14.691319</v>
       </c>
       <c r="J91">
         <f t="shared" si="13"/>
-        <v>6.495943714573718</v>
+        <v>4.703562630139098</v>
       </c>
       <c r="L91">
         <f t="shared" si="14"/>
-        <v>14.434545</v>
+        <v>14.691319</v>
       </c>
       <c r="M91">
         <f t="shared" si="11"/>
-        <v>9.7849989999999991</v>
+        <v>10.85993</v>
       </c>
       <c r="O91">
         <f t="shared" si="12"/>
-        <v>9.7849989999999991</v>
+        <v>10.85993</v>
       </c>
       <c r="Q91">
         <f t="shared" si="15"/>
-        <v>0.17073102053056599</v>
+        <v>9.4640020840541642E-2</v>
       </c>
       <c r="S91">
         <f t="shared" si="16"/>
-        <v>9.3718028957945432</v>
+        <v>11.167566182593241</v>
       </c>
       <c r="T91">
         <f t="shared" si="17"/>
-        <v>9.7849989999999991</v>
+        <v>10.85993</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -9101,41 +9102,41 @@
         <v>31</v>
       </c>
       <c r="E92">
-        <v>11.892227999999999</v>
+        <v>12.437967</v>
       </c>
       <c r="F92">
-        <v>11.298373</v>
+        <v>12.943749</v>
       </c>
       <c r="G92">
-        <v>17.433955999999998</v>
+        <v>17.952746999999999</v>
       </c>
       <c r="J92">
         <f t="shared" si="13"/>
-        <v>16.500559972877944</v>
+        <v>18.084511864143003</v>
       </c>
       <c r="L92">
         <f t="shared" si="14"/>
-        <v>17.433955999999998</v>
+        <v>17.952746999999999</v>
       </c>
       <c r="M92">
         <f t="shared" si="11"/>
-        <v>11.298373</v>
+        <v>12.943749</v>
       </c>
       <c r="O92">
         <f t="shared" si="12"/>
-        <v>11.298373</v>
+        <v>12.943749</v>
       </c>
       <c r="Q92">
         <f t="shared" si="15"/>
-        <v>0.45065039740983021</v>
+        <v>7.9259943641148953E-2</v>
       </c>
       <c r="S92">
         <f t="shared" si="16"/>
-        <v>10.627068004182279</v>
+        <v>12.662217574327574</v>
       </c>
       <c r="T92">
         <f t="shared" si="17"/>
-        <v>11.298373</v>
+        <v>12.943749</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -9152,41 +9153,41 @@
         <v>31</v>
       </c>
       <c r="E93">
-        <v>12.658903</v>
+        <v>13.552636</v>
       </c>
       <c r="F93">
-        <v>10.501163</v>
+        <v>12.343012</v>
       </c>
       <c r="G93">
-        <v>19.662766000000001</v>
+        <v>20.004396</v>
       </c>
       <c r="J93">
         <f t="shared" si="13"/>
-        <v>10.659429201333872</v>
+        <v>13.336021880246909</v>
       </c>
       <c r="L93">
         <f t="shared" si="14"/>
-        <v>19.662766000000001</v>
+        <v>20.004396</v>
       </c>
       <c r="M93">
         <f t="shared" si="11"/>
-        <v>10.501163</v>
+        <v>12.343012</v>
       </c>
       <c r="O93">
         <f t="shared" si="12"/>
-        <v>10.501163</v>
+        <v>12.343012</v>
       </c>
       <c r="Q93">
         <f t="shared" si="15"/>
-        <v>1.1207834659234712</v>
+        <v>1.5861838237611552</v>
       </c>
       <c r="S93">
         <f t="shared" si="16"/>
-        <v>11.559833612571952</v>
+        <v>13.602449899922483</v>
       </c>
       <c r="T93">
         <f t="shared" si="17"/>
-        <v>10.501163</v>
+        <v>12.343012</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -9203,41 +9204,41 @@
         <v>30</v>
       </c>
       <c r="E94">
-        <v>10.572832999999999</v>
+        <v>11.792222000000001</v>
       </c>
       <c r="F94">
-        <v>9.2247319999999995</v>
+        <v>10.551356</v>
       </c>
       <c r="G94">
-        <v>15.651662999999999</v>
+        <v>15.626723999999999</v>
       </c>
       <c r="J94">
         <f t="shared" si="13"/>
-        <v>3.9539219873323126</v>
+        <v>3.460328572798764</v>
       </c>
       <c r="L94">
         <f t="shared" si="14"/>
-        <v>15.651662999999999</v>
+        <v>15.626723999999999</v>
       </c>
       <c r="M94">
         <f t="shared" si="11"/>
-        <v>9.2247319999999995</v>
+        <v>10.551356</v>
       </c>
       <c r="O94">
         <f t="shared" si="12"/>
-        <v>9.2247319999999995</v>
+        <v>10.551356</v>
       </c>
       <c r="Q94">
         <f t="shared" si="15"/>
-        <v>0.43091280126349307</v>
+        <v>1.0917925654546483</v>
       </c>
       <c r="S94">
         <f t="shared" si="16"/>
-        <v>9.881171487891681</v>
+        <v>11.596244781380415</v>
       </c>
       <c r="T94">
         <f t="shared" si="17"/>
-        <v>9.2247319999999995</v>
+        <v>10.551356</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -9254,41 +9255,41 @@
         <v>31</v>
       </c>
       <c r="E95">
-        <v>7.3501329999999996</v>
+        <v>9.1893139999999995</v>
       </c>
       <c r="F95">
-        <v>7.2264099999999996</v>
+        <v>9.1225149999999999</v>
       </c>
       <c r="G95">
-        <v>9.3404439999999997</v>
+        <v>9.0640540000000005</v>
       </c>
       <c r="J95">
         <f t="shared" si="13"/>
-        <v>9.7513064831618873E-5</v>
+        <v>0.18606700022807976</v>
       </c>
       <c r="L95">
         <f t="shared" si="14"/>
-        <v>9.3404439999999997</v>
+        <v>9.0640540000000005</v>
       </c>
       <c r="M95">
         <f t="shared" si="11"/>
-        <v>7.2264099999999996</v>
+        <v>9.1225149999999999</v>
       </c>
       <c r="O95">
         <f t="shared" si="12"/>
-        <v>7.2264099999999996</v>
+        <v>9.1225149999999999</v>
       </c>
       <c r="Q95">
         <f t="shared" si="15"/>
-        <v>1.8203184956115984E-4</v>
+        <v>0.28496273852068771</v>
       </c>
       <c r="S95">
         <f t="shared" si="16"/>
-        <v>7.2399019179348656</v>
+        <v>8.588695987112029</v>
       </c>
       <c r="T95">
         <f t="shared" si="17"/>
-        <v>7.2264099999999996</v>
+        <v>9.1225149999999999</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -9305,41 +9306,41 @@
         <v>30</v>
       </c>
       <c r="E96">
-        <v>5.4171240000000003</v>
+        <v>6.1647160000000003</v>
       </c>
       <c r="F96">
-        <v>6.0619870000000002</v>
+        <v>7.2800349999999998</v>
       </c>
       <c r="G96">
-        <v>5.0382179999999996</v>
+        <v>4.8929239999999998</v>
       </c>
       <c r="J96">
         <f t="shared" si="13"/>
-        <v>1.3789754883563856</v>
+        <v>1.9912742098680825</v>
       </c>
       <c r="L96">
         <f t="shared" si="14"/>
-        <v>5.0382179999999996</v>
+        <v>4.8929239999999998</v>
       </c>
       <c r="M96">
         <f t="shared" si="11"/>
-        <v>6.0619870000000002</v>
+        <v>7.2800349999999998</v>
       </c>
       <c r="O96">
         <f t="shared" si="12"/>
-        <v>6.0619870000000002</v>
+        <v>7.2800349999999998</v>
       </c>
       <c r="Q96">
         <f t="shared" si="15"/>
-        <v>0.38760997616781945</v>
+        <v>0.36347611060968249</v>
       </c>
       <c r="S96">
         <f t="shared" si="16"/>
-        <v>5.4394036913835393</v>
+        <v>6.6771452002772955</v>
       </c>
       <c r="T96">
         <f t="shared" si="17"/>
-        <v>6.0619870000000002</v>
+        <v>7.2800349999999998</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -9356,41 +9357,41 @@
         <v>31</v>
       </c>
       <c r="E97">
-        <v>4.291633</v>
+        <v>4.3290059999999997</v>
       </c>
       <c r="F97">
-        <v>4.5872989999999998</v>
+        <v>5.2787300000000004</v>
       </c>
       <c r="G97">
-        <v>2.4546190000000001</v>
+        <v>1.8940410000000001</v>
       </c>
       <c r="J97">
         <f t="shared" si="13"/>
-        <v>7.0171261414218673</v>
+        <v>11.644679579183546</v>
       </c>
       <c r="L97">
         <f t="shared" si="14"/>
-        <v>2.4546190000000001</v>
+        <v>1.8940410000000001</v>
       </c>
       <c r="M97">
         <f t="shared" ref="M97:M109" si="18">F97</f>
-        <v>4.5872989999999998</v>
+        <v>5.2787300000000004</v>
       </c>
       <c r="O97">
         <f t="shared" ref="O97:O109" si="19">F97</f>
-        <v>4.5872989999999998</v>
+        <v>5.2787300000000004</v>
       </c>
       <c r="Q97">
         <f t="shared" si="15"/>
-        <v>5.2505820699996091E-2</v>
+        <v>5.8000373294509269E-4</v>
       </c>
       <c r="S97">
         <f t="shared" si="16"/>
-        <v>4.3581575137955237</v>
+        <v>5.3028132666585144</v>
       </c>
       <c r="T97">
         <f t="shared" si="17"/>
-        <v>4.5872989999999998</v>
+        <v>5.2787300000000004</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -9407,41 +9408,41 @@
         <v>31</v>
       </c>
       <c r="E98">
-        <v>5.1397180000000002</v>
+        <v>4.6256769999999996</v>
       </c>
       <c r="F98">
-        <v>4.9552849999999999</v>
+        <v>6.1034769999999998</v>
       </c>
       <c r="G98">
-        <v>4.5376750000000001</v>
+        <v>4.2493259999999999</v>
       </c>
       <c r="J98">
         <f t="shared" ref="J98:J109" si="20">(F98-F$110)^2</f>
-        <v>5.2029604086296448</v>
+        <v>6.6961041231299729</v>
       </c>
       <c r="L98">
         <f t="shared" ref="L98:L109" si="21">MAX(G98,0)</f>
-        <v>4.5376750000000001</v>
+        <v>4.2493259999999999</v>
       </c>
       <c r="M98">
         <f t="shared" si="18"/>
-        <v>4.9552849999999999</v>
+        <v>6.1034769999999998</v>
       </c>
       <c r="O98">
         <f t="shared" si="19"/>
-        <v>4.9552849999999999</v>
+        <v>6.1034769999999998</v>
       </c>
       <c r="Q98">
         <f t="shared" si="15"/>
-        <v>7.5426860043758218E-2</v>
+        <v>7.7684440589373932E-2</v>
       </c>
       <c r="S98">
         <f t="shared" si="16"/>
-        <v>5.2299245092548743</v>
+        <v>6.382196286360621</v>
       </c>
       <c r="T98">
         <f t="shared" si="17"/>
-        <v>4.9552849999999999</v>
+        <v>6.1034769999999998</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -9458,13 +9459,13 @@
         <v>28</v>
       </c>
       <c r="E99">
-        <v>4.6000930000000002</v>
+        <v>4.2938900000000002</v>
       </c>
       <c r="F99">
-        <v>4.2978680000000002</v>
+        <v>5.3785959999999999</v>
       </c>
       <c r="G99">
-        <v>2.349281</v>
+        <v>2.2600560000000001</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>5</v>
@@ -9474,31 +9475,31 @@
       </c>
       <c r="J99">
         <f t="shared" si="20"/>
-        <v>8.6342937040771979</v>
+        <v>10.973081296940251</v>
       </c>
       <c r="L99">
         <f t="shared" si="21"/>
-        <v>2.349281</v>
+        <v>2.2600560000000001</v>
       </c>
       <c r="M99">
         <f t="shared" si="18"/>
-        <v>4.2978680000000002</v>
+        <v>5.3785959999999999</v>
       </c>
       <c r="O99">
         <f t="shared" si="19"/>
-        <v>4.2978680000000002</v>
+        <v>5.3785959999999999</v>
       </c>
       <c r="Q99">
         <f t="shared" si="15"/>
-        <v>2.6260699143307564E-4</v>
+        <v>8.4557383198098322E-3</v>
       </c>
       <c r="S99">
         <f t="shared" si="16"/>
-        <v>4.3140731532369516</v>
+        <v>5.4705510886020443</v>
       </c>
       <c r="T99">
         <f t="shared" si="17"/>
-        <v>4.2978680000000002</v>
+        <v>5.3785959999999999</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -9515,13 +9516,13 @@
         <v>31</v>
       </c>
       <c r="E100">
-        <v>5.3379760000000003</v>
+        <v>4.909389</v>
       </c>
       <c r="F100">
-        <v>4.6569880000000001</v>
+        <v>6.0071289999999999</v>
       </c>
       <c r="G100">
-        <v>4.6529499999999997</v>
+        <v>4.4712399999999999</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>6</v>
@@ -9531,31 +9532,31 @@
       </c>
       <c r="J100">
         <f t="shared" si="20"/>
-        <v>6.6527723455023846</v>
+        <v>7.2040232539337508</v>
       </c>
       <c r="L100">
         <f t="shared" si="21"/>
-        <v>4.6529499999999997</v>
+        <v>4.4712399999999999</v>
       </c>
       <c r="M100">
         <f t="shared" si="18"/>
-        <v>4.6569880000000001</v>
+        <v>6.0071289999999999</v>
       </c>
       <c r="O100">
         <f t="shared" si="19"/>
-        <v>4.6569880000000001</v>
+        <v>6.0071289999999999</v>
       </c>
       <c r="Q100">
         <f t="shared" si="15"/>
-        <v>0.3858640243438341</v>
+        <v>0.22730612185758686</v>
       </c>
       <c r="S100">
         <f t="shared" si="16"/>
-        <v>5.2781675427602508</v>
+        <v>6.4838953178723795</v>
       </c>
       <c r="T100">
         <f t="shared" si="17"/>
-        <v>4.6569880000000001</v>
+        <v>6.0071289999999999</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -9572,48 +9573,48 @@
         <v>30</v>
       </c>
       <c r="E101">
-        <v>6.7929079999999997</v>
+        <v>6.2350029999999999</v>
       </c>
       <c r="F101">
-        <v>5.8367180000000003</v>
+        <v>7.1868619999999996</v>
       </c>
       <c r="G101">
-        <v>7.8039769999999997</v>
+        <v>7.5870920000000002</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I101">
         <f>(1/12)*SQRT(SUM(J2:J109))</f>
-        <v>2.1099401491933474</v>
+        <v>2.3772470311359424</v>
       </c>
       <c r="J101">
         <f t="shared" si="20"/>
-        <v>1.958787424638311</v>
+        <v>2.2629129463793238</v>
       </c>
       <c r="L101">
         <f t="shared" si="21"/>
-        <v>7.8039769999999997</v>
+        <v>7.5870920000000002</v>
       </c>
       <c r="M101">
         <f t="shared" si="18"/>
-        <v>5.8367180000000003</v>
+        <v>7.1868619999999996</v>
       </c>
       <c r="O101">
         <f t="shared" si="19"/>
-        <v>5.8367180000000003</v>
+        <v>7.1868619999999996</v>
       </c>
       <c r="Q101">
         <f t="shared" si="15"/>
-        <v>0.5778531590467334</v>
+        <v>0.52558143462322615</v>
       </c>
       <c r="S101">
         <f t="shared" si="16"/>
-        <v>6.5968845337587112</v>
+        <v>7.9118319542899869</v>
       </c>
       <c r="T101">
         <f t="shared" si="17"/>
-        <v>5.8367180000000003</v>
+        <v>7.1868619999999996</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -9630,48 +9631,48 @@
         <v>31</v>
       </c>
       <c r="E102">
-        <v>9.9120489999999997</v>
+        <v>9.7746469999999999</v>
       </c>
       <c r="F102">
-        <v>8.8799700000000001</v>
+        <v>9.8519500000000004</v>
       </c>
       <c r="G102">
-        <v>12.914077000000001</v>
+        <v>13.027027</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I102">
         <f>(1/12)*SQRT(SUM(Q2:Q109))</f>
-        <v>0.59182843657097517</v>
+        <v>0.64488938403239382</v>
       </c>
       <c r="J102">
         <f t="shared" si="20"/>
-        <v>2.7017008053655744</v>
+        <v>1.3474330586661356</v>
       </c>
       <c r="L102">
         <f t="shared" si="21"/>
-        <v>12.914077000000001</v>
+        <v>13.027027</v>
       </c>
       <c r="M102">
         <f t="shared" si="18"/>
-        <v>8.8799700000000001</v>
+        <v>9.8519500000000004</v>
       </c>
       <c r="O102">
         <f t="shared" si="19"/>
-        <v>8.8799700000000001</v>
+        <v>9.8519500000000004</v>
       </c>
       <c r="Q102">
         <f t="shared" si="15"/>
-        <v>2.0877026323824807E-2</v>
+        <v>0.30570097322274736</v>
       </c>
       <c r="S102">
         <f t="shared" si="16"/>
-        <v>8.7354811550194107</v>
+        <v>10.404852317975561</v>
       </c>
       <c r="T102">
         <f t="shared" si="17"/>
-        <v>8.8799700000000001</v>
+        <v>9.8519500000000004</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
@@ -9688,41 +9689,41 @@
         <v>30</v>
       </c>
       <c r="E103">
-        <v>10.304717999999999</v>
+        <v>10.268551</v>
       </c>
       <c r="F103">
-        <v>10.157683</v>
+        <v>10.823691</v>
       </c>
       <c r="G103">
-        <v>13.62261</v>
+        <v>14.051970000000001</v>
       </c>
       <c r="J103">
         <f t="shared" si="20"/>
-        <v>8.534567031803503</v>
+        <v>4.5476877946086711</v>
       </c>
       <c r="L103">
         <f t="shared" si="21"/>
-        <v>13.62261</v>
+        <v>14.051970000000001</v>
       </c>
       <c r="M103">
         <f t="shared" si="18"/>
-        <v>10.157683</v>
+        <v>10.823691</v>
       </c>
       <c r="O103">
         <f t="shared" si="19"/>
-        <v>10.157683</v>
+        <v>10.823691</v>
       </c>
       <c r="Q103">
         <f t="shared" si="15"/>
-        <v>1.2671510567783748</v>
+        <v>2.5881135950805525E-3</v>
       </c>
       <c r="S103">
         <f t="shared" si="16"/>
-        <v>9.032004956872937</v>
+        <v>10.874564505826516</v>
       </c>
       <c r="T103">
         <f t="shared" si="17"/>
-        <v>10.157683</v>
+        <v>10.823691</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -9739,41 +9740,41 @@
         <v>31</v>
       </c>
       <c r="E104">
-        <v>12.686346</v>
+        <v>13.019124</v>
       </c>
       <c r="F104">
-        <v>11.548427</v>
+        <v>13.000705999999999</v>
       </c>
       <c r="G104">
-        <v>19.051376000000001</v>
+        <v>19.292292</v>
       </c>
       <c r="J104">
         <f t="shared" si="20"/>
-        <v>18.594569746126762</v>
+        <v>18.572185369407087</v>
       </c>
       <c r="L104">
         <f t="shared" si="21"/>
-        <v>19.051376000000001</v>
+        <v>19.292292</v>
       </c>
       <c r="M104">
         <f t="shared" si="18"/>
-        <v>11.548427</v>
+        <v>13.000705999999999</v>
       </c>
       <c r="O104">
         <f t="shared" si="19"/>
-        <v>11.548427</v>
+        <v>13.000705999999999</v>
       </c>
       <c r="Q104">
         <f t="shared" si="15"/>
-        <v>5.9761898226384176E-2</v>
+        <v>7.5845142803785473E-2</v>
       </c>
       <c r="S104">
         <f t="shared" si="16"/>
-        <v>11.303964532070086</v>
+        <v>13.276105968779564</v>
       </c>
       <c r="T104">
         <f t="shared" si="17"/>
-        <v>11.548427</v>
+        <v>13.000705999999999</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
@@ -9790,41 +9791,41 @@
         <v>31</v>
       </c>
       <c r="E105">
-        <v>12.276451</v>
+        <v>13.343462000000001</v>
       </c>
       <c r="F105">
-        <v>10.903589</v>
+        <v>14.031585</v>
       </c>
       <c r="G105">
-        <v>17.891848</v>
+        <v>18.335381000000002</v>
       </c>
       <c r="J105">
         <f t="shared" si="20"/>
-        <v>13.449119579198539</v>
+        <v>28.520137499380109</v>
       </c>
       <c r="L105">
         <f t="shared" si="21"/>
-        <v>17.891848</v>
+        <v>18.335381000000002</v>
       </c>
       <c r="M105">
         <f t="shared" si="18"/>
-        <v>10.903589</v>
+        <v>14.031585</v>
       </c>
       <c r="O105">
         <f t="shared" si="19"/>
-        <v>10.903589</v>
+        <v>14.031585</v>
       </c>
       <c r="Q105">
         <f t="shared" si="15"/>
-        <v>7.2065535645211842E-3</v>
+        <v>1.4256680642643673</v>
       </c>
       <c r="S105">
         <f t="shared" si="16"/>
-        <v>10.818697577791857</v>
+        <v>12.837571572829113</v>
       </c>
       <c r="T105">
         <f t="shared" si="17"/>
-        <v>10.903589</v>
+        <v>14.031585</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
@@ -9841,41 +9842,41 @@
         <v>30</v>
       </c>
       <c r="E106">
-        <v>9.7302560000000007</v>
+        <v>10.767687</v>
       </c>
       <c r="F106">
-        <v>8.9095630000000003</v>
+        <v>10.90118</v>
       </c>
       <c r="G106">
-        <v>13.441209000000001</v>
+        <v>13.557492</v>
       </c>
       <c r="J106">
         <f t="shared" si="20"/>
-        <v>2.7998596990968343</v>
+        <v>4.8841877046529856</v>
       </c>
       <c r="L106">
         <f t="shared" si="21"/>
-        <v>13.441209000000001</v>
+        <v>13.557492</v>
       </c>
       <c r="M106">
         <f t="shared" si="18"/>
-        <v>8.9095630000000003</v>
+        <v>10.90118</v>
       </c>
       <c r="O106">
         <f t="shared" si="19"/>
-        <v>8.9095630000000003</v>
+        <v>10.90118</v>
       </c>
       <c r="Q106">
         <f t="shared" si="15"/>
-        <v>2.164569718412758E-3</v>
+        <v>6.4123155837782303E-2</v>
       </c>
       <c r="S106">
         <f t="shared" si="16"/>
-        <v>8.956087936522394</v>
+        <v>10.647954496075569</v>
       </c>
       <c r="T106">
         <f t="shared" si="17"/>
-        <v>8.9095630000000003</v>
+        <v>10.90118</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
@@ -9892,41 +9893,41 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>8.0274110000000007</v>
+        <v>9.2332090000000004</v>
       </c>
       <c r="F107">
-        <v>7.4504200000000003</v>
+        <v>8.9403500000000005</v>
       </c>
       <c r="G107">
-        <v>10.491595999999999</v>
+        <v>10.274711</v>
       </c>
       <c r="J107">
         <f t="shared" si="20"/>
-        <v>4.5853853741498585E-2</v>
+        <v>6.209557765132101E-2</v>
       </c>
       <c r="L107">
         <f t="shared" si="21"/>
-        <v>10.491595999999999</v>
+        <v>10.274711</v>
       </c>
       <c r="M107">
         <f t="shared" si="18"/>
-        <v>7.4504200000000003</v>
+        <v>8.9403500000000005</v>
       </c>
       <c r="O107">
         <f t="shared" si="19"/>
-        <v>7.4504200000000003</v>
+        <v>8.9403500000000005</v>
       </c>
       <c r="Q107">
         <f t="shared" si="15"/>
-        <v>7.3573027507152569E-2</v>
+        <v>4.1277002261539776E-2</v>
       </c>
       <c r="S107">
         <f t="shared" si="16"/>
-        <v>7.7216634838058837</v>
+        <v>9.1435174242134796</v>
       </c>
       <c r="T107">
         <f t="shared" si="17"/>
-        <v>7.4504200000000003</v>
+        <v>8.9403500000000005</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -9943,41 +9944,41 @@
         <v>30</v>
       </c>
       <c r="E108">
-        <v>5.8724049999999997</v>
+        <v>7.5850819999999999</v>
       </c>
       <c r="F108">
-        <v>5.8304580000000001</v>
+        <v>7.1636199999999999</v>
       </c>
       <c r="G108">
-        <v>5.9617440000000004</v>
+        <v>5.4650400000000001</v>
       </c>
       <c r="J108">
         <f t="shared" si="20"/>
-        <v>1.9763491894553484</v>
+        <v>2.3333789324922494</v>
       </c>
       <c r="L108">
         <f t="shared" si="21"/>
-        <v>5.9617440000000004</v>
+        <v>5.4650400000000001</v>
       </c>
       <c r="M108">
         <f t="shared" si="18"/>
-        <v>5.8304580000000001</v>
+        <v>7.1636199999999999</v>
       </c>
       <c r="O108">
         <f t="shared" si="19"/>
-        <v>5.8304580000000001</v>
+        <v>7.1636199999999999</v>
       </c>
       <c r="Q108">
         <f t="shared" si="15"/>
-        <v>2.0748976487333215E-5</v>
+        <v>5.0303648237192307E-2</v>
       </c>
       <c r="S108">
         <f t="shared" si="16"/>
-        <v>5.8259028955569239</v>
+        <v>6.9393352518845912</v>
       </c>
       <c r="T108">
         <f t="shared" si="17"/>
-        <v>5.8304580000000001</v>
+        <v>7.1636199999999999</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -9994,87 +9995,87 @@
         <v>31</v>
       </c>
       <c r="E109">
-        <v>4.5698980000000002</v>
+        <v>4.5440740000000002</v>
       </c>
       <c r="F109">
-        <v>4.8333740000000001</v>
+        <v>5.9061490000000001</v>
       </c>
       <c r="G109">
-        <v>2.866276</v>
+        <v>2.5138760000000002</v>
       </c>
       <c r="J109">
         <f t="shared" si="20"/>
-        <v>5.7739806509440887</v>
+        <v>7.75628714688375</v>
       </c>
       <c r="L109">
         <f t="shared" si="21"/>
-        <v>2.866276</v>
+        <v>2.5138760000000002</v>
       </c>
       <c r="M109">
         <f t="shared" si="18"/>
-        <v>4.8333740000000001</v>
+        <v>5.9061490000000001</v>
       </c>
       <c r="O109">
         <f t="shared" si="19"/>
-        <v>4.8333740000000001</v>
+        <v>5.9061490000000001</v>
       </c>
       <c r="Q109">
         <f t="shared" si="15"/>
-        <v>9.1770486062295875E-2</v>
+        <v>0.10193777554728342</v>
       </c>
       <c r="S109">
         <f t="shared" si="16"/>
-        <v>4.530437561019319</v>
+        <v>5.5868720425676113</v>
       </c>
       <c r="T109">
         <f t="shared" si="17"/>
-        <v>4.8333740000000001</v>
+        <v>5.9061490000000001</v>
       </c>
     </row>
     <row r="110" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B110" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E110" s="5">
-        <f t="shared" ref="E110:F110" si="22">AVERAGE(E2:E109)</f>
-        <v>7.7047417870370349</v>
+        <f>AVERAGE(E2:E109)</f>
+        <v>7.9603808888888929</v>
       </c>
       <c r="F110" s="5">
-        <f t="shared" si="22"/>
-        <v>7.2362848703703699</v>
+        <f>AVERAGE(F2:F109)</f>
+        <v>8.691160157407408</v>
       </c>
       <c r="G110" s="5">
         <f>AVERAGE(G2:G109)</f>
-        <v>9.3298595370370361</v>
+        <v>9.2796199166666682</v>
       </c>
       <c r="H110" s="6"/>
       <c r="J110" s="5">
-        <f t="shared" ref="J110" si="23">AVERAGE(J2:J109)</f>
-        <v>5.9357965775707262</v>
+        <f>AVERAGE(J2:J109)</f>
+        <v>7.5350712627262055</v>
       </c>
       <c r="L110" s="5">
-        <f t="shared" ref="L110" si="24">AVERAGE(L2:L109)</f>
-        <v>9.3318011944444432</v>
+        <f>AVERAGE(L2:L109)</f>
+        <v>9.2876375833333356</v>
       </c>
       <c r="M110" s="5">
-        <f t="shared" ref="M110" si="25">AVERAGE(M2:M109)</f>
-        <v>7.2362848703703699</v>
+        <f>AVERAGE(M2:M109)</f>
+        <v>8.691160157407408</v>
       </c>
       <c r="O110" s="5">
-        <f t="shared" ref="O110" si="26">AVERAGE(O2:O109)</f>
-        <v>7.2362848703703699</v>
+        <f>AVERAGE(O2:O109)</f>
+        <v>8.691160157407408</v>
       </c>
       <c r="Q110" s="5">
-        <f t="shared" ref="Q110:T110" si="27">AVERAGE(Q2:Q109)</f>
-        <v>0.46701453111205971</v>
+        <f>AVERAGE(Q2:Q109)</f>
+        <v>0.55450975685024051</v>
       </c>
       <c r="S110" s="5">
-        <f t="shared" si="27"/>
-        <v>7.2362848703703735</v>
+        <f>AVERAGE(S2:S109)</f>
+        <v>8.6911601574074062</v>
       </c>
       <c r="T110" s="5">
-        <f t="shared" si="27"/>
-        <v>7.2362848703703699</v>
+        <f>AVERAGE(T2:T109)</f>
+        <v>8.691160157407408</v>
       </c>
     </row>
   </sheetData>

--- a/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
+++ b/DataCW3M/SkillAssessment/FitWaterTempToAirTemp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\SkillAssessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{495F740D-A452-4607-B474-36541C645C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B64EAB-F131-48F7-8D91-C6984FF01D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Fit water temp to air temp" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -82,13 +81,13 @@
     <t>sim-obs</t>
   </si>
   <si>
-    <t xml:space="preserve"> Stream temp in Blue R near Vida degC</t>
+    <t xml:space="preserve"> USGS_14182500_temp_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805</t>
   </si>
   <si>
-    <t xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</t>
+    <t xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14182500_temp_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</t>
   </si>
   <si>
-    <t xml:space="preserve"> Air temp for HBVCALIB=34 McKenzie above Walterville deg C</t>
+    <t xml:space="preserve"> Air temperature at reach_23780805 from climate dataset</t>
   </si>
 </sst>
 </file>
@@ -739,7 +738,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</c:v>
+                  <c:v> Obs:..\Observations\NSantiam\USGS_14182500_temp_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -763,328 +762,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>6.0277560000000001</c:v>
+                  <c:v>6.5488150000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2143959999999998</c:v>
+                  <c:v>6.2569530000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5663590000000003</c:v>
+                  <c:v>6.5102969999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2644799999999998</c:v>
+                  <c:v>7.016629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4262440000000005</c:v>
+                  <c:v>8.5420350000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8885059999999996</c:v>
+                  <c:v>11.353870000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.718325</c:v>
+                  <c:v>18.857621999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.646362999999999</c:v>
+                  <c:v>19.686464000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4777419999999992</c:v>
+                  <c:v>15.759565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.216244</c:v>
+                  <c:v>11.111582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1973070000000003</c:v>
+                  <c:v>7.2814439999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9561909999999996</c:v>
+                  <c:v>6.213406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3656420000000002</c:v>
+                  <c:v>5.4902660000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1297389999999998</c:v>
+                  <c:v>4.6242000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.912344</c:v>
+                  <c:v>5.5021440000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5666330000000004</c:v>
+                  <c:v>6.2522029999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.677454</c:v>
+                  <c:v>7.5640549999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1876390000000008</c:v>
+                  <c:v>10.631712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.532924</c:v>
+                  <c:v>16.250326000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.244027000000001</c:v>
+                  <c:v>19.721518</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.441041999999999</c:v>
+                  <c:v>17.337859999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.8561499999999995</c:v>
+                  <c:v>11.302659</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0112930000000002</c:v>
+                  <c:v>6.5582289999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5103070000000001</c:v>
+                  <c:v>3.8962509999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2459680000000004</c:v>
+                  <c:v>4.9214390000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.3679870000000003</c:v>
+                  <c:v>5.1279089999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.4123000000000001</c:v>
+                  <c:v>5.0719139999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7007640000000004</c:v>
+                  <c:v>6.5960349999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.3082320000000003</c:v>
+                  <c:v>8.7931030000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.8178820000000009</c:v>
+                  <c:v>11.085842</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.230672999999999</c:v>
+                  <c:v>17.259895</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.635013000000001</c:v>
+                  <c:v>20.230844000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.685915</c:v>
+                  <c:v>16.425416999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.6595440000000004</c:v>
+                  <c:v>10.409481</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.5716700000000001</c:v>
+                  <c:v>8.1149190000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9516650000000002</c:v>
+                  <c:v>6.1558140000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.5533950000000001</c:v>
+                  <c:v>4.3148499999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.4744789999999997</c:v>
+                  <c:v>5.3706670000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.4087949999999996</c:v>
+                  <c:v>6.000432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.2206440000000001</c:v>
+                  <c:v>7.3541650000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.3150300000000001</c:v>
+                  <c:v>10.393872</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.220304</c:v>
+                  <c:v>13.887563999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.132799</c:v>
+                  <c:v>20.018450000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.611022</c:v>
+                  <c:v>20.471126999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.935141</c:v>
+                  <c:v>16.325657</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.7769480000000009</c:v>
+                  <c:v>8.9291060000000009</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.8595550000000003</c:v>
+                  <c:v>7.0151490000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.037299</c:v>
+                  <c:v>4.1214890000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.8515449999999998</c:v>
+                  <c:v>5.2719950000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.3713449999999998</c:v>
+                  <c:v>5.0948130000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6242960000000002</c:v>
+                  <c:v>6.727627</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.853091</c:v>
+                  <c:v>8.0741010000000006</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.6087039999999995</c:v>
+                  <c:v>10.960146</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.088483999999999</c:v>
+                  <c:v>14.537305</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.808116999999999</c:v>
+                  <c:v>18.976659999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.318883</c:v>
+                  <c:v>21.242239000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.641112</c:v>
+                  <c:v>17.225871999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.59234</c:v>
+                  <c:v>12.562853</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.7233270000000003</c:v>
+                  <c:v>7.6315049999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.0356180000000004</c:v>
+                  <c:v>7.4172419999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0788659999999997</c:v>
+                  <c:v>6.6338660000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.818454</c:v>
+                  <c:v>7.2626730000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.5365339999999996</c:v>
+                  <c:v>7.8642589999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.4580090000000006</c:v>
+                  <c:v>8.61557</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.594303</c:v>
+                  <c:v>13.252872999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.236169</c:v>
+                  <c:v>19.900960999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14.036566000000001</c:v>
+                  <c:v>22.769897</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>13.965273</c:v>
+                  <c:v>21.078575000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11.955242</c:v>
+                  <c:v>16.182568</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.076076</c:v>
+                  <c:v>13.124743</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.7356850000000001</c:v>
+                  <c:v>7.4532730000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.5616260000000004</c:v>
+                  <c:v>7.6571740000000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.6369619999999996</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.342816</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.5873419999999996</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.4011800000000001</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.935651</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.818369000000001</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.30447</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>13.42826</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.032812</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9867939999999997</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.4069409999999998</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.5496970000000001</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.2770169999999998</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.5488460000000002</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.0741759999999996</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.1115269999999997</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.7900189999999991</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.85993</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.943749</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.343012</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.551356</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.1225149999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.2800349999999998</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.2787300000000004</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.1034769999999998</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.3785959999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0071289999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.1868619999999996</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.8519500000000004</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.823691</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>13.000705999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>14.031585</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10.90118</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.9403500000000005</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.1636199999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.9061490000000001</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1129,328 +1128,328 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="108"/>
                 <c:pt idx="0">
-                  <c:v>6.6119757694297689</c:v>
+                  <c:v>7.1995677812739363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8253927777515102</c:v>
+                  <c:v>7.2334382999027342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8527127578543521</c:v>
+                  <c:v>7.2465595502379756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.3411196138761259</c:v>
+                  <c:v>7.8424633590515409</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3733097441389983</c:v>
+                  <c:v>9.1294265277826394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8870627578189563</c:v>
+                  <c:v>11.367331390483329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.165674392497337</c:v>
+                  <c:v>14.44909037490304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.080204017599826</c:v>
+                  <c:v>14.354040106338601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.844958160428053</c:v>
+                  <c:v>12.521687558829008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8863533433813018</c:v>
+                  <c:v>9.9111977210508186</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1991628684847182</c:v>
+                  <c:v>6.6340316946482414</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5975334982174996</c:v>
+                  <c:v>5.7748679025113177</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7362749471435004</c:v>
+                  <c:v>5.8474910036931043</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0491055432245258</c:v>
+                  <c:v>4.9868433236877276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3040836173803632</c:v>
+                  <c:v>6.6378053122128629</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.4239040071842446</c:v>
+                  <c:v>6.5766447647529862</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.144441324250387</c:v>
+                  <c:v>8.7844666316305684</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.357888110894017</c:v>
+                  <c:v>11.898159333244351</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.509146591383679</c:v>
+                  <c:v>13.388576043457398</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.210734440869057</c:v>
+                  <c:v>14.345495004624013</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.054081984757509</c:v>
+                  <c:v>14.384548205245846</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.6050085092001396</c:v>
+                  <c:v>9.7424549720508882</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.1365130681032802</c:v>
+                  <c:v>6.540226276236722</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.4691276669527769</c:v>
+                  <c:v>5.7417601856783502</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.1946075575626285</c:v>
+                  <c:v>5.3498085205622399</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.5147601086406404</c:v>
+                  <c:v>6.0899990701055593</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.4761416619115781</c:v>
+                  <c:v>5.2771840950717799</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.1230088837251806</c:v>
+                  <c:v>8.9151533844396766</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.0204615685873755</c:v>
+                  <c:v>10.247615164105648</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.9942955357617862</c:v>
+                  <c:v>11.334223011496025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.27476412617836</c:v>
+                  <c:v>14.343359556888284</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.789935525394117</c:v>
+                  <c:v>15.101632217057098</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.690666764479838</c:v>
+                  <c:v>13.719083759057543</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.8985642480318905</c:v>
+                  <c:v>10.18353517817544</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.0950381491882588</c:v>
+                  <c:v>7.9914474226455567</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9702293776352278</c:v>
+                  <c:v>4.8286288286406815</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.1065543093826751</c:v>
+                  <c:v>4.8200843890804288</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.7355412388175253</c:v>
+                  <c:v>5.5544049404292632</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.0054198704441557</c:v>
+                  <c:v>7.6032687129397303</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.7106670959338484</c:v>
+                  <c:v>8.47150931672358</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.594475825608761</c:v>
+                  <c:v>10.963167612936211</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.002496474249853</c:v>
+                  <c:v>12.782135372684571</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.717320398623972</c:v>
+                  <c:v>15.005513893547629</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.965352766712012</c:v>
+                  <c:v>15.400669723498837</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>11.167841151360005</c:v>
+                  <c:v>12.956501136311413</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.477306139697049</c:v>
+                  <c:v>9.6751714834399216</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.4246083855084315</c:v>
+                  <c:v>7.0920213360680622</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.6007639279262547</c:v>
+                  <c:v>4.6150304205667734</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.3500849754969639</c:v>
+                  <c:v>7.1354884574980648</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.1470054229421995</c:v>
+                  <c:v>5.4621754493389929</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>7.1167945945769642</c:v>
+                  <c:v>7.5658887763266378</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.1683704811777851</c:v>
+                  <c:v>8.7992763755242898</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.9161407049039596</c:v>
+                  <c:v>11.59328361201629</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>10.415739248014194</c:v>
+                  <c:v>12.32193810870633</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>13.140941863509131</c:v>
+                  <c:v>15.61854035135287</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.948441729274915</c:v>
+                  <c:v>15.781941501318968</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.676268025008385</c:v>
+                  <c:v>13.848203854706114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.871776785793422</c:v>
+                  <c:v>11.489687579582924</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.460811231621495</c:v>
+                  <c:v>7.5003494022384318</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.1036373440680274</c:v>
+                  <c:v>6.6185809853566324</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.9133983646785584</c:v>
+                  <c:v>8.4768853477829182</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.4665984026186747</c:v>
+                  <c:v>8.5837610306457535</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.3220189035124665</c:v>
+                  <c:v>9.4444841962455115</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.9359233427897742</c:v>
+                  <c:v>8.5355184521397653</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.005709947551324</c:v>
+                  <c:v>11.452308967278505</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>12.496516812664467</c:v>
+                  <c:v>14.984899704738751</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>13.288060694195789</c:v>
+                  <c:v>15.966707723111718</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>12.909986430680799</c:v>
+                  <c:v>15.732814946773537</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>10.688534386674192</c:v>
+                  <c:v>12.666258363769188</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.017503816238992</c:v>
+                  <c:v>11.940378955904087</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.252889932384754</c:v>
+                  <c:v>6.7289402621846346</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.7391722013826083</c:v>
+                  <c:v>5.6648648647164386</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.7047649013164952</c:v>
+                  <c:v>5.5121422777376434</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.1474334476946151</c:v>
+                  <c:v>7.598112517120164</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.0829216504809249</c:v>
+                  <c:v>7.2518998249631341</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.3416938303562027</c:v>
+                  <c:v>10.172142812813217</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>10.146381218938711</c:v>
+                  <c:v>11.356189319460363</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.258960759570623</c:v>
+                  <c:v>12.734680095684869</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11.955753612044964</c:v>
+                  <c:v>13.521007572943603</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>12.801277070460465</c:v>
+                  <c:v>14.741721538137597</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>10.440969923770929</c:v>
+                  <c:v>11.814286229882722</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.4676134906687146</c:v>
+                  <c:v>9.2052551181081927</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.703714968947569</c:v>
+                  <c:v>8.4659915846361979</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.4348097367164501</c:v>
+                  <c:v>3.5085917129477857</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.4348097367164501</c:v>
+                  <c:v>3.9283121444803797</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.5795894947799392</c:v>
+                  <c:v>5.6359916248664081</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.813274904200342</c:v>
+                  <c:v>7.0532535239653313</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.3978461287402482</c:v>
+                  <c:v>7.5764978131085927</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.8081847591045488</c:v>
+                  <c:v>11.192787507339926</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>11.167566182593241</c:v>
+                  <c:v>12.843936223387999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.662217574327574</c:v>
+                  <c:v>14.709680551940988</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>13.602449899922483</c:v>
+                  <c:v>16.076708774443588</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>11.596244781380415</c:v>
+                  <c:v>13.540301426005183</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.588695987112029</c:v>
+                  <c:v>9.6527436539029345</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.6771452002772955</c:v>
+                  <c:v>7.1273360133051149</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.3028132666585144</c:v>
+                  <c:v>5.7342844632174668</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.382196286360621</c:v>
+                  <c:v>6.7947994568174455</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.4705510886020443</c:v>
+                  <c:v>5.3770416041203646</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.4838953178723795</c:v>
+                  <c:v>6.6121733178407798</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.9118319542899869</c:v>
+                  <c:v>8.4880625129857279</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10.404852317975561</c:v>
+                  <c:v>11.659498383527886</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.874564505826516</c:v>
+                  <c:v>12.522790045799546</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>13.276105968779564</c:v>
+                  <c:v>15.717862839697432</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>12.837571572829113</c:v>
+                  <c:v>15.136876705934466</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10.647954496075569</c:v>
+                  <c:v>12.140948815249885</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>9.1435174242134796</c:v>
+                  <c:v>10.367230034251474</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6.9393352518845912</c:v>
+                  <c:v>7.6151239241832798</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5868720425676113</c:v>
+                  <c:v>5.4918498959363813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,331 +1940,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>4.7507200000000003</c:v>
+                  <c:v>5.827426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.2164099999999998</c:v>
+                  <c:v>5.8785780000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2760239999999996</c:v>
+                  <c:v>5.8983939999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3417599999999998</c:v>
+                  <c:v>6.7983409999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.5940670000000008</c:v>
+                  <c:v>8.7419410000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.897176</c:v>
+                  <c:v>12.121674000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.869257000000001</c:v>
+                  <c:v>16.775814</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.682755</c:v>
+                  <c:v>16.632266999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.987367000000001</c:v>
+                  <c:v>13.865008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.7135619999999996</c:v>
+                  <c:v>9.9225890000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8499349999999999</c:v>
+                  <c:v>4.9733409999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.53714</c:v>
+                  <c:v>3.6758130000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8398829999999999</c:v>
+                  <c:v>3.7854899999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3404339999999999</c:v>
+                  <c:v>2.4857209999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0788789999999997</c:v>
+                  <c:v>4.9790400000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3403349999999996</c:v>
+                  <c:v>4.8866740000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0946610000000003</c:v>
+                  <c:v>8.2209749999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.924548</c:v>
+                  <c:v>12.923342</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.436669999999999</c:v>
+                  <c:v>15.174201999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.967580999999999</c:v>
+                  <c:v>16.619361999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.625755000000002</c:v>
+                  <c:v>16.678341</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.0996489999999994</c:v>
+                  <c:v>9.6677499999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7132290000000001</c:v>
+                  <c:v>4.8316739999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2569499999999998</c:v>
+                  <c:v>3.625813</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.657929</c:v>
+                  <c:v>3.0338790000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.3565230000000001</c:v>
+                  <c:v>4.1517309999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2722549999999999</c:v>
+                  <c:v>2.9241999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0478939999999994</c:v>
+                  <c:v>8.4183409999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.006195</c:v>
+                  <c:v>10.430654000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.131164999999999</c:v>
+                  <c:v>12.071673000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17.107298</c:v>
+                  <c:v>16.616136999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.231435999999999</c:v>
+                  <c:v>17.761296999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>15.832758999999999</c:v>
+                  <c:v>15.673342</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.7402069999999998</c:v>
+                  <c:v>10.333879</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.8047940000000002</c:v>
+                  <c:v>7.0233400000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1683209999999999</c:v>
+                  <c:v>2.2467820000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4657910000000001</c:v>
+                  <c:v>2.2338779999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.838282</c:v>
+                  <c:v>3.3428650000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.6092409999999999</c:v>
+                  <c:v>6.4371039999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.1481370000000002</c:v>
+                  <c:v>7.7483399999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11.258732</c:v>
+                  <c:v>11.511297000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>14.331125999999999</c:v>
+                  <c:v>14.258342000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>18.072984999999999</c:v>
+                  <c:v>17.616136999999998</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>18.614208000000001</c:v>
+                  <c:v>18.212910000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>14.691919</c:v>
+                  <c:v>14.521673</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.8209940000000007</c:v>
+                  <c:v>9.5661369999999994</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.3418720000000004</c:v>
+                  <c:v>5.6650070000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.36212299999999997</c:v>
+                  <c:v>1.9242010000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.1792569999999998</c:v>
+                  <c:v>5.7306520000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5540579999999999</c:v>
+                  <c:v>3.2035779999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.8522679999999996</c:v>
+                  <c:v>6.3806520000000004</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.1468760000000007</c:v>
+                  <c:v>8.2433409999999991</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>11.960626</c:v>
+                  <c:v>12.462911999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>13.050782999999999</c:v>
+                  <c:v>13.563342</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>18.997354999999999</c:v>
+                  <c:v>18.541943</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>18.577307000000001</c:v>
+                  <c:v>18.788715</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>15.80134</c:v>
+                  <c:v>15.868342</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>11.863821</c:v>
+                  <c:v>12.306459</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.4208689999999997</c:v>
+                  <c:v>6.2816729999999996</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3.641492</c:v>
+                  <c:v>4.9500070000000003</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.4084440000000003</c:v>
+                  <c:v>7.7564590000000004</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.6155629999999999</c:v>
+                  <c:v>7.9178649999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.4821469999999994</c:v>
+                  <c:v>9.2177480000000003</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.6396610000000003</c:v>
+                  <c:v>7.845008</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.156072</c:v>
+                  <c:v>12.250009</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>17.591176999999998</c:v>
+                  <c:v>17.585004999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.318377999999999</c:v>
+                  <c:v>19.067753</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>18.493395</c:v>
+                  <c:v>18.714523</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13.646039999999999</c:v>
+                  <c:v>14.083342</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>12.181806999999999</c:v>
+                  <c:v>12.987102999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.967171</c:v>
+                  <c:v>5.1166739999999997</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.8462049999999999</c:v>
+                  <c:v>3.509684</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.7711260000000002</c:v>
+                  <c:v>3.279039</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.9191240000000001</c:v>
+                  <c:v>6.4293170000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.7783550000000004</c:v>
+                  <c:v>5.9064589999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>10.707145000000001</c:v>
+                  <c:v>10.316674000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>12.463025999999999</c:v>
+                  <c:v>12.104846999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.890748</c:v>
+                  <c:v>14.186674</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>16.411196</c:v>
+                  <c:v>15.374203</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>18.256184000000001</c:v>
+                  <c:v>17.217752000000001</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>13.105838</c:v>
+                  <c:v>12.796675</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.7998440000000002</c:v>
+                  <c:v>8.8564589999999992</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.1329669999999998</c:v>
+                  <c:v>7.7400070000000003</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>0.25323299999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>0.887104</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4979849999999999</c:v>
+                  <c:v>3.4660790000000001</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.1899680000000004</c:v>
+                  <c:v>5.6064590000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.465541</c:v>
+                  <c:v>6.396674</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>11.725059</c:v>
+                  <c:v>11.858074</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>14.691319</c:v>
+                  <c:v>14.351675</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>17.952746999999999</c:v>
+                  <c:v>17.169363000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>20.004396</c:v>
+                  <c:v>19.233879000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>15.626723999999999</c:v>
+                  <c:v>15.403340999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.0640540000000005</c:v>
+                  <c:v>9.5322659999999999</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.8929239999999998</c:v>
+                  <c:v>5.7183400000000004</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.8940410000000001</c:v>
+                  <c:v>3.6145230000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.2493259999999999</c:v>
+                  <c:v>5.2161359999999997</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.2600560000000001</c:v>
+                  <c:v>3.0750069999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.4712399999999999</c:v>
+                  <c:v>4.9403300000000003</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.5870920000000002</c:v>
+                  <c:v>7.773339</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>13.027027</c:v>
+                  <c:v>12.562911</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14.051970000000001</c:v>
+                  <c:v>13.866673</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>19.292292</c:v>
+                  <c:v>18.691942000000001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>18.335381000000002</c:v>
+                  <c:v>17.814523999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>13.557492</c:v>
+                  <c:v>13.290008</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>10.274711</c:v>
+                  <c:v>10.611299000000001</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.4650400000000001</c:v>
+                  <c:v>6.4550080000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.5138760000000002</c:v>
+                  <c:v>3.2483930000000001</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>9.2876375833333356</c:v>
+                  <c:v>9.6882425092592594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2277,331 +2276,331 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="109"/>
                 <c:pt idx="0">
-                  <c:v>6.0277560000000001</c:v>
+                  <c:v>6.5488150000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2143959999999998</c:v>
+                  <c:v>6.2569530000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5663590000000003</c:v>
+                  <c:v>6.5102969999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2644799999999998</c:v>
+                  <c:v>7.016629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4262440000000005</c:v>
+                  <c:v>8.5420350000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.8885059999999996</c:v>
+                  <c:v>11.353870000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.718325</c:v>
+                  <c:v>18.857621999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.646362999999999</c:v>
+                  <c:v>19.686464000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.4777419999999992</c:v>
+                  <c:v>15.759565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.216244</c:v>
+                  <c:v>11.111582</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1973070000000003</c:v>
+                  <c:v>7.2814439999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.9561909999999996</c:v>
+                  <c:v>6.213406</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3656420000000002</c:v>
+                  <c:v>5.4902660000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1297389999999998</c:v>
+                  <c:v>4.6242000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.912344</c:v>
+                  <c:v>5.5021440000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5666330000000004</c:v>
+                  <c:v>6.2522029999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.677454</c:v>
+                  <c:v>7.5640549999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.1876390000000008</c:v>
+                  <c:v>10.631712</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.532924</c:v>
+                  <c:v>16.250326000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.244027000000001</c:v>
+                  <c:v>19.721518</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10.441041999999999</c:v>
+                  <c:v>17.337859999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.8561499999999995</c:v>
+                  <c:v>11.302659</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.0112930000000002</c:v>
+                  <c:v>6.5582289999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5103070000000001</c:v>
+                  <c:v>3.8962509999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2459680000000004</c:v>
+                  <c:v>4.9214390000000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.3679870000000003</c:v>
+                  <c:v>5.1279089999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.4123000000000001</c:v>
+                  <c:v>5.0719139999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7007640000000004</c:v>
+                  <c:v>6.5960349999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.3082320000000003</c:v>
+                  <c:v>8.7931030000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.8178820000000009</c:v>
+                  <c:v>11.085842</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>12.230672999999999</c:v>
+                  <c:v>17.259895</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.635013000000001</c:v>
+                  <c:v>20.230844000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.685915</c:v>
+                  <c:v>16.425416999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.6595440000000004</c:v>
+                  <c:v>10.409481</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.5716700000000001</c:v>
+                  <c:v>8.1149190000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.9516650000000002</c:v>
+                  <c:v>6.1558140000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.5533950000000001</c:v>
+                  <c:v>4.3148499999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.4744789999999997</c:v>
+                  <c:v>5.3706670000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.4087949999999996</c:v>
+                  <c:v>6.000432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.2206440000000001</c:v>
+                  <c:v>7.3541650000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.3150300000000001</c:v>
+                  <c:v>10.393872</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11.220304</c:v>
+                  <c:v>13.887563999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.132799</c:v>
+                  <c:v>20.018450000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12.611022</c:v>
+                  <c:v>20.471126999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10.935141</c:v>
+                  <c:v>16.325657</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.7769480000000009</c:v>
+                  <c:v>8.9291060000000009</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.8595550000000003</c:v>
+                  <c:v>7.0151490000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.037299</c:v>
+                  <c:v>4.1214890000000004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.8515449999999998</c:v>
+                  <c:v>5.2719950000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.3713449999999998</c:v>
+                  <c:v>5.0948130000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6242960000000002</c:v>
+                  <c:v>6.727627</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>7.853091</c:v>
+                  <c:v>8.0741010000000006</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.6087039999999995</c:v>
+                  <c:v>10.960146</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>11.088483999999999</c:v>
+                  <c:v>14.537305</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12.808116999999999</c:v>
+                  <c:v>18.976659999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>12.318883</c:v>
+                  <c:v>21.242239000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>11.641112</c:v>
+                  <c:v>17.225871999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>10.59234</c:v>
+                  <c:v>12.562853</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.7233270000000003</c:v>
+                  <c:v>7.6315049999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>7.0356180000000004</c:v>
+                  <c:v>7.4172419999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.0788659999999997</c:v>
+                  <c:v>6.6338660000000003</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.818454</c:v>
+                  <c:v>7.2626730000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.5365339999999996</c:v>
+                  <c:v>7.8642589999999997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.4580090000000006</c:v>
+                  <c:v>8.61557</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.594303</c:v>
+                  <c:v>13.252872999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>13.236169</c:v>
+                  <c:v>19.900960999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>14.036566000000001</c:v>
+                  <c:v>22.769897</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>13.965273</c:v>
+                  <c:v>21.078575000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>11.955242</c:v>
+                  <c:v>16.182568</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>10.076076</c:v>
+                  <c:v>13.124743</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7.7356850000000001</c:v>
+                  <c:v>7.4532730000000003</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.5616260000000004</c:v>
+                  <c:v>7.6571740000000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.6369619999999996</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.342816</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.5873419999999996</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.4011800000000001</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.935651</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>11.818369000000001</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>13.30447</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>13.42826</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>12.032812</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>9.9867939999999997</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.4069409999999998</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.5496970000000001</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.2770169999999998</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.5488460000000002</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.0741759999999996</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.1115269999999997</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.7900189999999991</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>10.85993</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>12.943749</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>12.343012</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>10.551356</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9.1225149999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.2800349999999998</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.2787300000000004</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.1034769999999998</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5.3785959999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.0071289999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.1868619999999996</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>9.8519500000000004</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10.823691</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>13.000705999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>14.031585</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>10.90118</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.9403500000000005</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>7.1636199999999999</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.9061490000000001</c:v>
+                  <c:v>7.8185159999999998</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8.691160157407408</c:v>
+                  <c:v>9.7560241759259387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2910,6 +2909,595 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fit water temp to air temp'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Air temperature at reach_23780805 from climate dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fit water temp to air temp'!$G$2:$G$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>5.827426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8785780000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8983939999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7983409999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7419410000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.121674000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.775814</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.632266999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.865008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.9225890000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.9733409999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6758130000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7854899999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4857209999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9790400000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8866740000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2209749999999993</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.923342</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.174201999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.619361999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.678341</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.6677499999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.8316739999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.625813</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.0338790000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1517309999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9241999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.4183409999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.430654000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.071673000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.616136999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.761296999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.673342</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.333879</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.0233400000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2467820000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.2338779999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3428650000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.4371039999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.7483399999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.511297000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.258342000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.616136999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.212910000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.521673</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.5661369999999994</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.6650070000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9242010000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.7306520000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2035779999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.3806520000000004</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.2433409999999991</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.462911999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.563342</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.541943</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.788715</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>15.868342</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.306459</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.2816729999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9500070000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.7564590000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.9178649999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.2177480000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.845008</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.250009</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>17.585004999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.067753</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18.714523</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.083342</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.987102999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.1166739999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.509684</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.279039</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.4293170000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.9064589999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>10.316674000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.104846999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14.186674</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15.374203</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17.217752000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.796675</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.8564589999999992</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.7400070000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.25323299999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.887104</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4660790000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.6064590000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.396674</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11.858074</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14.351675</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.169363000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19.233879000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>15.403340999999999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.5322659999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.7183400000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.6145230000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.2161359999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.0750069999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.9403300000000003</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.773339</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>12.562911</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13.866673</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>18.691942000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>17.814523999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.290008</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.611299000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.4550080000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.2483930000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>9.6882425092592594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0441-4295-81DA-5C101EC3B2F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1242982128"/>
+        <c:axId val="1242993360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1242982128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242993360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1242993360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242982128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2951,6 +3539,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4022,6 +4650,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4091,6 +5235,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0122E24C-E54F-4165-93D0-BA552AD38AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4399,7 +5579,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G109"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4408,7 +5588,7 @@
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4442,11 +5622,11 @@
       </c>
       <c r="M1" s="1" t="str">
         <f t="shared" ref="M1:M32" si="0">F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14182500_temp_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</v>
       </c>
       <c r="O1" s="1" t="str">
         <f t="shared" ref="O1:O32" si="1">F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14182500_temp_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>8</v>
@@ -4456,7 +5636,7 @@
       </c>
       <c r="T1" s="1" t="str">
         <f>F1</f>
-        <v xml:space="preserve"> Obs:..\Observations\McKenzie\USGS_14162500_temp_MCKENZIE RIVER NEAR VIDA_23772909.csv</v>
+        <v xml:space="preserve"> Obs:..\Observations\NSantiam\USGS_14182500_temp_LITTLE NORTH SANTIAM RIVER NEAR MEHAMA  OR_23780805.csv</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -4473,52 +5653,52 @@
         <v>31</v>
       </c>
       <c r="E2">
-        <v>4.891324</v>
+        <v>4.8250140000000004</v>
       </c>
       <c r="F2">
-        <v>6.0277560000000001</v>
+        <v>6.5488150000000003</v>
       </c>
       <c r="G2">
-        <v>4.7507200000000003</v>
+        <v>5.827426</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I2">
         <f>SLOPE(M2:M109,L2:L109)</f>
-        <v>0.45828127793541151</v>
+        <v>0.66215433665934242</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J33" si="2">(F2-F$110)^2</f>
-        <v>7.0937217056950645</v>
+        <v>10.286190698143537</v>
       </c>
       <c r="K2">
         <f>SLOPE(M2:M109,L2:L109)</f>
-        <v>0.45828127793541151</v>
+        <v>0.66215433665934242</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L33" si="3">MAX(G2,0)</f>
-        <v>4.7507200000000003</v>
+        <v>5.827426</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>6.0277560000000001</v>
+        <v>6.5488150000000003</v>
       </c>
       <c r="O2">
         <f t="shared" si="1"/>
-        <v>6.0277560000000001</v>
+        <v>6.5488150000000003</v>
       </c>
       <c r="Q2">
         <f>(S2-M2)^2</f>
-        <v>0.34131273899257225</v>
+        <v>0.42347918233576315</v>
       </c>
       <c r="S2">
         <f>L2*I$2+I$3</f>
-        <v>6.6119757694297689</v>
+        <v>7.1995677812739363</v>
       </c>
       <c r="T2">
         <f>F2</f>
-        <v>6.0277560000000001</v>
+        <v>6.5488150000000003</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -4535,48 +5715,48 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>5.1274309999999996</v>
+        <v>4.7756259999999999</v>
       </c>
       <c r="F3">
-        <v>6.2143959999999998</v>
+        <v>6.2569530000000002</v>
       </c>
       <c r="G3">
-        <v>5.2164099999999998</v>
+        <v>5.8785780000000001</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I3">
         <f>INTERCEPT(M2:M109,L2:L109)</f>
-        <v>4.4348097367164501</v>
+        <v>3.3409123838125305</v>
       </c>
       <c r="J3">
         <f t="shared" si="2"/>
-        <v>6.1343606914180286</v>
+        <v>12.24349909419573</v>
       </c>
       <c r="L3">
         <f t="shared" si="3"/>
-        <v>5.2164099999999998</v>
+        <v>5.8785780000000001</v>
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>6.2143959999999998</v>
+        <v>6.2569530000000002</v>
       </c>
       <c r="O3">
         <f t="shared" si="1"/>
-        <v>6.2143959999999998</v>
+        <v>6.2569530000000002</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q66" si="4">(S3-M3)^2</f>
-        <v>0.37331706242272861</v>
+        <v>0.95352354092613245</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="5">L3*I$2+I$3</f>
-        <v>6.8253927777515102</v>
+        <v>7.2334382999027342</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T66" si="6">F3</f>
-        <v>6.2143959999999998</v>
+        <v>6.2569530000000002</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -4593,48 +5773,48 @@
         <v>31</v>
       </c>
       <c r="E4">
-        <v>5.5109320000000004</v>
+        <v>4.8414720000000004</v>
       </c>
       <c r="F4">
-        <v>6.5663590000000003</v>
+        <v>6.5102969999999996</v>
       </c>
       <c r="G4">
-        <v>5.2760239999999996</v>
+        <v>5.8983939999999997</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I4">
         <f>RSQ(M2:M109,L2:L109)</f>
-        <v>0.92640948738026707</v>
+        <v>0.5637910940131301</v>
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>4.5147799585198598</v>
+        <v>10.534744900544172</v>
       </c>
       <c r="L4">
         <f t="shared" si="3"/>
-        <v>5.2760239999999996</v>
+        <v>5.8983939999999997</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>6.5663590000000003</v>
+        <v>6.5102969999999996</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>6.5663590000000003</v>
+        <v>6.5102969999999996</v>
       </c>
       <c r="Q4">
         <f t="shared" si="4"/>
-        <v>8.1998474637308749E-2</v>
+        <v>0.54208254288292823</v>
       </c>
       <c r="S4">
         <f t="shared" si="5"/>
-        <v>6.8527127578543521</v>
+        <v>7.2465595502379756</v>
       </c>
       <c r="T4">
         <f t="shared" si="6"/>
-        <v>6.5663590000000003</v>
+        <v>6.5102969999999996</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -4651,13 +5831,13 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>5.8578989999999997</v>
+        <v>4.960718</v>
       </c>
       <c r="F5">
-        <v>7.2644799999999998</v>
+        <v>7.016629</v>
       </c>
       <c r="G5">
-        <v>6.3417599999999998</v>
+        <v>6.7983409999999997</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>15</v>
@@ -4668,31 +5848,31 @@
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>2.035416271540027</v>
+        <v>7.5042859298863052</v>
       </c>
       <c r="L5">
         <f t="shared" si="3"/>
-        <v>6.3417599999999998</v>
+        <v>6.7983409999999997</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>7.2644799999999998</v>
+        <v>7.016629</v>
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>7.2644799999999998</v>
+        <v>7.016629</v>
       </c>
       <c r="Q5">
         <f t="shared" si="4"/>
-        <v>5.8736304150816933E-3</v>
+        <v>0.68200238859006934</v>
       </c>
       <c r="S5">
         <f t="shared" si="5"/>
-        <v>7.3411196138761259</v>
+        <v>7.8424633590515409</v>
       </c>
       <c r="T5">
         <f t="shared" si="6"/>
-        <v>7.2644799999999998</v>
+        <v>7.016629</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -4709,48 +5889,48 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>6.9932160000000003</v>
+        <v>5.1066240000000001</v>
       </c>
       <c r="F6">
-        <v>8.4262440000000005</v>
+        <v>8.5420350000000003</v>
       </c>
       <c r="G6">
-        <v>8.5940670000000008</v>
+        <v>8.7419410000000006</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="4">
         <f>(1/108)*SQRT(SUM(Q2:Q109))</f>
-        <v>7.1654376003599307E-2</v>
+        <v>0.29355376214878409</v>
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>7.0180570455506297E-2</v>
+        <v>1.4737697192653392</v>
       </c>
       <c r="L6">
         <f t="shared" si="3"/>
-        <v>8.5940670000000008</v>
+        <v>8.7419410000000006</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>8.4262440000000005</v>
+        <v>8.5420350000000003</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>8.4262440000000005</v>
+        <v>8.5420350000000003</v>
       </c>
       <c r="Q6">
         <f t="shared" si="4"/>
-        <v>2.8020354435580458E-3</v>
+        <v>0.34502880691082294</v>
       </c>
       <c r="S6">
         <f t="shared" si="5"/>
-        <v>8.3733097441389983</v>
+        <v>9.1294265277826394</v>
       </c>
       <c r="T6">
         <f t="shared" si="6"/>
-        <v>8.4262440000000005</v>
+        <v>8.5420350000000003</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -4767,41 +5947,41 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>8.5532020000000006</v>
+        <v>5.3780260000000002</v>
       </c>
       <c r="F7">
-        <v>9.8885059999999996</v>
+        <v>11.353870000000001</v>
       </c>
       <c r="G7">
-        <v>11.897176</v>
+        <v>12.121674000000001</v>
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>1.433637066773763</v>
+        <v>2.5531112775109177</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>11.897176</v>
+        <v>12.121674000000001</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>9.8885059999999996</v>
+        <v>11.353870000000001</v>
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>9.8885059999999996</v>
+        <v>11.353870000000001</v>
       </c>
       <c r="Q7">
         <f t="shared" si="4"/>
-        <v>2.0829479931426293E-6</v>
+        <v>1.8120903374465325E-4</v>
       </c>
       <c r="S7">
         <f t="shared" si="5"/>
-        <v>9.8870627578189563</v>
+        <v>11.367331390483329</v>
       </c>
       <c r="T7">
         <f t="shared" si="6"/>
-        <v>9.8885059999999996</v>
+        <v>11.353870000000001</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -4818,41 +5998,41 @@
         <v>31</v>
       </c>
       <c r="E8">
-        <v>11.783552999999999</v>
+        <v>6.1330340000000003</v>
       </c>
       <c r="F8">
-        <v>12.718325</v>
+        <v>18.857621999999999</v>
       </c>
       <c r="G8">
-        <v>16.869257000000001</v>
+        <v>16.775814</v>
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>16.218056669413816</v>
+        <v>82.839082951189667</v>
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>16.869257000000001</v>
+        <v>16.775814</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>12.718325</v>
+        <v>18.857621999999999</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>12.718325</v>
+        <v>18.857621999999999</v>
       </c>
       <c r="Q8">
         <f t="shared" si="4"/>
-        <v>0.30542269397306265</v>
+        <v>19.435151089480033</v>
       </c>
       <c r="S8">
         <f t="shared" si="5"/>
-        <v>12.165674392497337</v>
+        <v>14.44909037490304</v>
       </c>
       <c r="T8">
         <f t="shared" si="6"/>
-        <v>12.718325</v>
+        <v>18.857621999999999</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -4869,41 +6049,41 @@
         <v>31</v>
       </c>
       <c r="E9">
-        <v>12.34004</v>
+        <v>6.1369769999999999</v>
       </c>
       <c r="F9">
-        <v>12.646362999999999</v>
+        <v>19.686464000000001</v>
       </c>
       <c r="G9">
-        <v>16.682755</v>
+        <v>16.632266999999999</v>
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>15.643629526052512</v>
+        <v>98.613635099556092</v>
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>16.682755</v>
+        <v>16.632266999999999</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>12.646362999999999</v>
+        <v>19.686464000000001</v>
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>12.646362999999999</v>
+        <v>19.686464000000001</v>
       </c>
       <c r="Q9">
         <f t="shared" si="4"/>
-        <v>0.3205359933523998</v>
+        <v>28.434744581691</v>
       </c>
       <c r="S9">
         <f t="shared" si="5"/>
-        <v>12.080204017599826</v>
+        <v>14.354040106338601</v>
       </c>
       <c r="T9">
         <f t="shared" si="6"/>
-        <v>12.646362999999999</v>
+        <v>19.686464000000001</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
@@ -4920,41 +6100,41 @@
         <v>30</v>
       </c>
       <c r="E10">
-        <v>10.419921</v>
+        <v>5.1954710000000004</v>
       </c>
       <c r="F10">
-        <v>8.4777419999999992</v>
+        <v>15.759565</v>
       </c>
       <c r="G10">
-        <v>13.987367000000001</v>
+        <v>13.865008</v>
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>4.5547309911173506E-2</v>
+        <v>36.042502426323864</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>13.987367000000001</v>
+        <v>13.865008</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>8.4777419999999992</v>
+        <v>15.759565</v>
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>8.4777419999999992</v>
+        <v>15.759565</v>
       </c>
       <c r="Q10">
         <f t="shared" si="4"/>
-        <v>5.6037123501917376</v>
+        <v>10.483850324044013</v>
       </c>
       <c r="S10">
         <f t="shared" si="5"/>
-        <v>10.844958160428053</v>
+        <v>12.521687558829008</v>
       </c>
       <c r="T10">
         <f t="shared" si="6"/>
-        <v>8.4777419999999992</v>
+        <v>15.759565</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -4971,41 +6151,41 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>9.7654530000000008</v>
+        <v>4.9202830000000004</v>
       </c>
       <c r="F11">
-        <v>10.216244</v>
+        <v>11.111582</v>
       </c>
       <c r="G11">
-        <v>9.7135619999999996</v>
+        <v>9.9225890000000003</v>
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>2.325880726936985</v>
+        <v>1.8375370144084044</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>9.7135619999999996</v>
+        <v>9.9225890000000003</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>10.216244</v>
+        <v>11.111582</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>10.216244</v>
+        <v>11.111582</v>
       </c>
       <c r="Q11">
         <f t="shared" si="4"/>
-        <v>1.7686091585617114</v>
+        <v>1.4409224171483468</v>
       </c>
       <c r="S11">
         <f t="shared" si="5"/>
-        <v>8.8863533433813018</v>
+        <v>9.9111977210508186</v>
       </c>
       <c r="T11">
         <f t="shared" si="6"/>
-        <v>10.216244</v>
+        <v>11.111582</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -5022,41 +6202,41 @@
         <v>30</v>
       </c>
       <c r="E12">
-        <v>6.4215689999999999</v>
+        <v>4.7015989999999999</v>
       </c>
       <c r="F12">
-        <v>7.1973070000000003</v>
+        <v>7.2814439999999996</v>
       </c>
       <c r="G12">
-        <v>3.8499349999999999</v>
+        <v>4.9733409999999996</v>
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>2.231597255896081</v>
+        <v>6.1235470470856521</v>
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>3.8499349999999999</v>
+        <v>4.9733409999999996</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>7.1973070000000003</v>
+        <v>7.2814439999999996</v>
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>7.1973070000000003</v>
+        <v>7.2814439999999996</v>
       </c>
       <c r="Q12">
         <f t="shared" si="4"/>
-        <v>0.99629170727839689</v>
+        <v>0.41914269312087821</v>
       </c>
       <c r="S12">
         <f t="shared" si="5"/>
-        <v>6.1991628684847182</v>
+        <v>6.6340316946482414</v>
       </c>
       <c r="T12">
         <f t="shared" si="6"/>
-        <v>7.1973070000000003</v>
+        <v>7.2814439999999996</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -5073,41 +6253,41 @@
         <v>31</v>
       </c>
       <c r="E13">
-        <v>4.5358590000000003</v>
+        <v>4.7361760000000004</v>
       </c>
       <c r="F13">
-        <v>5.9561909999999996</v>
+        <v>6.213406</v>
       </c>
       <c r="G13">
-        <v>2.53714</v>
+        <v>3.6758130000000002</v>
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>7.4800562919697899</v>
+        <v>12.550143540400825</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>2.53714</v>
+        <v>3.6758130000000002</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>5.9561909999999996</v>
+        <v>6.213406</v>
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>5.9561909999999996</v>
+        <v>6.213406</v>
       </c>
       <c r="Q13">
         <f t="shared" si="4"/>
-        <v>0.12863520358486399</v>
+        <v>0.19231566294899305</v>
       </c>
       <c r="S13">
         <f t="shared" si="5"/>
-        <v>5.5975334982174996</v>
+        <v>5.7748679025113177</v>
       </c>
       <c r="T13">
         <f t="shared" si="6"/>
-        <v>5.9561909999999996</v>
+        <v>6.213406</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -5124,41 +6304,41 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>4.2176619999999998</v>
+        <v>4.6090179999999998</v>
       </c>
       <c r="F14">
-        <v>5.3656420000000002</v>
+        <v>5.4902660000000001</v>
       </c>
       <c r="G14">
-        <v>2.8398829999999999</v>
+        <v>3.7854899999999998</v>
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>11.05907101524636</v>
+        <v>18.19669281547899</v>
       </c>
       <c r="L14">
         <f t="shared" si="3"/>
-        <v>2.8398829999999999</v>
+        <v>3.7854899999999998</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>5.3656420000000002</v>
+        <v>5.4902660000000001</v>
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>5.3656420000000002</v>
+        <v>5.4902660000000001</v>
       </c>
       <c r="Q14">
         <f t="shared" si="4"/>
-        <v>0.13736878150827658</v>
+        <v>0.12760970326353829</v>
       </c>
       <c r="S14">
         <f t="shared" si="5"/>
-        <v>5.7362749471435004</v>
+        <v>5.8474910036931043</v>
       </c>
       <c r="T14">
         <f t="shared" si="6"/>
-        <v>5.3656420000000002</v>
+        <v>5.4902660000000001</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -5175,41 +6355,41 @@
         <v>28</v>
       </c>
       <c r="E15">
-        <v>3.948896</v>
+        <v>4.5081910000000001</v>
       </c>
       <c r="F15">
-        <v>5.1297389999999998</v>
+        <v>4.6242000000000001</v>
       </c>
       <c r="G15">
-        <v>1.3404339999999999</v>
+        <v>2.4857209999999998</v>
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>12.683720660429122</v>
+        <v>26.335619372617938</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>1.3404339999999999</v>
+        <v>2.4857209999999998</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>5.1297389999999998</v>
+        <v>4.6242000000000001</v>
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>5.1297389999999998</v>
+        <v>4.6242000000000001</v>
       </c>
       <c r="Q15">
         <f t="shared" si="4"/>
-        <v>6.5017543515622448E-3</v>
+        <v>0.13151018021528194</v>
       </c>
       <c r="S15">
         <f t="shared" si="5"/>
-        <v>5.0491055432245258</v>
+        <v>4.9868433236877276</v>
       </c>
       <c r="T15">
         <f t="shared" si="6"/>
-        <v>5.1297389999999998</v>
+        <v>4.6242000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -5226,41 +6406,41 @@
         <v>31</v>
       </c>
       <c r="E16">
-        <v>4.599081</v>
+        <v>4.8709720000000001</v>
       </c>
       <c r="F16">
-        <v>5.912344</v>
+        <v>5.5021440000000004</v>
       </c>
       <c r="G16">
-        <v>4.0788789999999997</v>
+        <v>4.9790400000000004</v>
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>7.7218192366684724</v>
+        <v>18.095496551135692</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>4.0788789999999997</v>
+        <v>4.9790400000000004</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>5.912344</v>
+        <v>5.5021440000000004</v>
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>5.912344</v>
+        <v>5.5021440000000004</v>
       </c>
       <c r="Q16">
         <f t="shared" si="4"/>
-        <v>0.15345992782531329</v>
+        <v>1.2897266160570406</v>
       </c>
       <c r="S16">
         <f t="shared" si="5"/>
-        <v>6.3040836173803632</v>
+        <v>6.6378053122128629</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>5.912344</v>
+        <v>5.5021440000000004</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -5277,41 +6457,41 @@
         <v>30</v>
       </c>
       <c r="E17">
-        <v>4.9802590000000002</v>
+        <v>4.9139569999999999</v>
       </c>
       <c r="F17">
-        <v>6.5666330000000004</v>
+        <v>6.2522029999999997</v>
       </c>
       <c r="G17">
-        <v>4.3403349999999996</v>
+        <v>4.8866740000000002</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>4.5136156425616001</v>
+        <v>12.27676283286703</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>4.3403349999999996</v>
+        <v>4.8866740000000002</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>6.5666330000000004</v>
+        <v>6.2522029999999997</v>
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>6.5666330000000004</v>
+        <v>6.2522029999999997</v>
       </c>
       <c r="Q17">
         <f t="shared" si="4"/>
-        <v>2.0371565390200068E-2</v>
+        <v>0.10526245871603221</v>
       </c>
       <c r="S17">
         <f t="shared" si="5"/>
-        <v>6.4239040071842446</v>
+        <v>6.5766447647529862</v>
       </c>
       <c r="T17">
         <f t="shared" si="6"/>
-        <v>6.5666330000000004</v>
+        <v>6.2522029999999997</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -5328,41 +6508,41 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>6.556673</v>
+        <v>5.0442520000000002</v>
       </c>
       <c r="F18">
-        <v>7.677454</v>
+        <v>7.5640549999999998</v>
       </c>
       <c r="G18">
-        <v>8.0946610000000003</v>
+        <v>8.2209749999999993</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>1.0276001735656926</v>
+        <v>4.8047288682094402</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>8.0946610000000003</v>
+        <v>8.2209749999999993</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>7.677454</v>
+        <v>7.5640549999999998</v>
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>7.677454</v>
+        <v>7.5640549999999998</v>
       </c>
       <c r="Q18">
         <f t="shared" si="4"/>
-        <v>0.21807716101053612</v>
+        <v>1.4894045506191869</v>
       </c>
       <c r="S18">
         <f t="shared" si="5"/>
-        <v>8.144441324250387</v>
+        <v>8.7844666316305684</v>
       </c>
       <c r="T18">
         <f t="shared" si="6"/>
-        <v>7.677454</v>
+        <v>7.5640549999999998</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -5379,41 +6559,41 @@
         <v>30</v>
       </c>
       <c r="E19">
-        <v>9.0292580000000005</v>
+        <v>5.3900040000000002</v>
       </c>
       <c r="F19">
-        <v>9.1876390000000008</v>
+        <v>10.631712</v>
       </c>
       <c r="G19">
-        <v>12.924548</v>
+        <v>12.923342</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>0.24649124114208051</v>
+        <v>0.76682916523156452</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>12.924548</v>
+        <v>12.923342</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>9.1876390000000008</v>
+        <v>10.631712</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>9.1876390000000008</v>
+        <v>10.631712</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
-        <v>1.3694829815482346</v>
+        <v>1.6038888478817275</v>
       </c>
       <c r="S19">
         <f t="shared" si="5"/>
-        <v>10.357888110894017</v>
+        <v>11.898159333244351</v>
       </c>
       <c r="T19">
         <f t="shared" si="6"/>
-        <v>9.1876390000000008</v>
+        <v>10.631712</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -5430,41 +6610,41 @@
         <v>31</v>
       </c>
       <c r="E20">
-        <v>10.802398999999999</v>
+        <v>5.6481789999999998</v>
       </c>
       <c r="F20">
-        <v>11.532924</v>
+        <v>16.250326000000001</v>
       </c>
       <c r="G20">
-        <v>15.436669999999999</v>
+        <v>15.174201999999999</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>8.0756217370666121</v>
+        <v>42.175956182171696</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>15.436669999999999</v>
+        <v>15.174201999999999</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>11.532924</v>
+        <v>16.250326000000001</v>
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>11.532924</v>
+        <v>16.250326000000001</v>
       </c>
       <c r="Q20">
         <f t="shared" si="4"/>
-        <v>5.6536516050746156E-4</v>
+        <v>8.1896128137715909</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>11.509146591383679</v>
+        <v>13.388576043457398</v>
       </c>
       <c r="T20">
         <f t="shared" si="6"/>
-        <v>11.532924</v>
+        <v>16.250326000000001</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -5481,41 +6661,41 @@
         <v>31</v>
       </c>
       <c r="E21">
-        <v>12.162274</v>
+        <v>5.9916780000000003</v>
       </c>
       <c r="F21">
-        <v>12.244027000000001</v>
+        <v>19.721518</v>
       </c>
       <c r="G21">
-        <v>16.967580999999999</v>
+        <v>16.619361999999999</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>12.622862801193861</v>
+        <v>99.311067157658243</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>16.967580999999999</v>
+        <v>16.619361999999999</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>12.244027000000001</v>
+        <v>19.721518</v>
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>12.244027000000001</v>
+        <v>19.721518</v>
       </c>
       <c r="Q21">
         <f t="shared" si="4"/>
-        <v>1.108394493487379E-3</v>
+        <v>28.901623246811397</v>
       </c>
       <c r="S21">
         <f t="shared" si="5"/>
-        <v>12.210734440869057</v>
+        <v>14.345495004624013</v>
       </c>
       <c r="T21">
         <f t="shared" si="6"/>
-        <v>12.244027000000001</v>
+        <v>19.721518</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
@@ -5532,41 +6712,41 @@
         <v>30</v>
       </c>
       <c r="E22">
-        <v>11.35037</v>
+        <v>5.327216</v>
       </c>
       <c r="F22">
-        <v>10.441041999999999</v>
+        <v>17.337859999999999</v>
       </c>
       <c r="G22">
-        <v>16.625755000000002</v>
+        <v>16.678341</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>3.0620864630352433</v>
+        <v>57.484234463212786</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>16.625755000000002</v>
+        <v>16.678341</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>10.441041999999999</v>
+        <v>17.337859999999999</v>
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>10.441041999999999</v>
+        <v>17.337859999999999</v>
       </c>
       <c r="Q22">
         <f t="shared" si="4"/>
-        <v>2.6018979924265078</v>
+        <v>8.7220505570339988</v>
       </c>
       <c r="S22">
         <f t="shared" si="5"/>
-        <v>12.054081984757509</v>
+        <v>14.384548205245846</v>
       </c>
       <c r="T22">
         <f t="shared" si="6"/>
-        <v>10.441041999999999</v>
+        <v>17.337859999999999</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
@@ -5583,41 +6763,41 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>9.3715519999999994</v>
+        <v>4.8642799999999999</v>
       </c>
       <c r="F23">
-        <v>9.8561499999999995</v>
+        <v>11.302659</v>
       </c>
       <c r="G23">
-        <v>9.0996489999999994</v>
+        <v>9.6677499999999998</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>1.3572013333439112</v>
+        <v>2.3920792790386032</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>9.0996489999999994</v>
+        <v>9.6677499999999998</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>9.8561499999999995</v>
+        <v>11.302659</v>
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>9.8561499999999995</v>
+        <v>11.302659</v>
       </c>
       <c r="Q23">
         <f t="shared" si="4"/>
-        <v>1.565355030000896</v>
+        <v>2.4342366088286336</v>
       </c>
       <c r="S23">
         <f t="shared" si="5"/>
-        <v>8.6050085092001396</v>
+        <v>9.7424549720508882</v>
       </c>
       <c r="T23">
         <f t="shared" si="6"/>
-        <v>9.8561499999999995</v>
+        <v>11.302659</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -5634,41 +6814,41 @@
         <v>30</v>
       </c>
       <c r="E24">
-        <v>6.5119009999999999</v>
+        <v>4.6819699999999997</v>
       </c>
       <c r="F24">
-        <v>7.0112930000000002</v>
+        <v>6.5582289999999999</v>
       </c>
       <c r="G24">
-        <v>3.7132290000000001</v>
+        <v>4.8316739999999996</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>2.8219536665360447</v>
+        <v>10.225893987175207</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>3.7132290000000001</v>
+        <v>4.8316739999999996</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>7.0112930000000002</v>
+        <v>6.5582289999999999</v>
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>7.0112930000000002</v>
+        <v>6.5582289999999999</v>
       </c>
       <c r="Q24">
         <f t="shared" si="4"/>
-        <v>0.76523992924923001</v>
+        <v>3.240980628968882E-4</v>
       </c>
       <c r="S24">
         <f t="shared" si="5"/>
-        <v>6.1365130681032802</v>
+        <v>6.540226276236722</v>
       </c>
       <c r="T24">
         <f t="shared" si="6"/>
-        <v>7.0112930000000002</v>
+        <v>6.5582289999999999</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -5685,41 +6865,41 @@
         <v>31</v>
       </c>
       <c r="E25">
-        <v>4.0834869999999999</v>
+        <v>4.0541809999999998</v>
       </c>
       <c r="F25">
-        <v>4.5103070000000001</v>
+        <v>3.8962509999999999</v>
       </c>
       <c r="G25">
-        <v>2.2569499999999998</v>
+        <v>3.625813</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>17.479533123803492</v>
+        <v>34.336941673301169</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>2.2569499999999998</v>
+        <v>3.625813</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>4.5103070000000001</v>
+        <v>3.8962509999999999</v>
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>4.5103070000000001</v>
+        <v>3.8962509999999999</v>
       </c>
       <c r="Q25">
         <f t="shared" si="4"/>
-        <v>0.9193370713757677</v>
+        <v>3.4059041544231676</v>
       </c>
       <c r="S25">
         <f t="shared" si="5"/>
-        <v>5.4691276669527769</v>
+        <v>5.7417601856783502</v>
       </c>
       <c r="T25">
         <f t="shared" si="6"/>
-        <v>4.5103070000000001</v>
+        <v>3.8962509999999999</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
@@ -5736,41 +6916,41 @@
         <v>31</v>
       </c>
       <c r="E26">
-        <v>3.8024610000000001</v>
+        <v>4.5833500000000003</v>
       </c>
       <c r="F26">
-        <v>5.2459680000000004</v>
+        <v>4.9214390000000003</v>
       </c>
       <c r="G26">
-        <v>1.657929</v>
+        <v>3.0338790000000002</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>11.869349001461508</v>
+        <v>23.373213823282835</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>1.657929</v>
+        <v>3.0338790000000002</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>5.2459680000000004</v>
+        <v>4.9214390000000003</v>
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>5.2459680000000004</v>
+        <v>4.9214390000000003</v>
       </c>
       <c r="Q26">
         <f t="shared" si="4"/>
-        <v>2.6378950473625947E-3</v>
+        <v>0.18350044614672295</v>
       </c>
       <c r="S26">
         <f t="shared" si="5"/>
-        <v>5.1946075575626285</v>
+        <v>5.3498085205622399</v>
       </c>
       <c r="T26">
         <f t="shared" si="6"/>
-        <v>5.2459680000000004</v>
+        <v>4.9214390000000003</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
@@ -5787,41 +6967,41 @@
         <v>29</v>
       </c>
       <c r="E27">
-        <v>3.9679000000000002</v>
+        <v>4.8162849999999997</v>
       </c>
       <c r="F27">
-        <v>5.3679870000000003</v>
+        <v>5.1279089999999998</v>
       </c>
       <c r="G27">
-        <v>2.3565230000000001</v>
+        <v>4.1517309999999998</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>11.04347983411312</v>
+        <v>21.419450081635983</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>2.3565230000000001</v>
+        <v>4.1517309999999998</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>5.3679870000000003</v>
+        <v>5.1279089999999998</v>
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>5.3679870000000003</v>
+        <v>5.1279089999999998</v>
       </c>
       <c r="Q27">
         <f t="shared" si="4"/>
-        <v>2.1542345420037138E-2</v>
+        <v>0.92561730299572031</v>
       </c>
       <c r="S27">
         <f t="shared" si="5"/>
-        <v>5.5147601086406404</v>
+        <v>6.0899990701055593</v>
       </c>
       <c r="T27">
         <f t="shared" si="6"/>
-        <v>5.3679870000000003</v>
+        <v>5.1279089999999998</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
@@ -5838,41 +7018,41 @@
         <v>31</v>
       </c>
       <c r="E28">
-        <v>4.1457949999999997</v>
+        <v>4.8307479999999998</v>
       </c>
       <c r="F28">
-        <v>5.4123000000000001</v>
+        <v>5.0719139999999996</v>
       </c>
       <c r="G28">
-        <v>2.2722549999999999</v>
+        <v>2.9241999999999999</v>
       </c>
       <c r="J28">
         <f t="shared" si="2"/>
-        <v>10.750923931833732</v>
+        <v>21.940888140212934</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>2.2722549999999999</v>
+        <v>2.9241999999999999</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>5.4123000000000001</v>
+        <v>5.0719139999999996</v>
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>5.4123000000000001</v>
+        <v>5.0719139999999996</v>
       </c>
       <c r="Q28">
         <f t="shared" si="4"/>
-        <v>4.075757795632233E-3</v>
+        <v>4.2135811930777721E-2</v>
       </c>
       <c r="S28">
         <f t="shared" si="5"/>
-        <v>5.4761416619115781</v>
+        <v>5.2771840950717799</v>
       </c>
       <c r="T28">
         <f t="shared" si="6"/>
-        <v>5.4123000000000001</v>
+        <v>5.0719139999999996</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -5889,41 +7069,41 @@
         <v>30</v>
       </c>
       <c r="E29">
-        <v>5.938904</v>
+        <v>5.0239079999999996</v>
       </c>
       <c r="F29">
-        <v>6.7007640000000004</v>
+        <v>6.5960349999999996</v>
       </c>
       <c r="G29">
-        <v>8.0478939999999994</v>
+        <v>8.4183409999999999</v>
       </c>
       <c r="J29">
         <f t="shared" si="2"/>
-        <v>3.9616768634221735</v>
+        <v>9.9855315919690959</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>8.0478939999999994</v>
+        <v>8.4183409999999999</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>6.7007640000000004</v>
+        <v>6.5960349999999996</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>6.7007640000000004</v>
+        <v>6.5960349999999996</v>
       </c>
       <c r="Q29">
         <f t="shared" si="4"/>
-        <v>2.0227805092824513</v>
+        <v>5.3783100810460978</v>
       </c>
       <c r="S29">
         <f t="shared" si="5"/>
-        <v>8.1230088837251806</v>
+        <v>8.9151533844396766</v>
       </c>
       <c r="T29">
         <f t="shared" si="6"/>
-        <v>6.7007640000000004</v>
+        <v>6.5960349999999996</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
@@ -5940,41 +7120,41 @@
         <v>31</v>
       </c>
       <c r="E30">
-        <v>7.6089000000000002</v>
+        <v>5.302581</v>
       </c>
       <c r="F30">
-        <v>8.3082320000000003</v>
+        <v>8.7931030000000003</v>
       </c>
       <c r="G30">
-        <v>10.006195</v>
+        <v>10.430654000000001</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>0.14663397373543241</v>
+        <v>0.92721719104659206</v>
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>10.006195</v>
+        <v>10.430654000000001</v>
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>8.3082320000000003</v>
+        <v>8.7931030000000003</v>
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>8.3082320000000003</v>
+        <v>8.7931030000000003</v>
       </c>
       <c r="Q30">
         <f t="shared" si="4"/>
-        <v>0.50727095837015856</v>
+        <v>2.1156056355312942</v>
       </c>
       <c r="S30">
         <f t="shared" si="5"/>
-        <v>9.0204615685873755</v>
+        <v>10.247615164105648</v>
       </c>
       <c r="T30">
         <f t="shared" si="6"/>
-        <v>8.3082320000000003</v>
+        <v>8.7931030000000003</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
@@ -5991,41 +7171,41 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <v>8.6331659999999992</v>
+        <v>5.2580989999999996</v>
       </c>
       <c r="F31">
-        <v>9.8178820000000009</v>
+        <v>11.085842</v>
       </c>
       <c r="G31">
-        <v>12.131164999999999</v>
+        <v>12.071673000000001</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>1.2695021105752478</v>
+        <v>1.7684154452250698</v>
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>12.131164999999999</v>
+        <v>12.071673000000001</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>9.8178820000000009</v>
+        <v>11.085842</v>
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>9.8178820000000009</v>
+        <v>11.085842</v>
       </c>
       <c r="Q31">
         <f t="shared" si="4"/>
-        <v>3.1121735599974706E-2</v>
+        <v>6.1693126871788823E-2</v>
       </c>
       <c r="S31">
         <f t="shared" si="5"/>
-        <v>9.9942955357617862</v>
+        <v>11.334223011496025</v>
       </c>
       <c r="T31">
         <f t="shared" si="6"/>
-        <v>9.8178820000000009</v>
+        <v>11.085842</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
@@ -6042,41 +7222,41 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>11.774445</v>
+        <v>6.0131680000000003</v>
       </c>
       <c r="F32">
-        <v>12.230672999999999</v>
+        <v>17.259895</v>
       </c>
       <c r="G32">
-        <v>17.107298</v>
+        <v>16.616136999999998</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>12.528151162877887</v>
+        <v>56.308077344389936</v>
       </c>
       <c r="L32">
         <f t="shared" si="3"/>
-        <v>17.107298</v>
+        <v>16.616136999999998</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>12.230672999999999</v>
+        <v>17.259895</v>
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>12.230672999999999</v>
+        <v>17.259895</v>
       </c>
       <c r="Q32">
         <f t="shared" si="4"/>
-        <v>1.9440274076760701E-3</v>
+        <v>8.5061789909268519</v>
       </c>
       <c r="S32">
         <f t="shared" si="5"/>
-        <v>12.27476412617836</v>
+        <v>14.343359556888284</v>
       </c>
       <c r="T32">
         <f t="shared" si="6"/>
-        <v>12.230672999999999</v>
+        <v>17.259895</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
@@ -6093,41 +7273,41 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>12.806654999999999</v>
+        <v>6.1298899999999996</v>
       </c>
       <c r="F33">
-        <v>12.635013000000001</v>
+        <v>20.230844000000001</v>
       </c>
       <c r="G33">
-        <v>18.231435999999999</v>
+        <v>17.761296999999999</v>
       </c>
       <c r="J33">
         <f t="shared" si="2"/>
-        <v>15.553975244025674</v>
+        <v>109.72185034681497</v>
       </c>
       <c r="L33">
         <f t="shared" si="3"/>
-        <v>18.231435999999999</v>
+        <v>17.761296999999999</v>
       </c>
       <c r="M33">
         <f t="shared" ref="M33:M64" si="7">F33</f>
-        <v>12.635013000000001</v>
+        <v>20.230844000000001</v>
       </c>
       <c r="O33">
         <f t="shared" ref="O33:O64" si="8">F33</f>
-        <v>12.635013000000001</v>
+        <v>20.230844000000001</v>
       </c>
       <c r="Q33">
         <f t="shared" si="4"/>
-        <v>2.400098887449072E-2</v>
+        <v>26.308813514280317</v>
       </c>
       <c r="S33">
         <f t="shared" si="5"/>
-        <v>12.789935525394117</v>
+        <v>15.101632217057098</v>
       </c>
       <c r="T33">
         <f t="shared" si="6"/>
-        <v>12.635013000000001</v>
+        <v>20.230844000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
@@ -6144,41 +7324,41 @@
         <v>30</v>
       </c>
       <c r="E34">
-        <v>11.520238000000001</v>
+        <v>5.5783659999999999</v>
       </c>
       <c r="F34">
-        <v>10.685915</v>
+        <v>16.425416999999999</v>
       </c>
       <c r="G34">
-        <v>15.832758999999999</v>
+        <v>15.673342</v>
       </c>
       <c r="J34">
         <f t="shared" ref="J34:J65" si="9">(F34-F$110)^2</f>
-        <v>3.9790468820465947</v>
+        <v>44.480800641810575</v>
       </c>
       <c r="L34">
         <f t="shared" ref="L34:L65" si="10">MAX(G34,0)</f>
-        <v>15.832758999999999</v>
+        <v>15.673342</v>
       </c>
       <c r="M34">
         <f t="shared" si="7"/>
-        <v>10.685915</v>
+        <v>16.425416999999999</v>
       </c>
       <c r="O34">
         <f t="shared" si="8"/>
-        <v>10.685915</v>
+        <v>16.425416999999999</v>
       </c>
       <c r="Q34">
         <f t="shared" si="4"/>
-        <v>1.0095261082253484</v>
+        <v>7.324239611030098</v>
       </c>
       <c r="S34">
         <f t="shared" si="5"/>
-        <v>11.690666764479838</v>
+        <v>13.719083759057543</v>
       </c>
       <c r="T34">
         <f t="shared" si="6"/>
-        <v>10.685915</v>
+        <v>16.425416999999999</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -6195,41 +7375,41 @@
         <v>31</v>
       </c>
       <c r="E35">
-        <v>9.7786620000000006</v>
+        <v>4.9074350000000004</v>
       </c>
       <c r="F35">
-        <v>9.6595440000000004</v>
+        <v>10.409481</v>
       </c>
       <c r="G35">
-        <v>9.7402069999999998</v>
+        <v>10.333879</v>
       </c>
       <c r="J35">
         <f t="shared" si="9"/>
-        <v>0.93776726659439469</v>
+        <v>0.42700582092895806</v>
       </c>
       <c r="L35">
         <f t="shared" si="10"/>
-        <v>9.7402069999999998</v>
+        <v>10.333879</v>
       </c>
       <c r="M35">
         <f t="shared" si="7"/>
-        <v>9.6595440000000004</v>
+        <v>10.409481</v>
       </c>
       <c r="O35">
         <f t="shared" si="8"/>
-        <v>9.6595440000000004</v>
+        <v>10.409481</v>
       </c>
       <c r="Q35">
         <f t="shared" si="4"/>
-        <v>0.579090182905446</v>
+        <v>5.1051514399975725E-2</v>
       </c>
       <c r="S35">
         <f t="shared" si="5"/>
-        <v>8.8985642480318905</v>
+        <v>10.18353517817544</v>
       </c>
       <c r="T35">
         <f t="shared" si="6"/>
-        <v>9.6595440000000004</v>
+        <v>10.409481</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
@@ -6246,41 +7426,41 @@
         <v>30</v>
       </c>
       <c r="E36">
-        <v>6.5644960000000001</v>
+        <v>4.8957410000000001</v>
       </c>
       <c r="F36">
-        <v>7.5716700000000001</v>
+        <v>8.1149190000000004</v>
       </c>
       <c r="G36">
-        <v>5.8047940000000002</v>
+        <v>7.0233400000000001</v>
       </c>
       <c r="J36">
         <f t="shared" si="9"/>
-        <v>1.2532582125320628</v>
+        <v>2.6932261984509047</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>5.8047940000000002</v>
+        <v>7.0233400000000001</v>
       </c>
       <c r="M36">
         <f t="shared" si="7"/>
-        <v>7.5716700000000001</v>
+        <v>8.1149190000000004</v>
       </c>
       <c r="O36">
         <f t="shared" si="8"/>
-        <v>7.5716700000000001</v>
+        <v>8.1149190000000004</v>
       </c>
       <c r="Q36">
         <f t="shared" si="4"/>
-        <v>0.22717792120822602</v>
+        <v>1.5245230414394373E-2</v>
       </c>
       <c r="S36">
         <f t="shared" si="5"/>
-        <v>7.0950381491882588</v>
+        <v>7.9914474226455567</v>
       </c>
       <c r="T36">
         <f t="shared" si="6"/>
-        <v>7.5716700000000001</v>
+        <v>8.1149190000000004</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -6297,41 +7477,41 @@
         <v>31</v>
       </c>
       <c r="E37">
-        <v>3.8894739999999999</v>
+        <v>4.7049770000000004</v>
       </c>
       <c r="F37">
-        <v>5.9516650000000002</v>
+        <v>6.1558140000000003</v>
       </c>
       <c r="G37">
-        <v>1.1683209999999999</v>
+        <v>2.2467820000000001</v>
       </c>
       <c r="J37">
         <f t="shared" si="9"/>
-        <v>7.5048337174586379</v>
+        <v>12.961513310840676</v>
       </c>
       <c r="L37">
         <f t="shared" si="10"/>
-        <v>1.1683209999999999</v>
+        <v>2.2467820000000001</v>
       </c>
       <c r="M37">
         <f t="shared" si="7"/>
-        <v>5.9516650000000002</v>
+        <v>6.1558140000000003</v>
       </c>
       <c r="O37">
         <f t="shared" si="8"/>
-        <v>5.9516650000000002</v>
+        <v>6.1558140000000003</v>
       </c>
       <c r="Q37">
         <f t="shared" si="4"/>
-        <v>0.96321588084652821</v>
+        <v>1.7614204790760644</v>
       </c>
       <c r="S37">
         <f t="shared" si="5"/>
-        <v>4.9702293776352278</v>
+        <v>4.8286288286406815</v>
       </c>
       <c r="T37">
         <f t="shared" si="6"/>
-        <v>5.9516650000000002</v>
+        <v>6.1558140000000003</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -6348,41 +7528,41 @@
         <v>31</v>
       </c>
       <c r="E38">
-        <v>3.5921910000000001</v>
+        <v>4.5034929999999997</v>
       </c>
       <c r="F38">
-        <v>4.5533950000000001</v>
+        <v>4.3148499999999999</v>
       </c>
       <c r="G38">
-        <v>1.4657910000000001</v>
+        <v>2.2338779999999998</v>
       </c>
       <c r="J38">
         <f t="shared" si="9"/>
-        <v>17.121100497854751</v>
+        <v>29.606376412763321</v>
       </c>
       <c r="L38">
         <f t="shared" si="10"/>
-        <v>1.4657910000000001</v>
+        <v>2.2338779999999998</v>
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
-        <v>4.5533950000000001</v>
+        <v>4.3148499999999999</v>
       </c>
       <c r="O38">
         <f t="shared" si="8"/>
-        <v>4.5533950000000001</v>
+        <v>4.3148499999999999</v>
       </c>
       <c r="Q38">
         <f t="shared" si="4"/>
-        <v>0.30598522155671792</v>
+        <v>0.25526178790947424</v>
       </c>
       <c r="S38">
         <f t="shared" si="5"/>
-        <v>5.1065543093826751</v>
+        <v>4.8200843890804288</v>
       </c>
       <c r="T38">
         <f t="shared" si="6"/>
-        <v>4.5533950000000001</v>
+        <v>4.3148499999999999</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -6399,41 +7579,41 @@
         <v>28</v>
       </c>
       <c r="E39">
-        <v>4.089823</v>
+        <v>4.6825390000000002</v>
       </c>
       <c r="F39">
-        <v>5.4744789999999997</v>
+        <v>5.3706670000000001</v>
       </c>
       <c r="G39">
-        <v>2.838282</v>
+        <v>3.3428650000000002</v>
       </c>
       <c r="J39">
         <f t="shared" si="9"/>
-        <v>10.347037668419864</v>
+        <v>19.231357560445122</v>
       </c>
       <c r="L39">
         <f t="shared" si="10"/>
-        <v>2.838282</v>
+        <v>3.3428650000000002</v>
       </c>
       <c r="M39">
         <f t="shared" si="7"/>
-        <v>5.4744789999999997</v>
+        <v>5.3706670000000001</v>
       </c>
       <c r="O39">
         <f t="shared" si="8"/>
-        <v>5.4744789999999997</v>
+        <v>5.3706670000000001</v>
       </c>
       <c r="Q39">
         <f t="shared" si="4"/>
-        <v>6.8153492536418808E-2</v>
+        <v>3.3759630753187463E-2</v>
       </c>
       <c r="S39">
         <f t="shared" si="5"/>
-        <v>5.7355412388175253</v>
+        <v>5.5544049404292632</v>
       </c>
       <c r="T39">
         <f t="shared" si="6"/>
-        <v>5.4744789999999997</v>
+        <v>5.3706670000000001</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -6450,41 +7630,41 @@
         <v>31</v>
       </c>
       <c r="E40">
-        <v>5.1888930000000002</v>
+        <v>4.898047</v>
       </c>
       <c r="F40">
-        <v>6.4087949999999996</v>
+        <v>6.000432</v>
       </c>
       <c r="G40">
-        <v>5.6092409999999999</v>
+        <v>6.4371039999999997</v>
       </c>
       <c r="J40">
         <f t="shared" si="9"/>
-        <v>5.2091907117473442</v>
+        <v>14.104472591876128</v>
       </c>
       <c r="L40">
         <f t="shared" si="10"/>
-        <v>5.6092409999999999</v>
+        <v>6.4371039999999997</v>
       </c>
       <c r="M40">
         <f t="shared" si="7"/>
-        <v>6.4087949999999996</v>
+        <v>6.000432</v>
       </c>
       <c r="O40">
         <f t="shared" si="8"/>
-        <v>6.4087949999999996</v>
+        <v>6.000432</v>
       </c>
       <c r="Q40">
         <f t="shared" si="4"/>
-        <v>0.35596123603250607</v>
+        <v>2.5690855283474394</v>
       </c>
       <c r="S40">
         <f t="shared" si="5"/>
-        <v>7.0054198704441557</v>
+        <v>7.6032687129397303</v>
       </c>
       <c r="T40">
         <f t="shared" si="6"/>
-        <v>6.4087949999999996</v>
+        <v>6.000432</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -6501,41 +7681,41 @@
         <v>30</v>
       </c>
       <c r="E41">
-        <v>6.2393809999999998</v>
+        <v>4.9745739999999996</v>
       </c>
       <c r="F41">
-        <v>7.2206440000000001</v>
+        <v>7.3541650000000001</v>
       </c>
       <c r="G41">
-        <v>7.1481370000000002</v>
+        <v>7.7483399999999998</v>
       </c>
       <c r="J41">
         <f t="shared" si="9"/>
-        <v>2.1624177691962485</v>
+        <v>5.768927500979629</v>
       </c>
       <c r="L41">
         <f t="shared" si="10"/>
-        <v>7.1481370000000002</v>
+        <v>7.7483399999999998</v>
       </c>
       <c r="M41">
         <f t="shared" si="7"/>
-        <v>7.2206440000000001</v>
+        <v>7.3541650000000001</v>
       </c>
       <c r="O41">
         <f t="shared" si="8"/>
-        <v>7.2206440000000001</v>
+        <v>7.3541650000000001</v>
       </c>
       <c r="Q41">
         <f t="shared" si="4"/>
-        <v>0.24012263454859348</v>
+        <v>1.2484583221144836</v>
       </c>
       <c r="S41">
         <f t="shared" si="5"/>
-        <v>7.7106670959338484</v>
+        <v>8.47150931672358</v>
       </c>
       <c r="T41">
         <f t="shared" si="6"/>
-        <v>7.2206440000000001</v>
+        <v>7.3541650000000001</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -6552,41 +7732,41 @@
         <v>31</v>
       </c>
       <c r="E42">
-        <v>8.5597930000000009</v>
+        <v>5.2211749999999997</v>
       </c>
       <c r="F42">
-        <v>9.3150300000000001</v>
+        <v>10.393872</v>
       </c>
       <c r="G42">
-        <v>11.258732</v>
+        <v>11.511297000000001</v>
       </c>
       <c r="J42">
         <f t="shared" si="9"/>
-        <v>0.38921358049650573</v>
+        <v>0.40684984667601459</v>
       </c>
       <c r="L42">
         <f t="shared" si="10"/>
-        <v>11.258732</v>
+        <v>11.511297000000001</v>
       </c>
       <c r="M42">
         <f t="shared" si="7"/>
-        <v>9.3150300000000001</v>
+        <v>10.393872</v>
       </c>
       <c r="O42">
         <f t="shared" si="8"/>
-        <v>9.3150300000000001</v>
+        <v>10.393872</v>
       </c>
       <c r="Q42">
         <f t="shared" si="4"/>
-        <v>7.8089969450161986E-2</v>
+        <v>0.32409749490841566</v>
       </c>
       <c r="S42">
         <f t="shared" si="5"/>
-        <v>9.594475825608761</v>
+        <v>10.963167612936211</v>
       </c>
       <c r="T42">
         <f t="shared" si="6"/>
-        <v>9.3150300000000001</v>
+        <v>10.393872</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -6603,41 +7783,41 @@
         <v>30</v>
       </c>
       <c r="E43">
-        <v>9.8807500000000008</v>
+        <v>5.4811329999999998</v>
       </c>
       <c r="F43">
-        <v>11.220304</v>
+        <v>13.887563999999999</v>
       </c>
       <c r="G43">
-        <v>14.331125999999999</v>
+        <v>14.258342000000001</v>
       </c>
       <c r="J43">
         <f t="shared" si="9"/>
-        <v>6.3965685765240243</v>
+        <v>17.06962131790992</v>
       </c>
       <c r="L43">
         <f t="shared" si="10"/>
-        <v>14.331125999999999</v>
+        <v>14.258342000000001</v>
       </c>
       <c r="M43">
         <f t="shared" si="7"/>
-        <v>11.220304</v>
+        <v>13.887563999999999</v>
       </c>
       <c r="O43">
         <f t="shared" si="8"/>
-        <v>11.220304</v>
+        <v>13.887563999999999</v>
       </c>
       <c r="Q43">
         <f t="shared" si="4"/>
-        <v>4.744011827340136E-2</v>
+        <v>1.2219724500884712</v>
       </c>
       <c r="S43">
         <f t="shared" si="5"/>
-        <v>11.002496474249853</v>
+        <v>12.782135372684571</v>
       </c>
       <c r="T43">
         <f t="shared" si="6"/>
-        <v>11.220304</v>
+        <v>13.887563999999999</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -6654,41 +7834,41 @@
         <v>31</v>
       </c>
       <c r="E44">
-        <v>12.57972</v>
+        <v>6.1755769999999997</v>
       </c>
       <c r="F44">
-        <v>13.132799</v>
+        <v>20.018450000000001</v>
       </c>
       <c r="G44">
-        <v>18.072984999999999</v>
+        <v>17.616136999999998</v>
       </c>
       <c r="J44">
         <f t="shared" si="9"/>
-        <v>19.728155608027262</v>
+        <v>105.3173837946222</v>
       </c>
       <c r="L44">
         <f t="shared" si="10"/>
-        <v>18.072984999999999</v>
+        <v>17.616136999999998</v>
       </c>
       <c r="M44">
         <f t="shared" si="7"/>
-        <v>13.132799</v>
+        <v>20.018450000000001</v>
       </c>
       <c r="O44">
         <f t="shared" si="8"/>
-        <v>13.132799</v>
+        <v>20.018450000000001</v>
       </c>
       <c r="Q44">
         <f t="shared" si="4"/>
-        <v>0.17262246820138064</v>
+        <v>25.129528407373869</v>
       </c>
       <c r="S44">
         <f t="shared" si="5"/>
-        <v>12.717320398623972</v>
+        <v>15.005513893547629</v>
       </c>
       <c r="T44">
         <f t="shared" si="6"/>
-        <v>13.132799</v>
+        <v>20.018450000000001</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -6705,41 +7885,41 @@
         <v>31</v>
       </c>
       <c r="E45">
-        <v>12.917382999999999</v>
+        <v>6.0323900000000004</v>
       </c>
       <c r="F45">
-        <v>12.611022</v>
+        <v>20.471126999999999</v>
       </c>
       <c r="G45">
-        <v>18.614208000000001</v>
+        <v>18.212910000000001</v>
       </c>
       <c r="J45">
         <f t="shared" si="9"/>
-        <v>15.365316865013392</v>
+        <v>114.81342853047991</v>
       </c>
       <c r="L45">
         <f t="shared" si="10"/>
-        <v>18.614208000000001</v>
+        <v>18.212910000000001</v>
       </c>
       <c r="M45">
         <f t="shared" si="7"/>
-        <v>12.611022</v>
+        <v>20.471126999999999</v>
       </c>
       <c r="O45">
         <f t="shared" si="8"/>
-        <v>12.611022</v>
+        <v>20.471126999999999</v>
       </c>
       <c r="Q45">
         <f t="shared" si="4"/>
-        <v>0.12555029223872236</v>
+        <v>25.709536992823587</v>
       </c>
       <c r="S45">
         <f t="shared" si="5"/>
-        <v>12.965352766712012</v>
+        <v>15.400669723498837</v>
       </c>
       <c r="T45">
         <f t="shared" si="6"/>
-        <v>12.611022</v>
+        <v>20.471126999999999</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -6756,41 +7936,41 @@
         <v>30</v>
       </c>
       <c r="E46">
-        <v>11.136229999999999</v>
+        <v>5.2045089999999998</v>
       </c>
       <c r="F46">
-        <v>10.935141</v>
+        <v>16.325657</v>
       </c>
       <c r="G46">
-        <v>14.691919</v>
+        <v>14.521673</v>
       </c>
       <c r="J46">
         <f t="shared" si="9"/>
-        <v>5.035450021922558</v>
+        <v>43.160075443151321</v>
       </c>
       <c r="L46">
         <f t="shared" si="10"/>
-        <v>14.691919</v>
+        <v>14.521673</v>
       </c>
       <c r="M46">
         <f t="shared" si="7"/>
-        <v>10.935141</v>
+        <v>16.325657</v>
       </c>
       <c r="O46">
         <f t="shared" si="8"/>
-        <v>10.935141</v>
+        <v>16.325657</v>
       </c>
       <c r="Q46">
         <f t="shared" si="4"/>
-        <v>5.4149360442969183E-2</v>
+        <v>11.351211233827186</v>
       </c>
       <c r="S46">
         <f t="shared" si="5"/>
-        <v>11.167841151360005</v>
+        <v>12.956501136311413</v>
       </c>
       <c r="T46">
         <f t="shared" si="6"/>
-        <v>10.935141</v>
+        <v>16.325657</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -6807,41 +7987,41 @@
         <v>31</v>
       </c>
       <c r="E47">
-        <v>8.9348899999999993</v>
+        <v>4.9114019999999998</v>
       </c>
       <c r="F47">
-        <v>8.7769480000000009</v>
+        <v>8.9291060000000009</v>
       </c>
       <c r="G47">
-        <v>8.8209940000000007</v>
+        <v>9.5661369999999994</v>
       </c>
       <c r="J47">
         <f t="shared" si="9"/>
-        <v>7.3595539366914904E-3</v>
+        <v>0.68379366967668032</v>
       </c>
       <c r="L47">
         <f t="shared" si="10"/>
-        <v>8.8209940000000007</v>
+        <v>9.5661369999999994</v>
       </c>
       <c r="M47">
         <f t="shared" si="7"/>
-        <v>8.7769480000000009</v>
+        <v>8.9291060000000009</v>
       </c>
       <c r="O47">
         <f t="shared" si="8"/>
-        <v>8.7769480000000009</v>
+        <v>8.9291060000000009</v>
       </c>
       <c r="Q47">
         <f t="shared" si="4"/>
-        <v>8.9785244445813692E-2</v>
+        <v>0.55661370558044265</v>
       </c>
       <c r="S47">
         <f t="shared" si="5"/>
-        <v>8.477306139697049</v>
+        <v>9.6751714834399216</v>
       </c>
       <c r="T47">
         <f t="shared" si="6"/>
-        <v>8.7769480000000009</v>
+        <v>8.9291060000000009</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -6858,41 +8038,41 @@
         <v>30</v>
       </c>
       <c r="E48">
-        <v>6.5374980000000003</v>
+        <v>4.7578129999999996</v>
       </c>
       <c r="F48">
-        <v>6.8595550000000003</v>
+        <v>7.0151490000000001</v>
       </c>
       <c r="G48">
-        <v>4.3418720000000004</v>
+        <v>5.6650070000000001</v>
       </c>
       <c r="J48">
         <f t="shared" si="9"/>
-        <v>3.3547774526414149</v>
+        <v>7.5123967300070449</v>
       </c>
       <c r="L48">
         <f t="shared" si="10"/>
-        <v>4.3418720000000004</v>
+        <v>5.6650070000000001</v>
       </c>
       <c r="M48">
         <f t="shared" si="7"/>
-        <v>6.8595550000000003</v>
+        <v>7.0151490000000001</v>
       </c>
       <c r="O48">
         <f t="shared" si="8"/>
-        <v>6.8595550000000003</v>
+        <v>7.0151490000000001</v>
       </c>
       <c r="Q48">
         <f t="shared" si="4"/>
-        <v>0.18917855745767737</v>
+        <v>5.9093560525610806E-3</v>
       </c>
       <c r="S48">
         <f t="shared" si="5"/>
-        <v>6.4246083855084315</v>
+        <v>7.0920213360680622</v>
       </c>
       <c r="T48">
         <f t="shared" si="6"/>
-        <v>6.8595550000000003</v>
+        <v>7.0151490000000001</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -6909,41 +8089,41 @@
         <v>31</v>
       </c>
       <c r="E49">
-        <v>3.94286</v>
+        <v>4.1663819999999996</v>
       </c>
       <c r="F49">
-        <v>4.037299</v>
+        <v>4.1214890000000004</v>
       </c>
       <c r="G49">
-        <v>0.36212299999999997</v>
+        <v>1.9242010000000001</v>
       </c>
       <c r="J49">
         <f t="shared" si="9"/>
-        <v>21.658423672425421</v>
+        <v>31.747986648746746</v>
       </c>
       <c r="L49">
         <f t="shared" si="10"/>
-        <v>0.36212299999999997</v>
+        <v>1.9242010000000001</v>
       </c>
       <c r="M49">
         <f t="shared" si="7"/>
-        <v>4.037299</v>
+        <v>4.1214890000000004</v>
       </c>
       <c r="O49">
         <f t="shared" si="8"/>
-        <v>4.037299</v>
+        <v>4.1214890000000004</v>
       </c>
       <c r="Q49">
         <f t="shared" si="4"/>
-        <v>0.3174927250029394</v>
+        <v>0.24358313381506827</v>
       </c>
       <c r="S49">
         <f t="shared" si="5"/>
-        <v>4.6007639279262547</v>
+        <v>4.6150304205667734</v>
       </c>
       <c r="T49">
         <f t="shared" si="6"/>
-        <v>4.037299</v>
+        <v>4.1214890000000004</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -6960,41 +8140,41 @@
         <v>31</v>
       </c>
       <c r="E50">
-        <v>4.8798630000000003</v>
+        <v>4.8032170000000001</v>
       </c>
       <c r="F50">
-        <v>4.8515449999999998</v>
+        <v>5.2719950000000004</v>
       </c>
       <c r="G50">
-        <v>4.1792569999999998</v>
+        <v>5.7306520000000001</v>
       </c>
       <c r="J50">
         <f t="shared" si="9"/>
-        <v>14.742644556992715</v>
+        <v>20.106517650555048</v>
       </c>
       <c r="L50">
         <f t="shared" si="10"/>
-        <v>4.1792569999999998</v>
+        <v>5.7306520000000001</v>
       </c>
       <c r="M50">
         <f t="shared" si="7"/>
-        <v>4.8515449999999998</v>
+        <v>5.2719950000000004</v>
       </c>
       <c r="O50">
         <f t="shared" si="8"/>
-        <v>4.8515449999999998</v>
+        <v>5.2719950000000004</v>
       </c>
       <c r="Q50">
         <f t="shared" si="4"/>
-        <v>2.245622058162442</v>
+        <v>3.4726078661380901</v>
       </c>
       <c r="S50">
         <f t="shared" si="5"/>
-        <v>6.3500849754969639</v>
+        <v>7.1354884574980648</v>
       </c>
       <c r="T50">
         <f t="shared" si="6"/>
-        <v>4.8515449999999998</v>
+        <v>5.2719950000000004</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -7011,41 +8191,41 @@
         <v>28</v>
       </c>
       <c r="E51">
-        <v>4.0763959999999999</v>
+        <v>4.5906190000000002</v>
       </c>
       <c r="F51">
-        <v>5.3713449999999998</v>
+        <v>5.0948130000000003</v>
       </c>
       <c r="G51">
-        <v>1.5540579999999999</v>
+        <v>3.2035779999999998</v>
       </c>
       <c r="J51">
         <f t="shared" si="9"/>
-        <v>11.021172679351974</v>
+        <v>21.72688962657687</v>
       </c>
       <c r="L51">
         <f t="shared" si="10"/>
-        <v>1.5540579999999999</v>
+        <v>3.2035779999999998</v>
       </c>
       <c r="M51">
         <f t="shared" si="7"/>
-        <v>5.3713449999999998</v>
+        <v>5.0948130000000003</v>
       </c>
       <c r="O51">
         <f t="shared" si="8"/>
-        <v>5.3713449999999998</v>
+        <v>5.0948130000000003</v>
       </c>
       <c r="Q51">
         <f t="shared" si="4"/>
-        <v>5.0328245834472707E-2</v>
+        <v>0.13495516918434394</v>
       </c>
       <c r="S51">
         <f t="shared" si="5"/>
-        <v>5.1470054229421995</v>
+        <v>5.4621754493389929</v>
       </c>
       <c r="T51">
         <f t="shared" si="6"/>
-        <v>5.3713449999999998</v>
+        <v>5.0948130000000003</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
@@ -7062,41 +8242,41 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>5.3521599999999996</v>
+        <v>4.9189100000000003</v>
       </c>
       <c r="F52">
-        <v>6.6242960000000002</v>
+        <v>6.727627</v>
       </c>
       <c r="G52">
-        <v>5.8522679999999996</v>
+        <v>6.3806520000000004</v>
       </c>
       <c r="J52">
         <f t="shared" si="9"/>
-        <v>4.2719274451754341</v>
+        <v>9.1711894551562008</v>
       </c>
       <c r="L52">
         <f t="shared" si="10"/>
-        <v>5.8522679999999996</v>
+        <v>6.3806520000000004</v>
       </c>
       <c r="M52">
         <f t="shared" si="7"/>
-        <v>6.6242960000000002</v>
+        <v>6.727627</v>
       </c>
       <c r="O52">
         <f t="shared" si="8"/>
-        <v>6.6242960000000002</v>
+        <v>6.727627</v>
       </c>
       <c r="Q52">
         <f t="shared" si="4"/>
-        <v>0.24255486566028475</v>
+        <v>0.70268280565029007</v>
       </c>
       <c r="S52">
         <f t="shared" si="5"/>
-        <v>7.1167945945769642</v>
+        <v>7.5658887763266378</v>
       </c>
       <c r="T52">
         <f t="shared" si="6"/>
-        <v>6.6242960000000002</v>
+        <v>6.727627</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -7113,41 +8293,41 @@
         <v>30</v>
       </c>
       <c r="E53">
-        <v>6.5824449999999999</v>
+        <v>4.9814309999999997</v>
       </c>
       <c r="F53">
-        <v>7.853091</v>
+        <v>8.0741010000000006</v>
       </c>
       <c r="G53">
-        <v>8.1468760000000007</v>
+        <v>8.2433409999999991</v>
       </c>
       <c r="J53">
         <f t="shared" si="9"/>
-        <v>0.7023599125975627</v>
+        <v>2.8288655697167941</v>
       </c>
       <c r="L53">
         <f t="shared" si="10"/>
-        <v>8.1468760000000007</v>
+        <v>8.2433409999999991</v>
       </c>
       <c r="M53">
         <f t="shared" si="7"/>
-        <v>7.853091</v>
+        <v>8.0741010000000006</v>
       </c>
       <c r="O53">
         <f t="shared" si="8"/>
-        <v>7.853091</v>
+        <v>8.0741010000000006</v>
       </c>
       <c r="Q53">
         <f t="shared" si="4"/>
-        <v>9.9401151251733308E-2</v>
+        <v>0.52587932526679371</v>
       </c>
       <c r="S53">
         <f t="shared" si="5"/>
-        <v>8.1683704811777851</v>
+        <v>8.7992763755242898</v>
       </c>
       <c r="T53">
         <f t="shared" si="6"/>
-        <v>7.853091</v>
+        <v>8.0741010000000006</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
@@ -7164,41 +8344,41 @@
         <v>31</v>
       </c>
       <c r="E54">
-        <v>8.6636839999999999</v>
+        <v>5.2180869999999997</v>
       </c>
       <c r="F54">
-        <v>9.6087039999999995</v>
+        <v>10.960146</v>
       </c>
       <c r="G54">
-        <v>11.960626</v>
+        <v>12.462911999999999</v>
       </c>
       <c r="J54">
         <f t="shared" si="9"/>
-        <v>0.84188670307957825</v>
+        <v>1.4499093672114445</v>
       </c>
       <c r="L54">
         <f t="shared" si="10"/>
-        <v>11.960626</v>
+        <v>12.462911999999999</v>
       </c>
       <c r="M54">
         <f t="shared" si="7"/>
-        <v>9.6087039999999995</v>
+        <v>10.960146</v>
       </c>
       <c r="O54">
         <f t="shared" si="8"/>
-        <v>9.6087039999999995</v>
+        <v>10.960146</v>
       </c>
       <c r="Q54">
         <f t="shared" si="4"/>
-        <v>9.4517327522204667E-2</v>
+        <v>0.40086323574968979</v>
       </c>
       <c r="S54">
         <f t="shared" si="5"/>
-        <v>9.9161407049039596</v>
+        <v>11.59328361201629</v>
       </c>
       <c r="T54">
         <f t="shared" si="6"/>
-        <v>9.6087039999999995</v>
+        <v>10.960146</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
@@ -7215,41 +8395,41 @@
         <v>30</v>
       </c>
       <c r="E55">
-        <v>9.6670999999999996</v>
+        <v>5.4461009999999996</v>
       </c>
       <c r="F55">
-        <v>11.088483999999999</v>
+        <v>14.537305</v>
       </c>
       <c r="G55">
-        <v>13.050782999999999</v>
+        <v>13.563342</v>
       </c>
       <c r="J55">
         <f t="shared" si="9"/>
-        <v>5.7471616062629076</v>
+        <v>22.860646318658333</v>
       </c>
       <c r="L55">
         <f t="shared" si="10"/>
-        <v>13.050782999999999</v>
+        <v>13.563342</v>
       </c>
       <c r="M55">
         <f t="shared" si="7"/>
-        <v>11.088483999999999</v>
+        <v>14.537305</v>
       </c>
       <c r="O55">
         <f t="shared" si="8"/>
-        <v>11.088483999999999</v>
+        <v>14.537305</v>
       </c>
       <c r="Q55">
         <f t="shared" si="4"/>
-        <v>0.45258550132444225</v>
+        <v>4.9078504630401776</v>
       </c>
       <c r="S55">
         <f t="shared" si="5"/>
-        <v>10.415739248014194</v>
+        <v>12.32193810870633</v>
       </c>
       <c r="T55">
         <f t="shared" si="6"/>
-        <v>11.088483999999999</v>
+        <v>14.537305</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
@@ -7266,41 +8446,41 @@
         <v>31</v>
       </c>
       <c r="E56">
-        <v>12.638795</v>
+        <v>5.9486410000000003</v>
       </c>
       <c r="F56">
-        <v>12.808116999999999</v>
+        <v>18.976659999999999</v>
       </c>
       <c r="G56">
-        <v>18.997354999999999</v>
+        <v>18.541943</v>
       </c>
       <c r="J56">
         <f t="shared" si="9"/>
-        <v>16.949333643769958</v>
+        <v>85.020125000197922</v>
       </c>
       <c r="L56">
         <f t="shared" si="10"/>
-        <v>18.997354999999999</v>
+        <v>18.541943</v>
       </c>
       <c r="M56">
         <f t="shared" si="7"/>
-        <v>12.808116999999999</v>
+        <v>18.976659999999999</v>
       </c>
       <c r="O56">
         <f t="shared" si="8"/>
-        <v>12.808116999999999</v>
+        <v>18.976659999999999</v>
       </c>
       <c r="Q56">
         <f t="shared" si="4"/>
-        <v>0.11077238976987189</v>
+        <v>11.276967574629918</v>
       </c>
       <c r="S56">
         <f t="shared" si="5"/>
-        <v>13.140941863509131</v>
+        <v>15.61854035135287</v>
       </c>
       <c r="T56">
         <f t="shared" si="6"/>
-        <v>12.808116999999999</v>
+        <v>18.976659999999999</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
@@ -7317,41 +8497,41 @@
         <v>31</v>
       </c>
       <c r="E57">
-        <v>13.121287000000001</v>
+        <v>6.0285010000000003</v>
       </c>
       <c r="F57">
-        <v>12.318883</v>
+        <v>21.242239000000001</v>
       </c>
       <c r="G57">
-        <v>18.577307000000001</v>
+        <v>18.788715</v>
       </c>
       <c r="J57">
         <f t="shared" si="9"/>
-        <v>13.160373022668074</v>
+        <v>131.93313098477876</v>
       </c>
       <c r="L57">
         <f t="shared" si="10"/>
-        <v>18.577307000000001</v>
+        <v>18.788715</v>
       </c>
       <c r="M57">
         <f t="shared" si="7"/>
-        <v>12.318883</v>
+        <v>21.242239000000001</v>
       </c>
       <c r="O57">
         <f t="shared" si="8"/>
-        <v>12.318883</v>
+        <v>21.242239000000001</v>
       </c>
       <c r="Q57">
         <f t="shared" si="4"/>
-        <v>0.39634419360624623</v>
+        <v>29.814848774102348</v>
       </c>
       <c r="S57">
         <f t="shared" si="5"/>
-        <v>12.948441729274915</v>
+        <v>15.781941501318968</v>
       </c>
       <c r="T57">
         <f t="shared" si="6"/>
-        <v>12.318883</v>
+        <v>21.242239000000001</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -7368,41 +8548,41 @@
         <v>30</v>
       </c>
       <c r="E58">
-        <v>11.649562</v>
+        <v>5.2641410000000004</v>
       </c>
       <c r="F58">
-        <v>11.641112</v>
+        <v>17.225871999999999</v>
       </c>
       <c r="G58">
-        <v>15.80134</v>
+        <v>15.868342</v>
       </c>
       <c r="J58">
         <f t="shared" si="9"/>
-        <v>8.702215873615426</v>
+        <v>55.798626514823972</v>
       </c>
       <c r="L58">
         <f t="shared" si="10"/>
-        <v>15.80134</v>
+        <v>15.868342</v>
       </c>
       <c r="M58">
         <f t="shared" si="7"/>
-        <v>11.641112</v>
+        <v>17.225871999999999</v>
       </c>
       <c r="O58">
         <f t="shared" si="8"/>
-        <v>11.641112</v>
+        <v>17.225871999999999</v>
       </c>
       <c r="Q58">
         <f t="shared" si="4"/>
-        <v>1.2359460943902145E-3</v>
+        <v>11.408642099733035</v>
       </c>
       <c r="S58">
         <f t="shared" si="5"/>
-        <v>11.676268025008385</v>
+        <v>13.848203854706114</v>
       </c>
       <c r="T58">
         <f t="shared" si="6"/>
-        <v>11.641112</v>
+        <v>17.225871999999999</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -7419,41 +8599,41 @@
         <v>31</v>
       </c>
       <c r="E59">
-        <v>10.621052000000001</v>
+        <v>4.959301</v>
       </c>
       <c r="F59">
-        <v>10.59234</v>
+        <v>12.562853</v>
       </c>
       <c r="G59">
-        <v>11.863821</v>
+        <v>12.306459</v>
       </c>
       <c r="J59">
         <f t="shared" si="9"/>
-        <v>3.6144847938803935</v>
+        <v>7.8782880476529806</v>
       </c>
       <c r="L59">
         <f t="shared" si="10"/>
-        <v>11.863821</v>
+        <v>12.306459</v>
       </c>
       <c r="M59">
         <f t="shared" si="7"/>
-        <v>10.59234</v>
+        <v>12.562853</v>
       </c>
       <c r="O59">
         <f t="shared" si="8"/>
-        <v>10.59234</v>
+        <v>12.562853</v>
       </c>
       <c r="Q59">
         <f t="shared" si="4"/>
-        <v>0.51921134566771499</v>
+        <v>1.1516840195789608</v>
       </c>
       <c r="S59">
         <f t="shared" si="5"/>
-        <v>9.871776785793422</v>
+        <v>11.489687579582924</v>
       </c>
       <c r="T59">
         <f t="shared" si="6"/>
-        <v>10.59234</v>
+        <v>12.562853</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -7470,41 +8650,41 @@
         <v>30</v>
       </c>
       <c r="E60">
-        <v>6.8657409999999999</v>
+        <v>4.7528629999999996</v>
       </c>
       <c r="F60">
-        <v>7.7233270000000003</v>
+        <v>7.6315049999999998</v>
       </c>
       <c r="G60">
-        <v>4.4208689999999997</v>
+        <v>6.2816729999999996</v>
       </c>
       <c r="J60">
         <f t="shared" si="9"/>
-        <v>0.93670102057719207</v>
+        <v>4.513581728877031</v>
       </c>
       <c r="L60">
         <f t="shared" si="10"/>
-        <v>4.4208689999999997</v>
+        <v>6.2816729999999996</v>
       </c>
       <c r="M60">
         <f t="shared" si="7"/>
-        <v>7.7233270000000003</v>
+        <v>7.6315049999999998</v>
       </c>
       <c r="O60">
         <f t="shared" si="8"/>
-        <v>7.7233270000000003</v>
+        <v>7.6315049999999998</v>
       </c>
       <c r="Q60">
         <f t="shared" si="4"/>
-        <v>1.5939460654043678</v>
+        <v>1.7201790824194204E-2</v>
       </c>
       <c r="S60">
         <f t="shared" si="5"/>
-        <v>6.460811231621495</v>
+        <v>7.5003494022384318</v>
       </c>
       <c r="T60">
         <f t="shared" si="6"/>
-        <v>7.7233270000000003</v>
+        <v>7.6315049999999998</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -7521,41 +8701,41 @@
         <v>31</v>
       </c>
       <c r="E61">
-        <v>5.1098869999999996</v>
+        <v>4.7357560000000003</v>
       </c>
       <c r="F61">
-        <v>7.0356180000000004</v>
+        <v>7.4172419999999999</v>
       </c>
       <c r="G61">
-        <v>3.641492</v>
+        <v>4.9500070000000003</v>
       </c>
       <c r="J61">
         <f t="shared" si="9"/>
-        <v>2.7408198349531738</v>
+        <v>5.4699020664288689</v>
       </c>
       <c r="L61">
         <f t="shared" si="10"/>
-        <v>3.641492</v>
+        <v>4.9500070000000003</v>
       </c>
       <c r="M61">
         <f t="shared" si="7"/>
-        <v>7.0356180000000004</v>
+        <v>7.4172419999999999</v>
       </c>
       <c r="O61">
         <f t="shared" si="8"/>
-        <v>7.0356180000000004</v>
+        <v>7.4172419999999999</v>
       </c>
       <c r="Q61">
         <f t="shared" si="4"/>
-        <v>0.86858794303139064</v>
+        <v>0.63785941631117327</v>
       </c>
       <c r="S61">
         <f t="shared" si="5"/>
-        <v>6.1036373440680274</v>
+        <v>6.6185809853566324</v>
       </c>
       <c r="T61">
         <f t="shared" si="6"/>
-        <v>7.0356180000000004</v>
+        <v>7.4172419999999999</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
@@ -7572,41 +8752,41 @@
         <v>31</v>
       </c>
       <c r="E62">
-        <v>5.286162</v>
+        <v>4.8412540000000002</v>
       </c>
       <c r="F62">
-        <v>6.0788659999999997</v>
+        <v>6.6338660000000003</v>
       </c>
       <c r="G62">
-        <v>5.4084440000000003</v>
+        <v>7.7564590000000004</v>
       </c>
       <c r="J62">
         <f t="shared" si="9"/>
-        <v>6.8240807648248811</v>
+        <v>9.7478716755011838</v>
       </c>
       <c r="L62">
         <f t="shared" si="10"/>
-        <v>5.4084440000000003</v>
+        <v>7.7564590000000004</v>
       </c>
       <c r="M62">
         <f t="shared" si="7"/>
-        <v>6.0788659999999997</v>
+        <v>6.6338660000000003</v>
       </c>
       <c r="O62">
         <f t="shared" si="8"/>
-        <v>6.0788659999999997</v>
+        <v>6.6338660000000003</v>
       </c>
       <c r="Q62">
         <f t="shared" si="4"/>
-        <v>0.696444267695987</v>
+        <v>3.3967203163021722</v>
       </c>
       <c r="S62">
         <f t="shared" si="5"/>
-        <v>6.9133983646785584</v>
+        <v>8.4768853477829182</v>
       </c>
       <c r="T62">
         <f t="shared" si="6"/>
-        <v>6.0788659999999997</v>
+        <v>6.6338660000000003</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
@@ -7623,41 +8803,41 @@
         <v>28</v>
       </c>
       <c r="E63">
-        <v>5.8979850000000003</v>
+        <v>4.8237829999999997</v>
       </c>
       <c r="F63">
-        <v>6.818454</v>
+        <v>7.2626730000000004</v>
       </c>
       <c r="G63">
-        <v>6.6155629999999999</v>
+        <v>7.9178649999999999</v>
       </c>
       <c r="J63">
         <f t="shared" si="9"/>
-        <v>3.5070283519916194</v>
+        <v>6.2168000864912596</v>
       </c>
       <c r="L63">
         <f t="shared" si="10"/>
-        <v>6.6155629999999999</v>
+        <v>7.9178649999999999</v>
       </c>
       <c r="M63">
         <f t="shared" si="7"/>
-        <v>6.818454</v>
+        <v>7.2626730000000004</v>
       </c>
       <c r="O63">
         <f t="shared" si="8"/>
-        <v>6.818454</v>
+        <v>7.2626730000000004</v>
       </c>
       <c r="Q63">
         <f t="shared" si="4"/>
-        <v>0.42009116664591867</v>
+        <v>1.7452735847154743</v>
       </c>
       <c r="S63">
         <f t="shared" si="5"/>
-        <v>7.4665984026186747</v>
+        <v>8.5837610306457535</v>
       </c>
       <c r="T63">
         <f t="shared" si="6"/>
-        <v>6.818454</v>
+        <v>7.2626730000000004</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -7674,41 +8854,41 @@
         <v>31</v>
       </c>
       <c r="E64">
-        <v>6.8977899999999996</v>
+        <v>4.9791749999999997</v>
       </c>
       <c r="F64">
-        <v>7.5365339999999996</v>
+        <v>7.8642589999999997</v>
       </c>
       <c r="G64">
-        <v>8.4821469999999994</v>
+        <v>9.2177480000000003</v>
       </c>
       <c r="J64">
         <f t="shared" si="9"/>
-        <v>1.3331615633693974</v>
+        <v>3.5787754808460992</v>
       </c>
       <c r="L64">
         <f t="shared" si="10"/>
-        <v>8.4821469999999994</v>
+        <v>9.2177480000000003</v>
       </c>
       <c r="M64">
         <f t="shared" si="7"/>
-        <v>7.5365339999999996</v>
+        <v>7.8642589999999997</v>
       </c>
       <c r="O64">
         <f t="shared" si="8"/>
-        <v>7.5365339999999996</v>
+        <v>7.8642589999999997</v>
       </c>
       <c r="Q64">
         <f t="shared" si="4"/>
-        <v>0.61698653364598943</v>
+        <v>2.4971116708491663</v>
       </c>
       <c r="S64">
         <f t="shared" si="5"/>
-        <v>8.3220189035124665</v>
+        <v>9.4444841962455115</v>
       </c>
       <c r="T64">
         <f t="shared" si="6"/>
-        <v>7.5365339999999996</v>
+        <v>7.8642589999999997</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -7725,41 +8905,41 @@
         <v>30</v>
       </c>
       <c r="E65">
-        <v>6.8305220000000002</v>
+        <v>5.0430210000000004</v>
       </c>
       <c r="F65">
-        <v>8.4580090000000006</v>
+        <v>8.61557</v>
       </c>
       <c r="G65">
-        <v>7.6396610000000003</v>
+        <v>7.845008</v>
       </c>
       <c r="J65">
         <f t="shared" si="9"/>
-        <v>5.4359462200413683E-2</v>
+        <v>1.300635727386912</v>
       </c>
       <c r="L65">
         <f t="shared" si="10"/>
-        <v>7.6396610000000003</v>
+        <v>7.845008</v>
       </c>
       <c r="M65">
         <f t="shared" ref="M65:M96" si="11">F65</f>
-        <v>8.4580090000000006</v>
+        <v>8.61557</v>
       </c>
       <c r="O65">
         <f t="shared" ref="O65:O96" si="12">F65</f>
-        <v>8.4580090000000006</v>
+        <v>8.61557</v>
       </c>
       <c r="Q65">
         <f t="shared" si="4"/>
-        <v>0.27257343346463397</v>
+        <v>6.4082503148194317E-3</v>
       </c>
       <c r="S65">
         <f t="shared" si="5"/>
-        <v>7.9359233427897742</v>
+        <v>8.5355184521397653</v>
       </c>
       <c r="T65">
         <f t="shared" si="6"/>
-        <v>8.4580090000000006</v>
+        <v>8.61557</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -7776,41 +8956,41 @@
         <v>31</v>
       </c>
       <c r="E66">
-        <v>9.5027450000000009</v>
+        <v>5.5809150000000001</v>
       </c>
       <c r="F66">
-        <v>10.594303</v>
+        <v>13.252872999999999</v>
       </c>
       <c r="G66">
-        <v>12.156072</v>
+        <v>12.250009</v>
       </c>
       <c r="J66">
         <f t="shared" ref="J66:J97" si="13">(F66-F$110)^2</f>
-        <v>3.6219526793114114</v>
+        <v>12.227951698428139</v>
       </c>
       <c r="L66">
         <f t="shared" ref="L66:L97" si="14">MAX(G66,0)</f>
-        <v>12.156072</v>
+        <v>12.250009</v>
       </c>
       <c r="M66">
         <f t="shared" si="11"/>
-        <v>10.594303</v>
+        <v>13.252872999999999</v>
       </c>
       <c r="O66">
         <f t="shared" si="12"/>
-        <v>10.594303</v>
+        <v>13.252872999999999</v>
       </c>
       <c r="Q66">
         <f t="shared" si="4"/>
-        <v>0.34644178139084986</v>
+        <v>3.242030835930291</v>
       </c>
       <c r="S66">
         <f t="shared" si="5"/>
-        <v>10.005709947551324</v>
+        <v>11.452308967278505</v>
       </c>
       <c r="T66">
         <f t="shared" si="6"/>
-        <v>10.594303</v>
+        <v>13.252872999999999</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
@@ -7827,41 +9007,41 @@
         <v>30</v>
       </c>
       <c r="E67">
-        <v>12.335012000000001</v>
+        <v>6.5382999999999996</v>
       </c>
       <c r="F67">
-        <v>13.236169</v>
+        <v>19.900960999999999</v>
       </c>
       <c r="G67">
-        <v>17.591176999999998</v>
+        <v>17.585004999999999</v>
       </c>
       <c r="J67">
         <f t="shared" si="13"/>
-        <v>20.657105379244854</v>
+        <v>102.91974316445388</v>
       </c>
       <c r="L67">
         <f t="shared" si="14"/>
-        <v>17.591176999999998</v>
+        <v>17.585004999999999</v>
       </c>
       <c r="M67">
         <f t="shared" si="11"/>
-        <v>13.236169</v>
+        <v>19.900960999999999</v>
       </c>
       <c r="O67">
         <f t="shared" si="12"/>
-        <v>13.236169</v>
+        <v>19.900960999999999</v>
       </c>
       <c r="Q67">
         <f t="shared" ref="Q67:Q109" si="15">(S67-M67)^2</f>
-        <v>0.54708535823023885</v>
+        <v>24.167658658765696</v>
       </c>
       <c r="S67">
         <f t="shared" ref="S67:S109" si="16">L67*I$2+I$3</f>
-        <v>12.496516812664467</v>
+        <v>14.984899704738751</v>
       </c>
       <c r="T67">
         <f t="shared" ref="T67:T109" si="17">F67</f>
-        <v>13.236169</v>
+        <v>19.900960999999999</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
@@ -7878,41 +9058,41 @@
         <v>31</v>
       </c>
       <c r="E68">
-        <v>13.765948</v>
+        <v>6.9188400000000003</v>
       </c>
       <c r="F68">
-        <v>14.036566000000001</v>
+        <v>22.769897</v>
       </c>
       <c r="G68">
-        <v>19.318377999999999</v>
+        <v>19.067753</v>
       </c>
       <c r="J68">
         <f t="shared" si="13"/>
-        <v>28.573363622023024</v>
+        <v>169.3608858811734</v>
       </c>
       <c r="L68">
         <f t="shared" si="14"/>
-        <v>19.318377999999999</v>
+        <v>19.067753</v>
       </c>
       <c r="M68">
         <f t="shared" si="11"/>
-        <v>14.036566000000001</v>
+        <v>22.769897</v>
       </c>
       <c r="O68">
         <f t="shared" si="12"/>
-        <v>14.036566000000001</v>
+        <v>22.769897</v>
       </c>
       <c r="Q68">
         <f t="shared" si="15"/>
-        <v>0.56026019281705686</v>
+        <v>46.283384337167718</v>
       </c>
       <c r="S68">
         <f t="shared" si="16"/>
-        <v>13.288060694195789</v>
+        <v>15.966707723111718</v>
       </c>
       <c r="T68">
         <f t="shared" si="17"/>
-        <v>14.036566000000001</v>
+        <v>22.769897</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
@@ -7929,41 +9109,41 @@
         <v>31</v>
       </c>
       <c r="E69">
-        <v>13.942228</v>
+        <v>6.6312069999999999</v>
       </c>
       <c r="F69">
-        <v>13.965273</v>
+        <v>21.078575000000001</v>
       </c>
       <c r="G69">
-        <v>18.493395</v>
+        <v>18.714523</v>
       </c>
       <c r="J69">
         <f t="shared" si="13"/>
-        <v>27.816266276400111</v>
+        <v>128.20015716374022</v>
       </c>
       <c r="L69">
         <f t="shared" si="14"/>
-        <v>18.493395</v>
+        <v>18.714523</v>
       </c>
       <c r="M69">
         <f t="shared" si="11"/>
-        <v>13.965273</v>
+        <v>21.078575000000001</v>
       </c>
       <c r="O69">
         <f t="shared" si="12"/>
-        <v>13.965273</v>
+        <v>21.078575000000001</v>
       </c>
       <c r="Q69">
         <f t="shared" si="15"/>
-        <v>1.1136297433854876</v>
+        <v>28.577150546671803</v>
       </c>
       <c r="S69">
         <f t="shared" si="16"/>
-        <v>12.909986430680799</v>
+        <v>15.732814946773537</v>
       </c>
       <c r="T69">
         <f t="shared" si="17"/>
-        <v>13.965273</v>
+        <v>21.078575000000001</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
@@ -7980,41 +9160,41 @@
         <v>30</v>
       </c>
       <c r="E70">
-        <v>11.338362</v>
+        <v>5.3189019999999996</v>
       </c>
       <c r="F70">
-        <v>11.955242</v>
+        <v>16.182568</v>
       </c>
       <c r="G70">
-        <v>13.646039999999999</v>
+        <v>14.083342</v>
       </c>
       <c r="J70">
         <f t="shared" si="13"/>
-        <v>10.654230275142652</v>
+        <v>41.30046552274446</v>
       </c>
       <c r="L70">
         <f t="shared" si="14"/>
-        <v>13.646039999999999</v>
+        <v>14.083342</v>
       </c>
       <c r="M70">
         <f t="shared" si="11"/>
-        <v>11.955242</v>
+        <v>16.182568</v>
       </c>
       <c r="O70">
         <f t="shared" si="12"/>
-        <v>11.955242</v>
+        <v>16.182568</v>
       </c>
       <c r="Q70">
         <f t="shared" si="15"/>
-        <v>1.6045481776575652</v>
+        <v>12.364433457849664</v>
       </c>
       <c r="S70">
         <f t="shared" si="16"/>
-        <v>10.688534386674192</v>
+        <v>12.666258363769188</v>
       </c>
       <c r="T70">
         <f t="shared" si="17"/>
-        <v>11.955242</v>
+        <v>16.182568</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
@@ -8031,41 +9211,41 @@
         <v>31</v>
       </c>
       <c r="E71">
-        <v>10.123279999999999</v>
+        <v>4.9332539999999998</v>
       </c>
       <c r="F71">
-        <v>10.076076</v>
+        <v>13.124743</v>
       </c>
       <c r="G71">
-        <v>12.181806999999999</v>
+        <v>12.987102999999999</v>
       </c>
       <c r="J71">
         <f t="shared" si="13"/>
-        <v>1.9179918910639504</v>
+        <v>11.348266515670929</v>
       </c>
       <c r="L71">
         <f t="shared" si="14"/>
-        <v>12.181806999999999</v>
+        <v>12.987102999999999</v>
       </c>
       <c r="M71">
         <f t="shared" si="11"/>
-        <v>10.076076</v>
+        <v>13.124743</v>
       </c>
       <c r="O71">
         <f t="shared" si="12"/>
-        <v>10.076076</v>
+        <v>13.124743</v>
       </c>
       <c r="Q71">
         <f t="shared" si="15"/>
-        <v>3.4307007105332933E-3</v>
+        <v>1.402718188947226</v>
       </c>
       <c r="S71">
         <f t="shared" si="16"/>
-        <v>10.017503816238992</v>
+        <v>11.940378955904087</v>
       </c>
       <c r="T71">
         <f t="shared" si="17"/>
-        <v>10.076076</v>
+        <v>13.124743</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
@@ -8082,41 +9262,41 @@
         <v>30</v>
       </c>
       <c r="E72">
-        <v>5.7852569999999996</v>
+        <v>4.7072419999999999</v>
       </c>
       <c r="F72">
-        <v>7.7356850000000001</v>
+        <v>7.4532730000000003</v>
       </c>
       <c r="G72">
-        <v>3.967171</v>
+        <v>5.1166739999999997</v>
       </c>
       <c r="J72">
         <f t="shared" si="13"/>
-        <v>0.91293277642271076</v>
+        <v>5.3026629782282928</v>
       </c>
       <c r="L72">
         <f t="shared" si="14"/>
-        <v>3.967171</v>
+        <v>5.1166739999999997</v>
       </c>
       <c r="M72">
         <f t="shared" si="11"/>
-        <v>7.7356850000000001</v>
+        <v>7.4532730000000003</v>
       </c>
       <c r="O72">
         <f t="shared" si="12"/>
-        <v>7.7356850000000001</v>
+        <v>7.4532730000000003</v>
       </c>
       <c r="Q72">
         <f t="shared" si="15"/>
-        <v>2.1986812125441024</v>
+        <v>0.52465791507110326</v>
       </c>
       <c r="S72">
         <f t="shared" si="16"/>
-        <v>6.252889932384754</v>
+        <v>6.7289402621846346</v>
       </c>
       <c r="T72">
         <f t="shared" si="17"/>
-        <v>7.7356850000000001</v>
+        <v>7.4532730000000003</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -8133,41 +9313,41 @@
         <v>31</v>
       </c>
       <c r="E73">
-        <v>4.7748210000000002</v>
+        <v>4.7704019999999998</v>
       </c>
       <c r="F73">
-        <v>6.5616260000000004</v>
+        <v>7.6571740000000004</v>
       </c>
       <c r="G73">
-        <v>2.8462049999999999</v>
+        <v>3.509684</v>
       </c>
       <c r="J73">
         <f t="shared" si="13"/>
-        <v>4.5349157275648775</v>
+        <v>4.4051720609843423</v>
       </c>
       <c r="L73">
         <f t="shared" si="14"/>
-        <v>2.8462049999999999</v>
+        <v>3.509684</v>
       </c>
       <c r="M73">
         <f t="shared" si="11"/>
-        <v>6.5616260000000004</v>
+        <v>7.6571740000000004</v>
       </c>
       <c r="O73">
         <f t="shared" si="12"/>
-        <v>6.5616260000000004</v>
+        <v>7.6571740000000004</v>
       </c>
       <c r="Q73">
         <f t="shared" si="15"/>
-        <v>0.67643025086017772</v>
+        <v>3.9692956905343335</v>
       </c>
       <c r="S73">
         <f t="shared" si="16"/>
-        <v>5.7391722013826083</v>
+        <v>5.6648648647164386</v>
       </c>
       <c r="T73">
         <f t="shared" si="17"/>
-        <v>6.5616260000000004</v>
+        <v>7.6571740000000004</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
@@ -8184,41 +9364,41 @@
         <v>31</v>
       </c>
       <c r="E74">
-        <v>4.1133379999999997</v>
+        <v>4.6382130000000004</v>
       </c>
       <c r="F74">
-        <v>5.6369619999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G74">
-        <v>2.7711260000000002</v>
+        <v>3.279039</v>
       </c>
       <c r="J74">
         <f t="shared" si="13"/>
-        <v>9.3281263847108082</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L74">
         <f t="shared" si="14"/>
-        <v>2.7711260000000002</v>
+        <v>3.279039</v>
       </c>
       <c r="M74">
         <f t="shared" si="11"/>
-        <v>5.6369619999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O74">
         <f t="shared" si="12"/>
-        <v>5.6369619999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q74">
         <f t="shared" si="15"/>
-        <v>4.5972334269344375E-3</v>
+        <v>5.3193597467423173</v>
       </c>
       <c r="S74">
         <f t="shared" si="16"/>
-        <v>5.7047649013164952</v>
+        <v>5.5121422777376434</v>
       </c>
       <c r="T74">
         <f t="shared" si="17"/>
-        <v>5.6369619999999996</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
@@ -8235,41 +9415,41 @@
         <v>29</v>
       </c>
       <c r="E75">
-        <v>5.2976960000000002</v>
+        <v>4.8645990000000001</v>
       </c>
       <c r="F75">
-        <v>6.342816</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G75">
-        <v>5.9191240000000001</v>
+        <v>6.4293170000000002</v>
       </c>
       <c r="J75">
         <f t="shared" si="13"/>
-        <v>5.5147202816295087</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L75">
         <f t="shared" si="14"/>
-        <v>5.9191240000000001</v>
+        <v>6.4293170000000002</v>
       </c>
       <c r="M75">
         <f t="shared" si="11"/>
-        <v>6.342816</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O75">
         <f t="shared" si="12"/>
-        <v>6.342816</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q75">
         <f t="shared" si="15"/>
-        <v>0.64740923713459664</v>
+        <v>4.8577695265562069E-2</v>
       </c>
       <c r="S75">
         <f t="shared" si="16"/>
-        <v>7.1474334476946151</v>
+        <v>7.598112517120164</v>
       </c>
       <c r="T75">
         <f t="shared" si="17"/>
-        <v>6.342816</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
@@ -8286,41 +9466,41 @@
         <v>31</v>
       </c>
       <c r="E76">
-        <v>5.3825690000000002</v>
+        <v>4.9031570000000002</v>
       </c>
       <c r="F76">
-        <v>6.5873419999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G76">
-        <v>5.7783550000000004</v>
+        <v>5.9064589999999999</v>
       </c>
       <c r="J76">
         <f t="shared" si="13"/>
-        <v>4.426050839437103</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L76">
         <f t="shared" si="14"/>
-        <v>5.7783550000000004</v>
+        <v>5.9064589999999999</v>
       </c>
       <c r="M76">
         <f t="shared" si="11"/>
-        <v>6.5873419999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O76">
         <f t="shared" si="12"/>
-        <v>6.5873419999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q76">
         <f t="shared" si="15"/>
-        <v>0.24559918997079613</v>
+        <v>0.32105388981340799</v>
       </c>
       <c r="S76">
         <f t="shared" si="16"/>
-        <v>7.0829216504809249</v>
+        <v>7.2518998249631341</v>
       </c>
       <c r="T76">
         <f t="shared" si="17"/>
-        <v>6.5873419999999996</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -8337,41 +9517,41 @@
         <v>30</v>
       </c>
       <c r="E77">
-        <v>8.0166889999999995</v>
+        <v>5.0990859999999998</v>
       </c>
       <c r="F77">
-        <v>8.4011800000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G77">
-        <v>10.707145000000001</v>
+        <v>10.316674000000001</v>
       </c>
       <c r="J77">
         <f t="shared" si="13"/>
-        <v>8.4088491690025066E-2</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L77">
         <f t="shared" si="14"/>
-        <v>10.707145000000001</v>
+        <v>10.316674000000001</v>
       </c>
       <c r="M77">
         <f t="shared" si="11"/>
-        <v>8.4011800000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O77">
         <f t="shared" si="12"/>
-        <v>8.4011800000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q77">
         <f t="shared" si="15"/>
-        <v>0.88456626509129588</v>
+        <v>5.5395591739933021</v>
       </c>
       <c r="S77">
         <f t="shared" si="16"/>
-        <v>9.3416938303562027</v>
+        <v>10.172142812813217</v>
       </c>
       <c r="T77">
         <f t="shared" si="17"/>
-        <v>8.4011800000000001</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -8388,41 +9568,41 @@
         <v>31</v>
       </c>
       <c r="E78">
-        <v>9.3692679999999999</v>
+        <v>5.3932630000000001</v>
       </c>
       <c r="F78">
-        <v>9.935651</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G78">
-        <v>12.463025999999999</v>
+        <v>12.104846999999999</v>
       </c>
       <c r="J78">
         <f t="shared" si="13"/>
-        <v>1.5487574572968197</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L78">
         <f t="shared" si="14"/>
-        <v>12.463025999999999</v>
+        <v>12.104846999999999</v>
       </c>
       <c r="M78">
         <f t="shared" si="11"/>
-        <v>9.935651</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O78">
         <f t="shared" si="12"/>
-        <v>9.935651</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q78">
         <f t="shared" si="15"/>
-        <v>4.4407225173956892E-2</v>
+        <v>12.515132515221703</v>
       </c>
       <c r="S78">
         <f t="shared" si="16"/>
-        <v>10.146381218938711</v>
+        <v>11.356189319460363</v>
       </c>
       <c r="T78">
         <f t="shared" si="17"/>
-        <v>9.935651</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -8439,41 +9619,41 @@
         <v>30</v>
       </c>
       <c r="E79">
-        <v>10.616182999999999</v>
+        <v>5.5992509999999998</v>
       </c>
       <c r="F79">
-        <v>11.818369000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G79">
-        <v>14.890748</v>
+        <v>14.186674</v>
       </c>
       <c r="J79">
         <f t="shared" si="13"/>
-        <v>9.7794351451893018</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L79">
         <f t="shared" si="14"/>
-        <v>14.890748</v>
+        <v>14.186674</v>
       </c>
       <c r="M79">
         <f t="shared" si="11"/>
-        <v>11.818369000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O79">
         <f t="shared" si="12"/>
-        <v>11.818369000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q79">
         <f t="shared" si="15"/>
-        <v>0.31293757946029188</v>
+        <v>24.168669415701029</v>
       </c>
       <c r="S79">
         <f t="shared" si="16"/>
-        <v>11.258960759570623</v>
+        <v>12.734680095684869</v>
       </c>
       <c r="T79">
         <f t="shared" si="17"/>
-        <v>11.818369000000001</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
@@ -8490,41 +9670,41 @@
         <v>31</v>
       </c>
       <c r="E80">
-        <v>11.944646000000001</v>
+        <v>6.1404399999999999</v>
       </c>
       <c r="F80">
-        <v>13.30447</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G80">
-        <v>16.411196</v>
+        <v>15.374203</v>
       </c>
       <c r="J80">
         <f t="shared" si="13"/>
-        <v>21.282627703761687</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L80">
         <f t="shared" si="14"/>
-        <v>16.411196</v>
+        <v>15.374203</v>
       </c>
       <c r="M80">
         <f t="shared" si="11"/>
-        <v>13.30447</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O80">
         <f t="shared" si="12"/>
-        <v>13.30447</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q80">
         <f t="shared" si="15"/>
-        <v>1.8190358951384806</v>
+        <v>32.518410139492808</v>
       </c>
       <c r="S80">
         <f t="shared" si="16"/>
-        <v>11.955753612044964</v>
+        <v>13.521007572943603</v>
       </c>
       <c r="T80">
         <f t="shared" si="17"/>
-        <v>13.30447</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.3">
@@ -8541,41 +9721,41 @@
         <v>31</v>
       </c>
       <c r="E81">
-        <v>13.071818</v>
+        <v>6.1988820000000002</v>
       </c>
       <c r="F81">
-        <v>13.42826</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G81">
-        <v>18.256184000000001</v>
+        <v>17.217752000000001</v>
       </c>
       <c r="J81">
         <f t="shared" si="13"/>
-        <v>22.44011491869076</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L81">
         <f t="shared" si="14"/>
-        <v>18.256184000000001</v>
+        <v>17.217752000000001</v>
       </c>
       <c r="M81">
         <f t="shared" si="11"/>
-        <v>13.42826</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O81">
         <f t="shared" si="12"/>
-        <v>13.42826</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q81">
         <f t="shared" si="15"/>
-        <v>0.39310759393397759</v>
+        <v>47.930774923299097</v>
       </c>
       <c r="S81">
         <f t="shared" si="16"/>
-        <v>12.801277070460465</v>
+        <v>14.741721538137597</v>
       </c>
       <c r="T81">
         <f t="shared" si="17"/>
-        <v>13.42826</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.3">
@@ -8592,41 +9772,41 @@
         <v>30</v>
       </c>
       <c r="E82">
-        <v>10.615712</v>
+        <v>5.1925400000000002</v>
       </c>
       <c r="F82">
-        <v>12.032812</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G82">
-        <v>13.105838</v>
+        <v>12.796675</v>
       </c>
       <c r="J82">
         <f t="shared" si="13"/>
-        <v>11.166637037102465</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L82">
         <f t="shared" si="14"/>
-        <v>13.105838</v>
+        <v>12.796675</v>
       </c>
       <c r="M82">
         <f t="shared" si="11"/>
-        <v>12.032812</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O82">
         <f t="shared" si="12"/>
-        <v>12.032812</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q82">
         <f t="shared" si="15"/>
-        <v>2.533961195653279</v>
+        <v>15.966179730017021</v>
       </c>
       <c r="S82">
         <f t="shared" si="16"/>
-        <v>10.440969923770929</v>
+        <v>11.814286229882722</v>
       </c>
       <c r="T82">
         <f t="shared" si="17"/>
-        <v>12.032812</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -8643,41 +9823,41 @@
         <v>31</v>
       </c>
       <c r="E83">
-        <v>8.3828270000000007</v>
+        <v>4.9112799999999996</v>
       </c>
       <c r="F83">
-        <v>9.9867939999999997</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G83">
-        <v>8.7998440000000002</v>
+        <v>8.8564589999999992</v>
       </c>
       <c r="J83">
         <f t="shared" si="13"/>
-        <v>1.6786670540712447</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L83">
         <f t="shared" si="14"/>
-        <v>8.7998440000000002</v>
+        <v>8.8564589999999992</v>
       </c>
       <c r="M83">
         <f t="shared" si="11"/>
-        <v>9.9867939999999997</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O83">
         <f t="shared" si="12"/>
-        <v>9.9867939999999997</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q83">
         <f t="shared" si="15"/>
-        <v>2.3079094199320629</v>
+        <v>1.9230453816914888</v>
       </c>
       <c r="S83">
         <f t="shared" si="16"/>
-        <v>8.4676134906687146</v>
+        <v>9.2052551181081927</v>
       </c>
       <c r="T83">
         <f t="shared" si="17"/>
-        <v>9.9867939999999997</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -8694,41 +9874,41 @@
         <v>30</v>
       </c>
       <c r="E84">
-        <v>7.0832819999999996</v>
+        <v>4.8651970000000002</v>
       </c>
       <c r="F84">
-        <v>8.4069409999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G84">
-        <v>7.1329669999999998</v>
+        <v>7.7400070000000003</v>
       </c>
       <c r="J84">
         <f t="shared" si="13"/>
-        <v>8.0780529437377097E-2</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L84">
         <f t="shared" si="14"/>
-        <v>7.1329669999999998</v>
+        <v>7.7400070000000003</v>
       </c>
       <c r="M84">
         <f t="shared" si="11"/>
-        <v>8.4069409999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O84">
         <f t="shared" si="12"/>
-        <v>8.4069409999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q84">
         <f t="shared" si="15"/>
-        <v>0.49452685074975433</v>
+        <v>0.41922463269998661</v>
       </c>
       <c r="S84">
         <f t="shared" si="16"/>
-        <v>7.703714968947569</v>
+        <v>8.4659915846361979</v>
       </c>
       <c r="T84">
         <f t="shared" si="17"/>
-        <v>8.4069409999999998</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -8745,41 +9925,41 @@
         <v>31</v>
       </c>
       <c r="E85">
-        <v>3.4949620000000001</v>
+        <v>4.4158340000000003</v>
       </c>
       <c r="F85">
-        <v>5.5496970000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G85">
-        <v>-0.42491800000000002</v>
+        <v>0.25323299999999999</v>
       </c>
       <c r="J85">
         <f t="shared" si="13"/>
-        <v>9.8687907693481201</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L85">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.25323299999999999</v>
       </c>
       <c r="M85">
         <f t="shared" si="11"/>
-        <v>5.5496970000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O85">
         <f t="shared" si="12"/>
-        <v>5.5496970000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q85">
         <f t="shared" si="15"/>
-        <v>1.2429736098318838</v>
+        <v>18.575447360122531</v>
       </c>
       <c r="S85">
         <f t="shared" si="16"/>
-        <v>4.4348097367164501</v>
+        <v>3.5085917129477857</v>
       </c>
       <c r="T85">
         <f t="shared" si="17"/>
-        <v>5.5496970000000001</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -8796,41 +9976,41 @@
         <v>31</v>
       </c>
       <c r="E86">
-        <v>3.233365</v>
+        <v>4.3288349999999998</v>
       </c>
       <c r="F86">
-        <v>4.2770169999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G86">
-        <v>-0.44098999999999999</v>
+        <v>0.887104</v>
       </c>
       <c r="J86">
         <f t="shared" si="13"/>
-        <v>19.484659814086644</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L86">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.887104</v>
       </c>
       <c r="M86">
         <f t="shared" si="11"/>
-        <v>4.2770169999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O86">
         <f t="shared" si="12"/>
-        <v>4.2770169999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q86">
         <f t="shared" si="15"/>
-        <v>2.4898547760466978E-2</v>
+        <v>15.133686037499718</v>
       </c>
       <c r="S86">
         <f t="shared" si="16"/>
-        <v>4.4348097367164501</v>
+        <v>3.9283121444803797</v>
       </c>
       <c r="T86">
         <f t="shared" si="17"/>
-        <v>4.2770169999999998</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
@@ -8847,41 +10027,41 @@
         <v>28</v>
       </c>
       <c r="E87">
-        <v>4.4049040000000002</v>
+        <v>4.7131800000000004</v>
       </c>
       <c r="F87">
-        <v>5.5488460000000002</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G87">
-        <v>2.4979849999999999</v>
+        <v>3.4660790000000001</v>
       </c>
       <c r="J87">
         <f t="shared" si="13"/>
-        <v>9.8741382638430277</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L87">
         <f t="shared" si="14"/>
-        <v>2.4979849999999999</v>
+        <v>3.4660790000000001</v>
       </c>
       <c r="M87">
         <f t="shared" si="11"/>
-        <v>5.5488460000000002</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O87">
         <f t="shared" si="12"/>
-        <v>5.5488460000000002</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q87">
         <f t="shared" si="15"/>
-        <v>9.4516247128413557E-4</v>
+        <v>4.7634126480522747</v>
       </c>
       <c r="S87">
         <f t="shared" si="16"/>
-        <v>5.5795894947799392</v>
+        <v>5.6359916248664081</v>
       </c>
       <c r="T87">
         <f t="shared" si="17"/>
-        <v>5.5488460000000002</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
@@ -8898,41 +10078,41 @@
         <v>31</v>
       </c>
       <c r="E88">
-        <v>4.9875100000000003</v>
+        <v>4.9068659999999999</v>
       </c>
       <c r="F88">
-        <v>6.0741759999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G88">
-        <v>5.1899680000000004</v>
+        <v>5.6064590000000001</v>
       </c>
       <c r="J88">
         <f t="shared" si="13"/>
-        <v>6.8486060801213631</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L88">
         <f t="shared" si="14"/>
-        <v>5.1899680000000004</v>
+        <v>5.6064590000000001</v>
       </c>
       <c r="M88">
         <f t="shared" si="11"/>
-        <v>6.0741759999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O88">
         <f t="shared" si="12"/>
-        <v>6.0741759999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q88">
         <f t="shared" si="15"/>
-        <v>0.54626719019014691</v>
+        <v>0.58562665722671148</v>
       </c>
       <c r="S88">
         <f t="shared" si="16"/>
-        <v>6.813274904200342</v>
+        <v>7.0532535239653313</v>
       </c>
       <c r="T88">
         <f t="shared" si="17"/>
-        <v>6.0741759999999996</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
@@ -8949,41 +10129,41 @@
         <v>30</v>
       </c>
       <c r="E89">
-        <v>5.6224129999999999</v>
+        <v>4.9396709999999997</v>
       </c>
       <c r="F89">
-        <v>7.1115269999999997</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G89">
-        <v>6.465541</v>
+        <v>6.396674</v>
       </c>
       <c r="J89">
         <f t="shared" si="13"/>
-        <v>2.4952409119808978</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L89">
         <f t="shared" si="14"/>
-        <v>6.465541</v>
+        <v>6.396674</v>
       </c>
       <c r="M89">
         <f t="shared" si="11"/>
-        <v>7.1115269999999997</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O89">
         <f t="shared" si="12"/>
-        <v>7.1115269999999997</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q89">
         <f t="shared" si="15"/>
-        <v>8.197864348257497E-2</v>
+        <v>5.8572802786204047E-2</v>
       </c>
       <c r="S89">
         <f t="shared" si="16"/>
-        <v>7.3978461287402482</v>
+        <v>7.5764978131085927</v>
       </c>
       <c r="T89">
         <f t="shared" si="17"/>
-        <v>7.1115269999999997</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
@@ -9000,41 +10180,41 @@
         <v>31</v>
       </c>
       <c r="E90">
-        <v>8.3056780000000003</v>
+        <v>5.2581749999999996</v>
       </c>
       <c r="F90">
-        <v>8.7900189999999991</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G90">
-        <v>11.725059</v>
+        <v>11.858074</v>
       </c>
       <c r="J90">
         <f t="shared" si="13"/>
-        <v>9.773070758746713E-3</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L90">
         <f t="shared" si="14"/>
-        <v>11.725059</v>
+        <v>11.858074</v>
       </c>
       <c r="M90">
         <f t="shared" si="11"/>
-        <v>8.7900189999999991</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O90">
         <f t="shared" si="12"/>
-        <v>8.7900189999999991</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q90">
         <f t="shared" si="15"/>
-        <v>1.0366615130129437</v>
+        <v>11.385708205246056</v>
       </c>
       <c r="S90">
         <f t="shared" si="16"/>
-        <v>9.8081847591045488</v>
+        <v>11.192787507339926</v>
       </c>
       <c r="T90">
         <f t="shared" si="17"/>
-        <v>8.7900189999999991</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9051,41 +10231,41 @@
         <v>30</v>
       </c>
       <c r="E91">
-        <v>10.159817</v>
+        <v>5.5181760000000004</v>
       </c>
       <c r="F91">
-        <v>10.85993</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G91">
-        <v>14.691319</v>
+        <v>14.351675</v>
       </c>
       <c r="J91">
         <f t="shared" si="13"/>
-        <v>4.703562630139098</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L91">
         <f t="shared" si="14"/>
-        <v>14.691319</v>
+        <v>14.351675</v>
       </c>
       <c r="M91">
         <f t="shared" si="11"/>
-        <v>10.85993</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O91">
         <f t="shared" si="12"/>
-        <v>10.85993</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q91">
         <f t="shared" si="15"/>
-        <v>9.4640020840541642E-2</v>
+        <v>25.254848421637089</v>
       </c>
       <c r="S91">
         <f t="shared" si="16"/>
-        <v>11.167566182593241</v>
+        <v>12.843936223387999</v>
       </c>
       <c r="T91">
         <f t="shared" si="17"/>
-        <v>10.85993</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
@@ -9102,41 +10282,41 @@
         <v>31</v>
       </c>
       <c r="E92">
-        <v>12.437967</v>
+        <v>6.0412210000000002</v>
       </c>
       <c r="F92">
-        <v>12.943749</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G92">
-        <v>17.952746999999999</v>
+        <v>17.169363000000001</v>
       </c>
       <c r="J92">
         <f t="shared" si="13"/>
-        <v>18.084511864143003</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L92">
         <f t="shared" si="14"/>
-        <v>17.952746999999999</v>
+        <v>17.169363000000001</v>
       </c>
       <c r="M92">
         <f t="shared" si="11"/>
-        <v>12.943749</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O92">
         <f t="shared" si="12"/>
-        <v>12.943749</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q92">
         <f t="shared" si="15"/>
-        <v>7.9259943641148953E-2</v>
+        <v>47.488148881928034</v>
       </c>
       <c r="S92">
         <f t="shared" si="16"/>
-        <v>12.662217574327574</v>
+        <v>14.709680551940988</v>
       </c>
       <c r="T92">
         <f t="shared" si="17"/>
-        <v>12.943749</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
@@ -9153,41 +10333,41 @@
         <v>31</v>
       </c>
       <c r="E93">
-        <v>13.552636</v>
+        <v>5.8989459999999996</v>
       </c>
       <c r="F93">
-        <v>12.343012</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G93">
-        <v>20.004396</v>
+        <v>19.233879000000002</v>
       </c>
       <c r="J93">
         <f t="shared" si="13"/>
-        <v>13.336021880246909</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L93">
         <f t="shared" si="14"/>
-        <v>20.004396</v>
+        <v>19.233879000000002</v>
       </c>
       <c r="M93">
         <f t="shared" si="11"/>
-        <v>12.343012</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O93">
         <f t="shared" si="12"/>
-        <v>12.343012</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q93">
         <f t="shared" si="15"/>
-        <v>1.5861838237611552</v>
+        <v>68.197747899872311</v>
       </c>
       <c r="S93">
         <f t="shared" si="16"/>
-        <v>13.602449899922483</v>
+        <v>16.076708774443588</v>
       </c>
       <c r="T93">
         <f t="shared" si="17"/>
-        <v>12.343012</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
@@ -9204,41 +10384,41 @@
         <v>30</v>
       </c>
       <c r="E94">
-        <v>11.792222000000001</v>
+        <v>5.2912530000000002</v>
       </c>
       <c r="F94">
-        <v>10.551356</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G94">
-        <v>15.626723999999999</v>
+        <v>15.403340999999999</v>
       </c>
       <c r="J94">
         <f t="shared" si="13"/>
-        <v>3.460328572798764</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L94">
         <f t="shared" si="14"/>
-        <v>15.626723999999999</v>
+        <v>15.403340999999999</v>
       </c>
       <c r="M94">
         <f t="shared" si="11"/>
-        <v>10.551356</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O94">
         <f t="shared" si="12"/>
-        <v>10.551356</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q94">
         <f t="shared" si="15"/>
-        <v>1.0917925654546483</v>
+        <v>32.738828461245312</v>
       </c>
       <c r="S94">
         <f t="shared" si="16"/>
-        <v>11.596244781380415</v>
+        <v>13.540301426005183</v>
       </c>
       <c r="T94">
         <f t="shared" si="17"/>
-        <v>10.551356</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
@@ -9255,41 +10435,41 @@
         <v>31</v>
       </c>
       <c r="E95">
-        <v>9.1893139999999995</v>
+        <v>4.9147080000000001</v>
       </c>
       <c r="F95">
-        <v>9.1225149999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G95">
-        <v>9.0640540000000005</v>
+        <v>9.5322659999999999</v>
       </c>
       <c r="J95">
         <f t="shared" si="13"/>
-        <v>0.18606700022807976</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L95">
         <f t="shared" si="14"/>
-        <v>9.0640540000000005</v>
+        <v>9.5322659999999999</v>
       </c>
       <c r="M95">
         <f t="shared" si="11"/>
-        <v>9.1225149999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O95">
         <f t="shared" si="12"/>
-        <v>9.1225149999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q95">
         <f t="shared" si="15"/>
-        <v>0.28496273852068771</v>
+        <v>3.3643910863422644</v>
       </c>
       <c r="S95">
         <f t="shared" si="16"/>
-        <v>8.588695987112029</v>
+        <v>9.6527436539029345</v>
       </c>
       <c r="T95">
         <f t="shared" si="17"/>
-        <v>9.1225149999999999</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
@@ -9306,41 +10486,41 @@
         <v>30</v>
       </c>
       <c r="E96">
-        <v>6.1647160000000003</v>
+        <v>4.840541</v>
       </c>
       <c r="F96">
-        <v>7.2800349999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G96">
-        <v>4.8929239999999998</v>
+        <v>5.7183400000000004</v>
       </c>
       <c r="J96">
         <f t="shared" si="13"/>
-        <v>1.9912742098680825</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L96">
         <f t="shared" si="14"/>
-        <v>4.8929239999999998</v>
+        <v>5.7183400000000004</v>
       </c>
       <c r="M96">
         <f t="shared" si="11"/>
-        <v>7.2800349999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O96">
         <f t="shared" si="12"/>
-        <v>7.2800349999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q96">
         <f t="shared" si="15"/>
-        <v>0.36347611060968249</v>
+        <v>0.47772977400754124</v>
       </c>
       <c r="S96">
         <f t="shared" si="16"/>
-        <v>6.6771452002772955</v>
+        <v>7.1273360133051149</v>
       </c>
       <c r="T96">
         <f t="shared" si="17"/>
-        <v>7.2800349999999998</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
@@ -9357,41 +10537,41 @@
         <v>31</v>
       </c>
       <c r="E97">
-        <v>4.3290059999999997</v>
+        <v>4.6288900000000002</v>
       </c>
       <c r="F97">
-        <v>5.2787300000000004</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G97">
-        <v>1.8940410000000001</v>
+        <v>3.6145230000000002</v>
       </c>
       <c r="J97">
         <f t="shared" si="13"/>
-        <v>11.644679579183546</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L97">
         <f t="shared" si="14"/>
-        <v>1.8940410000000001</v>
+        <v>3.6145230000000002</v>
       </c>
       <c r="M97">
         <f t="shared" ref="M97:M109" si="18">F97</f>
-        <v>5.2787300000000004</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O97">
         <f t="shared" ref="O97:O109" si="19">F97</f>
-        <v>5.2787300000000004</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q97">
         <f t="shared" si="15"/>
-        <v>5.8000373294509269E-4</v>
+        <v>4.344021098918879</v>
       </c>
       <c r="S97">
         <f t="shared" si="16"/>
-        <v>5.3028132666585144</v>
+        <v>5.7342844632174668</v>
       </c>
       <c r="T97">
         <f t="shared" si="17"/>
-        <v>5.2787300000000004</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.3">
@@ -9408,41 +10588,41 @@
         <v>31</v>
       </c>
       <c r="E98">
-        <v>4.6256769999999996</v>
+        <v>4.8581019999999997</v>
       </c>
       <c r="F98">
-        <v>6.1034769999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G98">
-        <v>4.2493259999999999</v>
+        <v>5.2161359999999997</v>
       </c>
       <c r="J98">
         <f t="shared" ref="J98:J109" si="20">(F98-F$110)^2</f>
-        <v>6.6961041231299729</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L98">
         <f t="shared" ref="L98:L109" si="21">MAX(G98,0)</f>
-        <v>4.2493259999999999</v>
+        <v>5.2161359999999997</v>
       </c>
       <c r="M98">
         <f t="shared" si="18"/>
-        <v>6.1034769999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O98">
         <f t="shared" si="19"/>
-        <v>6.1034769999999998</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q98">
         <f t="shared" si="15"/>
-        <v>7.7684440589373932E-2</v>
+        <v>1.0479955607856386</v>
       </c>
       <c r="S98">
         <f t="shared" si="16"/>
-        <v>6.382196286360621</v>
+        <v>6.7947994568174455</v>
       </c>
       <c r="T98">
         <f t="shared" si="17"/>
-        <v>6.1034769999999998</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
@@ -9459,13 +10639,13 @@
         <v>28</v>
       </c>
       <c r="E99">
-        <v>4.2938900000000002</v>
+        <v>4.5165660000000001</v>
       </c>
       <c r="F99">
-        <v>5.3785959999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G99">
-        <v>2.2600560000000001</v>
+        <v>3.0750069999999998</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>5</v>
@@ -9475,31 +10655,31 @@
       </c>
       <c r="J99">
         <f t="shared" si="20"/>
-        <v>10.973081296940251</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L99">
         <f t="shared" si="21"/>
-        <v>2.2600560000000001</v>
+        <v>3.0750069999999998</v>
       </c>
       <c r="M99">
         <f t="shared" si="18"/>
-        <v>5.3785959999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O99">
         <f t="shared" si="19"/>
-        <v>5.3785959999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q99">
         <f t="shared" si="15"/>
-        <v>8.4557383198098322E-3</v>
+        <v>5.9607972257358295</v>
       </c>
       <c r="S99">
         <f t="shared" si="16"/>
-        <v>5.4705510886020443</v>
+        <v>5.3770416041203646</v>
       </c>
       <c r="T99">
         <f t="shared" si="17"/>
-        <v>5.3785959999999999</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
@@ -9516,13 +10696,13 @@
         <v>31</v>
       </c>
       <c r="E100">
-        <v>4.909389</v>
+        <v>4.8876239999999997</v>
       </c>
       <c r="F100">
-        <v>6.0071289999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G100">
-        <v>4.4712399999999999</v>
+        <v>4.9403300000000003</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>6</v>
@@ -9532,31 +10712,31 @@
       </c>
       <c r="J100">
         <f t="shared" si="20"/>
-        <v>7.2040232539337508</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L100">
         <f t="shared" si="21"/>
-        <v>4.4712399999999999</v>
+        <v>4.9403300000000003</v>
       </c>
       <c r="M100">
         <f t="shared" si="18"/>
-        <v>6.0071289999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O100">
         <f t="shared" si="19"/>
-        <v>6.0071289999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q100">
         <f t="shared" si="15"/>
-        <v>0.22730612185758686</v>
+        <v>1.4552626667991009</v>
       </c>
       <c r="S100">
         <f t="shared" si="16"/>
-        <v>6.4838953178723795</v>
+        <v>6.6121733178407798</v>
       </c>
       <c r="T100">
         <f t="shared" si="17"/>
-        <v>6.0071289999999999</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="101" spans="1:20" x14ac:dyDescent="0.3">
@@ -9573,48 +10753,48 @@
         <v>30</v>
       </c>
       <c r="E101">
-        <v>6.2350029999999999</v>
+        <v>4.9721200000000003</v>
       </c>
       <c r="F101">
-        <v>7.1868619999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G101">
-        <v>7.5870920000000002</v>
+        <v>7.773339</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I101">
         <f>(1/12)*SQRT(SUM(J2:J109))</f>
-        <v>2.3772470311359424</v>
+        <v>4.0002109648021094</v>
       </c>
       <c r="J101">
         <f t="shared" si="20"/>
-        <v>2.2629129463793238</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L101">
         <f t="shared" si="21"/>
-        <v>7.5870920000000002</v>
+        <v>7.773339</v>
       </c>
       <c r="M101">
         <f t="shared" si="18"/>
-        <v>7.1868619999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O101">
         <f t="shared" si="19"/>
-        <v>7.1868619999999996</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q101">
         <f t="shared" si="15"/>
-        <v>0.52558143462322615</v>
+        <v>0.44829253305134775</v>
       </c>
       <c r="S101">
         <f t="shared" si="16"/>
-        <v>7.9118319542899869</v>
+        <v>8.4880625129857279</v>
       </c>
       <c r="T101">
         <f t="shared" si="17"/>
-        <v>7.1868619999999996</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
@@ -9631,48 +10811,48 @@
         <v>31</v>
       </c>
       <c r="E102">
-        <v>9.7746469999999999</v>
+        <v>5.6054440000000003</v>
       </c>
       <c r="F102">
-        <v>9.8519500000000004</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G102">
-        <v>13.027027</v>
+        <v>12.562911</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I102">
         <f>(1/12)*SQRT(SUM(Q2:Q109))</f>
-        <v>0.64488938403239382</v>
+        <v>2.6419838593390566</v>
       </c>
       <c r="J102">
         <f t="shared" si="20"/>
-        <v>1.3474330586661356</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L102">
         <f t="shared" si="21"/>
-        <v>13.027027</v>
+        <v>12.562911</v>
       </c>
       <c r="M102">
         <f t="shared" si="18"/>
-        <v>9.8519500000000004</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O102">
         <f t="shared" si="19"/>
-        <v>9.8519500000000004</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q102">
         <f t="shared" si="15"/>
-        <v>0.30570097322274736</v>
+        <v>14.753145670571563</v>
       </c>
       <c r="S102">
         <f t="shared" si="16"/>
-        <v>10.404852317975561</v>
+        <v>11.659498383527886</v>
       </c>
       <c r="T102">
         <f t="shared" si="17"/>
-        <v>9.8519500000000004</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.3">
@@ -9689,41 +10869,41 @@
         <v>30</v>
       </c>
       <c r="E103">
-        <v>10.268551</v>
+        <v>5.8832490000000002</v>
       </c>
       <c r="F103">
-        <v>10.823691</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G103">
-        <v>14.051970000000001</v>
+        <v>13.866673</v>
       </c>
       <c r="J103">
         <f t="shared" si="20"/>
-        <v>4.5476877946086711</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L103">
         <f t="shared" si="21"/>
-        <v>14.051970000000001</v>
+        <v>13.866673</v>
       </c>
       <c r="M103">
         <f t="shared" si="18"/>
-        <v>10.823691</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O103">
         <f t="shared" si="19"/>
-        <v>10.823691</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q103">
         <f t="shared" si="15"/>
-        <v>2.5881135950805525E-3</v>
+        <v>22.13019429798323</v>
       </c>
       <c r="S103">
         <f t="shared" si="16"/>
-        <v>10.874564505826516</v>
+        <v>12.522790045799546</v>
       </c>
       <c r="T103">
         <f t="shared" si="17"/>
-        <v>10.823691</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
@@ -9740,41 +10920,41 @@
         <v>31</v>
       </c>
       <c r="E104">
-        <v>13.019124</v>
+        <v>6.4705450000000004</v>
       </c>
       <c r="F104">
-        <v>13.000705999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G104">
-        <v>19.292292</v>
+        <v>18.691942000000001</v>
       </c>
       <c r="J104">
         <f t="shared" si="20"/>
-        <v>18.572185369407087</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L104">
         <f t="shared" si="21"/>
-        <v>19.292292</v>
+        <v>18.691942000000001</v>
       </c>
       <c r="M104">
         <f t="shared" si="18"/>
-        <v>13.000705999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O104">
         <f t="shared" si="19"/>
-        <v>13.000705999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q104">
         <f t="shared" si="15"/>
-        <v>7.5845142803785473E-2</v>
+        <v>62.399680493837806</v>
       </c>
       <c r="S104">
         <f t="shared" si="16"/>
-        <v>13.276105968779564</v>
+        <v>15.717862839697432</v>
       </c>
       <c r="T104">
         <f t="shared" si="17"/>
-        <v>13.000705999999999</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
@@ -9791,41 +10971,41 @@
         <v>31</v>
       </c>
       <c r="E105">
-        <v>13.343462000000001</v>
+        <v>6.2128389999999998</v>
       </c>
       <c r="F105">
-        <v>14.031585</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G105">
-        <v>18.335381000000002</v>
+        <v>17.814523999999999</v>
       </c>
       <c r="J105">
         <f t="shared" si="20"/>
-        <v>28.520137499380109</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L105">
         <f t="shared" si="21"/>
-        <v>18.335381000000002</v>
+        <v>17.814523999999999</v>
       </c>
       <c r="M105">
         <f t="shared" si="18"/>
-        <v>14.031585</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O105">
         <f t="shared" si="19"/>
-        <v>14.031585</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q105">
         <f t="shared" si="15"/>
-        <v>1.4256680642643673</v>
+        <v>53.558403422165611</v>
       </c>
       <c r="S105">
         <f t="shared" si="16"/>
-        <v>12.837571572829113</v>
+        <v>15.136876705934466</v>
       </c>
       <c r="T105">
         <f t="shared" si="17"/>
-        <v>14.031585</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
@@ -9842,41 +11022,41 @@
         <v>30</v>
       </c>
       <c r="E106">
-        <v>10.767687</v>
+        <v>5.1522819999999996</v>
       </c>
       <c r="F106">
-        <v>10.90118</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G106">
-        <v>13.557492</v>
+        <v>13.290008</v>
       </c>
       <c r="J106">
         <f t="shared" si="20"/>
-        <v>4.8841877046529856</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L106">
         <f t="shared" si="21"/>
-        <v>13.557492</v>
+        <v>13.290008</v>
       </c>
       <c r="M106">
         <f t="shared" si="18"/>
-        <v>10.90118</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O106">
         <f t="shared" si="19"/>
-        <v>10.90118</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q106">
         <f t="shared" si="15"/>
-        <v>6.4123155837782303E-2</v>
+        <v>18.683425442349051</v>
       </c>
       <c r="S106">
         <f t="shared" si="16"/>
-        <v>10.647954496075569</v>
+        <v>12.140948815249885</v>
       </c>
       <c r="T106">
         <f t="shared" si="17"/>
-        <v>10.90118</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
@@ -9893,41 +11073,41 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>9.2332090000000004</v>
+        <v>4.8231349999999997</v>
       </c>
       <c r="F107">
-        <v>8.9403500000000005</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G107">
-        <v>10.274711</v>
+        <v>10.611299000000001</v>
       </c>
       <c r="J107">
         <f t="shared" si="20"/>
-        <v>6.209557765132101E-2</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L107">
         <f t="shared" si="21"/>
-        <v>10.274711</v>
+        <v>10.611299000000001</v>
       </c>
       <c r="M107">
         <f t="shared" si="18"/>
-        <v>8.9403500000000005</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O107">
         <f t="shared" si="19"/>
-        <v>8.9403500000000005</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q107">
         <f t="shared" si="15"/>
-        <v>4.1277002261539776E-2</v>
+        <v>6.4959432283904235</v>
       </c>
       <c r="S107">
         <f t="shared" si="16"/>
-        <v>9.1435174242134796</v>
+        <v>10.367230034251474</v>
       </c>
       <c r="T107">
         <f t="shared" si="17"/>
-        <v>8.9403500000000005</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
@@ -9944,41 +11124,41 @@
         <v>30</v>
       </c>
       <c r="E108">
-        <v>7.5850819999999999</v>
+        <v>4.8058449999999997</v>
       </c>
       <c r="F108">
-        <v>7.1636199999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G108">
-        <v>5.4650400000000001</v>
+        <v>6.4550080000000003</v>
       </c>
       <c r="J108">
         <f t="shared" si="20"/>
-        <v>2.3333789324922494</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L108">
         <f t="shared" si="21"/>
-        <v>5.4650400000000001</v>
+        <v>6.4550080000000003</v>
       </c>
       <c r="M108">
         <f t="shared" si="18"/>
-        <v>7.1636199999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O108">
         <f t="shared" si="19"/>
-        <v>7.1636199999999999</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q108">
         <f t="shared" si="15"/>
-        <v>5.0303648237192307E-2</v>
+        <v>4.1368336505034388E-2</v>
       </c>
       <c r="S108">
         <f t="shared" si="16"/>
-        <v>6.9393352518845912</v>
+        <v>7.6151239241832798</v>
       </c>
       <c r="T108">
         <f t="shared" si="17"/>
-        <v>7.1636199999999999</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.3">
@@ -9995,41 +11175,41 @@
         <v>31</v>
       </c>
       <c r="E109">
-        <v>4.5440740000000002</v>
+        <v>4.6515129999999996</v>
       </c>
       <c r="F109">
-        <v>5.9061490000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="G109">
-        <v>2.5138760000000002</v>
+        <v>3.2483930000000001</v>
       </c>
       <c r="J109">
         <f t="shared" si="20"/>
-        <v>7.75628714688375</v>
+        <v>3.7539379317798591</v>
       </c>
       <c r="L109">
         <f t="shared" si="21"/>
-        <v>2.5138760000000002</v>
+        <v>3.2483930000000001</v>
       </c>
       <c r="M109">
         <f t="shared" si="18"/>
-        <v>5.9061490000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="O109">
         <f t="shared" si="19"/>
-        <v>5.9061490000000001</v>
+        <v>7.8185159999999998</v>
       </c>
       <c r="Q109">
         <f t="shared" si="15"/>
-        <v>0.10193777554728342</v>
+        <v>5.4133751597985773</v>
       </c>
       <c r="S109">
         <f t="shared" si="16"/>
-        <v>5.5868720425676113</v>
+        <v>5.4918498959363813</v>
       </c>
       <c r="T109">
         <f t="shared" si="17"/>
-        <v>5.9061490000000001</v>
+        <v>7.8185159999999998</v>
       </c>
     </row>
     <row r="110" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -10038,44 +11218,44 @@
       </c>
       <c r="E110" s="5">
         <f>AVERAGE(E2:E109)</f>
-        <v>7.9603808888888929</v>
+        <v>5.1642947314814807</v>
       </c>
       <c r="F110" s="5">
         <f>AVERAGE(F2:F109)</f>
-        <v>8.691160157407408</v>
+        <v>9.7560241759259387</v>
       </c>
       <c r="G110" s="5">
         <f>AVERAGE(G2:G109)</f>
-        <v>9.2796199166666682</v>
+        <v>9.6882425092592594</v>
       </c>
       <c r="H110" s="6"/>
       <c r="J110" s="5">
         <f>AVERAGE(J2:J109)</f>
-        <v>7.5350712627262055</v>
+        <v>21.335583683897365</v>
       </c>
       <c r="L110" s="5">
         <f>AVERAGE(L2:L109)</f>
-        <v>9.2876375833333356</v>
+        <v>9.6882425092592594</v>
       </c>
       <c r="M110" s="5">
         <f>AVERAGE(M2:M109)</f>
-        <v>8.691160157407408</v>
+        <v>9.7560241759259387</v>
       </c>
       <c r="O110" s="5">
         <f>AVERAGE(O2:O109)</f>
-        <v>8.691160157407408</v>
+        <v>9.7560241759259387</v>
       </c>
       <c r="Q110" s="5">
         <f>AVERAGE(Q2:Q109)</f>
-        <v>0.55450975685024051</v>
+        <v>9.3067716173441291</v>
       </c>
       <c r="S110" s="5">
         <f>AVERAGE(S2:S109)</f>
-        <v>8.6911601574074062</v>
+        <v>9.7560241759259387</v>
       </c>
       <c r="T110" s="5">
         <f>AVERAGE(T2:T109)</f>
-        <v>8.691160157407408</v>
+        <v>9.7560241759259387</v>
       </c>
     </row>
   </sheetData>
